--- a/months/sep23/sep23.xlsx
+++ b/months/sep23/sep23.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="176">
   <si>
     <t xml:space="preserve">DATE</t>
   </si>
@@ -147,16 +147,31 @@
     <t xml:space="preserve">L1</t>
   </si>
   <si>
-    <t xml:space="preserve">22:15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20:42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E1</t>
+    <t xml:space="preserve">21:15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22:42</t>
   </si>
   <si>
     <t xml:space="preserve">2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21:-5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22:74</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22:60</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23:06</t>
   </si>
   <si>
     <t xml:space="preserve">Lh</t>
@@ -595,8 +610,8 @@
     <numFmt numFmtId="165" formatCode="[$-F800]dddd&quot;, &quot;mmmm\ dd&quot;, &quot;yyyy"/>
     <numFmt numFmtId="166" formatCode="d/m;@"/>
     <numFmt numFmtId="167" formatCode="@"/>
-    <numFmt numFmtId="168" formatCode="m/d/yyyy"/>
-    <numFmt numFmtId="169" formatCode="General"/>
+    <numFmt numFmtId="168" formatCode="General"/>
+    <numFmt numFmtId="169" formatCode="m/d/yyyy"/>
   </numFmts>
   <fonts count="8">
     <font>
@@ -798,7 +813,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="103">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -831,6 +846,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -855,7 +874,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="169" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -863,11 +882,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="169" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="169" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -891,11 +910,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="169" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="169" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1422,14 +1441,14 @@
   <dimension ref="A1:AN32"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="8" ySplit="1" topLeftCell="AD2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="AD1" activeCellId="0" sqref="AD1"/>
+      <selection pane="topRight" activeCell="I1" activeCellId="0" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C6" activeCellId="0" sqref="C6"/>
+      <selection pane="bottomRight" activeCell="J9" activeCellId="0" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="24"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="4.43"/>
@@ -1614,1767 +1633,1826 @@
         <f aca="false">price!AE1</f>
         <v>l:meals</v>
       </c>
-      <c r="AN1" s="6" t="str">
+      <c r="AN1" s="8" t="str">
         <f aca="false">IFERROR(IF(INDEX(#REF!,MATCH(AM1,#REF!,0)+1)=0,"",INDEX(#REF!,MATCH(AM1,#REF!,0)+1)), "")</f>
         <v/>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="8" t="n">
+      <c r="A2" s="9" t="n">
         <v>45170</v>
       </c>
-      <c r="B2" s="9" t="n">
+      <c r="B2" s="10" t="n">
         <f aca="false">IFERROR(WEEKDAY(A2,2),"")</f>
         <v>5</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="I2" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="J2" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="K2" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="9" t="s">
+      <c r="L2" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="9" t="s">
+      <c r="M2" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="N2" s="10" t="s">
+      <c r="N2" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="O2" s="9" t="s">
+      <c r="O2" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="P2" s="9" t="s">
+      <c r="P2" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="Q2" s="9" t="s">
+      <c r="Q2" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="R2" s="9" t="s">
+      <c r="R2" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="S2" s="9" t="s">
+      <c r="S2" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="T2" s="10" t="s">
+      <c r="T2" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="U2" s="10" t="s">
+      <c r="U2" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="V2" s="9" t="s">
+      <c r="V2" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="W2" s="9" t="s">
+      <c r="W2" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="X2" s="9" t="s">
+      <c r="X2" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="Y2" s="10" t="s">
+      <c r="Y2" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="Z2" s="9" t="s">
+      <c r="Z2" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="AA2" s="9" t="s">
+      <c r="AA2" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="AB2" s="9" t="s">
+      <c r="AB2" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="AC2" s="9" t="s">
+      <c r="AC2" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="AD2" s="9" t="s">
+      <c r="AD2" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="AE2" s="9" t="s">
+      <c r="AE2" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="AF2" s="9" t="s">
+      <c r="AF2" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="AG2" s="10" t="s">
+      <c r="AG2" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="AH2" s="9" t="s">
+      <c r="AH2" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="AI2" s="9" t="s">
+      <c r="AI2" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="AJ2" s="9" t="s">
+      <c r="AJ2" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="AK2" s="9" t="s">
+      <c r="AK2" s="10" t="s">
         <v>20</v>
       </c>
       <c r="AL2" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="8" t="n">
+    <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="9" t="n">
         <v>45171</v>
       </c>
-      <c r="B3" s="9" t="n">
+      <c r="B3" s="10" t="n">
         <f aca="false">IFERROR(WEEKDAY(A3,2),"")</f>
         <v>6</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="10" t="s">
+      <c r="I3" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="J3" s="9" t="s">
+      <c r="J3" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="9" t="s">
+      <c r="K3" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="L3" s="9" t="s">
+      <c r="L3" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="M3" s="9" t="s">
+      <c r="M3" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="N3" s="10" t="s">
+      <c r="N3" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="O3" s="9" t="s">
+      <c r="O3" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="P3" s="9" t="s">
+      <c r="P3" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="Q3" s="9" t="s">
+      <c r="Q3" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="R3" s="9" t="s">
+      <c r="R3" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="S3" s="9" t="s">
+      <c r="S3" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="T3" s="10" t="s">
+      <c r="T3" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="U3" s="10" t="s">
+      <c r="U3" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="V3" s="9" t="s">
+      <c r="V3" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="W3" s="9" t="s">
+      <c r="W3" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="X3" s="9" t="s">
+      <c r="X3" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="Y3" s="10" t="s">
+      <c r="Y3" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="Z3" s="9" t="s">
+      <c r="Z3" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="AA3" s="9" t="s">
+      <c r="AA3" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="AB3" s="9" t="s">
+      <c r="AB3" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="AC3" s="9" t="s">
+      <c r="AC3" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="AD3" s="9" t="s">
+      <c r="AD3" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="AE3" s="9" t="s">
+      <c r="AE3" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="AF3" s="9" t="s">
+      <c r="AF3" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="AG3" s="10" t="s">
+      <c r="AG3" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="AH3" s="9" t="s">
+      <c r="AH3" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="AI3" s="9" t="s">
+      <c r="AI3" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="AJ3" s="9" t="s">
+      <c r="AJ3" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="AK3" s="9" t="s">
+      <c r="AK3" s="10" t="s">
         <v>20</v>
       </c>
       <c r="AL3" s="0" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="8" t="n">
+    <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="9" t="n">
         <v>45172</v>
       </c>
-      <c r="B4" s="9" t="n">
+      <c r="B4" s="10" t="n">
         <f aca="false">IFERROR(WEEKDAY(A4,2),"")</f>
         <v>7</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="H4" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="10" t="s">
+      <c r="I4" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="J4" s="9" t="s">
+      <c r="J4" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="K4" s="9" t="s">
+      <c r="K4" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="L4" s="9" t="s">
+      <c r="L4" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="M4" s="9" t="s">
+      <c r="M4" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="N4" s="10" t="s">
+      <c r="N4" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="O4" s="9" t="s">
+      <c r="O4" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="P4" s="9" t="s">
+      <c r="P4" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="Q4" s="9" t="s">
+      <c r="Q4" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="R4" s="9" t="s">
+      <c r="R4" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="S4" s="9" t="s">
+      <c r="S4" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="T4" s="10" t="s">
+      <c r="T4" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="U4" s="10" t="s">
+      <c r="U4" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="V4" s="9" t="s">
+      <c r="V4" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="W4" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="X4" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y4" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z4" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA4" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB4" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC4" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD4" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE4" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="AF4" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="W4" s="9" t="s">
+      <c r="AG4" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="AH4" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="AI4" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="AJ4" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="AK4" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="X4" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="Y4" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="Z4" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="AA4" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="AB4" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="AC4" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="AD4" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="AE4" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="AF4" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="AG4" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="AH4" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="AI4" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="AJ4" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="AK4" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="AL4" s="11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="8" t="n">
+      <c r="AL4" s="12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="9" t="n">
         <v>45173</v>
       </c>
-      <c r="B5" s="9" t="n">
+      <c r="B5" s="10" t="n">
         <f aca="false">IFERROR(WEEKDAY(A5,2),"")</f>
         <v>1</v>
       </c>
-      <c r="C5" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="9" t="s">
+      <c r="C5" s="10"/>
+      <c r="D5" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="F5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="9"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
-      <c r="N5" s="10"/>
-      <c r="O5" s="9"/>
-      <c r="P5" s="9"/>
-      <c r="Q5" s="9"/>
-      <c r="R5" s="9"/>
-      <c r="S5" s="9"/>
-      <c r="T5" s="10"/>
-      <c r="U5" s="10"/>
-      <c r="V5" s="9"/>
-      <c r="W5" s="9"/>
-      <c r="X5" s="9"/>
-      <c r="Y5" s="10"/>
-      <c r="Z5" s="9"/>
-      <c r="AA5" s="9"/>
-      <c r="AB5" s="9"/>
-      <c r="AC5" s="9"/>
-      <c r="AD5" s="9"/>
-      <c r="AE5" s="9"/>
-      <c r="AF5" s="9"/>
-      <c r="AG5" s="10"/>
-      <c r="AH5" s="9"/>
-      <c r="AI5" s="9"/>
-      <c r="AJ5" s="9"/>
-      <c r="AK5" s="9"/>
-      <c r="AL5" s="9"/>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="8" t="n">
+      <c r="H5" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="L5" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="M5" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="N5" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="O5" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="P5" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q5" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="R5" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="S5" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="T5" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="U5" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="V5" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="W5" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="X5" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y5" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z5" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA5" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB5" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC5" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="AD5" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE5" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="AF5" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="AG5" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="AH5" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="AI5" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="AJ5" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK5" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="AL5" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="9" t="n">
         <v>45174</v>
       </c>
-      <c r="B6" s="9" t="n">
+      <c r="B6" s="10" t="n">
         <f aca="false">IFERROR(WEEKDAY(A6,2),"")</f>
         <v>2</v>
       </c>
-      <c r="C6" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="9" t="s">
+      <c r="C6" s="10"/>
+      <c r="D6" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9" t="s">
+      <c r="F6" s="10"/>
+      <c r="G6" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="9"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="10"/>
-      <c r="O6" s="9"/>
-      <c r="P6" s="9"/>
-      <c r="Q6" s="9"/>
-      <c r="R6" s="9"/>
-      <c r="S6" s="9"/>
-      <c r="T6" s="10"/>
-      <c r="U6" s="10"/>
-      <c r="V6" s="9"/>
-      <c r="W6" s="9"/>
-      <c r="X6" s="9"/>
-      <c r="Y6" s="10"/>
-      <c r="Z6" s="9"/>
-      <c r="AA6" s="9"/>
-      <c r="AB6" s="9"/>
-      <c r="AC6" s="9"/>
-      <c r="AD6" s="9"/>
-      <c r="AE6" s="9"/>
-      <c r="AF6" s="9"/>
-      <c r="AG6" s="10"/>
-      <c r="AH6" s="9"/>
-      <c r="AI6" s="9"/>
-      <c r="AJ6" s="9"/>
-      <c r="AK6" s="9"/>
-      <c r="AL6" s="9"/>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="8" t="n">
+      <c r="H6" s="10"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="10"/>
+      <c r="Q6" s="10"/>
+      <c r="R6" s="10"/>
+      <c r="S6" s="10"/>
+      <c r="T6" s="11"/>
+      <c r="U6" s="11"/>
+      <c r="V6" s="10"/>
+      <c r="W6" s="10"/>
+      <c r="X6" s="10"/>
+      <c r="Y6" s="11"/>
+      <c r="Z6" s="10"/>
+      <c r="AA6" s="10"/>
+      <c r="AB6" s="10"/>
+      <c r="AC6" s="10"/>
+      <c r="AD6" s="10"/>
+      <c r="AE6" s="10"/>
+      <c r="AF6" s="10"/>
+      <c r="AG6" s="11"/>
+      <c r="AH6" s="10"/>
+      <c r="AI6" s="10"/>
+      <c r="AJ6" s="10"/>
+      <c r="AK6" s="10"/>
+      <c r="AL6" s="10"/>
+    </row>
+    <row r="7" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="9" t="n">
         <v>45175</v>
       </c>
-      <c r="B7" s="9" t="n">
+      <c r="B7" s="10" t="n">
         <f aca="false">IFERROR(WEEKDAY(A7,2),"")</f>
         <v>3</v>
       </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9" t="s">
+      <c r="C7" s="10"/>
+      <c r="D7" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9" t="s">
+      <c r="F7" s="10"/>
+      <c r="G7" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="H7" s="9"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="9"/>
-      <c r="N7" s="10"/>
-      <c r="O7" s="9"/>
-      <c r="P7" s="9"/>
-      <c r="Q7" s="9"/>
-      <c r="R7" s="9"/>
-      <c r="S7" s="9"/>
-      <c r="T7" s="10"/>
-      <c r="U7" s="10"/>
-      <c r="V7" s="9"/>
-      <c r="W7" s="9"/>
-      <c r="X7" s="9"/>
-      <c r="Y7" s="10"/>
-      <c r="Z7" s="9"/>
-      <c r="AA7" s="9"/>
-      <c r="AB7" s="9"/>
-      <c r="AC7" s="9"/>
-      <c r="AD7" s="9"/>
-      <c r="AE7" s="9"/>
-      <c r="AF7" s="9"/>
-      <c r="AG7" s="10"/>
-      <c r="AH7" s="9"/>
-      <c r="AI7" s="9"/>
-      <c r="AJ7" s="9"/>
-      <c r="AK7" s="9"/>
-      <c r="AL7" s="9"/>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="8" t="n">
+      <c r="H7" s="10"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="10"/>
+      <c r="P7" s="10"/>
+      <c r="Q7" s="10"/>
+      <c r="R7" s="10"/>
+      <c r="S7" s="10"/>
+      <c r="T7" s="11"/>
+      <c r="U7" s="11"/>
+      <c r="V7" s="10"/>
+      <c r="W7" s="10"/>
+      <c r="X7" s="10"/>
+      <c r="Y7" s="11"/>
+      <c r="Z7" s="10"/>
+      <c r="AA7" s="10"/>
+      <c r="AB7" s="10"/>
+      <c r="AC7" s="10"/>
+      <c r="AD7" s="10"/>
+      <c r="AE7" s="10"/>
+      <c r="AF7" s="10"/>
+      <c r="AG7" s="11"/>
+      <c r="AH7" s="10"/>
+      <c r="AI7" s="10"/>
+      <c r="AJ7" s="10"/>
+      <c r="AK7" s="10"/>
+      <c r="AL7" s="10"/>
+    </row>
+    <row r="8" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="9" t="n">
         <v>45176</v>
       </c>
-      <c r="B8" s="9" t="n">
+      <c r="B8" s="10" t="n">
         <f aca="false">IFERROR(WEEKDAY(A8,2),"")</f>
         <v>4</v>
       </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9" t="s">
+      <c r="C8" s="10"/>
+      <c r="D8" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="G8" s="9" t="s">
+      <c r="G8" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="9"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
-      <c r="M8" s="9"/>
-      <c r="N8" s="10"/>
-      <c r="O8" s="9"/>
-      <c r="P8" s="9"/>
-      <c r="Q8" s="9"/>
-      <c r="R8" s="9"/>
-      <c r="S8" s="9"/>
-      <c r="T8" s="10"/>
-      <c r="U8" s="10"/>
-      <c r="V8" s="9"/>
-      <c r="W8" s="9"/>
-      <c r="X8" s="9"/>
-      <c r="Y8" s="10"/>
-      <c r="Z8" s="9"/>
-      <c r="AA8" s="9"/>
-      <c r="AB8" s="9"/>
-      <c r="AC8" s="9"/>
-      <c r="AD8" s="9"/>
-      <c r="AE8" s="9"/>
-      <c r="AF8" s="9"/>
-      <c r="AG8" s="10"/>
-      <c r="AH8" s="9"/>
-      <c r="AI8" s="9"/>
-      <c r="AJ8" s="9"/>
-      <c r="AK8" s="9"/>
-      <c r="AL8" s="9"/>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="8" t="n">
+      <c r="H8" s="10"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="10"/>
+      <c r="P8" s="10"/>
+      <c r="Q8" s="10"/>
+      <c r="R8" s="10"/>
+      <c r="S8" s="10"/>
+      <c r="T8" s="11"/>
+      <c r="U8" s="11"/>
+      <c r="V8" s="10"/>
+      <c r="W8" s="10"/>
+      <c r="X8" s="10"/>
+      <c r="Y8" s="11"/>
+      <c r="Z8" s="10"/>
+      <c r="AA8" s="10"/>
+      <c r="AB8" s="10"/>
+      <c r="AC8" s="10"/>
+      <c r="AD8" s="10"/>
+      <c r="AE8" s="10"/>
+      <c r="AF8" s="10"/>
+      <c r="AG8" s="11"/>
+      <c r="AH8" s="10"/>
+      <c r="AI8" s="10"/>
+      <c r="AJ8" s="10"/>
+      <c r="AK8" s="10"/>
+      <c r="AL8" s="10"/>
+    </row>
+    <row r="9" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="9" t="n">
         <v>45177</v>
       </c>
-      <c r="B9" s="9" t="n">
+      <c r="B9" s="10" t="n">
         <f aca="false">IFERROR(WEEKDAY(A9,2),"")</f>
         <v>5</v>
       </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9" t="s">
+      <c r="C9" s="10"/>
+      <c r="D9" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9" t="s">
+      <c r="F9" s="10"/>
+      <c r="G9" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="H9" s="9"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="9"/>
-      <c r="N9" s="10"/>
-      <c r="O9" s="9"/>
-      <c r="P9" s="9"/>
-      <c r="Q9" s="9"/>
-      <c r="R9" s="9"/>
-      <c r="S9" s="9"/>
-      <c r="T9" s="10"/>
-      <c r="U9" s="10"/>
-      <c r="V9" s="9"/>
-      <c r="W9" s="9"/>
-      <c r="X9" s="9"/>
-      <c r="Y9" s="10"/>
-      <c r="Z9" s="9"/>
-      <c r="AA9" s="9"/>
-      <c r="AB9" s="9"/>
-      <c r="AC9" s="9"/>
-      <c r="AD9" s="9"/>
-      <c r="AE9" s="9"/>
-      <c r="AF9" s="9"/>
-      <c r="AG9" s="10"/>
-      <c r="AH9" s="9"/>
-      <c r="AI9" s="9"/>
-      <c r="AJ9" s="9"/>
-      <c r="AK9" s="9"/>
-      <c r="AL9" s="9"/>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="8" t="n">
+      <c r="H9" s="10"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="10"/>
+      <c r="P9" s="10"/>
+      <c r="Q9" s="10"/>
+      <c r="R9" s="10"/>
+      <c r="S9" s="10"/>
+      <c r="T9" s="11"/>
+      <c r="U9" s="11"/>
+      <c r="V9" s="10"/>
+      <c r="W9" s="10"/>
+      <c r="X9" s="10"/>
+      <c r="Y9" s="11"/>
+      <c r="Z9" s="10"/>
+      <c r="AA9" s="10"/>
+      <c r="AB9" s="10"/>
+      <c r="AC9" s="10"/>
+      <c r="AD9" s="10"/>
+      <c r="AE9" s="10"/>
+      <c r="AF9" s="10"/>
+      <c r="AG9" s="11"/>
+      <c r="AH9" s="10"/>
+      <c r="AI9" s="10"/>
+      <c r="AJ9" s="10"/>
+      <c r="AK9" s="10"/>
+      <c r="AL9" s="10"/>
+    </row>
+    <row r="10" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="9" t="n">
         <v>45178</v>
       </c>
-      <c r="B10" s="9" t="n">
+      <c r="B10" s="10" t="n">
         <f aca="false">IFERROR(WEEKDAY(A10,2),"")</f>
         <v>6</v>
       </c>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9" t="s">
+      <c r="C10" s="10"/>
+      <c r="D10" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="E10" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9"/>
-      <c r="M10" s="9"/>
-      <c r="N10" s="10"/>
-      <c r="O10" s="9"/>
-      <c r="P10" s="9"/>
-      <c r="Q10" s="9"/>
-      <c r="R10" s="9"/>
-      <c r="S10" s="9"/>
-      <c r="T10" s="10"/>
-      <c r="U10" s="10"/>
-      <c r="V10" s="9"/>
-      <c r="W10" s="9"/>
-      <c r="X10" s="9"/>
-      <c r="Y10" s="10"/>
-      <c r="Z10" s="9"/>
-      <c r="AA10" s="9"/>
-      <c r="AB10" s="9"/>
-      <c r="AC10" s="9"/>
-      <c r="AD10" s="9"/>
-      <c r="AE10" s="9"/>
-      <c r="AF10" s="9"/>
-      <c r="AG10" s="10"/>
-      <c r="AH10" s="9"/>
-      <c r="AI10" s="9"/>
-      <c r="AJ10" s="9"/>
-      <c r="AK10" s="9"/>
-      <c r="AL10" s="9"/>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="8" t="n">
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="10"/>
+      <c r="P10" s="10"/>
+      <c r="Q10" s="10"/>
+      <c r="R10" s="10"/>
+      <c r="S10" s="10"/>
+      <c r="T10" s="11"/>
+      <c r="U10" s="11"/>
+      <c r="V10" s="10"/>
+      <c r="W10" s="10"/>
+      <c r="X10" s="10"/>
+      <c r="Y10" s="11"/>
+      <c r="Z10" s="10"/>
+      <c r="AA10" s="10"/>
+      <c r="AB10" s="10"/>
+      <c r="AC10" s="10"/>
+      <c r="AD10" s="10"/>
+      <c r="AE10" s="10"/>
+      <c r="AF10" s="10"/>
+      <c r="AG10" s="11"/>
+      <c r="AH10" s="10"/>
+      <c r="AI10" s="10"/>
+      <c r="AJ10" s="10"/>
+      <c r="AK10" s="10"/>
+      <c r="AL10" s="10"/>
+    </row>
+    <row r="11" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="9" t="n">
         <v>45179</v>
       </c>
-      <c r="B11" s="9" t="n">
+      <c r="B11" s="10" t="n">
         <f aca="false">IFERROR(WEEKDAY(A11,2),"")</f>
         <v>7</v>
       </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9" t="s">
+      <c r="C11" s="10"/>
+      <c r="D11" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="E11" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="9"/>
-      <c r="M11" s="9"/>
-      <c r="N11" s="10"/>
-      <c r="O11" s="9"/>
-      <c r="P11" s="9"/>
-      <c r="Q11" s="9"/>
-      <c r="R11" s="9"/>
-      <c r="S11" s="9"/>
-      <c r="T11" s="10"/>
-      <c r="U11" s="10"/>
-      <c r="V11" s="9"/>
-      <c r="W11" s="9"/>
-      <c r="X11" s="9"/>
-      <c r="Y11" s="10"/>
-      <c r="Z11" s="9"/>
-      <c r="AA11" s="9"/>
-      <c r="AB11" s="9"/>
-      <c r="AC11" s="9"/>
-      <c r="AD11" s="9"/>
-      <c r="AE11" s="9"/>
-      <c r="AF11" s="9"/>
-      <c r="AG11" s="10"/>
-      <c r="AH11" s="9"/>
-      <c r="AI11" s="9"/>
-      <c r="AJ11" s="9"/>
-      <c r="AK11" s="9"/>
-      <c r="AL11" s="9"/>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="8" t="n">
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="10"/>
+      <c r="P11" s="10"/>
+      <c r="Q11" s="10"/>
+      <c r="R11" s="10"/>
+      <c r="S11" s="10"/>
+      <c r="T11" s="11"/>
+      <c r="U11" s="11"/>
+      <c r="V11" s="10"/>
+      <c r="W11" s="10"/>
+      <c r="X11" s="10"/>
+      <c r="Y11" s="11"/>
+      <c r="Z11" s="10"/>
+      <c r="AA11" s="10"/>
+      <c r="AB11" s="10"/>
+      <c r="AC11" s="10"/>
+      <c r="AD11" s="10"/>
+      <c r="AE11" s="10"/>
+      <c r="AF11" s="10"/>
+      <c r="AG11" s="11"/>
+      <c r="AH11" s="10"/>
+      <c r="AI11" s="10"/>
+      <c r="AJ11" s="10"/>
+      <c r="AK11" s="10"/>
+      <c r="AL11" s="10"/>
+    </row>
+    <row r="12" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="9" t="n">
         <v>45180</v>
       </c>
-      <c r="B12" s="9" t="n">
+      <c r="B12" s="10" t="n">
         <f aca="false">IFERROR(WEEKDAY(A12,2),"")</f>
         <v>1</v>
       </c>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9" t="s">
+      <c r="C12" s="10"/>
+      <c r="D12" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="9" t="s">
+      <c r="E12" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9" t="s">
+      <c r="F12" s="10"/>
+      <c r="G12" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="H12" s="9"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="9"/>
-      <c r="M12" s="9"/>
-      <c r="N12" s="10"/>
-      <c r="O12" s="9"/>
-      <c r="P12" s="9"/>
-      <c r="Q12" s="9"/>
-      <c r="R12" s="9"/>
-      <c r="S12" s="9"/>
-      <c r="T12" s="10"/>
-      <c r="U12" s="10"/>
-      <c r="V12" s="9"/>
-      <c r="W12" s="9"/>
-      <c r="X12" s="9"/>
-      <c r="Y12" s="10"/>
-      <c r="Z12" s="9"/>
-      <c r="AA12" s="9"/>
-      <c r="AB12" s="9"/>
-      <c r="AC12" s="9"/>
-      <c r="AD12" s="9"/>
-      <c r="AE12" s="9"/>
-      <c r="AF12" s="9"/>
-      <c r="AG12" s="10"/>
-      <c r="AH12" s="9"/>
-      <c r="AI12" s="9"/>
-      <c r="AJ12" s="9"/>
-      <c r="AK12" s="9"/>
-      <c r="AL12" s="9"/>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="8" t="n">
+      <c r="H12" s="10"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="10"/>
+      <c r="P12" s="10"/>
+      <c r="Q12" s="10"/>
+      <c r="R12" s="10"/>
+      <c r="S12" s="10"/>
+      <c r="T12" s="11"/>
+      <c r="U12" s="11"/>
+      <c r="V12" s="10"/>
+      <c r="W12" s="10"/>
+      <c r="X12" s="10"/>
+      <c r="Y12" s="11"/>
+      <c r="Z12" s="10"/>
+      <c r="AA12" s="10"/>
+      <c r="AB12" s="10"/>
+      <c r="AC12" s="10"/>
+      <c r="AD12" s="10"/>
+      <c r="AE12" s="10"/>
+      <c r="AF12" s="10"/>
+      <c r="AG12" s="11"/>
+      <c r="AH12" s="10"/>
+      <c r="AI12" s="10"/>
+      <c r="AJ12" s="10"/>
+      <c r="AK12" s="10"/>
+      <c r="AL12" s="10"/>
+    </row>
+    <row r="13" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="9" t="n">
         <v>45181</v>
       </c>
-      <c r="B13" s="9" t="n">
+      <c r="B13" s="10" t="n">
         <f aca="false">IFERROR(WEEKDAY(A13,2),"")</f>
         <v>2</v>
       </c>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9" t="s">
+      <c r="C13" s="10"/>
+      <c r="D13" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="E13" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9" t="s">
+      <c r="F13" s="10"/>
+      <c r="G13" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="H13" s="9"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="9"/>
-      <c r="M13" s="9"/>
-      <c r="N13" s="10"/>
-      <c r="O13" s="9"/>
-      <c r="P13" s="9"/>
-      <c r="Q13" s="9"/>
-      <c r="R13" s="9"/>
-      <c r="S13" s="9"/>
-      <c r="T13" s="10"/>
-      <c r="U13" s="10"/>
-      <c r="V13" s="9"/>
-      <c r="W13" s="9"/>
-      <c r="X13" s="9"/>
-      <c r="Y13" s="10"/>
-      <c r="Z13" s="9"/>
-      <c r="AA13" s="9"/>
-      <c r="AB13" s="9"/>
-      <c r="AC13" s="9"/>
-      <c r="AD13" s="9"/>
-      <c r="AE13" s="9"/>
-      <c r="AF13" s="9"/>
-      <c r="AG13" s="10"/>
-      <c r="AH13" s="9"/>
-      <c r="AI13" s="9"/>
-      <c r="AJ13" s="9"/>
-      <c r="AK13" s="9"/>
-      <c r="AL13" s="9"/>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="8" t="n">
+      <c r="H13" s="10"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="10"/>
+      <c r="P13" s="10"/>
+      <c r="Q13" s="10"/>
+      <c r="R13" s="10"/>
+      <c r="S13" s="10"/>
+      <c r="T13" s="11"/>
+      <c r="U13" s="11"/>
+      <c r="V13" s="10"/>
+      <c r="W13" s="10"/>
+      <c r="X13" s="10"/>
+      <c r="Y13" s="11"/>
+      <c r="Z13" s="10"/>
+      <c r="AA13" s="10"/>
+      <c r="AB13" s="10"/>
+      <c r="AC13" s="10"/>
+      <c r="AD13" s="10"/>
+      <c r="AE13" s="10"/>
+      <c r="AF13" s="10"/>
+      <c r="AG13" s="11"/>
+      <c r="AH13" s="10"/>
+      <c r="AI13" s="10"/>
+      <c r="AJ13" s="10"/>
+      <c r="AK13" s="10"/>
+      <c r="AL13" s="10"/>
+    </row>
+    <row r="14" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="9" t="n">
         <v>45182</v>
       </c>
-      <c r="B14" s="9" t="n">
+      <c r="B14" s="10" t="n">
         <f aca="false">IFERROR(WEEKDAY(A14,2),"")</f>
         <v>3</v>
       </c>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9" t="s">
+      <c r="C14" s="10"/>
+      <c r="D14" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E14" s="9" t="s">
+      <c r="E14" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9" t="s">
+      <c r="F14" s="10"/>
+      <c r="G14" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="H14" s="9"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9"/>
-      <c r="M14" s="9"/>
-      <c r="N14" s="10"/>
-      <c r="O14" s="9"/>
-      <c r="P14" s="9"/>
-      <c r="Q14" s="9"/>
-      <c r="R14" s="9"/>
-      <c r="S14" s="9"/>
-      <c r="T14" s="10"/>
-      <c r="U14" s="10"/>
-      <c r="V14" s="9"/>
-      <c r="W14" s="9"/>
-      <c r="X14" s="9"/>
-      <c r="Y14" s="10"/>
-      <c r="Z14" s="9"/>
-      <c r="AA14" s="9"/>
-      <c r="AB14" s="9"/>
-      <c r="AC14" s="9"/>
-      <c r="AD14" s="9"/>
-      <c r="AE14" s="9"/>
-      <c r="AF14" s="9"/>
-      <c r="AG14" s="10"/>
-      <c r="AH14" s="9"/>
-      <c r="AI14" s="9"/>
-      <c r="AJ14" s="9"/>
-      <c r="AK14" s="9"/>
-      <c r="AL14" s="9"/>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="8" t="n">
+      <c r="H14" s="10"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="10"/>
+      <c r="P14" s="10"/>
+      <c r="Q14" s="10"/>
+      <c r="R14" s="10"/>
+      <c r="S14" s="10"/>
+      <c r="T14" s="11"/>
+      <c r="U14" s="11"/>
+      <c r="V14" s="10"/>
+      <c r="W14" s="10"/>
+      <c r="X14" s="10"/>
+      <c r="Y14" s="11"/>
+      <c r="Z14" s="10"/>
+      <c r="AA14" s="10"/>
+      <c r="AB14" s="10"/>
+      <c r="AC14" s="10"/>
+      <c r="AD14" s="10"/>
+      <c r="AE14" s="10"/>
+      <c r="AF14" s="10"/>
+      <c r="AG14" s="11"/>
+      <c r="AH14" s="10"/>
+      <c r="AI14" s="10"/>
+      <c r="AJ14" s="10"/>
+      <c r="AK14" s="10"/>
+      <c r="AL14" s="10"/>
+    </row>
+    <row r="15" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="9" t="n">
         <v>45183</v>
       </c>
-      <c r="B15" s="9" t="n">
+      <c r="B15" s="10" t="n">
         <f aca="false">IFERROR(WEEKDAY(A15,2),"")</f>
         <v>4</v>
       </c>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9" t="s">
+      <c r="C15" s="10"/>
+      <c r="D15" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="9" t="s">
+      <c r="E15" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F15" s="12"/>
-      <c r="G15" s="9" t="s">
+      <c r="F15" s="13"/>
+      <c r="G15" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="H15" s="9"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="9"/>
-      <c r="M15" s="9"/>
-      <c r="N15" s="10"/>
-      <c r="O15" s="9"/>
-      <c r="P15" s="9"/>
-      <c r="Q15" s="9"/>
-      <c r="R15" s="9"/>
-      <c r="S15" s="9"/>
-      <c r="T15" s="10"/>
-      <c r="U15" s="10"/>
-      <c r="V15" s="9"/>
-      <c r="W15" s="9"/>
-      <c r="X15" s="9"/>
-      <c r="Y15" s="10"/>
-      <c r="Z15" s="9"/>
-      <c r="AA15" s="9"/>
-      <c r="AB15" s="9"/>
-      <c r="AC15" s="9"/>
-      <c r="AD15" s="9"/>
-      <c r="AE15" s="9"/>
-      <c r="AF15" s="9"/>
-      <c r="AG15" s="10"/>
-      <c r="AH15" s="9"/>
-      <c r="AI15" s="9"/>
-      <c r="AJ15" s="9"/>
-      <c r="AK15" s="9"/>
-      <c r="AL15" s="9"/>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="8" t="n">
+      <c r="H15" s="10"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="10"/>
+      <c r="N15" s="11"/>
+      <c r="O15" s="10"/>
+      <c r="P15" s="10"/>
+      <c r="Q15" s="10"/>
+      <c r="R15" s="10"/>
+      <c r="S15" s="10"/>
+      <c r="T15" s="11"/>
+      <c r="U15" s="11"/>
+      <c r="V15" s="10"/>
+      <c r="W15" s="10"/>
+      <c r="X15" s="10"/>
+      <c r="Y15" s="11"/>
+      <c r="Z15" s="10"/>
+      <c r="AA15" s="10"/>
+      <c r="AB15" s="10"/>
+      <c r="AC15" s="10"/>
+      <c r="AD15" s="10"/>
+      <c r="AE15" s="10"/>
+      <c r="AF15" s="10"/>
+      <c r="AG15" s="11"/>
+      <c r="AH15" s="10"/>
+      <c r="AI15" s="10"/>
+      <c r="AJ15" s="10"/>
+      <c r="AK15" s="10"/>
+      <c r="AL15" s="10"/>
+    </row>
+    <row r="16" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="9" t="n">
         <v>45184</v>
       </c>
-      <c r="B16" s="9" t="n">
+      <c r="B16" s="10" t="n">
         <f aca="false">IFERROR(WEEKDAY(A16,2),"")</f>
         <v>5</v>
       </c>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9" t="s">
+      <c r="C16" s="10"/>
+      <c r="D16" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E16" s="9" t="s">
+      <c r="E16" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9" t="s">
+      <c r="F16" s="10"/>
+      <c r="G16" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="H16" s="9"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="9"/>
-      <c r="M16" s="9"/>
-      <c r="N16" s="10"/>
-      <c r="O16" s="9"/>
-      <c r="P16" s="9"/>
-      <c r="Q16" s="9"/>
-      <c r="R16" s="9"/>
-      <c r="S16" s="9"/>
-      <c r="T16" s="10"/>
-      <c r="U16" s="10"/>
-      <c r="V16" s="9"/>
-      <c r="W16" s="9"/>
-      <c r="X16" s="9"/>
-      <c r="Y16" s="10"/>
-      <c r="Z16" s="9"/>
-      <c r="AA16" s="9"/>
-      <c r="AB16" s="9"/>
-      <c r="AC16" s="9"/>
-      <c r="AD16" s="9"/>
-      <c r="AE16" s="9"/>
-      <c r="AF16" s="9"/>
-      <c r="AG16" s="10"/>
-      <c r="AH16" s="9"/>
-      <c r="AI16" s="9"/>
-      <c r="AJ16" s="9"/>
-      <c r="AK16" s="9"/>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="8" t="n">
+      <c r="H16" s="10"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="10"/>
+      <c r="N16" s="11"/>
+      <c r="O16" s="10"/>
+      <c r="P16" s="10"/>
+      <c r="Q16" s="10"/>
+      <c r="R16" s="10"/>
+      <c r="S16" s="10"/>
+      <c r="T16" s="11"/>
+      <c r="U16" s="11"/>
+      <c r="V16" s="10"/>
+      <c r="W16" s="10"/>
+      <c r="X16" s="10"/>
+      <c r="Y16" s="11"/>
+      <c r="Z16" s="10"/>
+      <c r="AA16" s="10"/>
+      <c r="AB16" s="10"/>
+      <c r="AC16" s="10"/>
+      <c r="AD16" s="10"/>
+      <c r="AE16" s="10"/>
+      <c r="AF16" s="10"/>
+      <c r="AG16" s="11"/>
+      <c r="AH16" s="10"/>
+      <c r="AI16" s="10"/>
+      <c r="AJ16" s="10"/>
+      <c r="AK16" s="10"/>
+    </row>
+    <row r="17" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="9" t="n">
         <v>45185</v>
       </c>
-      <c r="B17" s="9" t="n">
+      <c r="B17" s="10" t="n">
         <f aca="false">IFERROR(WEEKDAY(A17,2),"")</f>
         <v>6</v>
       </c>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9" t="s">
+      <c r="C17" s="10"/>
+      <c r="D17" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E17" s="9" t="s">
+      <c r="E17" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="9"/>
-      <c r="L17" s="9"/>
-      <c r="M17" s="9"/>
-      <c r="N17" s="10"/>
-      <c r="O17" s="9"/>
-      <c r="P17" s="9"/>
-      <c r="Q17" s="9"/>
-      <c r="R17" s="9"/>
-      <c r="S17" s="9"/>
-      <c r="T17" s="10"/>
-      <c r="U17" s="10"/>
-      <c r="V17" s="9"/>
-      <c r="W17" s="9"/>
-      <c r="X17" s="9"/>
-      <c r="Y17" s="10"/>
-      <c r="Z17" s="9"/>
-      <c r="AA17" s="9"/>
-      <c r="AB17" s="9"/>
-      <c r="AC17" s="9"/>
-      <c r="AD17" s="9"/>
-      <c r="AE17" s="9"/>
-      <c r="AF17" s="9"/>
-      <c r="AH17" s="11"/>
-      <c r="AI17" s="11"/>
-      <c r="AJ17" s="9"/>
-      <c r="AK17" s="9"/>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="8" t="n">
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="10"/>
+      <c r="N17" s="11"/>
+      <c r="O17" s="10"/>
+      <c r="P17" s="10"/>
+      <c r="Q17" s="10"/>
+      <c r="R17" s="10"/>
+      <c r="S17" s="10"/>
+      <c r="T17" s="11"/>
+      <c r="U17" s="11"/>
+      <c r="V17" s="10"/>
+      <c r="W17" s="10"/>
+      <c r="X17" s="10"/>
+      <c r="Y17" s="11"/>
+      <c r="Z17" s="10"/>
+      <c r="AA17" s="10"/>
+      <c r="AB17" s="10"/>
+      <c r="AC17" s="10"/>
+      <c r="AD17" s="10"/>
+      <c r="AE17" s="10"/>
+      <c r="AF17" s="10"/>
+      <c r="AH17" s="12"/>
+      <c r="AI17" s="12"/>
+      <c r="AJ17" s="10"/>
+      <c r="AK17" s="10"/>
+    </row>
+    <row r="18" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="9" t="n">
         <v>45186</v>
       </c>
-      <c r="B18" s="9" t="n">
+      <c r="B18" s="10" t="n">
         <f aca="false">IFERROR(WEEKDAY(A18,2),"")</f>
         <v>7</v>
       </c>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9" t="s">
+      <c r="C18" s="10"/>
+      <c r="D18" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E18" s="9" t="s">
+      <c r="E18" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="9"/>
-      <c r="L18" s="9"/>
-      <c r="M18" s="9"/>
-      <c r="N18" s="10"/>
-      <c r="O18" s="9"/>
-      <c r="P18" s="9"/>
-      <c r="Q18" s="9"/>
-      <c r="R18" s="9"/>
-      <c r="S18" s="9"/>
-      <c r="T18" s="10"/>
-      <c r="U18" s="10"/>
-      <c r="V18" s="9"/>
-      <c r="W18" s="9"/>
-      <c r="X18" s="9"/>
-      <c r="Y18" s="10"/>
-      <c r="Z18" s="9"/>
-      <c r="AA18" s="9"/>
-      <c r="AB18" s="9"/>
-      <c r="AC18" s="9"/>
-      <c r="AD18" s="9"/>
-      <c r="AE18" s="9"/>
-      <c r="AF18" s="9"/>
-      <c r="AG18" s="10"/>
-      <c r="AH18" s="9"/>
-      <c r="AI18" s="9"/>
-      <c r="AJ18" s="9"/>
-      <c r="AK18" s="9"/>
-    </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="8" t="n">
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="10"/>
+      <c r="N18" s="11"/>
+      <c r="O18" s="10"/>
+      <c r="P18" s="10"/>
+      <c r="Q18" s="10"/>
+      <c r="R18" s="10"/>
+      <c r="S18" s="10"/>
+      <c r="T18" s="11"/>
+      <c r="U18" s="11"/>
+      <c r="V18" s="10"/>
+      <c r="W18" s="10"/>
+      <c r="X18" s="10"/>
+      <c r="Y18" s="11"/>
+      <c r="Z18" s="10"/>
+      <c r="AA18" s="10"/>
+      <c r="AB18" s="10"/>
+      <c r="AC18" s="10"/>
+      <c r="AD18" s="10"/>
+      <c r="AE18" s="10"/>
+      <c r="AF18" s="10"/>
+      <c r="AG18" s="11"/>
+      <c r="AH18" s="10"/>
+      <c r="AI18" s="10"/>
+      <c r="AJ18" s="10"/>
+      <c r="AK18" s="10"/>
+    </row>
+    <row r="19" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="9" t="n">
         <v>45187</v>
       </c>
-      <c r="B19" s="9" t="n">
+      <c r="B19" s="10" t="n">
         <f aca="false">IFERROR(WEEKDAY(A19,2),"")</f>
         <v>1</v>
       </c>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9" t="s">
+      <c r="C19" s="10"/>
+      <c r="D19" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="9" t="s">
+      <c r="E19" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9" t="s">
+      <c r="F19" s="10"/>
+      <c r="G19" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="H19" s="9"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="9"/>
-      <c r="K19" s="9"/>
-      <c r="L19" s="9"/>
-      <c r="M19" s="9"/>
-      <c r="N19" s="10"/>
-      <c r="O19" s="9"/>
-      <c r="P19" s="9"/>
-      <c r="Q19" s="9"/>
-      <c r="R19" s="9"/>
-      <c r="S19" s="9"/>
-      <c r="T19" s="10"/>
-      <c r="U19" s="10"/>
-      <c r="V19" s="9"/>
-      <c r="W19" s="9"/>
-      <c r="X19" s="9"/>
-      <c r="Y19" s="10"/>
-      <c r="Z19" s="9"/>
-      <c r="AA19" s="9"/>
-      <c r="AB19" s="9"/>
-      <c r="AC19" s="9"/>
-      <c r="AD19" s="9"/>
-      <c r="AE19" s="9"/>
-      <c r="AF19" s="9"/>
-      <c r="AG19" s="10"/>
-      <c r="AH19" s="9"/>
-      <c r="AI19" s="9"/>
-      <c r="AJ19" s="9"/>
-      <c r="AK19" s="9"/>
-      <c r="AL19" s="11"/>
-    </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="8" t="n">
+      <c r="H19" s="10"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="10"/>
+      <c r="N19" s="11"/>
+      <c r="O19" s="10"/>
+      <c r="P19" s="10"/>
+      <c r="Q19" s="10"/>
+      <c r="R19" s="10"/>
+      <c r="S19" s="10"/>
+      <c r="T19" s="11"/>
+      <c r="U19" s="11"/>
+      <c r="V19" s="10"/>
+      <c r="W19" s="10"/>
+      <c r="X19" s="10"/>
+      <c r="Y19" s="11"/>
+      <c r="Z19" s="10"/>
+      <c r="AA19" s="10"/>
+      <c r="AB19" s="10"/>
+      <c r="AC19" s="10"/>
+      <c r="AD19" s="10"/>
+      <c r="AE19" s="10"/>
+      <c r="AF19" s="10"/>
+      <c r="AG19" s="11"/>
+      <c r="AH19" s="10"/>
+      <c r="AI19" s="10"/>
+      <c r="AJ19" s="10"/>
+      <c r="AK19" s="10"/>
+      <c r="AL19" s="12"/>
+    </row>
+    <row r="20" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="9" t="n">
         <v>45188</v>
       </c>
-      <c r="B20" s="9" t="n">
+      <c r="B20" s="10" t="n">
         <f aca="false">IFERROR(WEEKDAY(A20,2),"")</f>
         <v>2</v>
       </c>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9" t="s">
+      <c r="C20" s="10"/>
+      <c r="D20" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E20" s="9" t="s">
+      <c r="E20" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9" t="s">
+      <c r="F20" s="10"/>
+      <c r="G20" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="H20" s="9"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="9"/>
-      <c r="L20" s="9"/>
-      <c r="M20" s="9"/>
-      <c r="N20" s="10"/>
-      <c r="O20" s="9"/>
-      <c r="P20" s="9"/>
-      <c r="Q20" s="9"/>
-      <c r="R20" s="9"/>
-      <c r="S20" s="9"/>
-      <c r="T20" s="10"/>
-      <c r="U20" s="10"/>
-      <c r="V20" s="9"/>
-      <c r="W20" s="9"/>
-      <c r="X20" s="9"/>
-      <c r="Y20" s="10"/>
-      <c r="Z20" s="9"/>
-      <c r="AA20" s="9"/>
-      <c r="AB20" s="9"/>
-      <c r="AC20" s="9"/>
-      <c r="AD20" s="9"/>
-      <c r="AE20" s="9"/>
-      <c r="AF20" s="9"/>
-      <c r="AG20" s="10"/>
-      <c r="AH20" s="9"/>
-      <c r="AI20" s="9"/>
-      <c r="AJ20" s="9"/>
-      <c r="AK20" s="9"/>
-      <c r="AL20" s="9"/>
-    </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="8" t="n">
+      <c r="H20" s="10"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="10"/>
+      <c r="N20" s="11"/>
+      <c r="O20" s="10"/>
+      <c r="P20" s="10"/>
+      <c r="Q20" s="10"/>
+      <c r="R20" s="10"/>
+      <c r="S20" s="10"/>
+      <c r="T20" s="11"/>
+      <c r="U20" s="11"/>
+      <c r="V20" s="10"/>
+      <c r="W20" s="10"/>
+      <c r="X20" s="10"/>
+      <c r="Y20" s="11"/>
+      <c r="Z20" s="10"/>
+      <c r="AA20" s="10"/>
+      <c r="AB20" s="10"/>
+      <c r="AC20" s="10"/>
+      <c r="AD20" s="10"/>
+      <c r="AE20" s="10"/>
+      <c r="AF20" s="10"/>
+      <c r="AG20" s="11"/>
+      <c r="AH20" s="10"/>
+      <c r="AI20" s="10"/>
+      <c r="AJ20" s="10"/>
+      <c r="AK20" s="10"/>
+      <c r="AL20" s="10"/>
+    </row>
+    <row r="21" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="9" t="n">
         <v>45189</v>
       </c>
-      <c r="B21" s="9" t="n">
+      <c r="B21" s="10" t="n">
         <f aca="false">IFERROR(WEEKDAY(A21,2),"")</f>
         <v>3</v>
       </c>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9" t="s">
+      <c r="C21" s="10"/>
+      <c r="D21" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E21" s="9" t="s">
+      <c r="E21" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9" t="s">
+      <c r="F21" s="10"/>
+      <c r="G21" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="H21" s="9"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="9"/>
-      <c r="K21" s="9"/>
-      <c r="L21" s="9"/>
-      <c r="M21" s="9"/>
-      <c r="N21" s="10"/>
-      <c r="O21" s="9"/>
-      <c r="P21" s="9"/>
-      <c r="Q21" s="9"/>
-      <c r="R21" s="9"/>
-      <c r="S21" s="9"/>
-      <c r="T21" s="10"/>
-      <c r="U21" s="10"/>
-      <c r="V21" s="9"/>
-      <c r="W21" s="9"/>
-      <c r="X21" s="9"/>
-      <c r="Y21" s="10"/>
-      <c r="Z21" s="9"/>
-      <c r="AA21" s="9"/>
-      <c r="AB21" s="9"/>
-      <c r="AC21" s="9"/>
-      <c r="AD21" s="9"/>
-      <c r="AE21" s="9"/>
-      <c r="AF21" s="9"/>
-      <c r="AG21" s="10"/>
-      <c r="AH21" s="9"/>
-      <c r="AI21" s="9"/>
-      <c r="AJ21" s="9"/>
-      <c r="AK21" s="9"/>
-      <c r="AL21" s="9"/>
-    </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="8" t="n">
+      <c r="H21" s="10"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="10"/>
+      <c r="M21" s="10"/>
+      <c r="N21" s="11"/>
+      <c r="O21" s="10"/>
+      <c r="P21" s="10"/>
+      <c r="Q21" s="10"/>
+      <c r="R21" s="10"/>
+      <c r="S21" s="10"/>
+      <c r="T21" s="11"/>
+      <c r="U21" s="11"/>
+      <c r="V21" s="10"/>
+      <c r="W21" s="10"/>
+      <c r="X21" s="10"/>
+      <c r="Y21" s="11"/>
+      <c r="Z21" s="10"/>
+      <c r="AA21" s="10"/>
+      <c r="AB21" s="10"/>
+      <c r="AC21" s="10"/>
+      <c r="AD21" s="10"/>
+      <c r="AE21" s="10"/>
+      <c r="AF21" s="10"/>
+      <c r="AG21" s="11"/>
+      <c r="AH21" s="10"/>
+      <c r="AI21" s="10"/>
+      <c r="AJ21" s="10"/>
+      <c r="AK21" s="10"/>
+      <c r="AL21" s="10"/>
+    </row>
+    <row r="22" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="9" t="n">
         <v>45190</v>
       </c>
-      <c r="B22" s="9" t="n">
+      <c r="B22" s="10" t="n">
         <f aca="false">IFERROR(WEEKDAY(A22,2),"")</f>
         <v>4</v>
       </c>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9" t="s">
+      <c r="C22" s="10"/>
+      <c r="D22" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E22" s="9" t="s">
+      <c r="E22" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F22" s="12"/>
-      <c r="G22" s="9" t="s">
+      <c r="F22" s="13"/>
+      <c r="G22" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="H22" s="9"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="9"/>
-      <c r="K22" s="9"/>
-      <c r="L22" s="9"/>
-      <c r="M22" s="9"/>
-      <c r="N22" s="10"/>
-      <c r="O22" s="9"/>
-      <c r="P22" s="9"/>
-      <c r="Q22" s="9"/>
-      <c r="R22" s="9"/>
-      <c r="S22" s="9"/>
-      <c r="T22" s="10"/>
-      <c r="U22" s="10"/>
-      <c r="V22" s="9"/>
-      <c r="W22" s="9"/>
-      <c r="X22" s="9"/>
-      <c r="Y22" s="10"/>
-      <c r="Z22" s="9"/>
-      <c r="AA22" s="9"/>
-      <c r="AB22" s="9"/>
-      <c r="AC22" s="9"/>
-      <c r="AD22" s="9"/>
-      <c r="AE22" s="9"/>
-      <c r="AF22" s="9"/>
-      <c r="AG22" s="10"/>
-      <c r="AH22" s="9"/>
-      <c r="AI22" s="9"/>
-      <c r="AJ22" s="9"/>
-      <c r="AK22" s="9"/>
-      <c r="AL22" s="9"/>
-    </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="8" t="n">
+      <c r="H22" s="10"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="10"/>
+      <c r="M22" s="10"/>
+      <c r="N22" s="11"/>
+      <c r="O22" s="10"/>
+      <c r="P22" s="10"/>
+      <c r="Q22" s="10"/>
+      <c r="R22" s="10"/>
+      <c r="S22" s="10"/>
+      <c r="T22" s="11"/>
+      <c r="U22" s="11"/>
+      <c r="V22" s="10"/>
+      <c r="W22" s="10"/>
+      <c r="X22" s="10"/>
+      <c r="Y22" s="11"/>
+      <c r="Z22" s="10"/>
+      <c r="AA22" s="10"/>
+      <c r="AB22" s="10"/>
+      <c r="AC22" s="10"/>
+      <c r="AD22" s="10"/>
+      <c r="AE22" s="10"/>
+      <c r="AF22" s="10"/>
+      <c r="AG22" s="11"/>
+      <c r="AH22" s="10"/>
+      <c r="AI22" s="10"/>
+      <c r="AJ22" s="10"/>
+      <c r="AK22" s="10"/>
+      <c r="AL22" s="10"/>
+    </row>
+    <row r="23" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="9" t="n">
         <v>45191</v>
       </c>
-      <c r="B23" s="9" t="n">
+      <c r="B23" s="10" t="n">
         <f aca="false">IFERROR(WEEKDAY(A23,2),"")</f>
         <v>5</v>
       </c>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9" t="s">
+      <c r="C23" s="10"/>
+      <c r="D23" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E23" s="9" t="s">
+      <c r="E23" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9" t="s">
+      <c r="F23" s="10"/>
+      <c r="G23" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="H23" s="9"/>
-      <c r="I23" s="10"/>
-      <c r="J23" s="9"/>
-      <c r="K23" s="9"/>
-      <c r="L23" s="9"/>
-      <c r="M23" s="9"/>
-      <c r="N23" s="10"/>
-      <c r="O23" s="9"/>
-      <c r="P23" s="9"/>
-      <c r="Q23" s="9"/>
-      <c r="R23" s="9"/>
-      <c r="S23" s="9"/>
-      <c r="T23" s="10"/>
-      <c r="U23" s="10"/>
-      <c r="V23" s="9"/>
-      <c r="W23" s="9"/>
-      <c r="X23" s="9"/>
-      <c r="Y23" s="10"/>
-      <c r="Z23" s="9"/>
-      <c r="AA23" s="9"/>
-      <c r="AB23" s="9"/>
-      <c r="AC23" s="9"/>
-      <c r="AD23" s="9"/>
-      <c r="AE23" s="9"/>
-      <c r="AF23" s="9"/>
-      <c r="AG23" s="10"/>
-      <c r="AH23" s="9"/>
-      <c r="AI23" s="9"/>
-      <c r="AJ23" s="9"/>
-      <c r="AK23" s="9"/>
-      <c r="AL23" s="9"/>
-    </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="8" t="n">
+      <c r="H23" s="10"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="10"/>
+      <c r="M23" s="10"/>
+      <c r="N23" s="11"/>
+      <c r="O23" s="10"/>
+      <c r="P23" s="10"/>
+      <c r="Q23" s="10"/>
+      <c r="R23" s="10"/>
+      <c r="S23" s="10"/>
+      <c r="T23" s="11"/>
+      <c r="U23" s="11"/>
+      <c r="V23" s="10"/>
+      <c r="W23" s="10"/>
+      <c r="X23" s="10"/>
+      <c r="Y23" s="11"/>
+      <c r="Z23" s="10"/>
+      <c r="AA23" s="10"/>
+      <c r="AB23" s="10"/>
+      <c r="AC23" s="10"/>
+      <c r="AD23" s="10"/>
+      <c r="AE23" s="10"/>
+      <c r="AF23" s="10"/>
+      <c r="AG23" s="11"/>
+      <c r="AH23" s="10"/>
+      <c r="AI23" s="10"/>
+      <c r="AJ23" s="10"/>
+      <c r="AK23" s="10"/>
+      <c r="AL23" s="10"/>
+    </row>
+    <row r="24" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="9" t="n">
         <v>45192</v>
       </c>
-      <c r="B24" s="9" t="n">
+      <c r="B24" s="10" t="n">
         <f aca="false">IFERROR(WEEKDAY(A24,2),"")</f>
         <v>6</v>
       </c>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9" t="s">
+      <c r="C24" s="10"/>
+      <c r="D24" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E24" s="9" t="s">
+      <c r="E24" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="10"/>
-      <c r="J24" s="9"/>
-      <c r="K24" s="9"/>
-      <c r="L24" s="9"/>
-      <c r="M24" s="9"/>
-      <c r="N24" s="10"/>
-      <c r="O24" s="9"/>
-      <c r="P24" s="9"/>
-      <c r="Q24" s="9"/>
-      <c r="R24" s="9"/>
-      <c r="S24" s="9"/>
-      <c r="T24" s="10"/>
-      <c r="U24" s="10"/>
-      <c r="V24" s="9"/>
-      <c r="W24" s="9"/>
-      <c r="X24" s="9"/>
-      <c r="Y24" s="10"/>
-      <c r="Z24" s="11"/>
-      <c r="AA24" s="11"/>
-      <c r="AB24" s="11"/>
-      <c r="AC24" s="9"/>
-      <c r="AD24" s="9"/>
-      <c r="AE24" s="9"/>
-      <c r="AF24" s="9"/>
-      <c r="AG24" s="10"/>
-      <c r="AH24" s="9"/>
-      <c r="AI24" s="9"/>
-      <c r="AJ24" s="9"/>
-      <c r="AK24" s="9"/>
-    </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="8" t="n">
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="10"/>
+      <c r="L24" s="10"/>
+      <c r="M24" s="10"/>
+      <c r="N24" s="11"/>
+      <c r="O24" s="10"/>
+      <c r="P24" s="10"/>
+      <c r="Q24" s="10"/>
+      <c r="R24" s="10"/>
+      <c r="S24" s="10"/>
+      <c r="T24" s="11"/>
+      <c r="U24" s="11"/>
+      <c r="V24" s="10"/>
+      <c r="W24" s="10"/>
+      <c r="X24" s="10"/>
+      <c r="Y24" s="11"/>
+      <c r="Z24" s="12"/>
+      <c r="AA24" s="12"/>
+      <c r="AB24" s="12"/>
+      <c r="AC24" s="10"/>
+      <c r="AD24" s="10"/>
+      <c r="AE24" s="10"/>
+      <c r="AF24" s="10"/>
+      <c r="AG24" s="11"/>
+      <c r="AH24" s="10"/>
+      <c r="AI24" s="10"/>
+      <c r="AJ24" s="10"/>
+      <c r="AK24" s="10"/>
+    </row>
+    <row r="25" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="9" t="n">
         <v>45193</v>
       </c>
-      <c r="B25" s="13" t="n">
+      <c r="B25" s="14" t="n">
         <f aca="false">IFERROR(WEEKDAY(A25,2),"")</f>
         <v>7</v>
       </c>
-      <c r="C25" s="13"/>
-      <c r="D25" s="9" t="s">
+      <c r="C25" s="14"/>
+      <c r="D25" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E25" s="9" t="s">
+      <c r="E25" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F25" s="13"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="13"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="14"/>
       <c r="I25" s="7"/>
-      <c r="J25" s="13"/>
-      <c r="K25" s="13"/>
-      <c r="L25" s="13"/>
-      <c r="M25" s="13"/>
+      <c r="J25" s="14"/>
+      <c r="K25" s="14"/>
+      <c r="L25" s="14"/>
+      <c r="M25" s="14"/>
       <c r="N25" s="7"/>
-      <c r="O25" s="13"/>
-      <c r="P25" s="13"/>
-      <c r="Q25" s="13"/>
-      <c r="R25" s="13"/>
-      <c r="S25" s="13"/>
+      <c r="O25" s="14"/>
+      <c r="P25" s="14"/>
+      <c r="Q25" s="14"/>
+      <c r="R25" s="14"/>
+      <c r="S25" s="14"/>
       <c r="T25" s="7"/>
       <c r="U25" s="7"/>
-      <c r="V25" s="13"/>
-      <c r="W25" s="13"/>
-      <c r="X25" s="13"/>
+      <c r="V25" s="14"/>
+      <c r="W25" s="14"/>
+      <c r="X25" s="14"/>
       <c r="Y25" s="7"/>
-      <c r="Z25" s="13"/>
-      <c r="AA25" s="13"/>
-      <c r="AB25" s="13"/>
-      <c r="AC25" s="13"/>
-      <c r="AD25" s="13"/>
-      <c r="AE25" s="13"/>
-      <c r="AF25" s="13"/>
+      <c r="Z25" s="14"/>
+      <c r="AA25" s="14"/>
+      <c r="AB25" s="14"/>
+      <c r="AC25" s="14"/>
+      <c r="AD25" s="14"/>
+      <c r="AE25" s="14"/>
+      <c r="AF25" s="14"/>
       <c r="AG25" s="7"/>
-      <c r="AH25" s="13"/>
-      <c r="AI25" s="13"/>
-      <c r="AJ25" s="9"/>
-      <c r="AK25" s="13"/>
-      <c r="AL25" s="13"/>
-    </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="8" t="n">
+      <c r="AH25" s="14"/>
+      <c r="AI25" s="14"/>
+      <c r="AJ25" s="10"/>
+      <c r="AK25" s="14"/>
+      <c r="AL25" s="14"/>
+    </row>
+    <row r="26" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="9" t="n">
         <v>45194</v>
       </c>
-      <c r="B26" s="13" t="n">
+      <c r="B26" s="14" t="n">
         <f aca="false">IFERROR(WEEKDAY(A26,2),"")</f>
         <v>1</v>
       </c>
-      <c r="C26" s="13"/>
-      <c r="D26" s="9" t="s">
+      <c r="C26" s="14"/>
+      <c r="D26" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E26" s="9" t="s">
+      <c r="E26" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F26" s="9" t="s">
+      <c r="F26" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="G26" s="9" t="s">
+      <c r="G26" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="H26" s="13"/>
+      <c r="H26" s="14"/>
       <c r="I26" s="7"/>
-      <c r="J26" s="13"/>
-      <c r="K26" s="13"/>
-      <c r="L26" s="13"/>
-      <c r="M26" s="13"/>
+      <c r="J26" s="14"/>
+      <c r="K26" s="14"/>
+      <c r="L26" s="14"/>
+      <c r="M26" s="14"/>
       <c r="N26" s="7"/>
-      <c r="O26" s="13"/>
-      <c r="P26" s="13"/>
-      <c r="Q26" s="13"/>
-      <c r="R26" s="13"/>
-      <c r="S26" s="13"/>
+      <c r="O26" s="14"/>
+      <c r="P26" s="14"/>
+      <c r="Q26" s="14"/>
+      <c r="R26" s="14"/>
+      <c r="S26" s="14"/>
       <c r="T26" s="7"/>
       <c r="U26" s="7"/>
-      <c r="V26" s="13"/>
-      <c r="W26" s="13"/>
-      <c r="X26" s="13"/>
+      <c r="V26" s="14"/>
+      <c r="W26" s="14"/>
+      <c r="X26" s="14"/>
       <c r="Y26" s="7"/>
-      <c r="Z26" s="13"/>
-      <c r="AA26" s="13"/>
-      <c r="AB26" s="13"/>
-      <c r="AC26" s="13"/>
-      <c r="AD26" s="13"/>
-      <c r="AE26" s="13"/>
-      <c r="AF26" s="13"/>
+      <c r="Z26" s="14"/>
+      <c r="AA26" s="14"/>
+      <c r="AB26" s="14"/>
+      <c r="AC26" s="14"/>
+      <c r="AD26" s="14"/>
+      <c r="AE26" s="14"/>
+      <c r="AF26" s="14"/>
       <c r="AG26" s="7"/>
-      <c r="AH26" s="13"/>
-      <c r="AI26" s="13"/>
-      <c r="AJ26" s="13"/>
-      <c r="AK26" s="13"/>
-      <c r="AL26" s="13"/>
-    </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="8" t="n">
+      <c r="AH26" s="14"/>
+      <c r="AI26" s="14"/>
+      <c r="AJ26" s="14"/>
+      <c r="AK26" s="14"/>
+      <c r="AL26" s="14"/>
+    </row>
+    <row r="27" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="9" t="n">
         <v>45195</v>
       </c>
-      <c r="B27" s="13" t="n">
+      <c r="B27" s="14" t="n">
         <f aca="false">IFERROR(WEEKDAY(A27,2),"")</f>
         <v>2</v>
       </c>
-      <c r="C27" s="13"/>
-      <c r="D27" s="9" t="s">
+      <c r="C27" s="14"/>
+      <c r="D27" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="E27" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="F27" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="G27" s="9" t="s">
+      <c r="E27" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F27" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="G27" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="H27" s="13"/>
+      <c r="H27" s="14"/>
       <c r="I27" s="7"/>
-      <c r="J27" s="13"/>
-      <c r="K27" s="13"/>
-      <c r="L27" s="13"/>
-      <c r="M27" s="13"/>
+      <c r="J27" s="14"/>
+      <c r="K27" s="14"/>
+      <c r="L27" s="14"/>
+      <c r="M27" s="14"/>
       <c r="N27" s="7"/>
-      <c r="O27" s="13"/>
-      <c r="P27" s="13"/>
-      <c r="Q27" s="13"/>
-      <c r="R27" s="13"/>
-      <c r="S27" s="13"/>
+      <c r="O27" s="14"/>
+      <c r="P27" s="14"/>
+      <c r="Q27" s="14"/>
+      <c r="R27" s="14"/>
+      <c r="S27" s="14"/>
       <c r="T27" s="7"/>
       <c r="U27" s="7"/>
-      <c r="V27" s="13"/>
-      <c r="W27" s="13"/>
-      <c r="X27" s="13"/>
-      <c r="Z27" s="13"/>
-      <c r="AA27" s="13"/>
-      <c r="AB27" s="13"/>
-      <c r="AC27" s="13"/>
-      <c r="AD27" s="13"/>
-      <c r="AE27" s="13"/>
-      <c r="AF27" s="13"/>
+      <c r="V27" s="14"/>
+      <c r="W27" s="14"/>
+      <c r="X27" s="14"/>
+      <c r="Z27" s="14"/>
+      <c r="AA27" s="14"/>
+      <c r="AB27" s="14"/>
+      <c r="AC27" s="14"/>
+      <c r="AD27" s="14"/>
+      <c r="AE27" s="14"/>
+      <c r="AF27" s="14"/>
       <c r="AG27" s="7"/>
-      <c r="AH27" s="13"/>
-      <c r="AI27" s="13"/>
-      <c r="AJ27" s="13"/>
-      <c r="AK27" s="13"/>
-      <c r="AL27" s="13"/>
-    </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="8" t="n">
+      <c r="AH27" s="14"/>
+      <c r="AI27" s="14"/>
+      <c r="AJ27" s="14"/>
+      <c r="AK27" s="14"/>
+      <c r="AL27" s="14"/>
+    </row>
+    <row r="28" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="9" t="n">
         <v>45196</v>
       </c>
-      <c r="B28" s="13" t="n">
+      <c r="B28" s="14" t="n">
         <f aca="false">IFERROR(WEEKDAY(A28,2),"")</f>
         <v>3</v>
       </c>
-      <c r="C28" s="13"/>
-      <c r="D28" s="9" t="s">
+      <c r="C28" s="14"/>
+      <c r="D28" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E28" s="9" t="s">
+      <c r="E28" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F28" s="13"/>
-      <c r="G28" s="9" t="s">
+      <c r="F28" s="14"/>
+      <c r="G28" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="H28" s="13"/>
+      <c r="H28" s="14"/>
       <c r="I28" s="7"/>
-      <c r="J28" s="13"/>
-      <c r="K28" s="13"/>
-      <c r="L28" s="13"/>
-      <c r="M28" s="13"/>
+      <c r="J28" s="14"/>
+      <c r="K28" s="14"/>
+      <c r="L28" s="14"/>
+      <c r="M28" s="14"/>
       <c r="N28" s="7"/>
-      <c r="O28" s="13"/>
-      <c r="P28" s="13"/>
-      <c r="Q28" s="13"/>
-      <c r="R28" s="13"/>
-      <c r="S28" s="13"/>
+      <c r="O28" s="14"/>
+      <c r="P28" s="14"/>
+      <c r="Q28" s="14"/>
+      <c r="R28" s="14"/>
+      <c r="S28" s="14"/>
       <c r="T28" s="7"/>
       <c r="U28" s="7"/>
-      <c r="V28" s="13"/>
-      <c r="W28" s="13"/>
-      <c r="X28" s="13"/>
+      <c r="V28" s="14"/>
+      <c r="W28" s="14"/>
+      <c r="X28" s="14"/>
       <c r="Y28" s="7"/>
-      <c r="Z28" s="13"/>
-      <c r="AA28" s="13"/>
-      <c r="AB28" s="13"/>
-      <c r="AC28" s="13"/>
-      <c r="AD28" s="13"/>
-      <c r="AE28" s="13"/>
-      <c r="AF28" s="13"/>
+      <c r="Z28" s="14"/>
+      <c r="AA28" s="14"/>
+      <c r="AB28" s="14"/>
+      <c r="AC28" s="14"/>
+      <c r="AD28" s="14"/>
+      <c r="AE28" s="14"/>
+      <c r="AF28" s="14"/>
       <c r="AG28" s="7"/>
-      <c r="AH28" s="13"/>
-      <c r="AI28" s="13"/>
-      <c r="AJ28" s="13"/>
-      <c r="AK28" s="13"/>
-    </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="8" t="n">
+      <c r="AH28" s="14"/>
+      <c r="AI28" s="14"/>
+      <c r="AJ28" s="14"/>
+      <c r="AK28" s="14"/>
+    </row>
+    <row r="29" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="9" t="n">
         <v>45197</v>
       </c>
-      <c r="B29" s="13" t="n">
+      <c r="B29" s="14" t="n">
         <f aca="false">IFERROR(WEEKDAY(A29,2),"")</f>
         <v>4</v>
       </c>
-      <c r="C29" s="13"/>
-      <c r="D29" s="9" t="s">
+      <c r="C29" s="14"/>
+      <c r="D29" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E29" s="9" t="s">
+      <c r="E29" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F29" s="13"/>
-      <c r="G29" s="9" t="s">
+      <c r="F29" s="14"/>
+      <c r="G29" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="H29" s="13"/>
+      <c r="H29" s="14"/>
       <c r="I29" s="7"/>
-      <c r="J29" s="13"/>
-      <c r="K29" s="13"/>
-      <c r="L29" s="13"/>
-      <c r="M29" s="13"/>
+      <c r="J29" s="14"/>
+      <c r="K29" s="14"/>
+      <c r="L29" s="14"/>
+      <c r="M29" s="14"/>
       <c r="N29" s="7"/>
-      <c r="O29" s="13"/>
-      <c r="P29" s="13"/>
-      <c r="Q29" s="13"/>
-      <c r="R29" s="13"/>
-      <c r="S29" s="13"/>
+      <c r="O29" s="14"/>
+      <c r="P29" s="14"/>
+      <c r="Q29" s="14"/>
+      <c r="R29" s="14"/>
+      <c r="S29" s="14"/>
       <c r="T29" s="7"/>
       <c r="U29" s="7"/>
-      <c r="V29" s="13"/>
-      <c r="W29" s="13"/>
-      <c r="X29" s="13"/>
+      <c r="V29" s="14"/>
+      <c r="W29" s="14"/>
+      <c r="X29" s="14"/>
       <c r="Y29" s="7"/>
-      <c r="Z29" s="13"/>
-      <c r="AA29" s="13"/>
-      <c r="AB29" s="13"/>
-      <c r="AC29" s="13"/>
-      <c r="AD29" s="13"/>
-      <c r="AE29" s="13"/>
-      <c r="AF29" s="13"/>
+      <c r="Z29" s="14"/>
+      <c r="AA29" s="14"/>
+      <c r="AB29" s="14"/>
+      <c r="AC29" s="14"/>
+      <c r="AD29" s="14"/>
+      <c r="AE29" s="14"/>
+      <c r="AF29" s="14"/>
       <c r="AG29" s="7"/>
-      <c r="AH29" s="13"/>
-      <c r="AI29" s="13"/>
-      <c r="AJ29" s="13"/>
-      <c r="AK29" s="13"/>
-      <c r="AL29" s="13"/>
-    </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="8" t="n">
+      <c r="AH29" s="14"/>
+      <c r="AI29" s="14"/>
+      <c r="AJ29" s="14"/>
+      <c r="AK29" s="14"/>
+      <c r="AL29" s="14"/>
+    </row>
+    <row r="30" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="9" t="n">
         <v>45198</v>
       </c>
-      <c r="B30" s="13" t="n">
+      <c r="B30" s="14" t="n">
         <f aca="false">IFERROR(WEEKDAY(A30,2),"")</f>
         <v>5</v>
       </c>
-      <c r="C30" s="13"/>
-      <c r="D30" s="9" t="s">
+      <c r="C30" s="14"/>
+      <c r="D30" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="E30" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="F30" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="G30" s="9" t="s">
+      <c r="E30" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F30" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="G30" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="H30" s="13"/>
+      <c r="H30" s="14"/>
       <c r="I30" s="7"/>
-      <c r="J30" s="13"/>
-      <c r="K30" s="13"/>
-      <c r="L30" s="13"/>
-      <c r="M30" s="13"/>
+      <c r="J30" s="14"/>
+      <c r="K30" s="14"/>
+      <c r="L30" s="14"/>
+      <c r="M30" s="14"/>
       <c r="N30" s="7"/>
-      <c r="O30" s="13"/>
-      <c r="P30" s="13"/>
-      <c r="Q30" s="13"/>
-      <c r="R30" s="13"/>
-      <c r="S30" s="13"/>
+      <c r="O30" s="14"/>
+      <c r="P30" s="14"/>
+      <c r="Q30" s="14"/>
+      <c r="R30" s="14"/>
+      <c r="S30" s="14"/>
       <c r="T30" s="7"/>
       <c r="U30" s="7"/>
-      <c r="V30" s="13"/>
-      <c r="W30" s="13"/>
-      <c r="X30" s="13"/>
+      <c r="V30" s="14"/>
+      <c r="W30" s="14"/>
+      <c r="X30" s="14"/>
       <c r="Y30" s="7"/>
-      <c r="Z30" s="13"/>
-      <c r="AA30" s="13"/>
-      <c r="AB30" s="13"/>
-      <c r="AC30" s="13"/>
-      <c r="AD30" s="13"/>
-      <c r="AE30" s="13"/>
-      <c r="AF30" s="13"/>
+      <c r="Z30" s="14"/>
+      <c r="AA30" s="14"/>
+      <c r="AB30" s="14"/>
+      <c r="AC30" s="14"/>
+      <c r="AD30" s="14"/>
+      <c r="AE30" s="14"/>
+      <c r="AF30" s="14"/>
       <c r="AG30" s="7"/>
-      <c r="AH30" s="13"/>
-      <c r="AI30" s="13"/>
-      <c r="AJ30" s="13"/>
-      <c r="AK30" s="13"/>
-      <c r="AL30" s="13"/>
-    </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="8" t="n">
+      <c r="AH30" s="14"/>
+      <c r="AI30" s="14"/>
+      <c r="AJ30" s="14"/>
+      <c r="AK30" s="14"/>
+      <c r="AL30" s="14"/>
+    </row>
+    <row r="31" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="9" t="n">
         <v>45199</v>
       </c>
-      <c r="B31" s="13" t="n">
+      <c r="B31" s="14" t="n">
         <f aca="false">IFERROR(WEEKDAY(A31,2),"")</f>
         <v>6</v>
       </c>
-      <c r="C31" s="13"/>
-      <c r="D31" s="9" t="s">
+      <c r="C31" s="14"/>
+      <c r="D31" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E31" s="9" t="s">
+      <c r="E31" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F31" s="13"/>
-      <c r="G31" s="9"/>
-      <c r="H31" s="13"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="14"/>
       <c r="I31" s="7"/>
-      <c r="J31" s="13"/>
-      <c r="K31" s="13"/>
-      <c r="L31" s="13"/>
-      <c r="M31" s="13"/>
+      <c r="J31" s="14"/>
+      <c r="K31" s="14"/>
+      <c r="L31" s="14"/>
+      <c r="M31" s="14"/>
       <c r="N31" s="7"/>
-      <c r="O31" s="13"/>
-      <c r="P31" s="13"/>
-      <c r="Q31" s="13"/>
-      <c r="R31" s="13"/>
-      <c r="S31" s="13"/>
+      <c r="O31" s="14"/>
+      <c r="P31" s="14"/>
+      <c r="Q31" s="14"/>
+      <c r="R31" s="14"/>
+      <c r="S31" s="14"/>
       <c r="T31" s="7"/>
       <c r="U31" s="7"/>
-      <c r="V31" s="13"/>
-      <c r="W31" s="13"/>
-      <c r="X31" s="13"/>
+      <c r="V31" s="14"/>
+      <c r="W31" s="14"/>
+      <c r="X31" s="14"/>
       <c r="Y31" s="7"/>
-      <c r="Z31" s="13"/>
-      <c r="AA31" s="13"/>
-      <c r="AB31" s="13"/>
-      <c r="AC31" s="13"/>
-      <c r="AD31" s="13"/>
-      <c r="AE31" s="13"/>
-      <c r="AF31" s="13"/>
+      <c r="Z31" s="14"/>
+      <c r="AA31" s="14"/>
+      <c r="AB31" s="14"/>
+      <c r="AC31" s="14"/>
+      <c r="AD31" s="14"/>
+      <c r="AE31" s="14"/>
+      <c r="AF31" s="14"/>
       <c r="AG31" s="7"/>
-      <c r="AH31" s="13"/>
-      <c r="AI31" s="13"/>
-      <c r="AJ31" s="13"/>
-      <c r="AK31" s="13"/>
-      <c r="AL31" s="13"/>
+      <c r="AH31" s="14"/>
+      <c r="AI31" s="14"/>
+      <c r="AJ31" s="14"/>
+      <c r="AK31" s="14"/>
+      <c r="AL31" s="14"/>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="8"/>
-      <c r="B32" s="13"/>
-      <c r="C32" s="13"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="9"/>
-      <c r="H32" s="13"/>
+      <c r="A32" s="9"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="14"/>
       <c r="I32" s="7"/>
-      <c r="J32" s="13"/>
-      <c r="K32" s="13"/>
-      <c r="L32" s="13"/>
-      <c r="M32" s="13"/>
+      <c r="J32" s="14"/>
+      <c r="K32" s="14"/>
+      <c r="L32" s="14"/>
+      <c r="M32" s="14"/>
       <c r="N32" s="7"/>
-      <c r="O32" s="13"/>
-      <c r="P32" s="13"/>
-      <c r="Q32" s="13"/>
-      <c r="R32" s="13"/>
-      <c r="S32" s="13"/>
+      <c r="O32" s="14"/>
+      <c r="P32" s="14"/>
+      <c r="Q32" s="14"/>
+      <c r="R32" s="14"/>
+      <c r="S32" s="14"/>
       <c r="T32" s="7"/>
       <c r="U32" s="7"/>
-      <c r="V32" s="13"/>
-      <c r="W32" s="13"/>
-      <c r="X32" s="13"/>
+      <c r="V32" s="14"/>
+      <c r="W32" s="14"/>
+      <c r="X32" s="14"/>
       <c r="Y32" s="7"/>
-      <c r="Z32" s="13"/>
-      <c r="AA32" s="13"/>
-      <c r="AB32" s="13"/>
-      <c r="AC32" s="13"/>
-      <c r="AD32" s="13"/>
-      <c r="AE32" s="13"/>
-      <c r="AF32" s="13"/>
+      <c r="Z32" s="14"/>
+      <c r="AA32" s="14"/>
+      <c r="AB32" s="14"/>
+      <c r="AC32" s="14"/>
+      <c r="AD32" s="14"/>
+      <c r="AE32" s="14"/>
+      <c r="AF32" s="14"/>
       <c r="AG32" s="7"/>
-      <c r="AH32" s="13"/>
-      <c r="AI32" s="13"/>
-      <c r="AJ32" s="13"/>
-      <c r="AK32" s="13"/>
+      <c r="AH32" s="14"/>
+      <c r="AI32" s="14"/>
+      <c r="AJ32" s="14"/>
+      <c r="AK32" s="14"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="AH17:AK17 O17:AF17 A2:N2 O2:AL16 O18:AL24 AJ25 O25:X32 A1:AL1 A3:A32 F2:F4 F6:F7 B32:F32 F9:F31 G3:N32 B3:E31">
+  <conditionalFormatting sqref="AH17:AK17 O17:AF17 A2:N2 O18:AL24 AJ25 O25:X32 A1:AL1 A3:A32 F2:F4 F6:F7 B32:N32 G3:N31 B3:E31 F9:F31 O2:AL16">
     <cfRule type="beginsWith" priority="2" operator="beginsWith" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="!" dxfId="0">
       <formula>LEFT(A1,LEN("!"))="!"</formula>
     </cfRule>
@@ -3489,899 +3567,899 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="14" width="11.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="15" width="4.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="15" width="8.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="15" width="14.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="15" width="7.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="15" width="12.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="15" width="7.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="15" width="9.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="15" width="9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="15" width="27.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="15" width="13.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="15" width="14"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="13" style="15" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="15" width="11.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="16" width="4.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="16" width="8.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="16" width="14.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="16" width="7.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="16" width="12.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="16" width="7.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="16" width="9.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="16" width="9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="16" width="27.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="16" width="13.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="16" width="14"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="13" style="16" width="9.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="16" t="str">
+      <c r="A1" s="17" t="str">
         <f aca="false">vedomost!A1</f>
         <v>DATE</v>
       </c>
-      <c r="B1" s="17" t="str">
+      <c r="B1" s="18" t="str">
         <f aca="false">vedomost!B1</f>
         <v>DAY</v>
       </c>
-      <c r="C1" s="18" t="str">
+      <c r="C1" s="19" t="str">
         <f aca="false">vedomost!F1</f>
         <v>DUTY</v>
       </c>
-      <c r="D1" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="E1" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="F1" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="G1" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="H1" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="I1" s="17" t="s">
+      <c r="D1" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="J1" s="20" t="s">
+      <c r="E1" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="K1" s="21" t="s">
+      <c r="F1" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="L1" s="22" t="s">
+      <c r="G1" s="18" t="s">
         <v>55</v>
       </c>
+      <c r="H1" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="I1" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="J1" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="K1" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="L1" s="23" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="23" t="n">
+      <c r="A2" s="24" t="n">
         <f aca="false">vedomost!A2</f>
         <v>45170</v>
       </c>
-      <c r="B2" s="24" t="n">
+      <c r="B2" s="25" t="n">
         <f aca="false">vedomost!B2</f>
         <v>5</v>
       </c>
-      <c r="C2" s="17" t="str">
+      <c r="C2" s="18" t="str">
         <f aca="false">IF(vedomost!F2=0,"",vedomost!F2)</f>
         <v>-</v>
       </c>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="F2" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="G2" s="25" t="s">
-        <v>58</v>
-      </c>
-      <c r="I2" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="J2" s="26" t="s">
-        <v>60</v>
-      </c>
-      <c r="K2" s="27"/>
-      <c r="L2" s="28"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="F2" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="G2" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="I2" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="J2" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="K2" s="28"/>
+      <c r="L2" s="29"/>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="23" t="n">
+      <c r="A3" s="24" t="n">
         <f aca="false">vedomost!A3</f>
         <v>45171</v>
       </c>
-      <c r="B3" s="24" t="n">
+      <c r="B3" s="25" t="n">
         <f aca="false">vedomost!B3</f>
         <v>6</v>
       </c>
-      <c r="C3" s="17" t="str">
+      <c r="C3" s="18" t="str">
         <f aca="false">IF(vedomost!F3=0,"",vedomost!F3)</f>
         <v>-</v>
       </c>
-      <c r="F3" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="G3" s="25"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="26" t="s">
-        <v>61</v>
-      </c>
-      <c r="K3" s="27"/>
-      <c r="L3" s="28"/>
+      <c r="F3" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="G3" s="26"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="K3" s="28"/>
+      <c r="L3" s="29"/>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="23" t="n">
+      <c r="A4" s="24" t="n">
         <f aca="false">vedomost!A4</f>
         <v>45172</v>
       </c>
-      <c r="B4" s="24" t="n">
+      <c r="B4" s="25" t="n">
         <f aca="false">vedomost!B4</f>
         <v>7</v>
       </c>
-      <c r="C4" s="17" t="str">
+      <c r="C4" s="18" t="str">
         <f aca="false">IF(vedomost!F4=0,"",vedomost!F4)</f>
         <v>Ed8(0)</v>
       </c>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="G4" s="25"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="25"/>
-      <c r="J4" s="26" t="s">
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="K4" s="27"/>
-      <c r="L4" s="28"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="K4" s="28"/>
+      <c r="L4" s="29"/>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="23" t="n">
+      <c r="A5" s="24" t="n">
         <f aca="false">vedomost!A5</f>
         <v>45173</v>
       </c>
-      <c r="B5" s="24" t="n">
+      <c r="B5" s="25" t="n">
         <f aca="false">vedomost!B5</f>
         <v>1</v>
       </c>
-      <c r="C5" s="17" t="str">
+      <c r="C5" s="18" t="str">
         <f aca="false">IF(vedomost!F5=0,"",vedomost!F5)</f>
-        <v/>
-      </c>
-      <c r="D5" s="25" t="s">
-        <v>47</v>
-      </c>
-      <c r="E5" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="F5" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="G5" s="25"/>
-      <c r="H5" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="I5" s="25"/>
-      <c r="J5" s="26" t="s">
-        <v>64</v>
-      </c>
-      <c r="K5" s="27"/>
-      <c r="L5" s="28"/>
+        <v>-</v>
+      </c>
+      <c r="D5" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="E5" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="F5" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="G5" s="26"/>
+      <c r="H5" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="I5" s="26"/>
+      <c r="J5" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="K5" s="28"/>
+      <c r="L5" s="29"/>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="23" t="n">
+      <c r="A6" s="24" t="n">
         <f aca="false">vedomost!A6</f>
         <v>45174</v>
       </c>
-      <c r="B6" s="24" t="n">
+      <c r="B6" s="25" t="n">
         <f aca="false">vedomost!B6</f>
         <v>2</v>
       </c>
-      <c r="C6" s="17" t="str">
+      <c r="C6" s="18" t="str">
         <f aca="false">IF(vedomost!F6=0,"",vedomost!F6)</f>
         <v/>
       </c>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="G6" s="25"/>
-      <c r="H6" s="29"/>
-      <c r="I6" s="25"/>
-      <c r="J6" s="26" t="s">
-        <v>65</v>
-      </c>
-      <c r="K6" s="27"/>
-      <c r="L6" s="28"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="G6" s="26"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="K6" s="28"/>
+      <c r="L6" s="29"/>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="23" t="n">
+      <c r="A7" s="24" t="n">
         <f aca="false">vedomost!A7</f>
         <v>45175</v>
       </c>
-      <c r="B7" s="24" t="n">
+      <c r="B7" s="25" t="n">
         <f aca="false">vedomost!B7</f>
         <v>3</v>
       </c>
-      <c r="C7" s="17" t="str">
+      <c r="C7" s="18" t="str">
         <f aca="false">IF(vedomost!F7=0,"",vedomost!F7)</f>
         <v/>
       </c>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="G7" s="25"/>
-      <c r="H7" s="29"/>
-      <c r="I7" s="25"/>
-      <c r="J7" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="K7" s="27"/>
-      <c r="L7" s="28"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="G7" s="26"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="K7" s="28"/>
+      <c r="L7" s="29"/>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="23" t="n">
+      <c r="A8" s="24" t="n">
         <f aca="false">vedomost!A8</f>
         <v>45176</v>
       </c>
-      <c r="B8" s="24" t="n">
+      <c r="B8" s="25" t="n">
         <f aca="false">vedomost!B8</f>
         <v>4</v>
       </c>
-      <c r="C8" s="17" t="str">
+      <c r="C8" s="18" t="str">
         <f aca="false">IF(vedomost!F8=0,"",vedomost!F8)</f>
         <v/>
       </c>
-      <c r="E8" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="F8" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="G8" s="25"/>
-      <c r="H8" s="29"/>
-      <c r="I8" s="28"/>
-      <c r="J8" s="30" t="s">
-        <v>67</v>
-      </c>
-      <c r="K8" s="27"/>
-      <c r="L8" s="28"/>
+      <c r="E8" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="F8" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="G8" s="26"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="K8" s="28"/>
+      <c r="L8" s="29"/>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="23" t="n">
+      <c r="A9" s="24" t="n">
         <f aca="false">vedomost!A9</f>
         <v>45177</v>
       </c>
-      <c r="B9" s="24" t="n">
+      <c r="B9" s="25" t="n">
         <f aca="false">vedomost!B9</f>
         <v>5</v>
       </c>
-      <c r="C9" s="17" t="str">
+      <c r="C9" s="18" t="str">
         <f aca="false">IF(vedomost!F9=0,"",vedomost!F9)</f>
         <v/>
       </c>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="G9" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="H9" s="29"/>
-      <c r="I9" s="28"/>
-      <c r="J9" s="30" t="s">
-        <v>69</v>
-      </c>
-      <c r="K9" s="27"/>
-      <c r="L9" s="28"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="G9" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="H9" s="30"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="K9" s="28"/>
+      <c r="L9" s="29"/>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="23" t="n">
+      <c r="A10" s="24" t="n">
         <f aca="false">vedomost!A10</f>
         <v>45178</v>
       </c>
-      <c r="B10" s="24" t="n">
+      <c r="B10" s="25" t="n">
         <f aca="false">vedomost!B10</f>
         <v>6</v>
       </c>
-      <c r="C10" s="17" t="str">
+      <c r="C10" s="18" t="str">
         <f aca="false">IF(vedomost!F10=0,"",vedomost!F10)</f>
         <v/>
       </c>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="G10" s="25"/>
-      <c r="H10" s="29"/>
-      <c r="I10" s="28"/>
-      <c r="J10" s="30" t="s">
-        <v>70</v>
-      </c>
-      <c r="K10" s="27"/>
-      <c r="L10" s="28"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="G10" s="26"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="29"/>
+      <c r="J10" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="K10" s="28"/>
+      <c r="L10" s="29"/>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="23" t="n">
+      <c r="A11" s="24" t="n">
         <f aca="false">vedomost!A11</f>
         <v>45179</v>
       </c>
-      <c r="B11" s="24" t="n">
+      <c r="B11" s="25" t="n">
         <f aca="false">vedomost!B11</f>
         <v>7</v>
       </c>
-      <c r="C11" s="17" t="str">
+      <c r="C11" s="18" t="str">
         <f aca="false">IF(vedomost!F11=0,"",vedomost!F11)</f>
         <v/>
       </c>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="G11" s="25"/>
-      <c r="H11" s="29"/>
-      <c r="I11" s="28"/>
-      <c r="J11" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="K11" s="27"/>
-      <c r="L11" s="28"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="G11" s="26"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="K11" s="28"/>
+      <c r="L11" s="29"/>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="23" t="n">
+      <c r="A12" s="24" t="n">
         <f aca="false">vedomost!A12</f>
         <v>45180</v>
       </c>
-      <c r="B12" s="24" t="n">
+      <c r="B12" s="25" t="n">
         <f aca="false">vedomost!B12</f>
         <v>1</v>
       </c>
-      <c r="C12" s="17" t="str">
+      <c r="C12" s="18" t="str">
         <f aca="false">IF(vedomost!F12=0,"",vedomost!F12)</f>
         <v/>
       </c>
-      <c r="D12" s="25" t="s">
-        <v>47</v>
-      </c>
-      <c r="E12" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="F12" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="G12" s="25"/>
-      <c r="H12" s="29"/>
-      <c r="I12" s="28"/>
-      <c r="J12" s="30" t="s">
-        <v>72</v>
-      </c>
-      <c r="K12" s="27"/>
-      <c r="L12" s="28"/>
+      <c r="D12" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="F12" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="G12" s="26"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="29"/>
+      <c r="J12" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="K12" s="28"/>
+      <c r="L12" s="29"/>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="23" t="n">
+      <c r="A13" s="24" t="n">
         <f aca="false">vedomost!A13</f>
         <v>45181</v>
       </c>
-      <c r="B13" s="24" t="n">
+      <c r="B13" s="25" t="n">
         <f aca="false">vedomost!B13</f>
         <v>2</v>
       </c>
-      <c r="C13" s="17" t="str">
+      <c r="C13" s="18" t="str">
         <f aca="false">IF(vedomost!F13=0,"",vedomost!F13)</f>
         <v/>
       </c>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="G13" s="25"/>
-      <c r="H13" s="29"/>
-      <c r="I13" s="28"/>
-      <c r="J13" s="30" t="s">
-        <v>73</v>
-      </c>
-      <c r="K13" s="27"/>
-      <c r="L13" s="28"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="G13" s="26"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="29"/>
+      <c r="J13" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="K13" s="28"/>
+      <c r="L13" s="29"/>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="23" t="n">
+      <c r="A14" s="24" t="n">
         <f aca="false">vedomost!A14</f>
         <v>45182</v>
       </c>
-      <c r="B14" s="24" t="n">
+      <c r="B14" s="25" t="n">
         <f aca="false">vedomost!B14</f>
         <v>3</v>
       </c>
-      <c r="C14" s="17" t="str">
+      <c r="C14" s="18" t="str">
         <f aca="false">IF(vedomost!F14=0,"",vedomost!F14)</f>
         <v/>
       </c>
-      <c r="D14" s="25"/>
-      <c r="F14" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="G14" s="25"/>
-      <c r="H14" s="29"/>
-      <c r="I14" s="28"/>
-      <c r="K14" s="27"/>
-      <c r="L14" s="28"/>
+      <c r="D14" s="26"/>
+      <c r="F14" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="G14" s="26"/>
+      <c r="H14" s="30"/>
+      <c r="I14" s="29"/>
+      <c r="K14" s="28"/>
+      <c r="L14" s="29"/>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="23" t="n">
+      <c r="A15" s="24" t="n">
         <f aca="false">vedomost!A15</f>
         <v>45183</v>
       </c>
-      <c r="B15" s="24" t="n">
+      <c r="B15" s="25" t="n">
         <f aca="false">vedomost!B15</f>
         <v>4</v>
       </c>
-      <c r="C15" s="17" t="str">
+      <c r="C15" s="18" t="str">
         <f aca="false">IF(vedomost!F15=0,"",vedomost!F15)</f>
         <v/>
       </c>
-      <c r="D15" s="25"/>
-      <c r="E15" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="F15" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="G15" s="25"/>
-      <c r="H15" s="29"/>
-      <c r="I15" s="28"/>
-      <c r="J15" s="30" t="s">
-        <v>74</v>
-      </c>
-      <c r="K15" s="21"/>
-      <c r="L15" s="22"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="F15" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="G15" s="26"/>
+      <c r="H15" s="30"/>
+      <c r="I15" s="29"/>
+      <c r="J15" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="K15" s="22"/>
+      <c r="L15" s="23"/>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="23" t="n">
+      <c r="A16" s="24" t="n">
         <f aca="false">vedomost!A16</f>
         <v>45184</v>
       </c>
-      <c r="B16" s="24" t="n">
+      <c r="B16" s="25" t="n">
         <f aca="false">vedomost!B16</f>
         <v>5</v>
       </c>
-      <c r="C16" s="17" t="str">
+      <c r="C16" s="18" t="str">
         <f aca="false">IF(vedomost!F16=0,"",vedomost!F16)</f>
         <v/>
       </c>
-      <c r="D16" s="25"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="G16" s="25"/>
-      <c r="H16" s="29"/>
-      <c r="I16" s="28"/>
-      <c r="J16" s="30" t="s">
-        <v>75</v>
-      </c>
-      <c r="K16" s="27"/>
-      <c r="L16" s="28"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="G16" s="26"/>
+      <c r="H16" s="30"/>
+      <c r="I16" s="29"/>
+      <c r="J16" s="31" t="s">
+        <v>80</v>
+      </c>
+      <c r="K16" s="28"/>
+      <c r="L16" s="29"/>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="23" t="n">
+      <c r="A17" s="24" t="n">
         <f aca="false">vedomost!A17</f>
         <v>45185</v>
       </c>
-      <c r="B17" s="24" t="n">
+      <c r="B17" s="25" t="n">
         <f aca="false">vedomost!B17</f>
         <v>6</v>
       </c>
-      <c r="C17" s="17" t="str">
+      <c r="C17" s="18" t="str">
         <f aca="false">IF(vedomost!F17=0,"",vedomost!F17)</f>
         <v/>
       </c>
-      <c r="D17" s="25"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="G17" s="25" t="s">
-        <v>58</v>
-      </c>
-      <c r="H17" s="29" t="s">
+      <c r="D17" s="26"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="G17" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="I17" s="28" t="s">
-        <v>59</v>
-      </c>
-      <c r="K17" s="27"/>
-      <c r="L17" s="28"/>
+      <c r="H17" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="I17" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="K17" s="28"/>
+      <c r="L17" s="29"/>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="23" t="n">
+      <c r="A18" s="24" t="n">
         <f aca="false">vedomost!A18</f>
         <v>45186</v>
       </c>
-      <c r="B18" s="24" t="n">
+      <c r="B18" s="25" t="n">
         <f aca="false">vedomost!B18</f>
         <v>7</v>
       </c>
-      <c r="C18" s="17" t="str">
+      <c r="C18" s="18" t="str">
         <f aca="false">IF(vedomost!F18=0,"",vedomost!F18)</f>
         <v/>
       </c>
-      <c r="D18" s="25"/>
-      <c r="F18" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="G18" s="25"/>
-      <c r="H18" s="29"/>
-      <c r="I18" s="28"/>
-      <c r="J18" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="K18" s="27"/>
-      <c r="L18" s="28"/>
+      <c r="D18" s="26"/>
+      <c r="F18" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="G18" s="26"/>
+      <c r="H18" s="30"/>
+      <c r="I18" s="29"/>
+      <c r="J18" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="K18" s="28"/>
+      <c r="L18" s="29"/>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="23" t="n">
+      <c r="A19" s="24" t="n">
         <f aca="false">vedomost!A19</f>
         <v>45187</v>
       </c>
-      <c r="B19" s="24" t="n">
+      <c r="B19" s="25" t="n">
         <f aca="false">vedomost!B19</f>
         <v>1</v>
       </c>
-      <c r="C19" s="17" t="str">
+      <c r="C19" s="18" t="str">
         <f aca="false">IF(vedomost!F19=0,"",vedomost!F19)</f>
         <v/>
       </c>
-      <c r="D19" s="25" t="s">
-        <v>47</v>
-      </c>
-      <c r="E19" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="F19" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="G19" s="25"/>
-      <c r="H19" s="29"/>
-      <c r="I19" s="28"/>
-      <c r="J19" s="30" t="s">
-        <v>77</v>
-      </c>
-      <c r="K19" s="27"/>
-      <c r="L19" s="28"/>
+      <c r="D19" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="E19" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="F19" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="G19" s="26"/>
+      <c r="H19" s="30"/>
+      <c r="I19" s="29"/>
+      <c r="J19" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="K19" s="28"/>
+      <c r="L19" s="29"/>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="23" t="n">
+      <c r="A20" s="24" t="n">
         <f aca="false">vedomost!A20</f>
         <v>45188</v>
       </c>
-      <c r="B20" s="24" t="n">
+      <c r="B20" s="25" t="n">
         <f aca="false">vedomost!B20</f>
         <v>2</v>
       </c>
-      <c r="C20" s="17" t="str">
+      <c r="C20" s="18" t="str">
         <f aca="false">IF(vedomost!F20=0,"",vedomost!F20)</f>
         <v/>
       </c>
-      <c r="D20" s="25"/>
-      <c r="F20" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="G20" s="25"/>
-      <c r="H20" s="29"/>
-      <c r="I20" s="28"/>
-      <c r="J20" s="26" t="s">
-        <v>78</v>
-      </c>
-      <c r="K20" s="27"/>
-      <c r="L20" s="28"/>
+      <c r="D20" s="26"/>
+      <c r="F20" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="G20" s="26"/>
+      <c r="H20" s="30"/>
+      <c r="I20" s="29"/>
+      <c r="J20" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="K20" s="28"/>
+      <c r="L20" s="29"/>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="23" t="n">
+      <c r="A21" s="24" t="n">
         <f aca="false">vedomost!A21</f>
         <v>45189</v>
       </c>
-      <c r="B21" s="24" t="n">
+      <c r="B21" s="25" t="n">
         <f aca="false">vedomost!B21</f>
         <v>3</v>
       </c>
-      <c r="C21" s="17" t="str">
+      <c r="C21" s="18" t="str">
         <f aca="false">IF(vedomost!F21=0,"",vedomost!F21)</f>
         <v/>
       </c>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="G21" s="25"/>
-      <c r="H21" s="29"/>
-      <c r="I21" s="25"/>
-      <c r="J21" s="26" t="s">
-        <v>79</v>
-      </c>
-      <c r="K21" s="27"/>
-      <c r="L21" s="28"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="G21" s="26"/>
+      <c r="H21" s="30"/>
+      <c r="I21" s="26"/>
+      <c r="J21" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="K21" s="28"/>
+      <c r="L21" s="29"/>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="23" t="n">
+      <c r="A22" s="24" t="n">
         <f aca="false">vedomost!A22</f>
         <v>45190</v>
       </c>
-      <c r="B22" s="24" t="n">
+      <c r="B22" s="25" t="n">
         <f aca="false">vedomost!B22</f>
         <v>4</v>
       </c>
-      <c r="C22" s="17" t="str">
+      <c r="C22" s="18" t="str">
         <f aca="false">IF(vedomost!F22=0,"",vedomost!F22)</f>
         <v/>
       </c>
-      <c r="D22" s="25"/>
-      <c r="F22" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="G22" s="25"/>
-      <c r="H22" s="29"/>
-      <c r="I22" s="25"/>
-      <c r="J22" s="26" t="s">
-        <v>80</v>
-      </c>
-      <c r="K22" s="27"/>
-      <c r="L22" s="28"/>
+      <c r="D22" s="26"/>
+      <c r="F22" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="G22" s="26"/>
+      <c r="H22" s="30"/>
+      <c r="I22" s="26"/>
+      <c r="J22" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="K22" s="28"/>
+      <c r="L22" s="29"/>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="23" t="n">
+      <c r="A23" s="24" t="n">
         <f aca="false">vedomost!A23</f>
         <v>45191</v>
       </c>
-      <c r="B23" s="24" t="n">
+      <c r="B23" s="25" t="n">
         <f aca="false">vedomost!B23</f>
         <v>5</v>
       </c>
-      <c r="C23" s="17" t="str">
+      <c r="C23" s="18" t="str">
         <f aca="false">IF(vedomost!F23=0,"",vedomost!F23)</f>
         <v/>
       </c>
-      <c r="E23" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="F23" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="G23" s="25"/>
-      <c r="H23" s="29"/>
-      <c r="I23" s="25"/>
-      <c r="J23" s="26" t="s">
-        <v>81</v>
-      </c>
-      <c r="K23" s="27"/>
-      <c r="L23" s="28"/>
+      <c r="E23" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="F23" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="G23" s="26"/>
+      <c r="H23" s="30"/>
+      <c r="I23" s="26"/>
+      <c r="J23" s="27" t="s">
+        <v>86</v>
+      </c>
+      <c r="K23" s="28"/>
+      <c r="L23" s="29"/>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="23" t="n">
+      <c r="A24" s="24" t="n">
         <f aca="false">vedomost!A24</f>
         <v>45192</v>
       </c>
-      <c r="B24" s="24" t="n">
+      <c r="B24" s="25" t="n">
         <f aca="false">vedomost!B24</f>
         <v>6</v>
       </c>
-      <c r="C24" s="17" t="str">
+      <c r="C24" s="18" t="str">
         <f aca="false">IF(vedomost!F24=0,"",vedomost!F24)</f>
         <v/>
       </c>
-      <c r="D24" s="25"/>
-      <c r="E24" s="25"/>
-      <c r="F24" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="G24" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="H24" s="29"/>
-      <c r="I24" s="25"/>
-      <c r="J24" s="26" t="s">
-        <v>82</v>
-      </c>
-      <c r="K24" s="27"/>
-      <c r="L24" s="28"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="G24" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="H24" s="30"/>
+      <c r="I24" s="26"/>
+      <c r="J24" s="27" t="s">
+        <v>87</v>
+      </c>
+      <c r="K24" s="28"/>
+      <c r="L24" s="29"/>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="23" t="n">
+      <c r="A25" s="24" t="n">
         <f aca="false">vedomost!A25</f>
         <v>45193</v>
       </c>
-      <c r="B25" s="24" t="n">
+      <c r="B25" s="25" t="n">
         <f aca="false">vedomost!B25</f>
         <v>7</v>
       </c>
-      <c r="C25" s="17" t="str">
+      <c r="C25" s="18" t="str">
         <f aca="false">IF(vedomost!F25=0,"",vedomost!F25)</f>
         <v/>
       </c>
-      <c r="D25" s="25"/>
-      <c r="E25" s="25"/>
-      <c r="F25" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="G25" s="25"/>
-      <c r="H25" s="29"/>
-      <c r="I25" s="25"/>
-      <c r="J25" s="26" t="s">
-        <v>83</v>
-      </c>
-      <c r="K25" s="27"/>
-      <c r="L25" s="28"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="26"/>
+      <c r="F25" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="G25" s="26"/>
+      <c r="H25" s="30"/>
+      <c r="I25" s="26"/>
+      <c r="J25" s="27" t="s">
+        <v>88</v>
+      </c>
+      <c r="K25" s="28"/>
+      <c r="L25" s="29"/>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="23" t="n">
+      <c r="A26" s="24" t="n">
         <f aca="false">vedomost!A26</f>
         <v>45194</v>
       </c>
-      <c r="B26" s="24" t="n">
+      <c r="B26" s="25" t="n">
         <f aca="false">vedomost!B26</f>
         <v>1</v>
       </c>
-      <c r="C26" s="17" t="str">
+      <c r="C26" s="18" t="str">
         <f aca="false">IF(vedomost!F26=0,"",vedomost!F26)</f>
         <v>Ed8(0)</v>
       </c>
-      <c r="D26" s="25" t="s">
-        <v>47</v>
-      </c>
-      <c r="E26" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="F26" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="G26" s="25"/>
-      <c r="H26" s="29"/>
-      <c r="I26" s="25"/>
-      <c r="J26" s="26"/>
-      <c r="K26" s="27"/>
-      <c r="L26" s="28"/>
+      <c r="D26" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="E26" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="F26" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="G26" s="26"/>
+      <c r="H26" s="30"/>
+      <c r="I26" s="26"/>
+      <c r="J26" s="27"/>
+      <c r="K26" s="28"/>
+      <c r="L26" s="29"/>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="23" t="n">
+      <c r="A27" s="24" t="n">
         <f aca="false">vedomost!A27</f>
         <v>45195</v>
       </c>
-      <c r="B27" s="24" t="n">
+      <c r="B27" s="25" t="n">
         <f aca="false">vedomost!B27</f>
         <v>2</v>
       </c>
-      <c r="C27" s="17" t="str">
+      <c r="C27" s="18" t="str">
         <f aca="false">IF(vedomost!F27=0,"",vedomost!F27)</f>
         <v>Ed24(0)</v>
       </c>
-      <c r="D27" s="25"/>
-      <c r="E27" s="25"/>
-      <c r="F27" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="G27" s="25"/>
-      <c r="H27" s="29"/>
-      <c r="I27" s="25"/>
-      <c r="J27" s="26"/>
-      <c r="K27" s="27"/>
-      <c r="L27" s="28"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="G27" s="26"/>
+      <c r="H27" s="30"/>
+      <c r="I27" s="26"/>
+      <c r="J27" s="27"/>
+      <c r="K27" s="28"/>
+      <c r="L27" s="29"/>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="23" t="n">
+      <c r="A28" s="24" t="n">
         <f aca="false">vedomost!A28</f>
         <v>45196</v>
       </c>
-      <c r="B28" s="24" t="n">
+      <c r="B28" s="25" t="n">
         <f aca="false">vedomost!B28</f>
         <v>3</v>
       </c>
-      <c r="C28" s="17" t="str">
+      <c r="C28" s="18" t="str">
         <f aca="false">IF(vedomost!F28=0,"",vedomost!F28)</f>
         <v/>
       </c>
-      <c r="D28" s="25"/>
-      <c r="E28" s="25"/>
-      <c r="F28" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="G28" s="25"/>
-      <c r="H28" s="29"/>
-      <c r="I28" s="25"/>
-      <c r="J28" s="26"/>
-      <c r="K28" s="27"/>
-      <c r="L28" s="28"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="26"/>
+      <c r="F28" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="G28" s="26"/>
+      <c r="H28" s="30"/>
+      <c r="I28" s="26"/>
+      <c r="J28" s="27"/>
+      <c r="K28" s="28"/>
+      <c r="L28" s="29"/>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="23" t="n">
+      <c r="A29" s="24" t="n">
         <f aca="false">vedomost!A29</f>
         <v>45197</v>
       </c>
-      <c r="B29" s="24" t="n">
+      <c r="B29" s="25" t="n">
         <f aca="false">vedomost!B29</f>
         <v>4</v>
       </c>
-      <c r="C29" s="17" t="str">
+      <c r="C29" s="18" t="str">
         <f aca="false">IF(vedomost!F29=0,"",vedomost!F29)</f>
         <v/>
       </c>
-      <c r="D29" s="25"/>
-      <c r="E29" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="F29" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="G29" s="25"/>
-      <c r="H29" s="29"/>
-      <c r="I29" s="25"/>
-      <c r="J29" s="26"/>
-      <c r="K29" s="27"/>
-      <c r="L29" s="28"/>
+      <c r="D29" s="26"/>
+      <c r="E29" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="F29" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="G29" s="26"/>
+      <c r="H29" s="30"/>
+      <c r="I29" s="26"/>
+      <c r="J29" s="27"/>
+      <c r="K29" s="28"/>
+      <c r="L29" s="29"/>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="23" t="n">
+      <c r="A30" s="24" t="n">
         <f aca="false">vedomost!A30</f>
         <v>45198</v>
       </c>
-      <c r="B30" s="24" t="n">
+      <c r="B30" s="25" t="n">
         <f aca="false">vedomost!B30</f>
         <v>5</v>
       </c>
-      <c r="C30" s="17" t="str">
+      <c r="C30" s="18" t="str">
         <f aca="false">IF(vedomost!F30=0,"",vedomost!F30)</f>
         <v>Ed24(0)</v>
       </c>
-      <c r="D30" s="25"/>
-      <c r="E30" s="25"/>
-      <c r="F30" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="G30" s="25"/>
-      <c r="H30" s="29"/>
-      <c r="I30" s="25"/>
-      <c r="J30" s="26"/>
-      <c r="K30" s="27"/>
-      <c r="L30" s="28"/>
+      <c r="D30" s="26"/>
+      <c r="E30" s="26"/>
+      <c r="F30" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="G30" s="26"/>
+      <c r="H30" s="30"/>
+      <c r="I30" s="26"/>
+      <c r="J30" s="27"/>
+      <c r="K30" s="28"/>
+      <c r="L30" s="29"/>
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="23" t="n">
+      <c r="A31" s="24" t="n">
         <f aca="false">vedomost!A31</f>
         <v>45199</v>
       </c>
-      <c r="B31" s="24" t="n">
+      <c r="B31" s="25" t="n">
         <f aca="false">vedomost!B31</f>
         <v>6</v>
       </c>
-      <c r="C31" s="17" t="str">
+      <c r="C31" s="18" t="str">
         <f aca="false">IF(vedomost!F31=0,"",vedomost!F31)</f>
         <v/>
       </c>
-      <c r="D31" s="25"/>
-      <c r="E31" s="25"/>
-      <c r="F31" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="G31" s="25"/>
-      <c r="H31" s="29"/>
-      <c r="I31" s="25"/>
-      <c r="J31" s="26"/>
-      <c r="K31" s="27"/>
-      <c r="L31" s="28"/>
+      <c r="D31" s="26"/>
+      <c r="E31" s="26"/>
+      <c r="F31" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="G31" s="26"/>
+      <c r="H31" s="30"/>
+      <c r="I31" s="26"/>
+      <c r="J31" s="27"/>
+      <c r="K31" s="28"/>
+      <c r="L31" s="29"/>
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="23"/>
-      <c r="B32" s="24"/>
-      <c r="C32" s="17"/>
-      <c r="D32" s="25"/>
-      <c r="E32" s="25"/>
-      <c r="F32" s="25"/>
-      <c r="G32" s="25"/>
-      <c r="H32" s="29"/>
-      <c r="I32" s="25"/>
-      <c r="J32" s="26"/>
-      <c r="K32" s="27"/>
-      <c r="L32" s="28"/>
+      <c r="A32" s="24"/>
+      <c r="B32" s="25"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="26"/>
+      <c r="E32" s="26"/>
+      <c r="F32" s="26"/>
+      <c r="G32" s="26"/>
+      <c r="H32" s="30"/>
+      <c r="I32" s="26"/>
+      <c r="J32" s="27"/>
+      <c r="K32" s="28"/>
+      <c r="L32" s="29"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:B1048576">
@@ -4428,7 +4506,7 @@
       <selection pane="bottomRight" activeCell="AC2" activeCellId="0" sqref="AC2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="32.86"/>
@@ -4458,1157 +4536,1157 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="0" width="36.14"/>
   </cols>
   <sheetData>
-    <row r="1" s="37" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="31" t="s">
-        <v>84</v>
-      </c>
-      <c r="B1" s="32" t="s">
-        <v>85</v>
-      </c>
-      <c r="C1" s="33" t="s">
-        <v>86</v>
-      </c>
-      <c r="D1" s="31" t="s">
-        <v>87</v>
-      </c>
-      <c r="E1" s="31" t="s">
-        <v>88</v>
-      </c>
-      <c r="F1" s="31" t="s">
+    <row r="1" s="38" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="32" t="s">
         <v>89</v>
       </c>
-      <c r="G1" s="34" t="s">
+      <c r="B1" s="33" t="s">
         <v>90</v>
       </c>
-      <c r="H1" s="31" t="s">
+      <c r="C1" s="34" t="s">
         <v>91</v>
       </c>
-      <c r="I1" s="31" t="s">
+      <c r="D1" s="32" t="s">
         <v>92</v>
       </c>
-      <c r="J1" s="31" t="s">
+      <c r="E1" s="32" t="s">
         <v>93</v>
       </c>
-      <c r="K1" s="31" t="s">
+      <c r="F1" s="32" t="s">
         <v>94</v>
       </c>
-      <c r="L1" s="31" t="s">
+      <c r="G1" s="35" t="s">
         <v>95</v>
       </c>
-      <c r="M1" s="34" t="s">
+      <c r="H1" s="32" t="s">
         <v>96</v>
       </c>
-      <c r="N1" s="34" t="s">
+      <c r="I1" s="32" t="s">
         <v>97</v>
       </c>
-      <c r="O1" s="35" t="s">
+      <c r="J1" s="32" t="s">
         <v>98</v>
       </c>
-      <c r="P1" s="35" t="s">
+      <c r="K1" s="32" t="s">
         <v>99</v>
       </c>
-      <c r="Q1" s="36" t="s">
+      <c r="L1" s="32" t="s">
         <v>100</v>
       </c>
-      <c r="R1" s="34" t="s">
+      <c r="M1" s="35" t="s">
         <v>101</v>
       </c>
-      <c r="S1" s="35" t="s">
+      <c r="N1" s="35" t="s">
         <v>102</v>
       </c>
-      <c r="T1" s="35" t="s">
+      <c r="O1" s="36" t="s">
         <v>103</v>
       </c>
-      <c r="U1" s="35" t="s">
+      <c r="P1" s="36" t="s">
         <v>104</v>
       </c>
-      <c r="V1" s="35" t="s">
+      <c r="Q1" s="37" t="s">
         <v>105</v>
       </c>
-      <c r="W1" s="35" t="s">
+      <c r="R1" s="35" t="s">
         <v>106</v>
       </c>
-      <c r="X1" s="35" t="s">
+      <c r="S1" s="36" t="s">
         <v>107</v>
       </c>
-      <c r="Y1" s="36" t="s">
+      <c r="T1" s="36" t="s">
         <v>108</v>
       </c>
-      <c r="Z1" s="34" t="s">
+      <c r="U1" s="36" t="s">
         <v>109</v>
       </c>
-      <c r="AA1" s="35" t="s">
+      <c r="V1" s="36" t="s">
         <v>110</v>
       </c>
-      <c r="AB1" s="35" t="s">
+      <c r="W1" s="36" t="s">
         <v>111</v>
       </c>
-      <c r="AC1" s="35" t="s">
+      <c r="X1" s="36" t="s">
         <v>112</v>
       </c>
-      <c r="AD1" s="35" t="s">
+      <c r="Y1" s="37" t="s">
         <v>113</v>
       </c>
-      <c r="AE1" s="35" t="s">
+      <c r="Z1" s="35" t="s">
         <v>114</v>
       </c>
+      <c r="AA1" s="36" t="s">
+        <v>115</v>
+      </c>
+      <c r="AB1" s="36" t="s">
+        <v>116</v>
+      </c>
+      <c r="AC1" s="36" t="s">
+        <v>117</v>
+      </c>
+      <c r="AD1" s="36" t="s">
+        <v>118</v>
+      </c>
+      <c r="AE1" s="36" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="38" t="s">
-        <v>115</v>
-      </c>
-      <c r="B2" s="39" t="s">
-        <v>116</v>
-      </c>
-      <c r="C2" s="40" t="s">
-        <v>117</v>
-      </c>
-      <c r="D2" s="38" t="s">
-        <v>118</v>
-      </c>
-      <c r="E2" s="38" t="s">
-        <v>119</v>
-      </c>
-      <c r="F2" s="41" t="s">
+      <c r="A2" s="39" t="s">
         <v>120</v>
       </c>
-      <c r="G2" s="38" t="s">
-        <v>118</v>
-      </c>
-      <c r="H2" s="38" t="s">
+      <c r="B2" s="40" t="s">
         <v>121</v>
       </c>
-      <c r="I2" s="38" t="s">
+      <c r="C2" s="41" t="s">
         <v>122</v>
       </c>
-      <c r="J2" s="38" t="s">
+      <c r="D2" s="39" t="s">
         <v>123</v>
       </c>
-      <c r="K2" s="38" t="s">
+      <c r="E2" s="39" t="s">
         <v>124</v>
       </c>
-      <c r="L2" s="38" t="s">
+      <c r="F2" s="42" t="s">
         <v>125</v>
       </c>
-      <c r="M2" s="42" t="s">
+      <c r="G2" s="39" t="s">
+        <v>123</v>
+      </c>
+      <c r="H2" s="39" t="s">
         <v>126</v>
       </c>
-      <c r="N2" s="42" t="s">
-        <v>124</v>
-      </c>
-      <c r="O2" s="41" t="s">
+      <c r="I2" s="39" t="s">
         <v>127</v>
       </c>
-      <c r="P2" s="41" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q2" s="43" t="s">
-        <v>123</v>
-      </c>
-      <c r="R2" s="42" t="s">
+      <c r="J2" s="39" t="s">
         <v>128</v>
       </c>
-      <c r="S2" s="41" t="s">
+      <c r="K2" s="39" t="s">
         <v>129</v>
       </c>
-      <c r="T2" s="41" t="s">
+      <c r="L2" s="39" t="s">
         <v>130</v>
       </c>
-      <c r="U2" s="41" t="s">
+      <c r="M2" s="43" t="s">
         <v>131</v>
       </c>
-      <c r="V2" s="41" t="s">
-        <v>123</v>
-      </c>
-      <c r="W2" s="41" t="s">
+      <c r="N2" s="43" t="s">
+        <v>129</v>
+      </c>
+      <c r="O2" s="42" t="s">
         <v>132</v>
       </c>
-      <c r="X2" s="41" t="s">
-        <v>123</v>
-      </c>
-      <c r="Y2" s="43" t="s">
+      <c r="P2" s="42" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q2" s="44" t="s">
+        <v>128</v>
+      </c>
+      <c r="R2" s="43" t="s">
         <v>133</v>
       </c>
-      <c r="Z2" s="42" t="s">
+      <c r="S2" s="42" t="s">
         <v>134</v>
       </c>
-      <c r="AA2" s="41" t="s">
+      <c r="T2" s="42" t="s">
         <v>135</v>
       </c>
-      <c r="AB2" s="41" t="s">
-        <v>131</v>
-      </c>
-      <c r="AC2" s="44" t="s">
-        <v>132</v>
-      </c>
-      <c r="AD2" s="41" t="s">
-        <v>123</v>
-      </c>
-      <c r="AE2" s="41" t="s">
+      <c r="U2" s="42" t="s">
         <v>136</v>
       </c>
+      <c r="V2" s="42" t="s">
+        <v>128</v>
+      </c>
+      <c r="W2" s="42" t="s">
+        <v>137</v>
+      </c>
+      <c r="X2" s="42" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y2" s="44" t="s">
+        <v>138</v>
+      </c>
+      <c r="Z2" s="43" t="s">
+        <v>139</v>
+      </c>
+      <c r="AA2" s="42" t="s">
+        <v>140</v>
+      </c>
+      <c r="AB2" s="42" t="s">
+        <v>136</v>
+      </c>
+      <c r="AC2" s="45" t="s">
+        <v>137</v>
+      </c>
+      <c r="AD2" s="42" t="s">
+        <v>128</v>
+      </c>
+      <c r="AE2" s="42" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="38" t="s">
-        <v>137</v>
-      </c>
-      <c r="B3" s="45" t="s">
-        <v>138</v>
-      </c>
-      <c r="C3" s="46" t="s">
-        <v>138</v>
-      </c>
-      <c r="D3" s="47" t="s">
-        <v>139</v>
-      </c>
-      <c r="E3" s="47" t="s">
-        <v>139</v>
-      </c>
-      <c r="F3" s="44" t="s">
-        <v>138</v>
-      </c>
-      <c r="G3" s="48" t="s">
-        <v>139</v>
-      </c>
-      <c r="H3" s="47" t="s">
-        <v>139</v>
-      </c>
-      <c r="I3" s="47" t="s">
-        <v>139</v>
-      </c>
-      <c r="J3" s="47" t="s">
-        <v>139</v>
-      </c>
-      <c r="K3" s="47" t="s">
-        <v>138</v>
-      </c>
-      <c r="L3" s="47" t="s">
-        <v>139</v>
-      </c>
-      <c r="M3" s="48" t="s">
-        <v>138</v>
-      </c>
-      <c r="N3" s="48" t="s">
-        <v>138</v>
-      </c>
-      <c r="O3" s="44" t="s">
-        <v>138</v>
-      </c>
-      <c r="P3" s="47" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q3" s="47" t="s">
-        <v>139</v>
-      </c>
-      <c r="R3" s="48" t="s">
-        <v>139</v>
-      </c>
-      <c r="S3" s="47" t="s">
-        <v>138</v>
-      </c>
-      <c r="T3" s="47" t="s">
-        <v>138</v>
-      </c>
-      <c r="U3" s="47" t="s">
-        <v>138</v>
-      </c>
-      <c r="V3" s="47" t="s">
-        <v>139</v>
-      </c>
-      <c r="W3" s="47" t="s">
-        <v>139</v>
-      </c>
-      <c r="X3" s="47" t="s">
-        <v>139</v>
-      </c>
-      <c r="Y3" s="47" t="s">
-        <v>138</v>
-      </c>
-      <c r="Z3" s="47" t="s">
-        <v>140</v>
-      </c>
-      <c r="AA3" s="47" t="s">
-        <v>138</v>
-      </c>
-      <c r="AB3" s="47" t="s">
-        <v>138</v>
-      </c>
-      <c r="AC3" s="47" t="s">
-        <v>139</v>
-      </c>
-      <c r="AD3" s="47" t="s">
-        <v>139</v>
-      </c>
-      <c r="AE3" s="47" t="s">
-        <v>138</v>
+      <c r="A3" s="39" t="s">
+        <v>142</v>
+      </c>
+      <c r="B3" s="46" t="s">
+        <v>143</v>
+      </c>
+      <c r="C3" s="47" t="s">
+        <v>143</v>
+      </c>
+      <c r="D3" s="48" t="s">
+        <v>144</v>
+      </c>
+      <c r="E3" s="48" t="s">
+        <v>144</v>
+      </c>
+      <c r="F3" s="45" t="s">
+        <v>143</v>
+      </c>
+      <c r="G3" s="49" t="s">
+        <v>144</v>
+      </c>
+      <c r="H3" s="48" t="s">
+        <v>144</v>
+      </c>
+      <c r="I3" s="48" t="s">
+        <v>144</v>
+      </c>
+      <c r="J3" s="48" t="s">
+        <v>144</v>
+      </c>
+      <c r="K3" s="48" t="s">
+        <v>143</v>
+      </c>
+      <c r="L3" s="48" t="s">
+        <v>144</v>
+      </c>
+      <c r="M3" s="49" t="s">
+        <v>143</v>
+      </c>
+      <c r="N3" s="49" t="s">
+        <v>143</v>
+      </c>
+      <c r="O3" s="45" t="s">
+        <v>143</v>
+      </c>
+      <c r="P3" s="48" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q3" s="48" t="s">
+        <v>144</v>
+      </c>
+      <c r="R3" s="49" t="s">
+        <v>144</v>
+      </c>
+      <c r="S3" s="48" t="s">
+        <v>143</v>
+      </c>
+      <c r="T3" s="48" t="s">
+        <v>143</v>
+      </c>
+      <c r="U3" s="48" t="s">
+        <v>143</v>
+      </c>
+      <c r="V3" s="48" t="s">
+        <v>144</v>
+      </c>
+      <c r="W3" s="48" t="s">
+        <v>144</v>
+      </c>
+      <c r="X3" s="48" t="s">
+        <v>144</v>
+      </c>
+      <c r="Y3" s="48" t="s">
+        <v>143</v>
+      </c>
+      <c r="Z3" s="48" t="s">
+        <v>145</v>
+      </c>
+      <c r="AA3" s="48" t="s">
+        <v>143</v>
+      </c>
+      <c r="AB3" s="48" t="s">
+        <v>143</v>
+      </c>
+      <c r="AC3" s="48" t="s">
+        <v>144</v>
+      </c>
+      <c r="AD3" s="48" t="s">
+        <v>144</v>
+      </c>
+      <c r="AE3" s="48" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="49" t="s">
-        <v>141</v>
-      </c>
-      <c r="B4" s="50" t="s">
-        <v>142</v>
-      </c>
-      <c r="C4" s="51" t="s">
-        <v>142</v>
-      </c>
-      <c r="D4" s="52" t="s">
-        <v>142</v>
-      </c>
-      <c r="E4" s="52" t="s">
-        <v>142</v>
-      </c>
-      <c r="F4" s="52" t="s">
-        <v>142</v>
-      </c>
-      <c r="G4" s="53" t="s">
-        <v>142</v>
-      </c>
-      <c r="H4" s="52" t="s">
-        <v>142</v>
-      </c>
-      <c r="I4" s="52" t="s">
-        <v>142</v>
-      </c>
-      <c r="J4" s="52" t="s">
-        <v>142</v>
-      </c>
-      <c r="K4" s="52" t="s">
-        <v>142</v>
-      </c>
-      <c r="L4" s="52" t="s">
-        <v>142</v>
-      </c>
-      <c r="M4" s="53" t="s">
-        <v>142</v>
-      </c>
-      <c r="N4" s="53" t="s">
-        <v>142</v>
-      </c>
-      <c r="O4" s="54" t="s">
-        <v>142</v>
-      </c>
-      <c r="P4" s="54" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q4" s="55" t="s">
-        <v>142</v>
-      </c>
-      <c r="R4" s="53" t="s">
-        <v>142</v>
-      </c>
-      <c r="S4" s="54" t="s">
-        <v>142</v>
-      </c>
-      <c r="T4" s="54" t="s">
-        <v>142</v>
-      </c>
-      <c r="U4" s="54" t="s">
-        <v>143</v>
-      </c>
-      <c r="V4" s="54" t="s">
-        <v>142</v>
-      </c>
-      <c r="W4" s="54" t="s">
-        <v>142</v>
-      </c>
-      <c r="X4" s="54" t="s">
-        <v>142</v>
-      </c>
-      <c r="Y4" s="55" t="s">
-        <v>142</v>
-      </c>
-      <c r="Z4" s="53" t="s">
-        <v>142</v>
-      </c>
-      <c r="AA4" s="54" t="s">
-        <v>142</v>
-      </c>
-      <c r="AB4" s="54" t="s">
-        <v>143</v>
-      </c>
-      <c r="AC4" s="54" t="s">
-        <v>142</v>
-      </c>
-      <c r="AD4" s="54" t="s">
-        <v>142</v>
-      </c>
-      <c r="AE4" s="54" t="s">
-        <v>142</v>
+      <c r="A4" s="50" t="s">
+        <v>146</v>
+      </c>
+      <c r="B4" s="51" t="s">
+        <v>147</v>
+      </c>
+      <c r="C4" s="52" t="s">
+        <v>147</v>
+      </c>
+      <c r="D4" s="53" t="s">
+        <v>147</v>
+      </c>
+      <c r="E4" s="53" t="s">
+        <v>147</v>
+      </c>
+      <c r="F4" s="53" t="s">
+        <v>147</v>
+      </c>
+      <c r="G4" s="54" t="s">
+        <v>147</v>
+      </c>
+      <c r="H4" s="53" t="s">
+        <v>147</v>
+      </c>
+      <c r="I4" s="53" t="s">
+        <v>147</v>
+      </c>
+      <c r="J4" s="53" t="s">
+        <v>147</v>
+      </c>
+      <c r="K4" s="53" t="s">
+        <v>147</v>
+      </c>
+      <c r="L4" s="53" t="s">
+        <v>147</v>
+      </c>
+      <c r="M4" s="54" t="s">
+        <v>147</v>
+      </c>
+      <c r="N4" s="54" t="s">
+        <v>147</v>
+      </c>
+      <c r="O4" s="55" t="s">
+        <v>147</v>
+      </c>
+      <c r="P4" s="55" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q4" s="56" t="s">
+        <v>147</v>
+      </c>
+      <c r="R4" s="54" t="s">
+        <v>147</v>
+      </c>
+      <c r="S4" s="55" t="s">
+        <v>147</v>
+      </c>
+      <c r="T4" s="55" t="s">
+        <v>147</v>
+      </c>
+      <c r="U4" s="55" t="s">
+        <v>148</v>
+      </c>
+      <c r="V4" s="55" t="s">
+        <v>147</v>
+      </c>
+      <c r="W4" s="55" t="s">
+        <v>147</v>
+      </c>
+      <c r="X4" s="55" t="s">
+        <v>147</v>
+      </c>
+      <c r="Y4" s="56" t="s">
+        <v>147</v>
+      </c>
+      <c r="Z4" s="54" t="s">
+        <v>147</v>
+      </c>
+      <c r="AA4" s="55" t="s">
+        <v>147</v>
+      </c>
+      <c r="AB4" s="55" t="s">
+        <v>148</v>
+      </c>
+      <c r="AC4" s="55" t="s">
+        <v>147</v>
+      </c>
+      <c r="AD4" s="55" t="s">
+        <v>147</v>
+      </c>
+      <c r="AE4" s="55" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="49" t="s">
+      <c r="A5" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="56" t="s">
-        <v>144</v>
-      </c>
-      <c r="C5" s="57" t="s">
-        <v>144</v>
-      </c>
-      <c r="D5" s="49" t="s">
-        <v>145</v>
-      </c>
-      <c r="E5" s="49" t="s">
-        <v>144</v>
-      </c>
-      <c r="F5" s="58"/>
-      <c r="G5" s="49" t="s">
-        <v>145</v>
-      </c>
-      <c r="H5" s="49" t="s">
-        <v>144</v>
-      </c>
-      <c r="I5" s="59"/>
-      <c r="J5" s="58"/>
-      <c r="K5" s="49" t="s">
-        <v>144</v>
-      </c>
-      <c r="L5" s="49" t="s">
-        <v>144</v>
-      </c>
-      <c r="M5" s="60" t="s">
-        <v>145</v>
-      </c>
-      <c r="N5" s="60" t="s">
-        <v>144</v>
-      </c>
-      <c r="O5" s="61" t="s">
-        <v>144</v>
-      </c>
-      <c r="P5" s="61" t="s">
-        <v>144</v>
-      </c>
-      <c r="Q5" s="62" t="s">
-        <v>144</v>
-      </c>
-      <c r="R5" s="60" t="s">
-        <v>144</v>
-      </c>
-      <c r="S5" s="61" t="s">
-        <v>144</v>
-      </c>
-      <c r="T5" s="61" t="s">
-        <v>144</v>
-      </c>
-      <c r="U5" s="61" t="s">
-        <v>144</v>
-      </c>
-      <c r="V5" s="61" t="s">
-        <v>144</v>
-      </c>
-      <c r="W5" s="61" t="s">
-        <v>144</v>
-      </c>
-      <c r="X5" s="61" t="s">
-        <v>144</v>
-      </c>
-      <c r="Y5" s="62" t="s">
-        <v>144</v>
-      </c>
-      <c r="Z5" s="60" t="s">
-        <v>144</v>
-      </c>
-      <c r="AA5" s="61" t="s">
-        <v>144</v>
-      </c>
-      <c r="AB5" s="61" t="s">
-        <v>144</v>
-      </c>
-      <c r="AC5" s="61" t="s">
-        <v>144</v>
-      </c>
-      <c r="AD5" s="61" t="s">
-        <v>144</v>
-      </c>
-      <c r="AE5" s="61" t="s">
-        <v>144</v>
+      <c r="B5" s="57" t="s">
+        <v>149</v>
+      </c>
+      <c r="C5" s="58" t="s">
+        <v>149</v>
+      </c>
+      <c r="D5" s="50" t="s">
+        <v>150</v>
+      </c>
+      <c r="E5" s="50" t="s">
+        <v>149</v>
+      </c>
+      <c r="F5" s="59"/>
+      <c r="G5" s="50" t="s">
+        <v>150</v>
+      </c>
+      <c r="H5" s="50" t="s">
+        <v>149</v>
+      </c>
+      <c r="I5" s="60"/>
+      <c r="J5" s="59"/>
+      <c r="K5" s="50" t="s">
+        <v>149</v>
+      </c>
+      <c r="L5" s="50" t="s">
+        <v>149</v>
+      </c>
+      <c r="M5" s="61" t="s">
+        <v>150</v>
+      </c>
+      <c r="N5" s="61" t="s">
+        <v>149</v>
+      </c>
+      <c r="O5" s="62" t="s">
+        <v>149</v>
+      </c>
+      <c r="P5" s="62" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q5" s="63" t="s">
+        <v>149</v>
+      </c>
+      <c r="R5" s="61" t="s">
+        <v>149</v>
+      </c>
+      <c r="S5" s="62" t="s">
+        <v>149</v>
+      </c>
+      <c r="T5" s="62" t="s">
+        <v>149</v>
+      </c>
+      <c r="U5" s="62" t="s">
+        <v>149</v>
+      </c>
+      <c r="V5" s="62" t="s">
+        <v>149</v>
+      </c>
+      <c r="W5" s="62" t="s">
+        <v>149</v>
+      </c>
+      <c r="X5" s="62" t="s">
+        <v>149</v>
+      </c>
+      <c r="Y5" s="63" t="s">
+        <v>149</v>
+      </c>
+      <c r="Z5" s="61" t="s">
+        <v>149</v>
+      </c>
+      <c r="AA5" s="62" t="s">
+        <v>149</v>
+      </c>
+      <c r="AB5" s="62" t="s">
+        <v>149</v>
+      </c>
+      <c r="AC5" s="62" t="s">
+        <v>149</v>
+      </c>
+      <c r="AD5" s="62" t="s">
+        <v>149</v>
+      </c>
+      <c r="AE5" s="62" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="59" t="s">
-        <v>146</v>
-      </c>
-      <c r="B6" s="63" t="s">
+      <c r="A6" s="60" t="s">
+        <v>151</v>
+      </c>
+      <c r="B6" s="64" t="s">
+        <v>152</v>
+      </c>
+      <c r="C6" s="65"/>
+      <c r="D6" s="60" t="s">
+        <v>153</v>
+      </c>
+      <c r="E6" s="60"/>
+      <c r="F6" s="60" t="s">
+        <v>152</v>
+      </c>
+      <c r="G6" s="66" t="s">
+        <v>153</v>
+      </c>
+      <c r="H6" s="60" t="s">
+        <v>152</v>
+      </c>
+      <c r="I6" s="60" t="s">
+        <v>152</v>
+      </c>
+      <c r="J6" s="60" t="s">
+        <v>152</v>
+      </c>
+      <c r="K6" s="60" t="s">
+        <v>152</v>
+      </c>
+      <c r="L6" s="60" t="s">
+        <v>154</v>
+      </c>
+      <c r="M6" s="66" t="s">
+        <v>155</v>
+      </c>
+      <c r="N6" s="66"/>
+      <c r="O6" s="67"/>
+      <c r="P6" s="67"/>
+      <c r="Q6" s="68"/>
+      <c r="R6" s="66"/>
+      <c r="S6" s="69" t="s">
+        <v>152</v>
+      </c>
+      <c r="T6" s="69"/>
+      <c r="U6" s="67"/>
+      <c r="V6" s="69" t="s">
+        <v>152</v>
+      </c>
+      <c r="W6" s="69"/>
+      <c r="X6" s="69"/>
+      <c r="Y6" s="70"/>
+      <c r="Z6" s="71" t="s">
+        <v>152</v>
+      </c>
+      <c r="AA6" s="69" t="s">
+        <v>152</v>
+      </c>
+      <c r="AB6" s="67"/>
+      <c r="AC6" s="69" t="s">
+        <v>152</v>
+      </c>
+      <c r="AD6" s="69" t="s">
+        <v>152</v>
+      </c>
+      <c r="AE6" s="69" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="59" t="s">
+        <v>156</v>
+      </c>
+      <c r="B7" s="72"/>
+      <c r="C7" s="73"/>
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="74"/>
+      <c r="H7" s="59"/>
+      <c r="I7" s="59"/>
+      <c r="J7" s="59"/>
+      <c r="K7" s="59"/>
+      <c r="L7" s="59"/>
+      <c r="M7" s="74"/>
+      <c r="N7" s="74"/>
+      <c r="O7" s="75"/>
+      <c r="P7" s="75"/>
+      <c r="Q7" s="76"/>
+      <c r="R7" s="77" t="s">
         <v>147</v>
       </c>
-      <c r="C6" s="64"/>
-      <c r="D6" s="59" t="s">
+      <c r="S7" s="78" t="s">
+        <v>147</v>
+      </c>
+      <c r="T7" s="78" t="s">
+        <v>147</v>
+      </c>
+      <c r="U7" s="78" t="s">
+        <v>147</v>
+      </c>
+      <c r="V7" s="78" t="s">
+        <v>147</v>
+      </c>
+      <c r="W7" s="78" t="s">
+        <v>157</v>
+      </c>
+      <c r="X7" s="78" t="s">
+        <v>147</v>
+      </c>
+      <c r="Y7" s="79" t="s">
+        <v>147</v>
+      </c>
+      <c r="Z7" s="77" t="s">
+        <v>147</v>
+      </c>
+      <c r="AA7" s="78" t="s">
+        <v>147</v>
+      </c>
+      <c r="AB7" s="78" t="s">
+        <v>147</v>
+      </c>
+      <c r="AC7" s="78" t="s">
+        <v>147</v>
+      </c>
+      <c r="AD7" s="78" t="s">
+        <v>147</v>
+      </c>
+      <c r="AE7" s="78" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="59" t="s">
+        <v>158</v>
+      </c>
+      <c r="B8" s="72" t="s">
+        <v>157</v>
+      </c>
+      <c r="C8" s="73" t="s">
+        <v>157</v>
+      </c>
+      <c r="D8" s="59" t="s">
+        <v>157</v>
+      </c>
+      <c r="E8" s="59" t="s">
+        <v>157</v>
+      </c>
+      <c r="F8" s="59" t="s">
+        <v>157</v>
+      </c>
+      <c r="G8" s="74" t="s">
+        <v>157</v>
+      </c>
+      <c r="H8" s="59" t="s">
+        <v>157</v>
+      </c>
+      <c r="I8" s="59"/>
+      <c r="J8" s="59" t="s">
+        <v>157</v>
+      </c>
+      <c r="K8" s="59" t="s">
+        <v>157</v>
+      </c>
+      <c r="L8" s="59" t="s">
+        <v>157</v>
+      </c>
+      <c r="M8" s="74" t="s">
+        <v>157</v>
+      </c>
+      <c r="N8" s="74" t="s">
+        <v>157</v>
+      </c>
+      <c r="O8" s="75" t="s">
+        <v>157</v>
+      </c>
+      <c r="P8" s="75" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q8" s="76" t="s">
+        <v>157</v>
+      </c>
+      <c r="R8" s="74" t="s">
+        <v>157</v>
+      </c>
+      <c r="S8" s="75" t="s">
+        <v>157</v>
+      </c>
+      <c r="T8" s="75" t="s">
+        <v>157</v>
+      </c>
+      <c r="U8" s="75" t="s">
+        <v>157</v>
+      </c>
+      <c r="V8" s="75" t="s">
+        <v>157</v>
+      </c>
+      <c r="W8" s="75"/>
+      <c r="X8" s="75" t="s">
+        <v>157</v>
+      </c>
+      <c r="Y8" s="76" t="s">
+        <v>157</v>
+      </c>
+      <c r="Z8" s="74" t="s">
+        <v>157</v>
+      </c>
+      <c r="AA8" s="75" t="s">
+        <v>157</v>
+      </c>
+      <c r="AB8" s="75" t="s">
+        <v>157</v>
+      </c>
+      <c r="AC8" s="75"/>
+      <c r="AD8" s="75" t="s">
+        <v>157</v>
+      </c>
+      <c r="AE8" s="75" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="80" t="s">
+        <v>159</v>
+      </c>
+      <c r="B9" s="81" t="s">
         <v>148</v>
       </c>
-      <c r="E6" s="59"/>
-      <c r="F6" s="59" t="s">
-        <v>147</v>
-      </c>
-      <c r="G6" s="65" t="s">
+      <c r="C9" s="82" t="s">
         <v>148</v>
       </c>
-      <c r="H6" s="59" t="s">
-        <v>147</v>
-      </c>
-      <c r="I6" s="59" t="s">
-        <v>147</v>
-      </c>
-      <c r="J6" s="59" t="s">
-        <v>147</v>
-      </c>
-      <c r="K6" s="59" t="s">
-        <v>147</v>
-      </c>
-      <c r="L6" s="59" t="s">
-        <v>149</v>
-      </c>
-      <c r="M6" s="65" t="s">
-        <v>150</v>
-      </c>
-      <c r="N6" s="65"/>
-      <c r="O6" s="66"/>
-      <c r="P6" s="66"/>
-      <c r="Q6" s="67"/>
-      <c r="R6" s="65"/>
-      <c r="S6" s="68" t="s">
-        <v>147</v>
-      </c>
-      <c r="T6" s="68"/>
-      <c r="U6" s="66"/>
-      <c r="V6" s="68" t="s">
-        <v>147</v>
-      </c>
-      <c r="W6" s="68"/>
-      <c r="X6" s="68"/>
-      <c r="Y6" s="69"/>
-      <c r="Z6" s="70" t="s">
-        <v>147</v>
-      </c>
-      <c r="AA6" s="68" t="s">
-        <v>147</v>
-      </c>
-      <c r="AB6" s="66"/>
-      <c r="AC6" s="68" t="s">
-        <v>147</v>
-      </c>
-      <c r="AD6" s="68" t="s">
-        <v>147</v>
-      </c>
-      <c r="AE6" s="68" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="58" t="s">
-        <v>151</v>
-      </c>
-      <c r="B7" s="71"/>
-      <c r="C7" s="72"/>
-      <c r="D7" s="58"/>
-      <c r="E7" s="58"/>
-      <c r="F7" s="58"/>
-      <c r="G7" s="73"/>
-      <c r="H7" s="58"/>
-      <c r="I7" s="58"/>
-      <c r="J7" s="58"/>
-      <c r="K7" s="58"/>
-      <c r="L7" s="58"/>
-      <c r="M7" s="73"/>
-      <c r="N7" s="73"/>
-      <c r="O7" s="74"/>
-      <c r="P7" s="74"/>
-      <c r="Q7" s="75"/>
-      <c r="R7" s="76" t="s">
-        <v>142</v>
-      </c>
-      <c r="S7" s="77" t="s">
-        <v>142</v>
-      </c>
-      <c r="T7" s="77" t="s">
-        <v>142</v>
-      </c>
-      <c r="U7" s="77" t="s">
-        <v>142</v>
-      </c>
-      <c r="V7" s="77" t="s">
-        <v>142</v>
-      </c>
-      <c r="W7" s="77" t="s">
+      <c r="D9" s="83" t="s">
+        <v>148</v>
+      </c>
+      <c r="E9" s="83" t="s">
+        <v>160</v>
+      </c>
+      <c r="F9" s="83" t="s">
+        <v>148</v>
+      </c>
+      <c r="G9" s="84" t="s">
+        <v>148</v>
+      </c>
+      <c r="H9" s="83" t="s">
+        <v>160</v>
+      </c>
+      <c r="I9" s="83" t="s">
+        <v>148</v>
+      </c>
+      <c r="J9" s="83" t="s">
+        <v>148</v>
+      </c>
+      <c r="K9" s="83" t="s">
+        <v>148</v>
+      </c>
+      <c r="L9" s="83" t="s">
+        <v>148</v>
+      </c>
+      <c r="M9" s="84" t="s">
+        <v>160</v>
+      </c>
+      <c r="N9" s="84" t="s">
+        <v>148</v>
+      </c>
+      <c r="O9" s="85" t="s">
+        <v>148</v>
+      </c>
+      <c r="P9" s="85" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q9" s="86" t="s">
+        <v>148</v>
+      </c>
+      <c r="R9" s="84" t="s">
+        <v>148</v>
+      </c>
+      <c r="S9" s="85" t="s">
+        <v>148</v>
+      </c>
+      <c r="T9" s="85" t="s">
+        <v>148</v>
+      </c>
+      <c r="U9" s="85" t="s">
+        <v>148</v>
+      </c>
+      <c r="V9" s="85" t="s">
+        <v>148</v>
+      </c>
+      <c r="W9" s="85" t="s">
+        <v>148</v>
+      </c>
+      <c r="X9" s="85" t="s">
+        <v>148</v>
+      </c>
+      <c r="Y9" s="86" t="s">
+        <v>148</v>
+      </c>
+      <c r="Z9" s="84" t="s">
+        <v>148</v>
+      </c>
+      <c r="AA9" s="85" t="s">
+        <v>148</v>
+      </c>
+      <c r="AB9" s="85" t="s">
+        <v>148</v>
+      </c>
+      <c r="AC9" s="85" t="s">
+        <v>148</v>
+      </c>
+      <c r="AD9" s="85" t="s">
+        <v>148</v>
+      </c>
+      <c r="AE9" s="85" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="87" t="s">
+        <v>161</v>
+      </c>
+      <c r="B10" s="88" t="s">
         <v>152</v>
       </c>
-      <c r="X7" s="77" t="s">
-        <v>142</v>
-      </c>
-      <c r="Y7" s="78" t="s">
-        <v>142</v>
-      </c>
-      <c r="Z7" s="76" t="s">
-        <v>142</v>
-      </c>
-      <c r="AA7" s="77" t="s">
-        <v>142</v>
-      </c>
-      <c r="AB7" s="77" t="s">
-        <v>142</v>
-      </c>
-      <c r="AC7" s="77" t="s">
-        <v>142</v>
-      </c>
-      <c r="AD7" s="77" t="s">
-        <v>142</v>
-      </c>
-      <c r="AE7" s="77" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="58" t="s">
-        <v>153</v>
-      </c>
-      <c r="B8" s="71" t="s">
+      <c r="C10" s="89" t="s">
         <v>152</v>
       </c>
-      <c r="C8" s="72" t="s">
+      <c r="D10" s="87" t="s">
         <v>152</v>
       </c>
-      <c r="D8" s="58" t="s">
+      <c r="E10" s="87" t="s">
         <v>152</v>
       </c>
-      <c r="E8" s="58" t="s">
+      <c r="F10" s="87" t="s">
         <v>152</v>
       </c>
-      <c r="F8" s="58" t="s">
+      <c r="G10" s="90" t="s">
         <v>152</v>
       </c>
-      <c r="G8" s="73" t="s">
+      <c r="H10" s="87" t="s">
         <v>152</v>
       </c>
-      <c r="H8" s="58" t="s">
+      <c r="I10" s="87" t="s">
         <v>152</v>
       </c>
-      <c r="I8" s="58"/>
-      <c r="J8" s="58" t="s">
+      <c r="J10" s="87" t="s">
         <v>152</v>
       </c>
-      <c r="K8" s="58" t="s">
+      <c r="K10" s="87" t="s">
         <v>152</v>
       </c>
-      <c r="L8" s="58" t="s">
+      <c r="L10" s="87" t="s">
         <v>152</v>
       </c>
-      <c r="M8" s="73" t="s">
+      <c r="M10" s="90" t="s">
         <v>152</v>
       </c>
-      <c r="N8" s="73" t="s">
+      <c r="N10" s="90" t="s">
         <v>152</v>
       </c>
-      <c r="O8" s="74" t="s">
+      <c r="O10" s="91" t="s">
         <v>152</v>
       </c>
-      <c r="P8" s="74" t="s">
+      <c r="P10" s="91" t="s">
         <v>152</v>
       </c>
-      <c r="Q8" s="75" t="s">
+      <c r="Q10" s="92" t="s">
         <v>152</v>
       </c>
-      <c r="R8" s="73" t="s">
+      <c r="R10" s="90" t="s">
         <v>152</v>
       </c>
-      <c r="S8" s="74" t="s">
+      <c r="S10" s="91" t="s">
         <v>152</v>
       </c>
-      <c r="T8" s="74" t="s">
+      <c r="T10" s="91" t="s">
         <v>152</v>
       </c>
-      <c r="U8" s="74" t="s">
+      <c r="U10" s="91"/>
+      <c r="V10" s="91" t="s">
         <v>152</v>
       </c>
-      <c r="V8" s="74" t="s">
+      <c r="W10" s="91" t="s">
         <v>152</v>
       </c>
-      <c r="W8" s="74"/>
-      <c r="X8" s="74" t="s">
+      <c r="X10" s="91" t="s">
         <v>152</v>
       </c>
-      <c r="Y8" s="75" t="s">
+      <c r="Y10" s="92" t="s">
         <v>152</v>
       </c>
-      <c r="Z8" s="73" t="s">
+      <c r="Z10" s="90" t="s">
         <v>152</v>
       </c>
-      <c r="AA8" s="74" t="s">
+      <c r="AA10" s="91" t="s">
         <v>152</v>
       </c>
-      <c r="AB8" s="74" t="s">
+      <c r="AB10" s="91"/>
+      <c r="AC10" s="91" t="s">
         <v>152</v>
       </c>
-      <c r="AC8" s="74"/>
-      <c r="AD8" s="74" t="s">
+      <c r="AD10" s="91" t="s">
         <v>152</v>
       </c>
-      <c r="AE8" s="74" t="s">
+      <c r="AE10" s="91" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="79" t="s">
-        <v>154</v>
-      </c>
-      <c r="B9" s="80" t="s">
-        <v>143</v>
-      </c>
-      <c r="C9" s="81" t="s">
-        <v>143</v>
-      </c>
-      <c r="D9" s="82" t="s">
-        <v>143</v>
-      </c>
-      <c r="E9" s="82" t="s">
-        <v>155</v>
-      </c>
-      <c r="F9" s="82" t="s">
-        <v>143</v>
-      </c>
-      <c r="G9" s="83" t="s">
-        <v>143</v>
-      </c>
-      <c r="H9" s="82" t="s">
-        <v>155</v>
-      </c>
-      <c r="I9" s="82" t="s">
-        <v>143</v>
-      </c>
-      <c r="J9" s="82" t="s">
-        <v>143</v>
-      </c>
-      <c r="K9" s="82" t="s">
-        <v>143</v>
-      </c>
-      <c r="L9" s="82" t="s">
-        <v>143</v>
-      </c>
-      <c r="M9" s="83" t="s">
-        <v>155</v>
-      </c>
-      <c r="N9" s="83" t="s">
-        <v>143</v>
-      </c>
-      <c r="O9" s="84" t="s">
-        <v>143</v>
-      </c>
-      <c r="P9" s="84" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q9" s="85" t="s">
-        <v>143</v>
-      </c>
-      <c r="R9" s="83" t="s">
-        <v>143</v>
-      </c>
-      <c r="S9" s="84" t="s">
-        <v>143</v>
-      </c>
-      <c r="T9" s="84" t="s">
-        <v>143</v>
-      </c>
-      <c r="U9" s="84" t="s">
-        <v>143</v>
-      </c>
-      <c r="V9" s="84" t="s">
-        <v>143</v>
-      </c>
-      <c r="W9" s="84" t="s">
-        <v>143</v>
-      </c>
-      <c r="X9" s="84" t="s">
-        <v>143</v>
-      </c>
-      <c r="Y9" s="85" t="s">
-        <v>143</v>
-      </c>
-      <c r="Z9" s="83" t="s">
-        <v>143</v>
-      </c>
-      <c r="AA9" s="84" t="s">
-        <v>143</v>
-      </c>
-      <c r="AB9" s="84" t="s">
-        <v>143</v>
-      </c>
-      <c r="AC9" s="84" t="s">
-        <v>143</v>
-      </c>
-      <c r="AD9" s="84" t="s">
-        <v>143</v>
-      </c>
-      <c r="AE9" s="84" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="86" t="s">
-        <v>156</v>
-      </c>
-      <c r="B10" s="87" t="s">
-        <v>147</v>
-      </c>
-      <c r="C10" s="88" t="s">
-        <v>147</v>
-      </c>
-      <c r="D10" s="86" t="s">
-        <v>147</v>
-      </c>
-      <c r="E10" s="86" t="s">
-        <v>147</v>
-      </c>
-      <c r="F10" s="86" t="s">
-        <v>147</v>
-      </c>
-      <c r="G10" s="89" t="s">
-        <v>147</v>
-      </c>
-      <c r="H10" s="86" t="s">
-        <v>147</v>
-      </c>
-      <c r="I10" s="86" t="s">
-        <v>147</v>
-      </c>
-      <c r="J10" s="86" t="s">
-        <v>147</v>
-      </c>
-      <c r="K10" s="86" t="s">
-        <v>147</v>
-      </c>
-      <c r="L10" s="86" t="s">
-        <v>147</v>
-      </c>
-      <c r="M10" s="89" t="s">
-        <v>147</v>
-      </c>
-      <c r="N10" s="89" t="s">
-        <v>147</v>
-      </c>
-      <c r="O10" s="90" t="s">
-        <v>147</v>
-      </c>
-      <c r="P10" s="90" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q10" s="91" t="s">
-        <v>147</v>
-      </c>
-      <c r="R10" s="89" t="s">
-        <v>147</v>
-      </c>
-      <c r="S10" s="90" t="s">
-        <v>147</v>
-      </c>
-      <c r="T10" s="90" t="s">
-        <v>147</v>
-      </c>
-      <c r="U10" s="90"/>
-      <c r="V10" s="90" t="s">
-        <v>147</v>
-      </c>
-      <c r="W10" s="90" t="s">
-        <v>147</v>
-      </c>
-      <c r="X10" s="90" t="s">
-        <v>147</v>
-      </c>
-      <c r="Y10" s="91" t="s">
-        <v>147</v>
-      </c>
-      <c r="Z10" s="89" t="s">
-        <v>147</v>
-      </c>
-      <c r="AA10" s="90" t="s">
-        <v>147</v>
-      </c>
-      <c r="AB10" s="90"/>
-      <c r="AC10" s="90" t="s">
-        <v>147</v>
-      </c>
-      <c r="AD10" s="90" t="s">
-        <v>147</v>
-      </c>
-      <c r="AE10" s="90" t="s">
-        <v>147</v>
-      </c>
-    </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="92" t="s">
-        <v>157</v>
-      </c>
-      <c r="B11" s="93"/>
-      <c r="C11" s="94"/>
-      <c r="D11" s="92" t="s">
-        <v>158</v>
-      </c>
-      <c r="E11" s="92" t="s">
-        <v>158</v>
-      </c>
-      <c r="F11" s="92" t="s">
-        <v>158</v>
-      </c>
-      <c r="G11" s="95" t="s">
-        <v>158</v>
-      </c>
-      <c r="H11" s="92" t="s">
-        <v>158</v>
-      </c>
-      <c r="I11" s="92"/>
-      <c r="J11" s="92" t="s">
-        <v>158</v>
-      </c>
-      <c r="K11" s="92"/>
-      <c r="L11" s="92" t="s">
-        <v>158</v>
-      </c>
-      <c r="M11" s="95"/>
-      <c r="N11" s="95"/>
-      <c r="O11" s="96"/>
-      <c r="P11" s="97" t="s">
-        <v>158</v>
-      </c>
-      <c r="Q11" s="98" t="s">
-        <v>158</v>
-      </c>
-      <c r="R11" s="95" t="s">
-        <v>158</v>
-      </c>
-      <c r="S11" s="96"/>
-      <c r="T11" s="96"/>
-      <c r="U11" s="96"/>
-      <c r="V11" s="97" t="s">
-        <v>158</v>
-      </c>
-      <c r="W11" s="97" t="s">
-        <v>158</v>
-      </c>
-      <c r="X11" s="97" t="s">
-        <v>158</v>
-      </c>
-      <c r="Y11" s="99"/>
-      <c r="Z11" s="95" t="s">
-        <v>158</v>
-      </c>
-      <c r="AA11" s="96"/>
-      <c r="AB11" s="96"/>
-      <c r="AC11" s="97" t="s">
-        <v>158</v>
-      </c>
-      <c r="AD11" s="97" t="s">
-        <v>158</v>
-      </c>
-      <c r="AE11" s="96"/>
+      <c r="A11" s="93" t="s">
+        <v>162</v>
+      </c>
+      <c r="B11" s="94"/>
+      <c r="C11" s="95"/>
+      <c r="D11" s="93" t="s">
+        <v>163</v>
+      </c>
+      <c r="E11" s="93" t="s">
+        <v>163</v>
+      </c>
+      <c r="F11" s="93" t="s">
+        <v>163</v>
+      </c>
+      <c r="G11" s="96" t="s">
+        <v>163</v>
+      </c>
+      <c r="H11" s="93" t="s">
+        <v>163</v>
+      </c>
+      <c r="I11" s="93"/>
+      <c r="J11" s="93" t="s">
+        <v>163</v>
+      </c>
+      <c r="K11" s="93"/>
+      <c r="L11" s="93" t="s">
+        <v>163</v>
+      </c>
+      <c r="M11" s="96"/>
+      <c r="N11" s="96"/>
+      <c r="O11" s="97"/>
+      <c r="P11" s="98" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q11" s="99" t="s">
+        <v>163</v>
+      </c>
+      <c r="R11" s="96" t="s">
+        <v>163</v>
+      </c>
+      <c r="S11" s="97"/>
+      <c r="T11" s="97"/>
+      <c r="U11" s="97"/>
+      <c r="V11" s="98" t="s">
+        <v>163</v>
+      </c>
+      <c r="W11" s="98" t="s">
+        <v>163</v>
+      </c>
+      <c r="X11" s="98" t="s">
+        <v>163</v>
+      </c>
+      <c r="Y11" s="100"/>
+      <c r="Z11" s="96" t="s">
+        <v>163</v>
+      </c>
+      <c r="AA11" s="97"/>
+      <c r="AB11" s="97"/>
+      <c r="AC11" s="98" t="s">
+        <v>163</v>
+      </c>
+      <c r="AD11" s="98" t="s">
+        <v>163</v>
+      </c>
+      <c r="AE11" s="97"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="92" t="s">
-        <v>159</v>
-      </c>
-      <c r="B12" s="93"/>
-      <c r="C12" s="94"/>
-      <c r="D12" s="92" t="s">
-        <v>44</v>
-      </c>
-      <c r="E12" s="92" t="n">
+      <c r="A12" s="93" t="s">
+        <v>164</v>
+      </c>
+      <c r="B12" s="94"/>
+      <c r="C12" s="95"/>
+      <c r="D12" s="93" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" s="93" t="n">
         <v>3</v>
       </c>
-      <c r="F12" s="92" t="n">
+      <c r="F12" s="93" t="n">
         <v>3</v>
       </c>
-      <c r="G12" s="95" t="s">
-        <v>44</v>
-      </c>
-      <c r="H12" s="92" t="n">
+      <c r="G12" s="96" t="s">
+        <v>43</v>
+      </c>
+      <c r="H12" s="93" t="n">
         <v>3</v>
       </c>
-      <c r="I12" s="92"/>
-      <c r="J12" s="92" t="n">
+      <c r="I12" s="93"/>
+      <c r="J12" s="93" t="n">
         <v>3</v>
       </c>
-      <c r="K12" s="92"/>
-      <c r="L12" s="92" t="s">
+      <c r="K12" s="93"/>
+      <c r="L12" s="93" t="s">
         <v>14</v>
       </c>
-      <c r="M12" s="95"/>
-      <c r="N12" s="95"/>
-      <c r="O12" s="96"/>
-      <c r="P12" s="96" t="n">
+      <c r="M12" s="96"/>
+      <c r="N12" s="96"/>
+      <c r="O12" s="97"/>
+      <c r="P12" s="97" t="n">
         <v>3</v>
       </c>
-      <c r="Q12" s="99" t="n">
+      <c r="Q12" s="100" t="n">
         <v>3</v>
       </c>
-      <c r="R12" s="100" t="n">
+      <c r="R12" s="101" t="n">
         <v>3</v>
       </c>
-      <c r="S12" s="96"/>
-      <c r="T12" s="96"/>
-      <c r="U12" s="96"/>
-      <c r="V12" s="96" t="s">
+      <c r="S12" s="97"/>
+      <c r="T12" s="97"/>
+      <c r="U12" s="97"/>
+      <c r="V12" s="97" t="s">
         <v>14</v>
       </c>
-      <c r="W12" s="96" t="n">
+      <c r="W12" s="97" t="n">
         <v>2</v>
       </c>
-      <c r="X12" s="96" t="s">
+      <c r="X12" s="97" t="s">
         <v>14</v>
       </c>
-      <c r="Y12" s="99"/>
-      <c r="Z12" s="100" t="n">
+      <c r="Y12" s="100"/>
+      <c r="Z12" s="101" t="n">
         <v>3</v>
       </c>
-      <c r="AA12" s="96"/>
-      <c r="AB12" s="96"/>
-      <c r="AC12" s="96" t="n">
+      <c r="AA12" s="97"/>
+      <c r="AB12" s="97"/>
+      <c r="AC12" s="97" t="n">
         <v>2</v>
       </c>
-      <c r="AD12" s="96" t="s">
+      <c r="AD12" s="97" t="s">
         <v>14</v>
       </c>
-      <c r="AE12" s="96"/>
+      <c r="AE12" s="97"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="92" t="s">
-        <v>160</v>
-      </c>
-      <c r="B13" s="93"/>
-      <c r="C13" s="94"/>
-      <c r="D13" s="92" t="s">
-        <v>161</v>
-      </c>
-      <c r="E13" s="92" t="n">
+      <c r="A13" s="93" t="s">
+        <v>165</v>
+      </c>
+      <c r="B13" s="94"/>
+      <c r="C13" s="95"/>
+      <c r="D13" s="93" t="s">
+        <v>166</v>
+      </c>
+      <c r="E13" s="93" t="n">
         <v>25</v>
       </c>
-      <c r="F13" s="92" t="s">
-        <v>162</v>
-      </c>
-      <c r="G13" s="95" t="s">
-        <v>161</v>
-      </c>
-      <c r="H13" s="92" t="n">
+      <c r="F13" s="93" t="s">
+        <v>167</v>
+      </c>
+      <c r="G13" s="96" t="s">
+        <v>166</v>
+      </c>
+      <c r="H13" s="93" t="n">
         <v>25</v>
       </c>
-      <c r="I13" s="92"/>
-      <c r="J13" s="92" t="s">
-        <v>162</v>
-      </c>
-      <c r="K13" s="92"/>
-      <c r="L13" s="92" t="n">
+      <c r="I13" s="93"/>
+      <c r="J13" s="93" t="s">
+        <v>167</v>
+      </c>
+      <c r="K13" s="93"/>
+      <c r="L13" s="93" t="n">
         <v>100</v>
       </c>
-      <c r="M13" s="95"/>
-      <c r="N13" s="95"/>
-      <c r="O13" s="96"/>
-      <c r="P13" s="96" t="s">
-        <v>162</v>
-      </c>
-      <c r="Q13" s="99" t="s">
-        <v>162</v>
-      </c>
-      <c r="R13" s="100" t="s">
-        <v>162</v>
-      </c>
-      <c r="S13" s="96"/>
-      <c r="T13" s="96"/>
-      <c r="U13" s="96"/>
-      <c r="V13" s="96" t="s">
-        <v>163</v>
-      </c>
-      <c r="W13" s="96" t="n">
+      <c r="M13" s="96"/>
+      <c r="N13" s="96"/>
+      <c r="O13" s="97"/>
+      <c r="P13" s="97" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q13" s="100" t="s">
+        <v>167</v>
+      </c>
+      <c r="R13" s="101" t="s">
+        <v>167</v>
+      </c>
+      <c r="S13" s="97"/>
+      <c r="T13" s="97"/>
+      <c r="U13" s="97"/>
+      <c r="V13" s="97" t="s">
+        <v>168</v>
+      </c>
+      <c r="W13" s="97" t="n">
         <v>25</v>
       </c>
-      <c r="X13" s="96" t="s">
-        <v>162</v>
-      </c>
-      <c r="Y13" s="99"/>
-      <c r="Z13" s="100" t="s">
-        <v>162</v>
-      </c>
-      <c r="AA13" s="96"/>
-      <c r="AB13" s="96"/>
-      <c r="AC13" s="96" t="s">
-        <v>162</v>
-      </c>
-      <c r="AD13" s="96" t="s">
-        <v>162</v>
-      </c>
-      <c r="AE13" s="96"/>
+      <c r="X13" s="97" t="s">
+        <v>167</v>
+      </c>
+      <c r="Y13" s="100"/>
+      <c r="Z13" s="101" t="s">
+        <v>167</v>
+      </c>
+      <c r="AA13" s="97"/>
+      <c r="AB13" s="97"/>
+      <c r="AC13" s="97" t="s">
+        <v>167</v>
+      </c>
+      <c r="AD13" s="97" t="s">
+        <v>167</v>
+      </c>
+      <c r="AE13" s="97"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="101" t="s">
-        <v>164</v>
+      <c r="A14" s="102" t="s">
+        <v>169</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="E14" s="0" t="s">
         <v>39</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="I14" s="0" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="J14" s="0" t="s">
         <v>39</v>
       </c>
       <c r="L14" s="0" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="P14" s="0" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="Q14" s="0" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="T14" s="0" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="U14" s="0" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="X14" s="0" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="Z14" s="0" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="AA14" s="0" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="AC14" s="0" t="s">
         <v>39</v>
       </c>
       <c r="AD14" s="0" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="AE14" s="0" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D15" s="0" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="Z15" s="0" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="AD15" s="0" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>

--- a/months/sep23/sep23.xlsx
+++ b/months/sep23/sep23.xlsx
@@ -5,12 +5,13 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="vedomost" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="работа по дому" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="price" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="description" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="839" uniqueCount="230">
   <si>
     <t xml:space="preserve">DATE</t>
   </si>
@@ -75,21 +76,21 @@
     <t xml:space="preserve">21:45</t>
   </si>
   <si>
+    <t xml:space="preserve">22:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAN`T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0</t>
+  </si>
+  <si>
     <t xml:space="preserve">1</t>
   </si>
   <si>
-    <t xml:space="preserve">22:30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAN`T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">+</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0</t>
-  </si>
-  <si>
     <t xml:space="preserve">E2</t>
   </si>
   <si>
@@ -141,37 +142,91 @@
     <t xml:space="preserve">Ed8(0)</t>
   </si>
   <si>
+    <t xml:space="preserve">L1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22:15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20:42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22:25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22:42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23:15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22:05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22:33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E4,L1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23:02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23:22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23:45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22:20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21:40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23:55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23:30</t>
+  </si>
+  <si>
     <t xml:space="preserve">!</t>
   </si>
   <si>
-    <t xml:space="preserve">L1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21:15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22:42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21:-5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22:74</t>
+    <t xml:space="preserve">21:55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22:41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L2,E1</t>
   </si>
   <si>
     <t xml:space="preserve">-1</t>
   </si>
   <si>
-    <t xml:space="preserve">-5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22:60</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23:06</t>
+    <t xml:space="preserve">22:50</t>
   </si>
   <si>
     <t xml:space="preserve">Lh</t>
@@ -481,9 +536,6 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">{"+": {"CDIF": 50, "P": 25}, "-": {"CDIFP": 0}}</t>
-  </si>
-  <si>
     <t xml:space="preserve">{"&lt;.23": "30+1*", "&gt;.23": "-1*", "&gt;.0": "-1.5*"}</t>
   </si>
   <si>
@@ -599,21 +651,149 @@
   </si>
   <si>
     <t xml:space="preserve">ПРИБАВЛЕН БОНУС</t>
+  </si>
+  <si>
+    <t xml:space="preserve">description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Арина: сколько кормлений грудью?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Арина: сон в своей кровати?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Арина: сколько прогулок за день?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Арина: время засыпания?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Арина: чистка зубов утром и вечером?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Злата: сколько прогулок за день?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Злата: время засыпания?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Злата: дневной сон?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Злата: чистка зубов утром и вечером?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Злата: число занятий (рукоделие, логопедия, азбука, счет) с родителем</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Злата: существовала без телевизора и интернета?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Семья: сколько семейных прогулок за день?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Дом: сколько комнат убрано пылесосом или вручную? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Дом: Сколько сеансов мытья посуды? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Дом: убранная кухня?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Дом: убранный коридор?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Лера: чистка зубов утром и вечером?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Лера: Сколько выполнено заданий?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Лера: дефицит сна? Дневной сон?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Лера: время укладывания?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Лера: соблюдение диеты?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Лера: сколько баллов за питание?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hint</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">Условия: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">зимой от 30 мин, летом от 1ч</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Разрешается дробить коридор по 0.5. Туалет, ванная по 0.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Условия: после сеанса не должно остаться грязной посуды (искл: сковорода многократного применения: чтоб вкуснее…)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Условия: посуда помыта, расставлена, столы вытерты, разобран хлам, шмотки, игрушки </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Условия: обувь по полочкам, шмотки по шкафчикам, хлам у зеркала разобран</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Если нет: can`t. Если есть дефицит: +: дневной сон, - отсутствие дневного сна</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Условия: 1 прием пищи: 1 балл, с усилителями вкуса (бутики, сладкое): –1 балл, с овощами: +1 балл</t>
+  </si>
+  <si>
+    <t xml:space="preserve">type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">num</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dict</t>
+  </si>
+  <si>
+    <t xml:space="preserve">time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">variants</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="6">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="[$-F800]dddd&quot;, &quot;mmmm\ dd&quot;, &quot;yyyy"/>
     <numFmt numFmtId="166" formatCode="d/m;@"/>
     <numFmt numFmtId="167" formatCode="@"/>
-    <numFmt numFmtId="168" formatCode="General"/>
-    <numFmt numFmtId="169" formatCode="m/d/yyyy"/>
+    <numFmt numFmtId="168" formatCode="m/d/yyyy"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -665,6 +845,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="10">
@@ -813,7 +999,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="105">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -846,10 +1032,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -870,11 +1052,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="168" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -882,11 +1068,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="168" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -910,11 +1096,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="168" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1223,6 +1405,18 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="167" fontId="0" fillId="9" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1440,15 +1634,15 @@
   </sheetPr>
   <dimension ref="A1:AN32"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="8" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="8" ySplit="1" topLeftCell="X2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="I1" activeCellId="0" sqref="I1"/>
+      <selection pane="topRight" activeCell="X1" activeCellId="0" sqref="X1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J9" activeCellId="0" sqref="J9"/>
+      <selection pane="bottomRight" activeCell="X1" activeCellId="0" sqref="X1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.57421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="24"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="4.43"/>
@@ -1483,7 +1677,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="3" width="7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="34" style="4" width="7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="36" style="0" width="11.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="37" style="0" width="5.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="37" style="0" width="5.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="38" min="38" style="0" width="7.43"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="39" min="39" style="5" width="8.57"/>
   </cols>
@@ -1633,1430 +1827,1699 @@
         <f aca="false">price!AE1</f>
         <v>l:meals</v>
       </c>
-      <c r="AN1" s="8" t="str">
+      <c r="AN1" s="6" t="str">
         <f aca="false">IFERROR(IF(INDEX(#REF!,MATCH(AM1,#REF!,0)+1)=0,"",INDEX(#REF!,MATCH(AM1,#REF!,0)+1)), "")</f>
         <v/>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="9" t="n">
+      <c r="A2" s="8" t="n">
         <v>45170</v>
       </c>
-      <c r="B2" s="10" t="n">
+      <c r="B2" s="9" t="n">
         <f aca="false">IFERROR(WEEKDAY(A2,2),"")</f>
         <v>5</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="H2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="I2" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="J2" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="10" t="s">
+      <c r="K2" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="10" t="s">
+      <c r="L2" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="10" t="s">
+      <c r="M2" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="N2" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="O2" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="N2" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="O2" s="10" t="s">
+      <c r="P2" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="P2" s="10" t="s">
+      <c r="Q2" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="Q2" s="10" t="s">
+      <c r="R2" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="R2" s="10" t="s">
+      <c r="S2" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="T2" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="S2" s="10" t="s">
+      <c r="U2" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="T2" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="U2" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="V2" s="10" t="s">
+      <c r="V2" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="W2" s="10" t="s">
+      <c r="W2" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="X2" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y2" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z2" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA2" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="X2" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="Y2" s="11" t="s">
+      <c r="AB2" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC2" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="AD2" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE2" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="AF2" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="AG2" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="Z2" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="AA2" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="AB2" s="10" t="s">
+      <c r="AH2" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="AI2" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="AJ2" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="AK2" s="9" t="s">
         <v>19</v>
-      </c>
-      <c r="AC2" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="AD2" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="AE2" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="AF2" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="AG2" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="AH2" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="AI2" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="AJ2" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="AK2" s="10" t="s">
-        <v>20</v>
       </c>
       <c r="AL2" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="9" t="n">
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="8" t="n">
         <v>45171</v>
       </c>
-      <c r="B3" s="10" t="n">
+      <c r="B3" s="9" t="n">
         <f aca="false">IFERROR(WEEKDAY(A3,2),"")</f>
         <v>6</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="H3" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="I3" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="J3" s="10" t="s">
+      <c r="J3" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="10" t="s">
+      <c r="K3" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="L3" s="10" t="s">
+      <c r="L3" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="M3" s="10" t="s">
+      <c r="M3" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="N3" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="O3" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="P3" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="N3" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="O3" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="P3" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q3" s="10" t="s">
+      <c r="Q3" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="R3" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="R3" s="10" t="s">
+      <c r="S3" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="T3" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="S3" s="10" t="s">
+      <c r="U3" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="V3" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="W3" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="X3" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y3" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z3" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA3" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB3" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC3" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="AD3" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE3" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="AF3" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="AG3" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="AH3" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="T3" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="U3" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="V3" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="W3" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="X3" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="Y3" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="Z3" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="AA3" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="AB3" s="10" t="s">
+      <c r="AI3" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="AJ3" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="AK3" s="9" t="s">
         <v>19</v>
-      </c>
-      <c r="AC3" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="AD3" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE3" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="AF3" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="AG3" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="AH3" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="AI3" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="AJ3" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="AK3" s="10" t="s">
-        <v>20</v>
       </c>
       <c r="AL3" s="0" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="9" t="n">
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="8" t="n">
         <v>45172</v>
       </c>
-      <c r="B4" s="10" t="n">
+      <c r="B4" s="9" t="n">
         <f aca="false">IFERROR(WEEKDAY(A4,2),"")</f>
         <v>7</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="G4" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="10" t="s">
+      <c r="H4" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="11" t="s">
+      <c r="I4" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="J4" s="10" t="s">
+      <c r="J4" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="K4" s="10" t="s">
+      <c r="L4" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L4" s="10" t="s">
+      <c r="M4" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="N4" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="O4" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="M4" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="N4" s="11" t="s">
+      <c r="P4" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q4" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="R4" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="S4" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="T4" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="U4" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="V4" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="W4" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="X4" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y4" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z4" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA4" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB4" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC4" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="AD4" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE4" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="AF4" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="AG4" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="AH4" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="O4" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="P4" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q4" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="R4" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="S4" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="T4" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="U4" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="V4" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="W4" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="X4" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="Y4" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="Z4" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="AA4" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="AB4" s="10" t="s">
+      <c r="AI4" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="AJ4" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="AK4" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="AC4" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="AD4" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="AE4" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="AF4" s="10" t="s">
+      <c r="AL4" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="AG4" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="AH4" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="AI4" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="AJ4" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="AK4" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="AL4" s="12" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="9" t="n">
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="8" t="n">
         <v>45173</v>
       </c>
-      <c r="B5" s="10" t="n">
+      <c r="B5" s="9" t="n">
         <f aca="false">IFERROR(WEEKDAY(A5,2),"")</f>
         <v>1</v>
       </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10" t="s">
+      <c r="C5" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="9" t="s">
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="G5" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="10" t="s">
+      <c r="H5" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="J5" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="11" t="s">
+      <c r="K5" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="L5" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="M5" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="N5" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="O5" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="P5" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q5" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="R5" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="S5" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="T5" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="U5" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="V5" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="W5" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="X5" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y5" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z5" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA5" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB5" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC5" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="AD5" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE5" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="AF5" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="L5" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="M5" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="N5" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="O5" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="P5" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q5" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="R5" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="S5" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="T5" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="U5" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="V5" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="W5" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="X5" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="Y5" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="Z5" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA5" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="AB5" s="10" t="s">
+      <c r="AG5" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="AC5" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="AD5" s="10" t="s">
+      <c r="AH5" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="AI5" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="AJ5" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="AE5" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="AF5" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="AG5" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="AH5" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="AI5" s="10" t="s">
+      <c r="AK5" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="AJ5" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="AK5" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="AL5" s="0" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="9" t="n">
+      <c r="AL5" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="8" t="n">
         <v>45174</v>
       </c>
-      <c r="B6" s="10" t="n">
+      <c r="B6" s="9" t="n">
         <f aca="false">IFERROR(WEEKDAY(A6,2),"")</f>
         <v>2</v>
       </c>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10" t="s">
+      <c r="C6" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="E6" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10" t="s">
+      <c r="F6" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="10"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
-      <c r="N6" s="11"/>
-      <c r="O6" s="10"/>
-      <c r="P6" s="10"/>
-      <c r="Q6" s="10"/>
-      <c r="R6" s="10"/>
-      <c r="S6" s="10"/>
-      <c r="T6" s="11"/>
-      <c r="U6" s="11"/>
-      <c r="V6" s="10"/>
-      <c r="W6" s="10"/>
-      <c r="X6" s="10"/>
-      <c r="Y6" s="11"/>
-      <c r="Z6" s="10"/>
-      <c r="AA6" s="10"/>
-      <c r="AB6" s="10"/>
-      <c r="AC6" s="10"/>
-      <c r="AD6" s="10"/>
-      <c r="AE6" s="10"/>
-      <c r="AF6" s="10"/>
-      <c r="AG6" s="11"/>
-      <c r="AH6" s="10"/>
-      <c r="AI6" s="10"/>
-      <c r="AJ6" s="10"/>
-      <c r="AK6" s="10"/>
-      <c r="AL6" s="10"/>
-    </row>
-    <row r="7" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="9" t="n">
+      <c r="H6" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="J6" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="K6" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="L6" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="M6" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="N6" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="O6" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="P6" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q6" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="R6" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="S6" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="T6" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="U6" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="V6" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="W6" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="X6" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y6" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z6" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA6" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB6" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC6" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="AD6" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="AE6" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="AF6" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="AG6" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="AH6" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="AI6" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="AJ6" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="AK6" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="AL6" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="8" t="n">
         <v>45175</v>
       </c>
-      <c r="B7" s="10" t="n">
+      <c r="B7" s="9" t="n">
         <f aca="false">IFERROR(WEEKDAY(A7,2),"")</f>
         <v>3</v>
       </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10" t="s">
+      <c r="C7" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E7" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10" t="s">
+      <c r="F7" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="H7" s="10"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="10"/>
-      <c r="N7" s="11"/>
-      <c r="O7" s="10"/>
-      <c r="P7" s="10"/>
-      <c r="Q7" s="10"/>
-      <c r="R7" s="10"/>
-      <c r="S7" s="10"/>
-      <c r="T7" s="11"/>
-      <c r="U7" s="11"/>
-      <c r="V7" s="10"/>
-      <c r="W7" s="10"/>
-      <c r="X7" s="10"/>
-      <c r="Y7" s="11"/>
-      <c r="Z7" s="10"/>
-      <c r="AA7" s="10"/>
-      <c r="AB7" s="10"/>
-      <c r="AC7" s="10"/>
-      <c r="AD7" s="10"/>
-      <c r="AE7" s="10"/>
-      <c r="AF7" s="10"/>
-      <c r="AG7" s="11"/>
-      <c r="AH7" s="10"/>
-      <c r="AI7" s="10"/>
-      <c r="AJ7" s="10"/>
-      <c r="AK7" s="10"/>
-      <c r="AL7" s="10"/>
-    </row>
-    <row r="8" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="9" t="n">
+      <c r="H7" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="J7" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="K7" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="L7" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="M7" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="N7" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="O7" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="P7" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q7" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="R7" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="S7" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="T7" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="U7" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="V7" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="W7" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="X7" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y7" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z7" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA7" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB7" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC7" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="AD7" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="AE7" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="AF7" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="AG7" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="AH7" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI7" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="AJ7" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="AK7" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="AL7" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="8" t="n">
         <v>45176</v>
       </c>
-      <c r="B8" s="10" t="n">
+      <c r="B8" s="9" t="n">
         <f aca="false">IFERROR(WEEKDAY(A8,2),"")</f>
         <v>4</v>
       </c>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10" t="s">
+      <c r="C8" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="E8" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="G8" s="10" t="s">
+      <c r="F8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="10"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="10"/>
-      <c r="N8" s="11"/>
-      <c r="O8" s="10"/>
-      <c r="P8" s="10"/>
-      <c r="Q8" s="10"/>
-      <c r="R8" s="10"/>
-      <c r="S8" s="10"/>
-      <c r="T8" s="11"/>
-      <c r="U8" s="11"/>
-      <c r="V8" s="10"/>
-      <c r="W8" s="10"/>
-      <c r="X8" s="10"/>
-      <c r="Y8" s="11"/>
-      <c r="Z8" s="10"/>
-      <c r="AA8" s="10"/>
-      <c r="AB8" s="10"/>
-      <c r="AC8" s="10"/>
-      <c r="AD8" s="10"/>
-      <c r="AE8" s="10"/>
-      <c r="AF8" s="10"/>
-      <c r="AG8" s="11"/>
-      <c r="AH8" s="10"/>
-      <c r="AI8" s="10"/>
-      <c r="AJ8" s="10"/>
-      <c r="AK8" s="10"/>
-      <c r="AL8" s="10"/>
-    </row>
-    <row r="9" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="9" t="n">
+      <c r="H8" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="J8" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="K8" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="L8" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="M8" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="N8" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="O8" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="P8" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q8" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="R8" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="S8" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="T8" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="U8" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="V8" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="W8" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="X8" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y8" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z8" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA8" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB8" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC8" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="AD8" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="AE8" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="AF8" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="AG8" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="AH8" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="AI8" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="AJ8" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="AK8" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="AL8" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="8" t="n">
         <v>45177</v>
       </c>
-      <c r="B9" s="10" t="n">
+      <c r="B9" s="9" t="n">
         <f aca="false">IFERROR(WEEKDAY(A9,2),"")</f>
         <v>5</v>
       </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10" t="s">
+      <c r="C9" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="E9" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10" t="s">
+      <c r="F9" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="H9" s="10"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="10"/>
-      <c r="M9" s="10"/>
-      <c r="N9" s="11"/>
-      <c r="O9" s="10"/>
-      <c r="P9" s="10"/>
-      <c r="Q9" s="10"/>
-      <c r="R9" s="10"/>
-      <c r="S9" s="10"/>
-      <c r="T9" s="11"/>
-      <c r="U9" s="11"/>
-      <c r="V9" s="10"/>
-      <c r="W9" s="10"/>
-      <c r="X9" s="10"/>
-      <c r="Y9" s="11"/>
-      <c r="Z9" s="10"/>
-      <c r="AA9" s="10"/>
-      <c r="AB9" s="10"/>
-      <c r="AC9" s="10"/>
-      <c r="AD9" s="10"/>
-      <c r="AE9" s="10"/>
-      <c r="AF9" s="10"/>
-      <c r="AG9" s="11"/>
-      <c r="AH9" s="10"/>
-      <c r="AI9" s="10"/>
-      <c r="AJ9" s="10"/>
-      <c r="AK9" s="10"/>
-      <c r="AL9" s="10"/>
-    </row>
-    <row r="10" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="9" t="n">
+      <c r="H9" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="I9" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="J9" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="K9" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="L9" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="M9" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="N9" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="O9" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="P9" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q9" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="R9" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="S9" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="T9" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="U9" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="V9" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="W9" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="X9" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y9" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z9" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA9" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB9" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC9" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="AD9" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="AE9" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="AF9" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="AG9" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="AH9" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="AI9" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="AJ9" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK9" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="AL9" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="8" t="n">
         <v>45178</v>
       </c>
-      <c r="B10" s="10" t="n">
+      <c r="B10" s="9" t="n">
         <f aca="false">IFERROR(WEEKDAY(A10,2),"")</f>
         <v>6</v>
       </c>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10" t="s">
+      <c r="C10" s="9"/>
+      <c r="D10" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="E10" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="10"/>
-      <c r="N10" s="11"/>
-      <c r="O10" s="10"/>
-      <c r="P10" s="10"/>
-      <c r="Q10" s="10"/>
-      <c r="R10" s="10"/>
-      <c r="S10" s="10"/>
-      <c r="T10" s="11"/>
-      <c r="U10" s="11"/>
-      <c r="V10" s="10"/>
-      <c r="W10" s="10"/>
-      <c r="X10" s="10"/>
-      <c r="Y10" s="11"/>
-      <c r="Z10" s="10"/>
-      <c r="AA10" s="10"/>
-      <c r="AB10" s="10"/>
-      <c r="AC10" s="10"/>
-      <c r="AD10" s="10"/>
-      <c r="AE10" s="10"/>
-      <c r="AF10" s="10"/>
-      <c r="AG10" s="11"/>
-      <c r="AH10" s="10"/>
-      <c r="AI10" s="10"/>
-      <c r="AJ10" s="10"/>
-      <c r="AK10" s="10"/>
-      <c r="AL10" s="10"/>
-    </row>
-    <row r="11" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="9" t="n">
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="10"/>
+      <c r="O10" s="9"/>
+      <c r="P10" s="9"/>
+      <c r="Q10" s="9"/>
+      <c r="R10" s="9"/>
+      <c r="S10" s="9"/>
+      <c r="T10" s="10"/>
+      <c r="U10" s="10"/>
+      <c r="V10" s="9"/>
+      <c r="W10" s="9"/>
+      <c r="X10" s="9"/>
+      <c r="Y10" s="10"/>
+      <c r="Z10" s="9"/>
+      <c r="AA10" s="9"/>
+      <c r="AB10" s="9"/>
+      <c r="AC10" s="9"/>
+      <c r="AD10" s="9"/>
+      <c r="AE10" s="9"/>
+      <c r="AF10" s="9"/>
+      <c r="AG10" s="10"/>
+      <c r="AH10" s="9"/>
+      <c r="AI10" s="9"/>
+      <c r="AJ10" s="9"/>
+      <c r="AK10" s="9"/>
+      <c r="AL10" s="9"/>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="8" t="n">
         <v>45179</v>
       </c>
-      <c r="B11" s="10" t="n">
+      <c r="B11" s="9" t="n">
         <f aca="false">IFERROR(WEEKDAY(A11,2),"")</f>
         <v>7</v>
       </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10" t="s">
+      <c r="C11" s="9"/>
+      <c r="D11" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="E11" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="10"/>
-      <c r="M11" s="10"/>
-      <c r="N11" s="11"/>
-      <c r="O11" s="10"/>
-      <c r="P11" s="10"/>
-      <c r="Q11" s="10"/>
-      <c r="R11" s="10"/>
-      <c r="S11" s="10"/>
-      <c r="T11" s="11"/>
-      <c r="U11" s="11"/>
-      <c r="V11" s="10"/>
-      <c r="W11" s="10"/>
-      <c r="X11" s="10"/>
-      <c r="Y11" s="11"/>
-      <c r="Z11" s="10"/>
-      <c r="AA11" s="10"/>
-      <c r="AB11" s="10"/>
-      <c r="AC11" s="10"/>
-      <c r="AD11" s="10"/>
-      <c r="AE11" s="10"/>
-      <c r="AF11" s="10"/>
-      <c r="AG11" s="11"/>
-      <c r="AH11" s="10"/>
-      <c r="AI11" s="10"/>
-      <c r="AJ11" s="10"/>
-      <c r="AK11" s="10"/>
-      <c r="AL11" s="10"/>
-    </row>
-    <row r="12" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="9" t="n">
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="10"/>
+      <c r="O11" s="9"/>
+      <c r="P11" s="9"/>
+      <c r="Q11" s="9"/>
+      <c r="R11" s="9"/>
+      <c r="S11" s="9"/>
+      <c r="T11" s="10"/>
+      <c r="U11" s="10"/>
+      <c r="V11" s="9"/>
+      <c r="W11" s="9"/>
+      <c r="X11" s="9"/>
+      <c r="Y11" s="10"/>
+      <c r="Z11" s="9"/>
+      <c r="AA11" s="9"/>
+      <c r="AB11" s="9"/>
+      <c r="AC11" s="9"/>
+      <c r="AD11" s="9"/>
+      <c r="AE11" s="9"/>
+      <c r="AF11" s="9"/>
+      <c r="AG11" s="10"/>
+      <c r="AH11" s="9"/>
+      <c r="AI11" s="9"/>
+      <c r="AJ11" s="9"/>
+      <c r="AK11" s="9"/>
+      <c r="AL11" s="9"/>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="8" t="n">
         <v>45180</v>
       </c>
-      <c r="B12" s="10" t="n">
+      <c r="B12" s="9" t="n">
         <f aca="false">IFERROR(WEEKDAY(A12,2),"")</f>
         <v>1</v>
       </c>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10" t="s">
+      <c r="C12" s="9"/>
+      <c r="D12" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="10" t="s">
+      <c r="E12" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10" t="s">
+      <c r="F12" s="9"/>
+      <c r="G12" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="H12" s="10"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="10"/>
-      <c r="M12" s="10"/>
-      <c r="N12" s="11"/>
-      <c r="O12" s="10"/>
-      <c r="P12" s="10"/>
-      <c r="Q12" s="10"/>
-      <c r="R12" s="10"/>
-      <c r="S12" s="10"/>
-      <c r="T12" s="11"/>
-      <c r="U12" s="11"/>
-      <c r="V12" s="10"/>
-      <c r="W12" s="10"/>
-      <c r="X12" s="10"/>
-      <c r="Y12" s="11"/>
-      <c r="Z12" s="10"/>
-      <c r="AA12" s="10"/>
-      <c r="AB12" s="10"/>
-      <c r="AC12" s="10"/>
-      <c r="AD12" s="10"/>
-      <c r="AE12" s="10"/>
-      <c r="AF12" s="10"/>
-      <c r="AG12" s="11"/>
-      <c r="AH12" s="10"/>
-      <c r="AI12" s="10"/>
-      <c r="AJ12" s="10"/>
-      <c r="AK12" s="10"/>
-      <c r="AL12" s="10"/>
-    </row>
-    <row r="13" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="9" t="n">
+      <c r="H12" s="9"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="10"/>
+      <c r="O12" s="9"/>
+      <c r="P12" s="9"/>
+      <c r="Q12" s="9"/>
+      <c r="R12" s="9"/>
+      <c r="S12" s="9"/>
+      <c r="T12" s="10"/>
+      <c r="U12" s="10"/>
+      <c r="V12" s="9"/>
+      <c r="W12" s="9"/>
+      <c r="X12" s="9"/>
+      <c r="Y12" s="10"/>
+      <c r="Z12" s="9"/>
+      <c r="AA12" s="9"/>
+      <c r="AB12" s="9"/>
+      <c r="AC12" s="9"/>
+      <c r="AD12" s="9"/>
+      <c r="AE12" s="9"/>
+      <c r="AF12" s="9"/>
+      <c r="AG12" s="10"/>
+      <c r="AH12" s="9"/>
+      <c r="AI12" s="9"/>
+      <c r="AJ12" s="9"/>
+      <c r="AK12" s="9"/>
+      <c r="AL12" s="9"/>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="8" t="n">
         <v>45181</v>
       </c>
-      <c r="B13" s="10" t="n">
+      <c r="B13" s="9" t="n">
         <f aca="false">IFERROR(WEEKDAY(A13,2),"")</f>
         <v>2</v>
       </c>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10" t="s">
+      <c r="C13" s="9"/>
+      <c r="D13" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E13" s="10" t="s">
+      <c r="E13" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10" t="s">
+      <c r="F13" s="9"/>
+      <c r="G13" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="H13" s="10"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="10"/>
-      <c r="L13" s="10"/>
-      <c r="M13" s="10"/>
-      <c r="N13" s="11"/>
-      <c r="O13" s="10"/>
-      <c r="P13" s="10"/>
-      <c r="Q13" s="10"/>
-      <c r="R13" s="10"/>
-      <c r="S13" s="10"/>
-      <c r="T13" s="11"/>
-      <c r="U13" s="11"/>
-      <c r="V13" s="10"/>
-      <c r="W13" s="10"/>
-      <c r="X13" s="10"/>
-      <c r="Y13" s="11"/>
-      <c r="Z13" s="10"/>
-      <c r="AA13" s="10"/>
-      <c r="AB13" s="10"/>
-      <c r="AC13" s="10"/>
-      <c r="AD13" s="10"/>
-      <c r="AE13" s="10"/>
-      <c r="AF13" s="10"/>
-      <c r="AG13" s="11"/>
-      <c r="AH13" s="10"/>
-      <c r="AI13" s="10"/>
-      <c r="AJ13" s="10"/>
-      <c r="AK13" s="10"/>
-      <c r="AL13" s="10"/>
-    </row>
-    <row r="14" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="9" t="n">
+      <c r="H13" s="9"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="10"/>
+      <c r="O13" s="9"/>
+      <c r="P13" s="9"/>
+      <c r="Q13" s="9"/>
+      <c r="R13" s="9"/>
+      <c r="S13" s="9"/>
+      <c r="T13" s="10"/>
+      <c r="U13" s="10"/>
+      <c r="V13" s="9"/>
+      <c r="W13" s="9"/>
+      <c r="X13" s="9"/>
+      <c r="Y13" s="10"/>
+      <c r="Z13" s="9"/>
+      <c r="AA13" s="9"/>
+      <c r="AB13" s="9"/>
+      <c r="AC13" s="9"/>
+      <c r="AD13" s="9"/>
+      <c r="AE13" s="9"/>
+      <c r="AF13" s="9"/>
+      <c r="AG13" s="10"/>
+      <c r="AH13" s="9"/>
+      <c r="AI13" s="9"/>
+      <c r="AJ13" s="9"/>
+      <c r="AK13" s="9"/>
+      <c r="AL13" s="9"/>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="8" t="n">
         <v>45182</v>
       </c>
-      <c r="B14" s="10" t="n">
+      <c r="B14" s="9" t="n">
         <f aca="false">IFERROR(WEEKDAY(A14,2),"")</f>
         <v>3</v>
       </c>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10" t="s">
+      <c r="C14" s="9"/>
+      <c r="D14" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E14" s="10" t="s">
+      <c r="E14" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10" t="s">
+      <c r="F14" s="9"/>
+      <c r="G14" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="H14" s="10"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="10"/>
-      <c r="M14" s="10"/>
-      <c r="N14" s="11"/>
-      <c r="O14" s="10"/>
-      <c r="P14" s="10"/>
-      <c r="Q14" s="10"/>
-      <c r="R14" s="10"/>
-      <c r="S14" s="10"/>
-      <c r="T14" s="11"/>
-      <c r="U14" s="11"/>
-      <c r="V14" s="10"/>
-      <c r="W14" s="10"/>
-      <c r="X14" s="10"/>
-      <c r="Y14" s="11"/>
-      <c r="Z14" s="10"/>
-      <c r="AA14" s="10"/>
-      <c r="AB14" s="10"/>
-      <c r="AC14" s="10"/>
-      <c r="AD14" s="10"/>
-      <c r="AE14" s="10"/>
-      <c r="AF14" s="10"/>
-      <c r="AG14" s="11"/>
-      <c r="AH14" s="10"/>
-      <c r="AI14" s="10"/>
-      <c r="AJ14" s="10"/>
-      <c r="AK14" s="10"/>
-      <c r="AL14" s="10"/>
-    </row>
-    <row r="15" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="9" t="n">
+      <c r="H14" s="9"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="10"/>
+      <c r="O14" s="9"/>
+      <c r="P14" s="9"/>
+      <c r="Q14" s="9"/>
+      <c r="R14" s="9"/>
+      <c r="S14" s="9"/>
+      <c r="T14" s="10"/>
+      <c r="U14" s="10"/>
+      <c r="V14" s="9"/>
+      <c r="W14" s="9"/>
+      <c r="X14" s="9"/>
+      <c r="Y14" s="10"/>
+      <c r="Z14" s="9"/>
+      <c r="AA14" s="9"/>
+      <c r="AB14" s="9"/>
+      <c r="AC14" s="9"/>
+      <c r="AD14" s="9"/>
+      <c r="AE14" s="9"/>
+      <c r="AF14" s="9"/>
+      <c r="AG14" s="10"/>
+      <c r="AH14" s="9"/>
+      <c r="AI14" s="9"/>
+      <c r="AJ14" s="9"/>
+      <c r="AK14" s="9"/>
+      <c r="AL14" s="9"/>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="8" t="n">
         <v>45183</v>
       </c>
-      <c r="B15" s="10" t="n">
+      <c r="B15" s="9" t="n">
         <f aca="false">IFERROR(WEEKDAY(A15,2),"")</f>
         <v>4</v>
       </c>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10" t="s">
+      <c r="C15" s="9"/>
+      <c r="D15" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="10" t="s">
+      <c r="E15" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F15" s="13"/>
-      <c r="G15" s="10" t="s">
+      <c r="F15" s="12"/>
+      <c r="G15" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="H15" s="10"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="10"/>
-      <c r="L15" s="10"/>
-      <c r="M15" s="10"/>
-      <c r="N15" s="11"/>
-      <c r="O15" s="10"/>
-      <c r="P15" s="10"/>
-      <c r="Q15" s="10"/>
-      <c r="R15" s="10"/>
-      <c r="S15" s="10"/>
-      <c r="T15" s="11"/>
-      <c r="U15" s="11"/>
-      <c r="V15" s="10"/>
-      <c r="W15" s="10"/>
-      <c r="X15" s="10"/>
-      <c r="Y15" s="11"/>
-      <c r="Z15" s="10"/>
-      <c r="AA15" s="10"/>
-      <c r="AB15" s="10"/>
-      <c r="AC15" s="10"/>
-      <c r="AD15" s="10"/>
-      <c r="AE15" s="10"/>
-      <c r="AF15" s="10"/>
-      <c r="AG15" s="11"/>
-      <c r="AH15" s="10"/>
-      <c r="AI15" s="10"/>
-      <c r="AJ15" s="10"/>
-      <c r="AK15" s="10"/>
-      <c r="AL15" s="10"/>
-    </row>
-    <row r="16" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="9" t="n">
+      <c r="H15" s="9"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="10"/>
+      <c r="O15" s="9"/>
+      <c r="P15" s="9"/>
+      <c r="Q15" s="9"/>
+      <c r="R15" s="9"/>
+      <c r="S15" s="9"/>
+      <c r="T15" s="10"/>
+      <c r="U15" s="10"/>
+      <c r="V15" s="9"/>
+      <c r="W15" s="9"/>
+      <c r="X15" s="9"/>
+      <c r="Y15" s="10"/>
+      <c r="Z15" s="9"/>
+      <c r="AA15" s="9"/>
+      <c r="AB15" s="9"/>
+      <c r="AC15" s="9"/>
+      <c r="AD15" s="9"/>
+      <c r="AE15" s="9"/>
+      <c r="AF15" s="9"/>
+      <c r="AG15" s="10"/>
+      <c r="AH15" s="9"/>
+      <c r="AI15" s="9"/>
+      <c r="AJ15" s="9"/>
+      <c r="AK15" s="9"/>
+      <c r="AL15" s="9"/>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="8" t="n">
         <v>45184</v>
       </c>
-      <c r="B16" s="10" t="n">
+      <c r="B16" s="9" t="n">
         <f aca="false">IFERROR(WEEKDAY(A16,2),"")</f>
         <v>5</v>
       </c>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10" t="s">
+      <c r="C16" s="9"/>
+      <c r="D16" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E16" s="10" t="s">
+      <c r="E16" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10" t="s">
+      <c r="F16" s="9"/>
+      <c r="G16" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="H16" s="10"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="10"/>
-      <c r="L16" s="10"/>
-      <c r="M16" s="10"/>
-      <c r="N16" s="11"/>
-      <c r="O16" s="10"/>
-      <c r="P16" s="10"/>
-      <c r="Q16" s="10"/>
-      <c r="R16" s="10"/>
-      <c r="S16" s="10"/>
-      <c r="T16" s="11"/>
-      <c r="U16" s="11"/>
-      <c r="V16" s="10"/>
-      <c r="W16" s="10"/>
-      <c r="X16" s="10"/>
-      <c r="Y16" s="11"/>
-      <c r="Z16" s="10"/>
-      <c r="AA16" s="10"/>
-      <c r="AB16" s="10"/>
-      <c r="AC16" s="10"/>
-      <c r="AD16" s="10"/>
-      <c r="AE16" s="10"/>
-      <c r="AF16" s="10"/>
-      <c r="AG16" s="11"/>
-      <c r="AH16" s="10"/>
-      <c r="AI16" s="10"/>
-      <c r="AJ16" s="10"/>
-      <c r="AK16" s="10"/>
-    </row>
-    <row r="17" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="9" t="n">
+      <c r="H16" s="9"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="10"/>
+      <c r="O16" s="9"/>
+      <c r="P16" s="9"/>
+      <c r="Q16" s="9"/>
+      <c r="R16" s="9"/>
+      <c r="S16" s="9"/>
+      <c r="T16" s="10"/>
+      <c r="U16" s="10"/>
+      <c r="V16" s="9"/>
+      <c r="W16" s="9"/>
+      <c r="X16" s="9"/>
+      <c r="Y16" s="10"/>
+      <c r="Z16" s="9"/>
+      <c r="AA16" s="9"/>
+      <c r="AB16" s="9"/>
+      <c r="AC16" s="9"/>
+      <c r="AD16" s="9"/>
+      <c r="AE16" s="9"/>
+      <c r="AF16" s="9"/>
+      <c r="AG16" s="10"/>
+      <c r="AH16" s="9"/>
+      <c r="AI16" s="9"/>
+      <c r="AJ16" s="9"/>
+      <c r="AK16" s="9"/>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="8" t="n">
         <v>45185</v>
       </c>
-      <c r="B17" s="10" t="n">
+      <c r="B17" s="9" t="n">
         <f aca="false">IFERROR(WEEKDAY(A17,2),"")</f>
         <v>6</v>
       </c>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10" t="s">
+      <c r="C17" s="9"/>
+      <c r="D17" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E17" s="10" t="s">
+      <c r="E17" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="10"/>
-      <c r="L17" s="10"/>
-      <c r="M17" s="10"/>
-      <c r="N17" s="11"/>
-      <c r="O17" s="10"/>
-      <c r="P17" s="10"/>
-      <c r="Q17" s="10"/>
-      <c r="R17" s="10"/>
-      <c r="S17" s="10"/>
-      <c r="T17" s="11"/>
-      <c r="U17" s="11"/>
-      <c r="V17" s="10"/>
-      <c r="W17" s="10"/>
-      <c r="X17" s="10"/>
-      <c r="Y17" s="11"/>
-      <c r="Z17" s="10"/>
-      <c r="AA17" s="10"/>
-      <c r="AB17" s="10"/>
-      <c r="AC17" s="10"/>
-      <c r="AD17" s="10"/>
-      <c r="AE17" s="10"/>
-      <c r="AF17" s="10"/>
-      <c r="AH17" s="12"/>
-      <c r="AI17" s="12"/>
-      <c r="AJ17" s="10"/>
-      <c r="AK17" s="10"/>
-    </row>
-    <row r="18" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="9" t="n">
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="10"/>
+      <c r="O17" s="9"/>
+      <c r="P17" s="9"/>
+      <c r="Q17" s="9"/>
+      <c r="R17" s="9"/>
+      <c r="S17" s="9"/>
+      <c r="T17" s="10"/>
+      <c r="U17" s="10"/>
+      <c r="V17" s="9"/>
+      <c r="W17" s="9"/>
+      <c r="X17" s="9"/>
+      <c r="Y17" s="10"/>
+      <c r="Z17" s="9"/>
+      <c r="AA17" s="9"/>
+      <c r="AB17" s="9"/>
+      <c r="AC17" s="9"/>
+      <c r="AD17" s="9"/>
+      <c r="AE17" s="9"/>
+      <c r="AF17" s="9"/>
+      <c r="AH17" s="13"/>
+      <c r="AI17" s="13"/>
+      <c r="AJ17" s="9"/>
+      <c r="AK17" s="9"/>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="8" t="n">
         <v>45186</v>
       </c>
-      <c r="B18" s="10" t="n">
+      <c r="B18" s="9" t="n">
         <f aca="false">IFERROR(WEEKDAY(A18,2),"")</f>
         <v>7</v>
       </c>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10" t="s">
+      <c r="C18" s="9"/>
+      <c r="D18" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E18" s="10" t="s">
+      <c r="E18" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="10"/>
-      <c r="L18" s="10"/>
-      <c r="M18" s="10"/>
-      <c r="N18" s="11"/>
-      <c r="O18" s="10"/>
-      <c r="P18" s="10"/>
-      <c r="Q18" s="10"/>
-      <c r="R18" s="10"/>
-      <c r="S18" s="10"/>
-      <c r="T18" s="11"/>
-      <c r="U18" s="11"/>
-      <c r="V18" s="10"/>
-      <c r="W18" s="10"/>
-      <c r="X18" s="10"/>
-      <c r="Y18" s="11"/>
-      <c r="Z18" s="10"/>
-      <c r="AA18" s="10"/>
-      <c r="AB18" s="10"/>
-      <c r="AC18" s="10"/>
-      <c r="AD18" s="10"/>
-      <c r="AE18" s="10"/>
-      <c r="AF18" s="10"/>
-      <c r="AG18" s="11"/>
-      <c r="AH18" s="10"/>
-      <c r="AI18" s="10"/>
-      <c r="AJ18" s="10"/>
-      <c r="AK18" s="10"/>
-    </row>
-    <row r="19" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="9" t="n">
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="10"/>
+      <c r="O18" s="9"/>
+      <c r="P18" s="9"/>
+      <c r="Q18" s="9"/>
+      <c r="R18" s="9"/>
+      <c r="S18" s="9"/>
+      <c r="T18" s="10"/>
+      <c r="U18" s="10"/>
+      <c r="V18" s="9"/>
+      <c r="W18" s="9"/>
+      <c r="X18" s="9"/>
+      <c r="Y18" s="10"/>
+      <c r="Z18" s="9"/>
+      <c r="AA18" s="9"/>
+      <c r="AB18" s="9"/>
+      <c r="AC18" s="9"/>
+      <c r="AD18" s="9"/>
+      <c r="AE18" s="9"/>
+      <c r="AF18" s="9"/>
+      <c r="AG18" s="10"/>
+      <c r="AH18" s="9"/>
+      <c r="AI18" s="9"/>
+      <c r="AJ18" s="9"/>
+      <c r="AK18" s="9"/>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="8" t="n">
         <v>45187</v>
       </c>
-      <c r="B19" s="10" t="n">
+      <c r="B19" s="9" t="n">
         <f aca="false">IFERROR(WEEKDAY(A19,2),"")</f>
         <v>1</v>
       </c>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10" t="s">
+      <c r="C19" s="9"/>
+      <c r="D19" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="10" t="s">
+      <c r="E19" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10" t="s">
+      <c r="F19" s="9"/>
+      <c r="G19" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="H19" s="10"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="10"/>
-      <c r="K19" s="10"/>
-      <c r="L19" s="10"/>
-      <c r="M19" s="10"/>
-      <c r="N19" s="11"/>
-      <c r="O19" s="10"/>
-      <c r="P19" s="10"/>
-      <c r="Q19" s="10"/>
-      <c r="R19" s="10"/>
-      <c r="S19" s="10"/>
-      <c r="T19" s="11"/>
-      <c r="U19" s="11"/>
-      <c r="V19" s="10"/>
-      <c r="W19" s="10"/>
-      <c r="X19" s="10"/>
-      <c r="Y19" s="11"/>
-      <c r="Z19" s="10"/>
-      <c r="AA19" s="10"/>
-      <c r="AB19" s="10"/>
-      <c r="AC19" s="10"/>
-      <c r="AD19" s="10"/>
-      <c r="AE19" s="10"/>
-      <c r="AF19" s="10"/>
-      <c r="AG19" s="11"/>
-      <c r="AH19" s="10"/>
-      <c r="AI19" s="10"/>
-      <c r="AJ19" s="10"/>
-      <c r="AK19" s="10"/>
-      <c r="AL19" s="12"/>
-    </row>
-    <row r="20" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="9" t="n">
+      <c r="H19" s="9"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="9"/>
+      <c r="M19" s="9"/>
+      <c r="N19" s="10"/>
+      <c r="O19" s="9"/>
+      <c r="P19" s="9"/>
+      <c r="Q19" s="9"/>
+      <c r="R19" s="9"/>
+      <c r="S19" s="9"/>
+      <c r="T19" s="10"/>
+      <c r="U19" s="10"/>
+      <c r="V19" s="9"/>
+      <c r="W19" s="9"/>
+      <c r="X19" s="9"/>
+      <c r="Y19" s="10"/>
+      <c r="Z19" s="9"/>
+      <c r="AA19" s="9"/>
+      <c r="AB19" s="9"/>
+      <c r="AC19" s="9"/>
+      <c r="AD19" s="9"/>
+      <c r="AE19" s="9"/>
+      <c r="AF19" s="9"/>
+      <c r="AG19" s="10"/>
+      <c r="AH19" s="9"/>
+      <c r="AI19" s="9"/>
+      <c r="AJ19" s="9"/>
+      <c r="AK19" s="9"/>
+      <c r="AL19" s="13"/>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="8" t="n">
         <v>45188</v>
       </c>
-      <c r="B20" s="10" t="n">
+      <c r="B20" s="9" t="n">
         <f aca="false">IFERROR(WEEKDAY(A20,2),"")</f>
         <v>2</v>
       </c>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10" t="s">
+      <c r="C20" s="9"/>
+      <c r="D20" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E20" s="10" t="s">
+      <c r="E20" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10" t="s">
+      <c r="F20" s="9"/>
+      <c r="G20" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="H20" s="10"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="10"/>
-      <c r="K20" s="10"/>
-      <c r="L20" s="10"/>
-      <c r="M20" s="10"/>
-      <c r="N20" s="11"/>
-      <c r="O20" s="10"/>
-      <c r="P20" s="10"/>
-      <c r="Q20" s="10"/>
-      <c r="R20" s="10"/>
-      <c r="S20" s="10"/>
-      <c r="T20" s="11"/>
-      <c r="U20" s="11"/>
-      <c r="V20" s="10"/>
-      <c r="W20" s="10"/>
-      <c r="X20" s="10"/>
-      <c r="Y20" s="11"/>
-      <c r="Z20" s="10"/>
-      <c r="AA20" s="10"/>
-      <c r="AB20" s="10"/>
-      <c r="AC20" s="10"/>
-      <c r="AD20" s="10"/>
-      <c r="AE20" s="10"/>
-      <c r="AF20" s="10"/>
-      <c r="AG20" s="11"/>
-      <c r="AH20" s="10"/>
-      <c r="AI20" s="10"/>
-      <c r="AJ20" s="10"/>
-      <c r="AK20" s="10"/>
-      <c r="AL20" s="10"/>
-    </row>
-    <row r="21" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="9" t="n">
+      <c r="H20" s="9"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="9"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="10"/>
+      <c r="O20" s="9"/>
+      <c r="P20" s="9"/>
+      <c r="Q20" s="9"/>
+      <c r="R20" s="9"/>
+      <c r="S20" s="9"/>
+      <c r="T20" s="10"/>
+      <c r="U20" s="10"/>
+      <c r="V20" s="9"/>
+      <c r="W20" s="9"/>
+      <c r="X20" s="9"/>
+      <c r="Y20" s="10"/>
+      <c r="Z20" s="9"/>
+      <c r="AA20" s="9"/>
+      <c r="AB20" s="9"/>
+      <c r="AC20" s="9"/>
+      <c r="AD20" s="9"/>
+      <c r="AE20" s="9"/>
+      <c r="AF20" s="9"/>
+      <c r="AG20" s="10"/>
+      <c r="AH20" s="9"/>
+      <c r="AI20" s="9"/>
+      <c r="AJ20" s="9"/>
+      <c r="AK20" s="9"/>
+      <c r="AL20" s="9"/>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="8" t="n">
         <v>45189</v>
       </c>
-      <c r="B21" s="10" t="n">
+      <c r="B21" s="9" t="n">
         <f aca="false">IFERROR(WEEKDAY(A21,2),"")</f>
         <v>3</v>
       </c>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10" t="s">
+      <c r="C21" s="9"/>
+      <c r="D21" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E21" s="10" t="s">
+      <c r="E21" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10" t="s">
+      <c r="F21" s="9"/>
+      <c r="G21" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="H21" s="10"/>
-      <c r="I21" s="11"/>
-      <c r="J21" s="10"/>
-      <c r="K21" s="10"/>
-      <c r="L21" s="10"/>
-      <c r="M21" s="10"/>
-      <c r="N21" s="11"/>
-      <c r="O21" s="10"/>
-      <c r="P21" s="10"/>
-      <c r="Q21" s="10"/>
-      <c r="R21" s="10"/>
-      <c r="S21" s="10"/>
-      <c r="T21" s="11"/>
-      <c r="U21" s="11"/>
-      <c r="V21" s="10"/>
-      <c r="W21" s="10"/>
-      <c r="X21" s="10"/>
-      <c r="Y21" s="11"/>
-      <c r="Z21" s="10"/>
-      <c r="AA21" s="10"/>
-      <c r="AB21" s="10"/>
-      <c r="AC21" s="10"/>
-      <c r="AD21" s="10"/>
-      <c r="AE21" s="10"/>
-      <c r="AF21" s="10"/>
-      <c r="AG21" s="11"/>
-      <c r="AH21" s="10"/>
-      <c r="AI21" s="10"/>
-      <c r="AJ21" s="10"/>
-      <c r="AK21" s="10"/>
-      <c r="AL21" s="10"/>
-    </row>
-    <row r="22" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="9" t="n">
+      <c r="H21" s="9"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="9"/>
+      <c r="M21" s="9"/>
+      <c r="N21" s="10"/>
+      <c r="O21" s="9"/>
+      <c r="P21" s="9"/>
+      <c r="Q21" s="9"/>
+      <c r="R21" s="9"/>
+      <c r="S21" s="9"/>
+      <c r="T21" s="10"/>
+      <c r="U21" s="10"/>
+      <c r="V21" s="9"/>
+      <c r="W21" s="9"/>
+      <c r="X21" s="9"/>
+      <c r="Y21" s="10"/>
+      <c r="Z21" s="9"/>
+      <c r="AA21" s="9"/>
+      <c r="AB21" s="9"/>
+      <c r="AC21" s="9"/>
+      <c r="AD21" s="9"/>
+      <c r="AE21" s="9"/>
+      <c r="AF21" s="9"/>
+      <c r="AG21" s="10"/>
+      <c r="AH21" s="9"/>
+      <c r="AI21" s="9"/>
+      <c r="AJ21" s="9"/>
+      <c r="AK21" s="9"/>
+      <c r="AL21" s="9"/>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="8" t="n">
         <v>45190</v>
       </c>
-      <c r="B22" s="10" t="n">
+      <c r="B22" s="9" t="n">
         <f aca="false">IFERROR(WEEKDAY(A22,2),"")</f>
         <v>4</v>
       </c>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10" t="s">
+      <c r="C22" s="9"/>
+      <c r="D22" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E22" s="10" t="s">
+      <c r="E22" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F22" s="13"/>
-      <c r="G22" s="10" t="s">
+      <c r="F22" s="12"/>
+      <c r="G22" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="H22" s="10"/>
-      <c r="I22" s="11"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="10"/>
-      <c r="L22" s="10"/>
-      <c r="M22" s="10"/>
-      <c r="N22" s="11"/>
-      <c r="O22" s="10"/>
-      <c r="P22" s="10"/>
-      <c r="Q22" s="10"/>
-      <c r="R22" s="10"/>
-      <c r="S22" s="10"/>
-      <c r="T22" s="11"/>
-      <c r="U22" s="11"/>
-      <c r="V22" s="10"/>
-      <c r="W22" s="10"/>
-      <c r="X22" s="10"/>
-      <c r="Y22" s="11"/>
-      <c r="Z22" s="10"/>
-      <c r="AA22" s="10"/>
-      <c r="AB22" s="10"/>
-      <c r="AC22" s="10"/>
-      <c r="AD22" s="10"/>
-      <c r="AE22" s="10"/>
-      <c r="AF22" s="10"/>
-      <c r="AG22" s="11"/>
-      <c r="AH22" s="10"/>
-      <c r="AI22" s="10"/>
-      <c r="AJ22" s="10"/>
-      <c r="AK22" s="10"/>
-      <c r="AL22" s="10"/>
-    </row>
-    <row r="23" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="9" t="n">
+      <c r="H22" s="9"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="9"/>
+      <c r="M22" s="9"/>
+      <c r="N22" s="10"/>
+      <c r="O22" s="9"/>
+      <c r="P22" s="9"/>
+      <c r="Q22" s="9"/>
+      <c r="R22" s="9"/>
+      <c r="S22" s="9"/>
+      <c r="T22" s="10"/>
+      <c r="U22" s="10"/>
+      <c r="V22" s="9"/>
+      <c r="W22" s="9"/>
+      <c r="X22" s="9"/>
+      <c r="Y22" s="10"/>
+      <c r="Z22" s="9"/>
+      <c r="AA22" s="9"/>
+      <c r="AB22" s="9"/>
+      <c r="AC22" s="9"/>
+      <c r="AD22" s="9"/>
+      <c r="AE22" s="9"/>
+      <c r="AF22" s="9"/>
+      <c r="AG22" s="10"/>
+      <c r="AH22" s="9"/>
+      <c r="AI22" s="9"/>
+      <c r="AJ22" s="9"/>
+      <c r="AK22" s="9"/>
+      <c r="AL22" s="9"/>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="8" t="n">
         <v>45191</v>
       </c>
-      <c r="B23" s="10" t="n">
+      <c r="B23" s="9" t="n">
         <f aca="false">IFERROR(WEEKDAY(A23,2),"")</f>
         <v>5</v>
       </c>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10" t="s">
+      <c r="C23" s="9"/>
+      <c r="D23" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E23" s="10" t="s">
+      <c r="E23" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10" t="s">
+      <c r="F23" s="9"/>
+      <c r="G23" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="H23" s="10"/>
-      <c r="I23" s="11"/>
-      <c r="J23" s="10"/>
-      <c r="K23" s="10"/>
-      <c r="L23" s="10"/>
-      <c r="M23" s="10"/>
-      <c r="N23" s="11"/>
-      <c r="O23" s="10"/>
-      <c r="P23" s="10"/>
-      <c r="Q23" s="10"/>
-      <c r="R23" s="10"/>
-      <c r="S23" s="10"/>
-      <c r="T23" s="11"/>
-      <c r="U23" s="11"/>
-      <c r="V23" s="10"/>
-      <c r="W23" s="10"/>
-      <c r="X23" s="10"/>
-      <c r="Y23" s="11"/>
-      <c r="Z23" s="10"/>
-      <c r="AA23" s="10"/>
-      <c r="AB23" s="10"/>
-      <c r="AC23" s="10"/>
-      <c r="AD23" s="10"/>
-      <c r="AE23" s="10"/>
-      <c r="AF23" s="10"/>
-      <c r="AG23" s="11"/>
-      <c r="AH23" s="10"/>
-      <c r="AI23" s="10"/>
-      <c r="AJ23" s="10"/>
-      <c r="AK23" s="10"/>
-      <c r="AL23" s="10"/>
-    </row>
-    <row r="24" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="9" t="n">
+      <c r="H23" s="9"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="9"/>
+      <c r="M23" s="9"/>
+      <c r="N23" s="10"/>
+      <c r="O23" s="9"/>
+      <c r="P23" s="9"/>
+      <c r="Q23" s="9"/>
+      <c r="R23" s="9"/>
+      <c r="S23" s="9"/>
+      <c r="T23" s="10"/>
+      <c r="U23" s="10"/>
+      <c r="V23" s="9"/>
+      <c r="W23" s="9"/>
+      <c r="X23" s="9"/>
+      <c r="Y23" s="10"/>
+      <c r="Z23" s="9"/>
+      <c r="AA23" s="9"/>
+      <c r="AB23" s="9"/>
+      <c r="AC23" s="9"/>
+      <c r="AD23" s="9"/>
+      <c r="AE23" s="9"/>
+      <c r="AF23" s="9"/>
+      <c r="AG23" s="10"/>
+      <c r="AH23" s="9"/>
+      <c r="AI23" s="9"/>
+      <c r="AJ23" s="9"/>
+      <c r="AK23" s="9"/>
+      <c r="AL23" s="9"/>
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="8" t="n">
         <v>45192</v>
       </c>
-      <c r="B24" s="10" t="n">
+      <c r="B24" s="9" t="n">
         <f aca="false">IFERROR(WEEKDAY(A24,2),"")</f>
         <v>6</v>
       </c>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10" t="s">
+      <c r="C24" s="9"/>
+      <c r="D24" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E24" s="10" t="s">
+      <c r="E24" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="11"/>
-      <c r="J24" s="10"/>
-      <c r="K24" s="10"/>
-      <c r="L24" s="10"/>
-      <c r="M24" s="10"/>
-      <c r="N24" s="11"/>
-      <c r="O24" s="10"/>
-      <c r="P24" s="10"/>
-      <c r="Q24" s="10"/>
-      <c r="R24" s="10"/>
-      <c r="S24" s="10"/>
-      <c r="T24" s="11"/>
-      <c r="U24" s="11"/>
-      <c r="V24" s="10"/>
-      <c r="W24" s="10"/>
-      <c r="X24" s="10"/>
-      <c r="Y24" s="11"/>
-      <c r="Z24" s="12"/>
-      <c r="AA24" s="12"/>
-      <c r="AB24" s="12"/>
-      <c r="AC24" s="10"/>
-      <c r="AD24" s="10"/>
-      <c r="AE24" s="10"/>
-      <c r="AF24" s="10"/>
-      <c r="AG24" s="11"/>
-      <c r="AH24" s="10"/>
-      <c r="AI24" s="10"/>
-      <c r="AJ24" s="10"/>
-      <c r="AK24" s="10"/>
-    </row>
-    <row r="25" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="9" t="n">
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="9"/>
+      <c r="M24" s="9"/>
+      <c r="N24" s="10"/>
+      <c r="O24" s="9"/>
+      <c r="P24" s="9"/>
+      <c r="Q24" s="9"/>
+      <c r="R24" s="9"/>
+      <c r="S24" s="9"/>
+      <c r="T24" s="10"/>
+      <c r="U24" s="10"/>
+      <c r="V24" s="9"/>
+      <c r="W24" s="9"/>
+      <c r="X24" s="9"/>
+      <c r="Y24" s="10"/>
+      <c r="Z24" s="13"/>
+      <c r="AA24" s="13"/>
+      <c r="AB24" s="13"/>
+      <c r="AC24" s="9"/>
+      <c r="AD24" s="9"/>
+      <c r="AE24" s="9"/>
+      <c r="AF24" s="9"/>
+      <c r="AG24" s="10"/>
+      <c r="AH24" s="9"/>
+      <c r="AI24" s="9"/>
+      <c r="AJ24" s="9"/>
+      <c r="AK24" s="9"/>
+    </row>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="8" t="n">
         <v>45193</v>
       </c>
       <c r="B25" s="14" t="n">
@@ -3064,14 +3527,14 @@
         <v>7</v>
       </c>
       <c r="C25" s="14"/>
-      <c r="D25" s="10" t="s">
+      <c r="D25" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E25" s="10" t="s">
+      <c r="E25" s="9" t="s">
         <v>10</v>
       </c>
       <c r="F25" s="14"/>
-      <c r="G25" s="10"/>
+      <c r="G25" s="9"/>
       <c r="H25" s="14"/>
       <c r="I25" s="7"/>
       <c r="J25" s="14"/>
@@ -3100,12 +3563,12 @@
       <c r="AG25" s="7"/>
       <c r="AH25" s="14"/>
       <c r="AI25" s="14"/>
-      <c r="AJ25" s="10"/>
+      <c r="AJ25" s="9"/>
       <c r="AK25" s="14"/>
       <c r="AL25" s="14"/>
     </row>
-    <row r="26" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="9" t="n">
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="8" t="n">
         <v>45194</v>
       </c>
       <c r="B26" s="14" t="n">
@@ -3113,16 +3576,16 @@
         <v>1</v>
       </c>
       <c r="C26" s="14"/>
-      <c r="D26" s="10" t="s">
+      <c r="D26" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E26" s="10" t="s">
+      <c r="E26" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F26" s="10" t="s">
+      <c r="F26" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="G26" s="10" t="s">
+      <c r="G26" s="9" t="s">
         <v>12</v>
       </c>
       <c r="H26" s="14"/>
@@ -3157,8 +3620,8 @@
       <c r="AK26" s="14"/>
       <c r="AL26" s="14"/>
     </row>
-    <row r="27" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="9" t="n">
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="8" t="n">
         <v>45195</v>
       </c>
       <c r="B27" s="14" t="n">
@@ -3166,16 +3629,16 @@
         <v>2</v>
       </c>
       <c r="C27" s="14"/>
-      <c r="D27" s="10" t="s">
+      <c r="D27" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="E27" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="F27" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="G27" s="10" t="s">
+      <c r="E27" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="F27" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="G27" s="9" t="s">
         <v>12</v>
       </c>
       <c r="H27" s="14"/>
@@ -3209,8 +3672,8 @@
       <c r="AK27" s="14"/>
       <c r="AL27" s="14"/>
     </row>
-    <row r="28" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="9" t="n">
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="8" t="n">
         <v>45196</v>
       </c>
       <c r="B28" s="14" t="n">
@@ -3218,14 +3681,14 @@
         <v>3</v>
       </c>
       <c r="C28" s="14"/>
-      <c r="D28" s="10" t="s">
+      <c r="D28" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E28" s="10" t="s">
+      <c r="E28" s="9" t="s">
         <v>10</v>
       </c>
       <c r="F28" s="14"/>
-      <c r="G28" s="10" t="s">
+      <c r="G28" s="9" t="s">
         <v>12</v>
       </c>
       <c r="H28" s="14"/>
@@ -3259,8 +3722,8 @@
       <c r="AJ28" s="14"/>
       <c r="AK28" s="14"/>
     </row>
-    <row r="29" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="9" t="n">
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="8" t="n">
         <v>45197</v>
       </c>
       <c r="B29" s="14" t="n">
@@ -3268,14 +3731,14 @@
         <v>4</v>
       </c>
       <c r="C29" s="14"/>
-      <c r="D29" s="10" t="s">
+      <c r="D29" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E29" s="10" t="s">
+      <c r="E29" s="9" t="s">
         <v>10</v>
       </c>
       <c r="F29" s="14"/>
-      <c r="G29" s="10" t="s">
+      <c r="G29" s="9" t="s">
         <v>12</v>
       </c>
       <c r="H29" s="14"/>
@@ -3310,8 +3773,8 @@
       <c r="AK29" s="14"/>
       <c r="AL29" s="14"/>
     </row>
-    <row r="30" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="9" t="n">
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="8" t="n">
         <v>45198</v>
       </c>
       <c r="B30" s="14" t="n">
@@ -3319,16 +3782,16 @@
         <v>5</v>
       </c>
       <c r="C30" s="14"/>
-      <c r="D30" s="10" t="s">
+      <c r="D30" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="E30" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="F30" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="G30" s="10" t="s">
+      <c r="E30" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="F30" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="G30" s="9" t="s">
         <v>12</v>
       </c>
       <c r="H30" s="14"/>
@@ -3363,8 +3826,8 @@
       <c r="AK30" s="14"/>
       <c r="AL30" s="14"/>
     </row>
-    <row r="31" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="9" t="n">
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="8" t="n">
         <v>45199</v>
       </c>
       <c r="B31" s="14" t="n">
@@ -3372,14 +3835,14 @@
         <v>6</v>
       </c>
       <c r="C31" s="14"/>
-      <c r="D31" s="10" t="s">
+      <c r="D31" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E31" s="10" t="s">
+      <c r="E31" s="9" t="s">
         <v>10</v>
       </c>
       <c r="F31" s="14"/>
-      <c r="G31" s="10"/>
+      <c r="G31" s="9"/>
       <c r="H31" s="14"/>
       <c r="I31" s="7"/>
       <c r="J31" s="14"/>
@@ -3413,13 +3876,13 @@
       <c r="AL31" s="14"/>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="9"/>
+      <c r="A32" s="8"/>
       <c r="B32" s="14"/>
       <c r="C32" s="14"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="10"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
       <c r="F32" s="14"/>
-      <c r="G32" s="10"/>
+      <c r="G32" s="9"/>
       <c r="H32" s="14"/>
       <c r="I32" s="7"/>
       <c r="J32" s="14"/>
@@ -3452,7 +3915,7 @@
       <c r="AK32" s="14"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="AH17:AK17 O17:AF17 A2:N2 O18:AL24 AJ25 O25:X32 A1:AL1 A3:A32 F2:F4 F6:F7 B32:N32 G3:N31 B3:E31 F9:F31 O2:AL16">
+  <conditionalFormatting sqref="AH17:AK17 O17:AF17 A2:N2 O2:AL16 O18:AL24 AJ25 O25:X32 A1:AL1 A3:A32 F2:F4 F6:F7 B32:F32 F9:F31 G3:N32 B3:E31">
     <cfRule type="beginsWith" priority="2" operator="beginsWith" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="!" dxfId="0">
       <formula>LEFT(A1,LEN("!"))="!"</formula>
     </cfRule>
@@ -3568,12 +4031,12 @@
   <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="15" width="11.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="16" width="4.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="16" width="4.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="16" width="8.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="16" width="14.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="16" width="7.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="16" width="12.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="16" width="7.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="16" width="7.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="16" width="9.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="16" width="9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="16" width="27.57"/>
@@ -3596,31 +4059,31 @@
         <v>DUTY</v>
       </c>
       <c r="D1" s="18" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="E1" s="18" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="F1" s="18" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="G1" s="18" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="H1" s="20" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="I1" s="18" t="s">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="J1" s="21" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="K1" s="22" t="s">
-        <v>59</v>
+        <v>77</v>
       </c>
       <c r="L1" s="23" t="s">
-        <v>60</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3636,24 +4099,24 @@
         <f aca="false">IF(vedomost!F2=0,"",vedomost!F2)</f>
         <v>-</v>
       </c>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26" t="s">
-        <v>61</v>
-      </c>
-      <c r="F2" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="G2" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="I2" s="26" t="s">
-        <v>64</v>
-      </c>
-      <c r="J2" s="27" t="s">
-        <v>65</v>
-      </c>
-      <c r="K2" s="28"/>
-      <c r="L2" s="29"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="F2" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="G2" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="I2" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="J2" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="K2" s="27"/>
+      <c r="L2" s="28"/>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="24" t="n">
@@ -3668,17 +4131,17 @@
         <f aca="false">IF(vedomost!F3=0,"",vedomost!F3)</f>
         <v>-</v>
       </c>
-      <c r="F3" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="G3" s="26"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="27" t="s">
-        <v>66</v>
-      </c>
-      <c r="K3" s="28"/>
-      <c r="L3" s="29"/>
+      <c r="F3" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="G3" s="25"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="K3" s="27"/>
+      <c r="L3" s="28"/>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="24" t="n">
@@ -3693,19 +4156,19 @@
         <f aca="false">IF(vedomost!F4=0,"",vedomost!F4)</f>
         <v>Ed8(0)</v>
       </c>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="G4" s="26"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="26"/>
-      <c r="J4" s="27" t="s">
-        <v>67</v>
-      </c>
-      <c r="K4" s="28"/>
-      <c r="L4" s="29"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="G4" s="25"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="K4" s="27"/>
+      <c r="L4" s="28"/>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="24" t="n">
@@ -3720,25 +4183,25 @@
         <f aca="false">IF(vedomost!F5=0,"",vedomost!F5)</f>
         <v>-</v>
       </c>
-      <c r="D5" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="E5" s="26" t="s">
-        <v>61</v>
-      </c>
-      <c r="F5" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="G5" s="26"/>
-      <c r="H5" s="30" t="s">
-        <v>68</v>
-      </c>
-      <c r="I5" s="26"/>
-      <c r="J5" s="27" t="s">
-        <v>69</v>
-      </c>
-      <c r="K5" s="28"/>
-      <c r="L5" s="29"/>
+      <c r="D5" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="E5" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="F5" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="G5" s="25"/>
+      <c r="H5" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="I5" s="25"/>
+      <c r="J5" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="K5" s="27"/>
+      <c r="L5" s="28"/>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="24" t="n">
@@ -3751,21 +4214,21 @@
       </c>
       <c r="C6" s="18" t="str">
         <f aca="false">IF(vedomost!F6=0,"",vedomost!F6)</f>
-        <v/>
-      </c>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="G6" s="26"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="26"/>
-      <c r="J6" s="27" t="s">
-        <v>70</v>
-      </c>
-      <c r="K6" s="28"/>
-      <c r="L6" s="29"/>
+        <v>-</v>
+      </c>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="G6" s="25"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="K6" s="27"/>
+      <c r="L6" s="28"/>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="24" t="n">
@@ -3778,21 +4241,21 @@
       </c>
       <c r="C7" s="18" t="str">
         <f aca="false">IF(vedomost!F7=0,"",vedomost!F7)</f>
-        <v/>
-      </c>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="G7" s="26"/>
-      <c r="H7" s="30"/>
-      <c r="I7" s="26"/>
-      <c r="J7" s="27" t="s">
-        <v>71</v>
-      </c>
-      <c r="K7" s="28"/>
-      <c r="L7" s="29"/>
+        <v>-</v>
+      </c>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="G7" s="25"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="K7" s="27"/>
+      <c r="L7" s="28"/>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="24" t="n">
@@ -3805,22 +4268,22 @@
       </c>
       <c r="C8" s="18" t="str">
         <f aca="false">IF(vedomost!F8=0,"",vedomost!F8)</f>
-        <v/>
-      </c>
-      <c r="E8" s="26" t="s">
-        <v>64</v>
-      </c>
-      <c r="F8" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="G8" s="26"/>
-      <c r="H8" s="30"/>
-      <c r="I8" s="29"/>
-      <c r="J8" s="31" t="s">
-        <v>72</v>
-      </c>
-      <c r="K8" s="28"/>
-      <c r="L8" s="29"/>
+        <v>-</v>
+      </c>
+      <c r="E8" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="F8" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="G8" s="25"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="30" t="s">
+        <v>90</v>
+      </c>
+      <c r="K8" s="27"/>
+      <c r="L8" s="28"/>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="24" t="n">
@@ -3833,23 +4296,23 @@
       </c>
       <c r="C9" s="18" t="str">
         <f aca="false">IF(vedomost!F9=0,"",vedomost!F9)</f>
-        <v/>
-      </c>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="G9" s="26" t="s">
-        <v>73</v>
-      </c>
-      <c r="H9" s="30"/>
-      <c r="I9" s="29"/>
-      <c r="J9" s="31" t="s">
-        <v>74</v>
-      </c>
-      <c r="K9" s="28"/>
-      <c r="L9" s="29"/>
+        <v>-</v>
+      </c>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="G9" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="H9" s="29"/>
+      <c r="I9" s="28"/>
+      <c r="J9" s="30" t="s">
+        <v>92</v>
+      </c>
+      <c r="K9" s="27"/>
+      <c r="L9" s="28"/>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="24" t="n">
@@ -3864,19 +4327,19 @@
         <f aca="false">IF(vedomost!F10=0,"",vedomost!F10)</f>
         <v/>
       </c>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="G10" s="26"/>
-      <c r="H10" s="30"/>
-      <c r="I10" s="29"/>
-      <c r="J10" s="31" t="s">
-        <v>75</v>
-      </c>
-      <c r="K10" s="28"/>
-      <c r="L10" s="29"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="G10" s="25"/>
+      <c r="H10" s="29"/>
+      <c r="I10" s="28"/>
+      <c r="J10" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="K10" s="27"/>
+      <c r="L10" s="28"/>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="24" t="n">
@@ -3891,19 +4354,19 @@
         <f aca="false">IF(vedomost!F11=0,"",vedomost!F11)</f>
         <v/>
       </c>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="G11" s="26"/>
-      <c r="H11" s="30"/>
-      <c r="I11" s="29"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="G11" s="25"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="28"/>
       <c r="J11" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="K11" s="28"/>
-      <c r="L11" s="29"/>
+        <v>94</v>
+      </c>
+      <c r="K11" s="27"/>
+      <c r="L11" s="28"/>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="24" t="n">
@@ -3918,23 +4381,23 @@
         <f aca="false">IF(vedomost!F12=0,"",vedomost!F12)</f>
         <v/>
       </c>
-      <c r="D12" s="26" t="s">
-        <v>52</v>
+      <c r="D12" s="25" t="s">
+        <v>70</v>
       </c>
       <c r="E12" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="F12" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="G12" s="26"/>
-      <c r="H12" s="30"/>
-      <c r="I12" s="29"/>
-      <c r="J12" s="31" t="s">
-        <v>77</v>
-      </c>
-      <c r="K12" s="28"/>
-      <c r="L12" s="29"/>
+        <v>79</v>
+      </c>
+      <c r="F12" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="G12" s="25"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="28"/>
+      <c r="J12" s="30" t="s">
+        <v>95</v>
+      </c>
+      <c r="K12" s="27"/>
+      <c r="L12" s="28"/>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="24" t="n">
@@ -3949,19 +4412,19 @@
         <f aca="false">IF(vedomost!F13=0,"",vedomost!F13)</f>
         <v/>
       </c>
-      <c r="D13" s="26"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="G13" s="26"/>
-      <c r="H13" s="30"/>
-      <c r="I13" s="29"/>
-      <c r="J13" s="31" t="s">
-        <v>78</v>
-      </c>
-      <c r="K13" s="28"/>
-      <c r="L13" s="29"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="G13" s="25"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="28"/>
+      <c r="J13" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="K13" s="27"/>
+      <c r="L13" s="28"/>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="24" t="n">
@@ -3976,15 +4439,15 @@
         <f aca="false">IF(vedomost!F14=0,"",vedomost!F14)</f>
         <v/>
       </c>
-      <c r="D14" s="26"/>
-      <c r="F14" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="G14" s="26"/>
-      <c r="H14" s="30"/>
-      <c r="I14" s="29"/>
-      <c r="K14" s="28"/>
-      <c r="L14" s="29"/>
+      <c r="D14" s="25"/>
+      <c r="F14" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="G14" s="25"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="28"/>
+      <c r="K14" s="27"/>
+      <c r="L14" s="28"/>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="24" t="n">
@@ -3999,18 +4462,18 @@
         <f aca="false">IF(vedomost!F15=0,"",vedomost!F15)</f>
         <v/>
       </c>
-      <c r="D15" s="26"/>
-      <c r="E15" s="26" t="s">
-        <v>61</v>
-      </c>
-      <c r="F15" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="G15" s="26"/>
-      <c r="H15" s="30"/>
-      <c r="I15" s="29"/>
-      <c r="J15" s="31" t="s">
+      <c r="D15" s="25"/>
+      <c r="E15" s="25" t="s">
         <v>79</v>
+      </c>
+      <c r="F15" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="G15" s="25"/>
+      <c r="H15" s="29"/>
+      <c r="I15" s="28"/>
+      <c r="J15" s="30" t="s">
+        <v>97</v>
       </c>
       <c r="K15" s="22"/>
       <c r="L15" s="23"/>
@@ -4028,19 +4491,19 @@
         <f aca="false">IF(vedomost!F16=0,"",vedomost!F16)</f>
         <v/>
       </c>
-      <c r="D16" s="26"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="G16" s="26"/>
-      <c r="H16" s="30"/>
-      <c r="I16" s="29"/>
-      <c r="J16" s="31" t="s">
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="K16" s="28"/>
-      <c r="L16" s="29"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="28"/>
+      <c r="J16" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="K16" s="27"/>
+      <c r="L16" s="28"/>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="24" t="n">
@@ -4055,22 +4518,22 @@
         <f aca="false">IF(vedomost!F17=0,"",vedomost!F17)</f>
         <v/>
       </c>
-      <c r="D17" s="26"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="G17" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="H17" s="30" t="s">
-        <v>68</v>
-      </c>
-      <c r="I17" s="29" t="s">
-        <v>64</v>
-      </c>
-      <c r="K17" s="28"/>
-      <c r="L17" s="29"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="G17" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="H17" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="I17" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="K17" s="27"/>
+      <c r="L17" s="28"/>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="24" t="n">
@@ -4085,18 +4548,18 @@
         <f aca="false">IF(vedomost!F18=0,"",vedomost!F18)</f>
         <v/>
       </c>
-      <c r="D18" s="26"/>
-      <c r="F18" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="G18" s="26"/>
-      <c r="H18" s="30"/>
-      <c r="I18" s="29"/>
+      <c r="D18" s="25"/>
+      <c r="F18" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="G18" s="25"/>
+      <c r="H18" s="29"/>
+      <c r="I18" s="28"/>
       <c r="J18" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="K18" s="28"/>
-      <c r="L18" s="29"/>
+        <v>99</v>
+      </c>
+      <c r="K18" s="27"/>
+      <c r="L18" s="28"/>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="24" t="n">
@@ -4111,23 +4574,23 @@
         <f aca="false">IF(vedomost!F19=0,"",vedomost!F19)</f>
         <v/>
       </c>
-      <c r="D19" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="E19" s="26" t="s">
-        <v>64</v>
-      </c>
-      <c r="F19" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="G19" s="26"/>
-      <c r="H19" s="30"/>
-      <c r="I19" s="29"/>
-      <c r="J19" s="31" t="s">
+      <c r="D19" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="E19" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="K19" s="28"/>
-      <c r="L19" s="29"/>
+      <c r="F19" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="G19" s="25"/>
+      <c r="H19" s="29"/>
+      <c r="I19" s="28"/>
+      <c r="J19" s="30" t="s">
+        <v>100</v>
+      </c>
+      <c r="K19" s="27"/>
+      <c r="L19" s="28"/>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="24" t="n">
@@ -4142,18 +4605,18 @@
         <f aca="false">IF(vedomost!F20=0,"",vedomost!F20)</f>
         <v/>
       </c>
-      <c r="D20" s="26"/>
-      <c r="F20" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="G20" s="26"/>
-      <c r="H20" s="30"/>
-      <c r="I20" s="29"/>
-      <c r="J20" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="K20" s="28"/>
-      <c r="L20" s="29"/>
+      <c r="D20" s="25"/>
+      <c r="F20" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="G20" s="25"/>
+      <c r="H20" s="29"/>
+      <c r="I20" s="28"/>
+      <c r="J20" s="26" t="s">
+        <v>101</v>
+      </c>
+      <c r="K20" s="27"/>
+      <c r="L20" s="28"/>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="24" t="n">
@@ -4168,18 +4631,18 @@
         <f aca="false">IF(vedomost!F21=0,"",vedomost!F21)</f>
         <v/>
       </c>
-      <c r="E21" s="26"/>
-      <c r="F21" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="G21" s="26"/>
-      <c r="H21" s="30"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="27" t="s">
-        <v>84</v>
-      </c>
-      <c r="K21" s="28"/>
-      <c r="L21" s="29"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="G21" s="25"/>
+      <c r="H21" s="29"/>
+      <c r="I21" s="25"/>
+      <c r="J21" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="K21" s="27"/>
+      <c r="L21" s="28"/>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="24" t="n">
@@ -4194,18 +4657,18 @@
         <f aca="false">IF(vedomost!F22=0,"",vedomost!F22)</f>
         <v/>
       </c>
-      <c r="D22" s="26"/>
-      <c r="F22" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="G22" s="26"/>
-      <c r="H22" s="30"/>
-      <c r="I22" s="26"/>
-      <c r="J22" s="27" t="s">
-        <v>85</v>
-      </c>
-      <c r="K22" s="28"/>
-      <c r="L22" s="29"/>
+      <c r="D22" s="25"/>
+      <c r="F22" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="G22" s="25"/>
+      <c r="H22" s="29"/>
+      <c r="I22" s="25"/>
+      <c r="J22" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="K22" s="27"/>
+      <c r="L22" s="28"/>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="24" t="n">
@@ -4220,20 +4683,20 @@
         <f aca="false">IF(vedomost!F23=0,"",vedomost!F23)</f>
         <v/>
       </c>
-      <c r="E23" s="26" t="s">
-        <v>61</v>
-      </c>
-      <c r="F23" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="G23" s="26"/>
-      <c r="H23" s="30"/>
-      <c r="I23" s="26"/>
-      <c r="J23" s="27" t="s">
-        <v>86</v>
-      </c>
-      <c r="K23" s="28"/>
-      <c r="L23" s="29"/>
+      <c r="E23" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="F23" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="G23" s="25"/>
+      <c r="H23" s="29"/>
+      <c r="I23" s="25"/>
+      <c r="J23" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="K23" s="27"/>
+      <c r="L23" s="28"/>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="24" t="n">
@@ -4248,21 +4711,21 @@
         <f aca="false">IF(vedomost!F24=0,"",vedomost!F24)</f>
         <v/>
       </c>
-      <c r="D24" s="26"/>
-      <c r="E24" s="26"/>
-      <c r="F24" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="G24" s="26" t="s">
-        <v>73</v>
-      </c>
-      <c r="H24" s="30"/>
-      <c r="I24" s="26"/>
-      <c r="J24" s="27" t="s">
-        <v>87</v>
-      </c>
-      <c r="K24" s="28"/>
-      <c r="L24" s="29"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="G24" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="H24" s="29"/>
+      <c r="I24" s="25"/>
+      <c r="J24" s="26" t="s">
+        <v>105</v>
+      </c>
+      <c r="K24" s="27"/>
+      <c r="L24" s="28"/>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="24" t="n">
@@ -4277,19 +4740,19 @@
         <f aca="false">IF(vedomost!F25=0,"",vedomost!F25)</f>
         <v/>
       </c>
-      <c r="D25" s="26"/>
-      <c r="E25" s="26"/>
-      <c r="F25" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="G25" s="26"/>
-      <c r="H25" s="30"/>
-      <c r="I25" s="26"/>
-      <c r="J25" s="27" t="s">
-        <v>88</v>
-      </c>
-      <c r="K25" s="28"/>
-      <c r="L25" s="29"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="G25" s="25"/>
+      <c r="H25" s="29"/>
+      <c r="I25" s="25"/>
+      <c r="J25" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="K25" s="27"/>
+      <c r="L25" s="28"/>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="24" t="n">
@@ -4304,21 +4767,21 @@
         <f aca="false">IF(vedomost!F26=0,"",vedomost!F26)</f>
         <v>Ed8(0)</v>
       </c>
-      <c r="D26" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="E26" s="26" t="s">
-        <v>64</v>
-      </c>
-      <c r="F26" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="G26" s="26"/>
-      <c r="H26" s="30"/>
-      <c r="I26" s="26"/>
-      <c r="J26" s="27"/>
-      <c r="K26" s="28"/>
-      <c r="L26" s="29"/>
+      <c r="D26" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="E26" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="F26" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="G26" s="25"/>
+      <c r="H26" s="29"/>
+      <c r="I26" s="25"/>
+      <c r="J26" s="26"/>
+      <c r="K26" s="27"/>
+      <c r="L26" s="28"/>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="24" t="n">
@@ -4333,17 +4796,17 @@
         <f aca="false">IF(vedomost!F27=0,"",vedomost!F27)</f>
         <v>Ed24(0)</v>
       </c>
-      <c r="D27" s="26"/>
-      <c r="E27" s="26"/>
-      <c r="F27" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="G27" s="26"/>
-      <c r="H27" s="30"/>
-      <c r="I27" s="26"/>
-      <c r="J27" s="27"/>
-      <c r="K27" s="28"/>
-      <c r="L27" s="29"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="G27" s="25"/>
+      <c r="H27" s="29"/>
+      <c r="I27" s="25"/>
+      <c r="J27" s="26"/>
+      <c r="K27" s="27"/>
+      <c r="L27" s="28"/>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="24" t="n">
@@ -4358,17 +4821,17 @@
         <f aca="false">IF(vedomost!F28=0,"",vedomost!F28)</f>
         <v/>
       </c>
-      <c r="D28" s="26"/>
-      <c r="E28" s="26"/>
-      <c r="F28" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="G28" s="26"/>
-      <c r="H28" s="30"/>
-      <c r="I28" s="26"/>
-      <c r="J28" s="27"/>
-      <c r="K28" s="28"/>
-      <c r="L28" s="29"/>
+      <c r="D28" s="25"/>
+      <c r="E28" s="25"/>
+      <c r="F28" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="G28" s="25"/>
+      <c r="H28" s="29"/>
+      <c r="I28" s="25"/>
+      <c r="J28" s="26"/>
+      <c r="K28" s="27"/>
+      <c r="L28" s="28"/>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="24" t="n">
@@ -4383,19 +4846,19 @@
         <f aca="false">IF(vedomost!F29=0,"",vedomost!F29)</f>
         <v/>
       </c>
-      <c r="D29" s="26"/>
+      <c r="D29" s="25"/>
       <c r="E29" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="F29" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="G29" s="26"/>
-      <c r="H29" s="30"/>
-      <c r="I29" s="26"/>
-      <c r="J29" s="27"/>
-      <c r="K29" s="28"/>
-      <c r="L29" s="29"/>
+        <v>79</v>
+      </c>
+      <c r="F29" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="G29" s="25"/>
+      <c r="H29" s="29"/>
+      <c r="I29" s="25"/>
+      <c r="J29" s="26"/>
+      <c r="K29" s="27"/>
+      <c r="L29" s="28"/>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="24" t="n">
@@ -4410,17 +4873,17 @@
         <f aca="false">IF(vedomost!F30=0,"",vedomost!F30)</f>
         <v>Ed24(0)</v>
       </c>
-      <c r="D30" s="26"/>
-      <c r="E30" s="26"/>
-      <c r="F30" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="G30" s="26"/>
-      <c r="H30" s="30"/>
-      <c r="I30" s="26"/>
-      <c r="J30" s="27"/>
-      <c r="K30" s="28"/>
-      <c r="L30" s="29"/>
+      <c r="D30" s="25"/>
+      <c r="E30" s="25"/>
+      <c r="F30" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="G30" s="25"/>
+      <c r="H30" s="29"/>
+      <c r="I30" s="25"/>
+      <c r="J30" s="26"/>
+      <c r="K30" s="27"/>
+      <c r="L30" s="28"/>
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="24" t="n">
@@ -4435,31 +4898,31 @@
         <f aca="false">IF(vedomost!F31=0,"",vedomost!F31)</f>
         <v/>
       </c>
-      <c r="D31" s="26"/>
-      <c r="E31" s="26"/>
-      <c r="F31" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="G31" s="26"/>
-      <c r="H31" s="30"/>
-      <c r="I31" s="26"/>
-      <c r="J31" s="27"/>
-      <c r="K31" s="28"/>
-      <c r="L31" s="29"/>
+      <c r="D31" s="25"/>
+      <c r="E31" s="25"/>
+      <c r="F31" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="G31" s="25"/>
+      <c r="H31" s="29"/>
+      <c r="I31" s="25"/>
+      <c r="J31" s="26"/>
+      <c r="K31" s="27"/>
+      <c r="L31" s="28"/>
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="24"/>
       <c r="B32" s="25"/>
       <c r="C32" s="18"/>
-      <c r="D32" s="26"/>
-      <c r="E32" s="26"/>
-      <c r="F32" s="26"/>
-      <c r="G32" s="26"/>
-      <c r="H32" s="30"/>
-      <c r="I32" s="26"/>
-      <c r="J32" s="27"/>
-      <c r="K32" s="28"/>
-      <c r="L32" s="29"/>
+      <c r="D32" s="25"/>
+      <c r="E32" s="25"/>
+      <c r="F32" s="25"/>
+      <c r="G32" s="25"/>
+      <c r="H32" s="29"/>
+      <c r="I32" s="25"/>
+      <c r="J32" s="26"/>
+      <c r="K32" s="27"/>
+      <c r="L32" s="28"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:B1048576">
@@ -4496,20 +4959,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AE15"/>
+  <dimension ref="A1:AE18"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="Z2" activePane="bottomRight" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="Z1" activeCellId="0" sqref="Z1"/>
+      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AC2" activeCellId="0" sqref="AC2"/>
+      <selection pane="bottomRight" activeCell="O22" activeCellId="0" sqref="O22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="32.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="35.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="32"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="0" width="42.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="31"/>
@@ -4523,7 +4986,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="16" style="0" width="21.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="29.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="19" style="0" width="23.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="41.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="18.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="21.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="45.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="21.57"/>
@@ -4536,1157 +4999,1355 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="0" width="36.14"/>
   </cols>
   <sheetData>
-    <row r="1" s="38" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="32" t="s">
-        <v>89</v>
-      </c>
-      <c r="B1" s="33" t="s">
-        <v>90</v>
-      </c>
-      <c r="C1" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="D1" s="32" t="s">
-        <v>92</v>
-      </c>
-      <c r="E1" s="32" t="s">
-        <v>93</v>
-      </c>
-      <c r="F1" s="32" t="s">
-        <v>94</v>
-      </c>
-      <c r="G1" s="35" t="s">
-        <v>95</v>
-      </c>
-      <c r="H1" s="32" t="s">
-        <v>96</v>
-      </c>
-      <c r="I1" s="32" t="s">
-        <v>97</v>
-      </c>
-      <c r="J1" s="32" t="s">
-        <v>98</v>
-      </c>
-      <c r="K1" s="32" t="s">
-        <v>99</v>
-      </c>
-      <c r="L1" s="32" t="s">
+    <row r="1" s="37" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="31" t="s">
+        <v>107</v>
+      </c>
+      <c r="B1" s="32" t="s">
+        <v>108</v>
+      </c>
+      <c r="C1" s="33" t="s">
+        <v>109</v>
+      </c>
+      <c r="D1" s="31" t="s">
+        <v>110</v>
+      </c>
+      <c r="E1" s="31" t="s">
+        <v>111</v>
+      </c>
+      <c r="F1" s="31" t="s">
+        <v>112</v>
+      </c>
+      <c r="G1" s="34" t="s">
+        <v>113</v>
+      </c>
+      <c r="H1" s="31" t="s">
+        <v>114</v>
+      </c>
+      <c r="I1" s="31" t="s">
+        <v>115</v>
+      </c>
+      <c r="J1" s="31" t="s">
+        <v>116</v>
+      </c>
+      <c r="K1" s="31" t="s">
+        <v>117</v>
+      </c>
+      <c r="L1" s="31" t="s">
+        <v>118</v>
+      </c>
+      <c r="M1" s="34" t="s">
+        <v>119</v>
+      </c>
+      <c r="N1" s="34" t="s">
+        <v>120</v>
+      </c>
+      <c r="O1" s="35" t="s">
+        <v>121</v>
+      </c>
+      <c r="P1" s="35" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q1" s="36" t="s">
+        <v>123</v>
+      </c>
+      <c r="R1" s="34" t="s">
+        <v>124</v>
+      </c>
+      <c r="S1" s="35" t="s">
+        <v>125</v>
+      </c>
+      <c r="T1" s="35" t="s">
+        <v>126</v>
+      </c>
+      <c r="U1" s="35" t="s">
+        <v>127</v>
+      </c>
+      <c r="V1" s="35" t="s">
+        <v>128</v>
+      </c>
+      <c r="W1" s="35" t="s">
+        <v>129</v>
+      </c>
+      <c r="X1" s="35" t="s">
+        <v>130</v>
+      </c>
+      <c r="Y1" s="36" t="s">
+        <v>131</v>
+      </c>
+      <c r="Z1" s="34" t="s">
+        <v>132</v>
+      </c>
+      <c r="AA1" s="35" t="s">
+        <v>133</v>
+      </c>
+      <c r="AB1" s="35" t="s">
+        <v>134</v>
+      </c>
+      <c r="AC1" s="35" t="s">
+        <v>135</v>
+      </c>
+      <c r="AD1" s="35" t="s">
+        <v>136</v>
+      </c>
+      <c r="AE1" s="35" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="38" t="s">
+        <v>138</v>
+      </c>
+      <c r="B2" s="39" t="s">
+        <v>139</v>
+      </c>
+      <c r="C2" s="40" t="s">
+        <v>140</v>
+      </c>
+      <c r="D2" s="38" t="s">
+        <v>141</v>
+      </c>
+      <c r="E2" s="38" t="s">
+        <v>142</v>
+      </c>
+      <c r="F2" s="41" t="s">
+        <v>143</v>
+      </c>
+      <c r="G2" s="38" t="s">
+        <v>141</v>
+      </c>
+      <c r="H2" s="38" t="s">
+        <v>144</v>
+      </c>
+      <c r="I2" s="38" t="s">
+        <v>145</v>
+      </c>
+      <c r="J2" s="38" t="s">
+        <v>146</v>
+      </c>
+      <c r="K2" s="38" t="s">
+        <v>147</v>
+      </c>
+      <c r="L2" s="38" t="s">
+        <v>148</v>
+      </c>
+      <c r="M2" s="42" t="s">
+        <v>149</v>
+      </c>
+      <c r="N2" s="42" t="s">
+        <v>147</v>
+      </c>
+      <c r="O2" s="41" t="s">
+        <v>150</v>
+      </c>
+      <c r="P2" s="41" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q2" s="43" t="s">
+        <v>146</v>
+      </c>
+      <c r="R2" s="42" t="s">
+        <v>151</v>
+      </c>
+      <c r="S2" s="41" t="s">
+        <v>152</v>
+      </c>
+      <c r="T2" s="41" t="s">
+        <v>153</v>
+      </c>
+      <c r="U2" s="41" t="s">
+        <v>143</v>
+      </c>
+      <c r="V2" s="41" t="s">
+        <v>146</v>
+      </c>
+      <c r="W2" s="41" t="s">
+        <v>154</v>
+      </c>
+      <c r="X2" s="41" t="s">
+        <v>146</v>
+      </c>
+      <c r="Y2" s="43" t="s">
+        <v>155</v>
+      </c>
+      <c r="Z2" s="42" t="s">
+        <v>156</v>
+      </c>
+      <c r="AA2" s="41" t="s">
+        <v>157</v>
+      </c>
+      <c r="AB2" s="41" t="s">
+        <v>143</v>
+      </c>
+      <c r="AC2" s="44" t="s">
+        <v>154</v>
+      </c>
+      <c r="AD2" s="41" t="s">
+        <v>146</v>
+      </c>
+      <c r="AE2" s="41" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="38" t="s">
+        <v>159</v>
+      </c>
+      <c r="B3" s="45" t="s">
+        <v>160</v>
+      </c>
+      <c r="C3" s="46" t="s">
+        <v>160</v>
+      </c>
+      <c r="D3" s="47" t="s">
+        <v>161</v>
+      </c>
+      <c r="E3" s="47" t="s">
+        <v>161</v>
+      </c>
+      <c r="F3" s="44" t="s">
+        <v>160</v>
+      </c>
+      <c r="G3" s="48" t="s">
+        <v>161</v>
+      </c>
+      <c r="H3" s="47" t="s">
+        <v>161</v>
+      </c>
+      <c r="I3" s="47" t="s">
+        <v>161</v>
+      </c>
+      <c r="J3" s="47" t="s">
+        <v>161</v>
+      </c>
+      <c r="K3" s="47" t="s">
+        <v>160</v>
+      </c>
+      <c r="L3" s="47" t="s">
+        <v>161</v>
+      </c>
+      <c r="M3" s="48" t="s">
+        <v>160</v>
+      </c>
+      <c r="N3" s="48" t="s">
+        <v>160</v>
+      </c>
+      <c r="O3" s="44" t="s">
+        <v>160</v>
+      </c>
+      <c r="P3" s="47" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q3" s="47" t="s">
+        <v>161</v>
+      </c>
+      <c r="R3" s="48" t="s">
+        <v>161</v>
+      </c>
+      <c r="S3" s="47" t="s">
+        <v>160</v>
+      </c>
+      <c r="T3" s="47" t="s">
+        <v>160</v>
+      </c>
+      <c r="U3" s="47" t="s">
+        <v>160</v>
+      </c>
+      <c r="V3" s="47" t="s">
+        <v>161</v>
+      </c>
+      <c r="W3" s="47" t="s">
+        <v>161</v>
+      </c>
+      <c r="X3" s="47" t="s">
+        <v>161</v>
+      </c>
+      <c r="Y3" s="47" t="s">
+        <v>160</v>
+      </c>
+      <c r="Z3" s="47" t="s">
+        <v>162</v>
+      </c>
+      <c r="AA3" s="47" t="s">
+        <v>160</v>
+      </c>
+      <c r="AB3" s="47" t="s">
+        <v>160</v>
+      </c>
+      <c r="AC3" s="47" t="s">
+        <v>161</v>
+      </c>
+      <c r="AD3" s="47" t="s">
+        <v>161</v>
+      </c>
+      <c r="AE3" s="47" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="49" t="s">
+        <v>163</v>
+      </c>
+      <c r="B4" s="50" t="s">
+        <v>164</v>
+      </c>
+      <c r="C4" s="51" t="s">
+        <v>164</v>
+      </c>
+      <c r="D4" s="52" t="s">
+        <v>164</v>
+      </c>
+      <c r="E4" s="52" t="s">
+        <v>164</v>
+      </c>
+      <c r="F4" s="52" t="s">
+        <v>164</v>
+      </c>
+      <c r="G4" s="53" t="s">
+        <v>164</v>
+      </c>
+      <c r="H4" s="52" t="s">
+        <v>164</v>
+      </c>
+      <c r="I4" s="52" t="s">
+        <v>164</v>
+      </c>
+      <c r="J4" s="52" t="s">
+        <v>164</v>
+      </c>
+      <c r="K4" s="52" t="s">
+        <v>164</v>
+      </c>
+      <c r="L4" s="52" t="s">
+        <v>164</v>
+      </c>
+      <c r="M4" s="53" t="s">
+        <v>164</v>
+      </c>
+      <c r="N4" s="53" t="s">
+        <v>164</v>
+      </c>
+      <c r="O4" s="54" t="s">
+        <v>164</v>
+      </c>
+      <c r="P4" s="54" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q4" s="55" t="s">
+        <v>164</v>
+      </c>
+      <c r="R4" s="53" t="s">
+        <v>164</v>
+      </c>
+      <c r="S4" s="54" t="s">
+        <v>164</v>
+      </c>
+      <c r="T4" s="54" t="s">
+        <v>164</v>
+      </c>
+      <c r="U4" s="54" t="s">
+        <v>165</v>
+      </c>
+      <c r="V4" s="54" t="s">
+        <v>164</v>
+      </c>
+      <c r="W4" s="54" t="s">
+        <v>164</v>
+      </c>
+      <c r="X4" s="54" t="s">
+        <v>164</v>
+      </c>
+      <c r="Y4" s="55" t="s">
+        <v>164</v>
+      </c>
+      <c r="Z4" s="53" t="s">
+        <v>164</v>
+      </c>
+      <c r="AA4" s="54" t="s">
+        <v>164</v>
+      </c>
+      <c r="AB4" s="54" t="s">
+        <v>165</v>
+      </c>
+      <c r="AC4" s="54" t="s">
+        <v>164</v>
+      </c>
+      <c r="AD4" s="54" t="s">
+        <v>164</v>
+      </c>
+      <c r="AE4" s="54" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="49" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="56" t="s">
+        <v>166</v>
+      </c>
+      <c r="C5" s="57" t="s">
+        <v>166</v>
+      </c>
+      <c r="D5" s="49" t="s">
+        <v>167</v>
+      </c>
+      <c r="E5" s="49" t="s">
+        <v>166</v>
+      </c>
+      <c r="F5" s="58"/>
+      <c r="G5" s="49" t="s">
+        <v>167</v>
+      </c>
+      <c r="H5" s="49" t="s">
+        <v>166</v>
+      </c>
+      <c r="I5" s="59"/>
+      <c r="J5" s="58"/>
+      <c r="K5" s="49" t="s">
+        <v>166</v>
+      </c>
+      <c r="L5" s="49" t="s">
+        <v>166</v>
+      </c>
+      <c r="M5" s="60" t="s">
+        <v>167</v>
+      </c>
+      <c r="N5" s="60" t="s">
+        <v>166</v>
+      </c>
+      <c r="O5" s="61" t="s">
+        <v>166</v>
+      </c>
+      <c r="P5" s="61" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q5" s="62" t="s">
+        <v>166</v>
+      </c>
+      <c r="R5" s="60" t="s">
+        <v>166</v>
+      </c>
+      <c r="S5" s="61" t="s">
+        <v>166</v>
+      </c>
+      <c r="T5" s="61" t="s">
+        <v>166</v>
+      </c>
+      <c r="U5" s="61" t="s">
+        <v>166</v>
+      </c>
+      <c r="V5" s="61" t="s">
+        <v>166</v>
+      </c>
+      <c r="W5" s="61" t="s">
+        <v>166</v>
+      </c>
+      <c r="X5" s="61" t="s">
+        <v>166</v>
+      </c>
+      <c r="Y5" s="62" t="s">
+        <v>166</v>
+      </c>
+      <c r="Z5" s="60" t="s">
+        <v>166</v>
+      </c>
+      <c r="AA5" s="61" t="s">
+        <v>166</v>
+      </c>
+      <c r="AB5" s="61" t="s">
+        <v>166</v>
+      </c>
+      <c r="AC5" s="61" t="s">
+        <v>166</v>
+      </c>
+      <c r="AD5" s="61" t="s">
+        <v>166</v>
+      </c>
+      <c r="AE5" s="61" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="59" t="s">
+        <v>168</v>
+      </c>
+      <c r="B6" s="63" t="s">
+        <v>169</v>
+      </c>
+      <c r="C6" s="64"/>
+      <c r="D6" s="59" t="s">
+        <v>170</v>
+      </c>
+      <c r="E6" s="59"/>
+      <c r="F6" s="59" t="s">
+        <v>169</v>
+      </c>
+      <c r="G6" s="65" t="s">
+        <v>170</v>
+      </c>
+      <c r="H6" s="59" t="s">
+        <v>169</v>
+      </c>
+      <c r="I6" s="59" t="s">
+        <v>169</v>
+      </c>
+      <c r="J6" s="59" t="s">
+        <v>169</v>
+      </c>
+      <c r="K6" s="59" t="s">
+        <v>169</v>
+      </c>
+      <c r="L6" s="59" t="s">
+        <v>171</v>
+      </c>
+      <c r="M6" s="65" t="s">
+        <v>172</v>
+      </c>
+      <c r="N6" s="65"/>
+      <c r="O6" s="66"/>
+      <c r="P6" s="66"/>
+      <c r="Q6" s="67"/>
+      <c r="R6" s="65"/>
+      <c r="S6" s="68" t="s">
+        <v>169</v>
+      </c>
+      <c r="T6" s="68"/>
+      <c r="U6" s="66"/>
+      <c r="V6" s="68" t="s">
+        <v>169</v>
+      </c>
+      <c r="W6" s="68"/>
+      <c r="X6" s="68"/>
+      <c r="Y6" s="69"/>
+      <c r="Z6" s="70" t="s">
+        <v>169</v>
+      </c>
+      <c r="AA6" s="68" t="s">
+        <v>169</v>
+      </c>
+      <c r="AB6" s="66"/>
+      <c r="AC6" s="68" t="s">
+        <v>169</v>
+      </c>
+      <c r="AD6" s="68" t="s">
+        <v>169</v>
+      </c>
+      <c r="AE6" s="68" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="58" t="s">
+        <v>173</v>
+      </c>
+      <c r="B7" s="71"/>
+      <c r="C7" s="72"/>
+      <c r="D7" s="58"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="73"/>
+      <c r="H7" s="58"/>
+      <c r="I7" s="58"/>
+      <c r="J7" s="58"/>
+      <c r="K7" s="58"/>
+      <c r="L7" s="58"/>
+      <c r="M7" s="73"/>
+      <c r="N7" s="73"/>
+      <c r="O7" s="74"/>
+      <c r="P7" s="74"/>
+      <c r="Q7" s="75"/>
+      <c r="R7" s="76" t="s">
+        <v>164</v>
+      </c>
+      <c r="S7" s="77" t="s">
+        <v>164</v>
+      </c>
+      <c r="T7" s="77" t="s">
+        <v>164</v>
+      </c>
+      <c r="U7" s="77" t="s">
+        <v>164</v>
+      </c>
+      <c r="V7" s="77" t="s">
+        <v>164</v>
+      </c>
+      <c r="W7" s="77" t="s">
+        <v>174</v>
+      </c>
+      <c r="X7" s="77" t="s">
+        <v>164</v>
+      </c>
+      <c r="Y7" s="78" t="s">
+        <v>164</v>
+      </c>
+      <c r="Z7" s="76" t="s">
+        <v>164</v>
+      </c>
+      <c r="AA7" s="77" t="s">
+        <v>164</v>
+      </c>
+      <c r="AB7" s="77" t="s">
+        <v>164</v>
+      </c>
+      <c r="AC7" s="77" t="s">
+        <v>164</v>
+      </c>
+      <c r="AD7" s="77" t="s">
+        <v>164</v>
+      </c>
+      <c r="AE7" s="77" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="58" t="s">
+        <v>175</v>
+      </c>
+      <c r="B8" s="71" t="s">
+        <v>174</v>
+      </c>
+      <c r="C8" s="72" t="s">
+        <v>174</v>
+      </c>
+      <c r="D8" s="58" t="s">
+        <v>174</v>
+      </c>
+      <c r="E8" s="58" t="s">
+        <v>174</v>
+      </c>
+      <c r="F8" s="58" t="s">
+        <v>174</v>
+      </c>
+      <c r="G8" s="73" t="s">
+        <v>174</v>
+      </c>
+      <c r="H8" s="58" t="s">
+        <v>174</v>
+      </c>
+      <c r="I8" s="58"/>
+      <c r="J8" s="58" t="s">
+        <v>174</v>
+      </c>
+      <c r="K8" s="58" t="s">
+        <v>174</v>
+      </c>
+      <c r="L8" s="58" t="s">
+        <v>174</v>
+      </c>
+      <c r="M8" s="73" t="s">
+        <v>174</v>
+      </c>
+      <c r="N8" s="73" t="s">
+        <v>174</v>
+      </c>
+      <c r="O8" s="74" t="s">
+        <v>174</v>
+      </c>
+      <c r="P8" s="74" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q8" s="75" t="s">
+        <v>174</v>
+      </c>
+      <c r="R8" s="73" t="s">
+        <v>174</v>
+      </c>
+      <c r="S8" s="74" t="s">
+        <v>174</v>
+      </c>
+      <c r="T8" s="74" t="s">
+        <v>174</v>
+      </c>
+      <c r="U8" s="74" t="s">
+        <v>174</v>
+      </c>
+      <c r="V8" s="74" t="s">
+        <v>174</v>
+      </c>
+      <c r="W8" s="74"/>
+      <c r="X8" s="74" t="s">
+        <v>174</v>
+      </c>
+      <c r="Y8" s="75" t="s">
+        <v>174</v>
+      </c>
+      <c r="Z8" s="73" t="s">
+        <v>174</v>
+      </c>
+      <c r="AA8" s="74" t="s">
+        <v>174</v>
+      </c>
+      <c r="AB8" s="74" t="s">
+        <v>174</v>
+      </c>
+      <c r="AC8" s="74"/>
+      <c r="AD8" s="74" t="s">
+        <v>174</v>
+      </c>
+      <c r="AE8" s="74" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="79" t="s">
+        <v>176</v>
+      </c>
+      <c r="B9" s="80" t="s">
+        <v>165</v>
+      </c>
+      <c r="C9" s="81" t="s">
+        <v>165</v>
+      </c>
+      <c r="D9" s="82" t="s">
+        <v>165</v>
+      </c>
+      <c r="E9" s="82" t="s">
+        <v>177</v>
+      </c>
+      <c r="F9" s="82" t="s">
+        <v>165</v>
+      </c>
+      <c r="G9" s="83" t="s">
+        <v>165</v>
+      </c>
+      <c r="H9" s="82" t="s">
+        <v>177</v>
+      </c>
+      <c r="I9" s="82" t="s">
+        <v>165</v>
+      </c>
+      <c r="J9" s="82" t="s">
+        <v>165</v>
+      </c>
+      <c r="K9" s="82" t="s">
+        <v>165</v>
+      </c>
+      <c r="L9" s="82" t="s">
+        <v>165</v>
+      </c>
+      <c r="M9" s="83" t="s">
+        <v>177</v>
+      </c>
+      <c r="N9" s="83" t="s">
+        <v>165</v>
+      </c>
+      <c r="O9" s="84" t="s">
+        <v>165</v>
+      </c>
+      <c r="P9" s="84" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q9" s="85" t="s">
+        <v>165</v>
+      </c>
+      <c r="R9" s="83" t="s">
+        <v>165</v>
+      </c>
+      <c r="S9" s="84" t="s">
+        <v>165</v>
+      </c>
+      <c r="T9" s="84" t="s">
+        <v>165</v>
+      </c>
+      <c r="U9" s="84" t="s">
+        <v>165</v>
+      </c>
+      <c r="V9" s="84" t="s">
+        <v>165</v>
+      </c>
+      <c r="W9" s="84" t="s">
+        <v>165</v>
+      </c>
+      <c r="X9" s="84" t="s">
+        <v>165</v>
+      </c>
+      <c r="Y9" s="85" t="s">
+        <v>165</v>
+      </c>
+      <c r="Z9" s="83" t="s">
+        <v>165</v>
+      </c>
+      <c r="AA9" s="84" t="s">
+        <v>165</v>
+      </c>
+      <c r="AB9" s="84" t="s">
+        <v>165</v>
+      </c>
+      <c r="AC9" s="84" t="s">
+        <v>165</v>
+      </c>
+      <c r="AD9" s="84" t="s">
+        <v>165</v>
+      </c>
+      <c r="AE9" s="84" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="86" t="s">
+        <v>178</v>
+      </c>
+      <c r="B10" s="87" t="s">
+        <v>169</v>
+      </c>
+      <c r="C10" s="88" t="s">
+        <v>169</v>
+      </c>
+      <c r="D10" s="86" t="s">
+        <v>169</v>
+      </c>
+      <c r="E10" s="86" t="s">
+        <v>169</v>
+      </c>
+      <c r="F10" s="86" t="s">
+        <v>169</v>
+      </c>
+      <c r="G10" s="89" t="s">
+        <v>169</v>
+      </c>
+      <c r="H10" s="86" t="s">
+        <v>169</v>
+      </c>
+      <c r="I10" s="86" t="s">
+        <v>169</v>
+      </c>
+      <c r="J10" s="86" t="s">
+        <v>169</v>
+      </c>
+      <c r="K10" s="86" t="s">
+        <v>169</v>
+      </c>
+      <c r="L10" s="86" t="s">
+        <v>169</v>
+      </c>
+      <c r="M10" s="89" t="s">
+        <v>169</v>
+      </c>
+      <c r="N10" s="89" t="s">
+        <v>169</v>
+      </c>
+      <c r="O10" s="90" t="s">
+        <v>169</v>
+      </c>
+      <c r="P10" s="90" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q10" s="91" t="s">
+        <v>169</v>
+      </c>
+      <c r="R10" s="89" t="s">
+        <v>169</v>
+      </c>
+      <c r="S10" s="90" t="s">
+        <v>169</v>
+      </c>
+      <c r="T10" s="90" t="s">
+        <v>169</v>
+      </c>
+      <c r="U10" s="90"/>
+      <c r="V10" s="90" t="s">
+        <v>169</v>
+      </c>
+      <c r="W10" s="90" t="s">
+        <v>169</v>
+      </c>
+      <c r="X10" s="90" t="s">
+        <v>169</v>
+      </c>
+      <c r="Y10" s="91" t="s">
+        <v>169</v>
+      </c>
+      <c r="Z10" s="89" t="s">
+        <v>169</v>
+      </c>
+      <c r="AA10" s="90" t="s">
+        <v>169</v>
+      </c>
+      <c r="AB10" s="90"/>
+      <c r="AC10" s="90" t="s">
+        <v>169</v>
+      </c>
+      <c r="AD10" s="90" t="s">
+        <v>169</v>
+      </c>
+      <c r="AE10" s="90" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="92" t="s">
+        <v>179</v>
+      </c>
+      <c r="B11" s="93"/>
+      <c r="C11" s="94"/>
+      <c r="D11" s="92" t="s">
+        <v>180</v>
+      </c>
+      <c r="E11" s="92" t="s">
+        <v>180</v>
+      </c>
+      <c r="F11" s="92" t="s">
+        <v>180</v>
+      </c>
+      <c r="G11" s="95" t="s">
+        <v>180</v>
+      </c>
+      <c r="H11" s="92" t="s">
+        <v>180</v>
+      </c>
+      <c r="I11" s="92"/>
+      <c r="J11" s="92" t="s">
+        <v>180</v>
+      </c>
+      <c r="K11" s="92"/>
+      <c r="L11" s="92" t="s">
+        <v>180</v>
+      </c>
+      <c r="M11" s="95"/>
+      <c r="N11" s="95"/>
+      <c r="O11" s="96"/>
+      <c r="P11" s="97" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q11" s="98" t="s">
+        <v>180</v>
+      </c>
+      <c r="R11" s="95" t="s">
+        <v>180</v>
+      </c>
+      <c r="S11" s="96"/>
+      <c r="T11" s="96"/>
+      <c r="U11" s="96"/>
+      <c r="V11" s="97" t="s">
+        <v>180</v>
+      </c>
+      <c r="W11" s="97" t="s">
+        <v>180</v>
+      </c>
+      <c r="X11" s="97" t="s">
+        <v>180</v>
+      </c>
+      <c r="Y11" s="99"/>
+      <c r="Z11" s="95" t="s">
+        <v>180</v>
+      </c>
+      <c r="AA11" s="96"/>
+      <c r="AB11" s="96"/>
+      <c r="AC11" s="97" t="s">
+        <v>180</v>
+      </c>
+      <c r="AD11" s="97" t="s">
+        <v>180</v>
+      </c>
+      <c r="AE11" s="96"/>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="92" t="s">
+        <v>181</v>
+      </c>
+      <c r="B12" s="93"/>
+      <c r="C12" s="94"/>
+      <c r="D12" s="92" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" s="92" t="n">
+        <v>3</v>
+      </c>
+      <c r="F12" s="92" t="n">
+        <v>3</v>
+      </c>
+      <c r="G12" s="95" t="s">
+        <v>43</v>
+      </c>
+      <c r="H12" s="92" t="n">
+        <v>3</v>
+      </c>
+      <c r="I12" s="92"/>
+      <c r="J12" s="92" t="n">
+        <v>3</v>
+      </c>
+      <c r="K12" s="92"/>
+      <c r="L12" s="92" t="s">
+        <v>14</v>
+      </c>
+      <c r="M12" s="95"/>
+      <c r="N12" s="95"/>
+      <c r="O12" s="96"/>
+      <c r="P12" s="96" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q12" s="99" t="n">
+        <v>3</v>
+      </c>
+      <c r="R12" s="100" t="n">
+        <v>3</v>
+      </c>
+      <c r="S12" s="96"/>
+      <c r="T12" s="96"/>
+      <c r="U12" s="96"/>
+      <c r="V12" s="96" t="s">
+        <v>14</v>
+      </c>
+      <c r="W12" s="96" t="n">
+        <v>2</v>
+      </c>
+      <c r="X12" s="96" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y12" s="99"/>
+      <c r="Z12" s="100" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA12" s="96"/>
+      <c r="AB12" s="96"/>
+      <c r="AC12" s="96" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD12" s="96" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE12" s="96"/>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="92" t="s">
+        <v>182</v>
+      </c>
+      <c r="B13" s="93"/>
+      <c r="C13" s="94"/>
+      <c r="D13" s="92" t="s">
+        <v>183</v>
+      </c>
+      <c r="E13" s="92" t="n">
+        <v>25</v>
+      </c>
+      <c r="F13" s="92" t="s">
+        <v>184</v>
+      </c>
+      <c r="G13" s="95" t="s">
+        <v>183</v>
+      </c>
+      <c r="H13" s="92" t="n">
+        <v>25</v>
+      </c>
+      <c r="I13" s="92"/>
+      <c r="J13" s="92" t="s">
+        <v>184</v>
+      </c>
+      <c r="K13" s="92"/>
+      <c r="L13" s="92" t="n">
         <v>100</v>
       </c>
-      <c r="M1" s="35" t="s">
-        <v>101</v>
-      </c>
-      <c r="N1" s="35" t="s">
-        <v>102</v>
-      </c>
-      <c r="O1" s="36" t="s">
-        <v>103</v>
-      </c>
-      <c r="P1" s="36" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q1" s="37" t="s">
-        <v>105</v>
-      </c>
-      <c r="R1" s="35" t="s">
-        <v>106</v>
-      </c>
-      <c r="S1" s="36" t="s">
-        <v>107</v>
-      </c>
-      <c r="T1" s="36" t="s">
-        <v>108</v>
-      </c>
-      <c r="U1" s="36" t="s">
-        <v>109</v>
-      </c>
-      <c r="V1" s="36" t="s">
-        <v>110</v>
-      </c>
-      <c r="W1" s="36" t="s">
-        <v>111</v>
-      </c>
-      <c r="X1" s="36" t="s">
-        <v>112</v>
-      </c>
-      <c r="Y1" s="37" t="s">
-        <v>113</v>
-      </c>
-      <c r="Z1" s="35" t="s">
-        <v>114</v>
-      </c>
-      <c r="AA1" s="36" t="s">
-        <v>115</v>
-      </c>
-      <c r="AB1" s="36" t="s">
-        <v>116</v>
-      </c>
-      <c r="AC1" s="36" t="s">
-        <v>117</v>
-      </c>
-      <c r="AD1" s="36" t="s">
-        <v>118</v>
-      </c>
-      <c r="AE1" s="36" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="39" t="s">
-        <v>120</v>
-      </c>
-      <c r="B2" s="40" t="s">
-        <v>121</v>
-      </c>
-      <c r="C2" s="41" t="s">
-        <v>122</v>
-      </c>
-      <c r="D2" s="39" t="s">
-        <v>123</v>
-      </c>
-      <c r="E2" s="39" t="s">
-        <v>124</v>
-      </c>
-      <c r="F2" s="42" t="s">
-        <v>125</v>
-      </c>
-      <c r="G2" s="39" t="s">
-        <v>123</v>
-      </c>
-      <c r="H2" s="39" t="s">
-        <v>126</v>
-      </c>
-      <c r="I2" s="39" t="s">
-        <v>127</v>
-      </c>
-      <c r="J2" s="39" t="s">
-        <v>128</v>
-      </c>
-      <c r="K2" s="39" t="s">
-        <v>129</v>
-      </c>
-      <c r="L2" s="39" t="s">
-        <v>130</v>
-      </c>
-      <c r="M2" s="43" t="s">
-        <v>131</v>
-      </c>
-      <c r="N2" s="43" t="s">
-        <v>129</v>
-      </c>
-      <c r="O2" s="42" t="s">
-        <v>132</v>
-      </c>
-      <c r="P2" s="42" t="s">
-        <v>128</v>
-      </c>
-      <c r="Q2" s="44" t="s">
-        <v>128</v>
-      </c>
-      <c r="R2" s="43" t="s">
-        <v>133</v>
-      </c>
-      <c r="S2" s="42" t="s">
-        <v>134</v>
-      </c>
-      <c r="T2" s="42" t="s">
-        <v>135</v>
-      </c>
-      <c r="U2" s="42" t="s">
-        <v>136</v>
-      </c>
-      <c r="V2" s="42" t="s">
-        <v>128</v>
-      </c>
-      <c r="W2" s="42" t="s">
-        <v>137</v>
-      </c>
-      <c r="X2" s="42" t="s">
-        <v>128</v>
-      </c>
-      <c r="Y2" s="44" t="s">
-        <v>138</v>
-      </c>
-      <c r="Z2" s="43" t="s">
-        <v>139</v>
-      </c>
-      <c r="AA2" s="42" t="s">
-        <v>140</v>
-      </c>
-      <c r="AB2" s="42" t="s">
-        <v>136</v>
-      </c>
-      <c r="AC2" s="45" t="s">
-        <v>137</v>
-      </c>
-      <c r="AD2" s="42" t="s">
-        <v>128</v>
-      </c>
-      <c r="AE2" s="42" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="39" t="s">
-        <v>142</v>
-      </c>
-      <c r="B3" s="46" t="s">
-        <v>143</v>
-      </c>
-      <c r="C3" s="47" t="s">
-        <v>143</v>
-      </c>
-      <c r="D3" s="48" t="s">
-        <v>144</v>
-      </c>
-      <c r="E3" s="48" t="s">
-        <v>144</v>
-      </c>
-      <c r="F3" s="45" t="s">
-        <v>143</v>
-      </c>
-      <c r="G3" s="49" t="s">
-        <v>144</v>
-      </c>
-      <c r="H3" s="48" t="s">
-        <v>144</v>
-      </c>
-      <c r="I3" s="48" t="s">
-        <v>144</v>
-      </c>
-      <c r="J3" s="48" t="s">
-        <v>144</v>
-      </c>
-      <c r="K3" s="48" t="s">
-        <v>143</v>
-      </c>
-      <c r="L3" s="48" t="s">
-        <v>144</v>
-      </c>
-      <c r="M3" s="49" t="s">
-        <v>143</v>
-      </c>
-      <c r="N3" s="49" t="s">
-        <v>143</v>
-      </c>
-      <c r="O3" s="45" t="s">
-        <v>143</v>
-      </c>
-      <c r="P3" s="48" t="s">
-        <v>144</v>
-      </c>
-      <c r="Q3" s="48" t="s">
-        <v>144</v>
-      </c>
-      <c r="R3" s="49" t="s">
-        <v>144</v>
-      </c>
-      <c r="S3" s="48" t="s">
-        <v>143</v>
-      </c>
-      <c r="T3" s="48" t="s">
-        <v>143</v>
-      </c>
-      <c r="U3" s="48" t="s">
-        <v>143</v>
-      </c>
-      <c r="V3" s="48" t="s">
-        <v>144</v>
-      </c>
-      <c r="W3" s="48" t="s">
-        <v>144</v>
-      </c>
-      <c r="X3" s="48" t="s">
-        <v>144</v>
-      </c>
-      <c r="Y3" s="48" t="s">
-        <v>143</v>
-      </c>
-      <c r="Z3" s="48" t="s">
-        <v>145</v>
-      </c>
-      <c r="AA3" s="48" t="s">
-        <v>143</v>
-      </c>
-      <c r="AB3" s="48" t="s">
-        <v>143</v>
-      </c>
-      <c r="AC3" s="48" t="s">
-        <v>144</v>
-      </c>
-      <c r="AD3" s="48" t="s">
-        <v>144</v>
-      </c>
-      <c r="AE3" s="48" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="50" t="s">
-        <v>146</v>
-      </c>
-      <c r="B4" s="51" t="s">
-        <v>147</v>
-      </c>
-      <c r="C4" s="52" t="s">
-        <v>147</v>
-      </c>
-      <c r="D4" s="53" t="s">
-        <v>147</v>
-      </c>
-      <c r="E4" s="53" t="s">
-        <v>147</v>
-      </c>
-      <c r="F4" s="53" t="s">
-        <v>147</v>
-      </c>
-      <c r="G4" s="54" t="s">
-        <v>147</v>
-      </c>
-      <c r="H4" s="53" t="s">
-        <v>147</v>
-      </c>
-      <c r="I4" s="53" t="s">
-        <v>147</v>
-      </c>
-      <c r="J4" s="53" t="s">
-        <v>147</v>
-      </c>
-      <c r="K4" s="53" t="s">
-        <v>147</v>
-      </c>
-      <c r="L4" s="53" t="s">
-        <v>147</v>
-      </c>
-      <c r="M4" s="54" t="s">
-        <v>147</v>
-      </c>
-      <c r="N4" s="54" t="s">
-        <v>147</v>
-      </c>
-      <c r="O4" s="55" t="s">
-        <v>147</v>
-      </c>
-      <c r="P4" s="55" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q4" s="56" t="s">
-        <v>147</v>
-      </c>
-      <c r="R4" s="54" t="s">
-        <v>147</v>
-      </c>
-      <c r="S4" s="55" t="s">
-        <v>147</v>
-      </c>
-      <c r="T4" s="55" t="s">
-        <v>147</v>
-      </c>
-      <c r="U4" s="55" t="s">
-        <v>148</v>
-      </c>
-      <c r="V4" s="55" t="s">
-        <v>147</v>
-      </c>
-      <c r="W4" s="55" t="s">
-        <v>147</v>
-      </c>
-      <c r="X4" s="55" t="s">
-        <v>147</v>
-      </c>
-      <c r="Y4" s="56" t="s">
-        <v>147</v>
-      </c>
-      <c r="Z4" s="54" t="s">
-        <v>147</v>
-      </c>
-      <c r="AA4" s="55" t="s">
-        <v>147</v>
-      </c>
-      <c r="AB4" s="55" t="s">
-        <v>148</v>
-      </c>
-      <c r="AC4" s="55" t="s">
-        <v>147</v>
-      </c>
-      <c r="AD4" s="55" t="s">
-        <v>147</v>
-      </c>
-      <c r="AE4" s="55" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="50" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="57" t="s">
-        <v>149</v>
-      </c>
-      <c r="C5" s="58" t="s">
-        <v>149</v>
-      </c>
-      <c r="D5" s="50" t="s">
-        <v>150</v>
-      </c>
-      <c r="E5" s="50" t="s">
-        <v>149</v>
-      </c>
-      <c r="F5" s="59"/>
-      <c r="G5" s="50" t="s">
-        <v>150</v>
-      </c>
-      <c r="H5" s="50" t="s">
-        <v>149</v>
-      </c>
-      <c r="I5" s="60"/>
-      <c r="J5" s="59"/>
-      <c r="K5" s="50" t="s">
-        <v>149</v>
-      </c>
-      <c r="L5" s="50" t="s">
-        <v>149</v>
-      </c>
-      <c r="M5" s="61" t="s">
-        <v>150</v>
-      </c>
-      <c r="N5" s="61" t="s">
-        <v>149</v>
-      </c>
-      <c r="O5" s="62" t="s">
-        <v>149</v>
-      </c>
-      <c r="P5" s="62" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q5" s="63" t="s">
-        <v>149</v>
-      </c>
-      <c r="R5" s="61" t="s">
-        <v>149</v>
-      </c>
-      <c r="S5" s="62" t="s">
-        <v>149</v>
-      </c>
-      <c r="T5" s="62" t="s">
-        <v>149</v>
-      </c>
-      <c r="U5" s="62" t="s">
-        <v>149</v>
-      </c>
-      <c r="V5" s="62" t="s">
-        <v>149</v>
-      </c>
-      <c r="W5" s="62" t="s">
-        <v>149</v>
-      </c>
-      <c r="X5" s="62" t="s">
-        <v>149</v>
-      </c>
-      <c r="Y5" s="63" t="s">
-        <v>149</v>
-      </c>
-      <c r="Z5" s="61" t="s">
-        <v>149</v>
-      </c>
-      <c r="AA5" s="62" t="s">
-        <v>149</v>
-      </c>
-      <c r="AB5" s="62" t="s">
-        <v>149</v>
-      </c>
-      <c r="AC5" s="62" t="s">
-        <v>149</v>
-      </c>
-      <c r="AD5" s="62" t="s">
-        <v>149</v>
-      </c>
-      <c r="AE5" s="62" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="60" t="s">
-        <v>151</v>
-      </c>
-      <c r="B6" s="64" t="s">
-        <v>152</v>
-      </c>
-      <c r="C6" s="65"/>
-      <c r="D6" s="60" t="s">
-        <v>153</v>
-      </c>
-      <c r="E6" s="60"/>
-      <c r="F6" s="60" t="s">
-        <v>152</v>
-      </c>
-      <c r="G6" s="66" t="s">
-        <v>153</v>
-      </c>
-      <c r="H6" s="60" t="s">
-        <v>152</v>
-      </c>
-      <c r="I6" s="60" t="s">
-        <v>152</v>
-      </c>
-      <c r="J6" s="60" t="s">
-        <v>152</v>
-      </c>
-      <c r="K6" s="60" t="s">
-        <v>152</v>
-      </c>
-      <c r="L6" s="60" t="s">
-        <v>154</v>
-      </c>
-      <c r="M6" s="66" t="s">
-        <v>155</v>
-      </c>
-      <c r="N6" s="66"/>
-      <c r="O6" s="67"/>
-      <c r="P6" s="67"/>
-      <c r="Q6" s="68"/>
-      <c r="R6" s="66"/>
-      <c r="S6" s="69" t="s">
-        <v>152</v>
-      </c>
-      <c r="T6" s="69"/>
-      <c r="U6" s="67"/>
-      <c r="V6" s="69" t="s">
-        <v>152</v>
-      </c>
-      <c r="W6" s="69"/>
-      <c r="X6" s="69"/>
-      <c r="Y6" s="70"/>
-      <c r="Z6" s="71" t="s">
-        <v>152</v>
-      </c>
-      <c r="AA6" s="69" t="s">
-        <v>152</v>
-      </c>
-      <c r="AB6" s="67"/>
-      <c r="AC6" s="69" t="s">
-        <v>152</v>
-      </c>
-      <c r="AD6" s="69" t="s">
-        <v>152</v>
-      </c>
-      <c r="AE6" s="69" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="59" t="s">
-        <v>156</v>
-      </c>
-      <c r="B7" s="72"/>
-      <c r="C7" s="73"/>
-      <c r="D7" s="59"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="59"/>
-      <c r="G7" s="74"/>
-      <c r="H7" s="59"/>
-      <c r="I7" s="59"/>
-      <c r="J7" s="59"/>
-      <c r="K7" s="59"/>
-      <c r="L7" s="59"/>
-      <c r="M7" s="74"/>
-      <c r="N7" s="74"/>
-      <c r="O7" s="75"/>
-      <c r="P7" s="75"/>
-      <c r="Q7" s="76"/>
-      <c r="R7" s="77" t="s">
-        <v>147</v>
-      </c>
-      <c r="S7" s="78" t="s">
-        <v>147</v>
-      </c>
-      <c r="T7" s="78" t="s">
-        <v>147</v>
-      </c>
-      <c r="U7" s="78" t="s">
-        <v>147</v>
-      </c>
-      <c r="V7" s="78" t="s">
-        <v>147</v>
-      </c>
-      <c r="W7" s="78" t="s">
-        <v>157</v>
-      </c>
-      <c r="X7" s="78" t="s">
-        <v>147</v>
-      </c>
-      <c r="Y7" s="79" t="s">
-        <v>147</v>
-      </c>
-      <c r="Z7" s="77" t="s">
-        <v>147</v>
-      </c>
-      <c r="AA7" s="78" t="s">
-        <v>147</v>
-      </c>
-      <c r="AB7" s="78" t="s">
-        <v>147</v>
-      </c>
-      <c r="AC7" s="78" t="s">
-        <v>147</v>
-      </c>
-      <c r="AD7" s="78" t="s">
-        <v>147</v>
-      </c>
-      <c r="AE7" s="78" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="59" t="s">
-        <v>158</v>
-      </c>
-      <c r="B8" s="72" t="s">
-        <v>157</v>
-      </c>
-      <c r="C8" s="73" t="s">
-        <v>157</v>
-      </c>
-      <c r="D8" s="59" t="s">
-        <v>157</v>
-      </c>
-      <c r="E8" s="59" t="s">
-        <v>157</v>
-      </c>
-      <c r="F8" s="59" t="s">
-        <v>157</v>
-      </c>
-      <c r="G8" s="74" t="s">
-        <v>157</v>
-      </c>
-      <c r="H8" s="59" t="s">
-        <v>157</v>
-      </c>
-      <c r="I8" s="59"/>
-      <c r="J8" s="59" t="s">
-        <v>157</v>
-      </c>
-      <c r="K8" s="59" t="s">
-        <v>157</v>
-      </c>
-      <c r="L8" s="59" t="s">
-        <v>157</v>
-      </c>
-      <c r="M8" s="74" t="s">
-        <v>157</v>
-      </c>
-      <c r="N8" s="74" t="s">
-        <v>157</v>
-      </c>
-      <c r="O8" s="75" t="s">
-        <v>157</v>
-      </c>
-      <c r="P8" s="75" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q8" s="76" t="s">
-        <v>157</v>
-      </c>
-      <c r="R8" s="74" t="s">
-        <v>157</v>
-      </c>
-      <c r="S8" s="75" t="s">
-        <v>157</v>
-      </c>
-      <c r="T8" s="75" t="s">
-        <v>157</v>
-      </c>
-      <c r="U8" s="75" t="s">
-        <v>157</v>
-      </c>
-      <c r="V8" s="75" t="s">
-        <v>157</v>
-      </c>
-      <c r="W8" s="75"/>
-      <c r="X8" s="75" t="s">
-        <v>157</v>
-      </c>
-      <c r="Y8" s="76" t="s">
-        <v>157</v>
-      </c>
-      <c r="Z8" s="74" t="s">
-        <v>157</v>
-      </c>
-      <c r="AA8" s="75" t="s">
-        <v>157</v>
-      </c>
-      <c r="AB8" s="75" t="s">
-        <v>157</v>
-      </c>
-      <c r="AC8" s="75"/>
-      <c r="AD8" s="75" t="s">
-        <v>157</v>
-      </c>
-      <c r="AE8" s="75" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="80" t="s">
-        <v>159</v>
-      </c>
-      <c r="B9" s="81" t="s">
-        <v>148</v>
-      </c>
-      <c r="C9" s="82" t="s">
-        <v>148</v>
-      </c>
-      <c r="D9" s="83" t="s">
-        <v>148</v>
-      </c>
-      <c r="E9" s="83" t="s">
-        <v>160</v>
-      </c>
-      <c r="F9" s="83" t="s">
-        <v>148</v>
-      </c>
-      <c r="G9" s="84" t="s">
-        <v>148</v>
-      </c>
-      <c r="H9" s="83" t="s">
-        <v>160</v>
-      </c>
-      <c r="I9" s="83" t="s">
-        <v>148</v>
-      </c>
-      <c r="J9" s="83" t="s">
-        <v>148</v>
-      </c>
-      <c r="K9" s="83" t="s">
-        <v>148</v>
-      </c>
-      <c r="L9" s="83" t="s">
-        <v>148</v>
-      </c>
-      <c r="M9" s="84" t="s">
-        <v>160</v>
-      </c>
-      <c r="N9" s="84" t="s">
-        <v>148</v>
-      </c>
-      <c r="O9" s="85" t="s">
-        <v>148</v>
-      </c>
-      <c r="P9" s="85" t="s">
-        <v>148</v>
-      </c>
-      <c r="Q9" s="86" t="s">
-        <v>148</v>
-      </c>
-      <c r="R9" s="84" t="s">
-        <v>148</v>
-      </c>
-      <c r="S9" s="85" t="s">
-        <v>148</v>
-      </c>
-      <c r="T9" s="85" t="s">
-        <v>148</v>
-      </c>
-      <c r="U9" s="85" t="s">
-        <v>148</v>
-      </c>
-      <c r="V9" s="85" t="s">
-        <v>148</v>
-      </c>
-      <c r="W9" s="85" t="s">
-        <v>148</v>
-      </c>
-      <c r="X9" s="85" t="s">
-        <v>148</v>
-      </c>
-      <c r="Y9" s="86" t="s">
-        <v>148</v>
-      </c>
-      <c r="Z9" s="84" t="s">
-        <v>148</v>
-      </c>
-      <c r="AA9" s="85" t="s">
-        <v>148</v>
-      </c>
-      <c r="AB9" s="85" t="s">
-        <v>148</v>
-      </c>
-      <c r="AC9" s="85" t="s">
-        <v>148</v>
-      </c>
-      <c r="AD9" s="85" t="s">
-        <v>148</v>
-      </c>
-      <c r="AE9" s="85" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="87" t="s">
-        <v>161</v>
-      </c>
-      <c r="B10" s="88" t="s">
-        <v>152</v>
-      </c>
-      <c r="C10" s="89" t="s">
-        <v>152</v>
-      </c>
-      <c r="D10" s="87" t="s">
-        <v>152</v>
-      </c>
-      <c r="E10" s="87" t="s">
-        <v>152</v>
-      </c>
-      <c r="F10" s="87" t="s">
-        <v>152</v>
-      </c>
-      <c r="G10" s="90" t="s">
-        <v>152</v>
-      </c>
-      <c r="H10" s="87" t="s">
-        <v>152</v>
-      </c>
-      <c r="I10" s="87" t="s">
-        <v>152</v>
-      </c>
-      <c r="J10" s="87" t="s">
-        <v>152</v>
-      </c>
-      <c r="K10" s="87" t="s">
-        <v>152</v>
-      </c>
-      <c r="L10" s="87" t="s">
-        <v>152</v>
-      </c>
-      <c r="M10" s="90" t="s">
-        <v>152</v>
-      </c>
-      <c r="N10" s="90" t="s">
-        <v>152</v>
-      </c>
-      <c r="O10" s="91" t="s">
-        <v>152</v>
-      </c>
-      <c r="P10" s="91" t="s">
-        <v>152</v>
-      </c>
-      <c r="Q10" s="92" t="s">
-        <v>152</v>
-      </c>
-      <c r="R10" s="90" t="s">
-        <v>152</v>
-      </c>
-      <c r="S10" s="91" t="s">
-        <v>152</v>
-      </c>
-      <c r="T10" s="91" t="s">
-        <v>152</v>
-      </c>
-      <c r="U10" s="91"/>
-      <c r="V10" s="91" t="s">
-        <v>152</v>
-      </c>
-      <c r="W10" s="91" t="s">
-        <v>152</v>
-      </c>
-      <c r="X10" s="91" t="s">
-        <v>152</v>
-      </c>
-      <c r="Y10" s="92" t="s">
-        <v>152</v>
-      </c>
-      <c r="Z10" s="90" t="s">
-        <v>152</v>
-      </c>
-      <c r="AA10" s="91" t="s">
-        <v>152</v>
-      </c>
-      <c r="AB10" s="91"/>
-      <c r="AC10" s="91" t="s">
-        <v>152</v>
-      </c>
-      <c r="AD10" s="91" t="s">
-        <v>152</v>
-      </c>
-      <c r="AE10" s="91" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="93" t="s">
-        <v>162</v>
-      </c>
-      <c r="B11" s="94"/>
-      <c r="C11" s="95"/>
-      <c r="D11" s="93" t="s">
-        <v>163</v>
-      </c>
-      <c r="E11" s="93" t="s">
-        <v>163</v>
-      </c>
-      <c r="F11" s="93" t="s">
-        <v>163</v>
-      </c>
-      <c r="G11" s="96" t="s">
-        <v>163</v>
-      </c>
-      <c r="H11" s="93" t="s">
-        <v>163</v>
-      </c>
-      <c r="I11" s="93"/>
-      <c r="J11" s="93" t="s">
-        <v>163</v>
-      </c>
-      <c r="K11" s="93"/>
-      <c r="L11" s="93" t="s">
-        <v>163</v>
-      </c>
-      <c r="M11" s="96"/>
-      <c r="N11" s="96"/>
-      <c r="O11" s="97"/>
-      <c r="P11" s="98" t="s">
-        <v>163</v>
-      </c>
-      <c r="Q11" s="99" t="s">
-        <v>163</v>
-      </c>
-      <c r="R11" s="96" t="s">
-        <v>163</v>
-      </c>
-      <c r="S11" s="97"/>
-      <c r="T11" s="97"/>
-      <c r="U11" s="97"/>
-      <c r="V11" s="98" t="s">
-        <v>163</v>
-      </c>
-      <c r="W11" s="98" t="s">
-        <v>163</v>
-      </c>
-      <c r="X11" s="98" t="s">
-        <v>163</v>
-      </c>
-      <c r="Y11" s="100"/>
-      <c r="Z11" s="96" t="s">
-        <v>163</v>
-      </c>
-      <c r="AA11" s="97"/>
-      <c r="AB11" s="97"/>
-      <c r="AC11" s="98" t="s">
-        <v>163</v>
-      </c>
-      <c r="AD11" s="98" t="s">
-        <v>163</v>
-      </c>
-      <c r="AE11" s="97"/>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="93" t="s">
-        <v>164</v>
-      </c>
-      <c r="B12" s="94"/>
-      <c r="C12" s="95"/>
-      <c r="D12" s="93" t="s">
-        <v>43</v>
-      </c>
-      <c r="E12" s="93" t="n">
-        <v>3</v>
-      </c>
-      <c r="F12" s="93" t="n">
-        <v>3</v>
-      </c>
-      <c r="G12" s="96" t="s">
-        <v>43</v>
-      </c>
-      <c r="H12" s="93" t="n">
-        <v>3</v>
-      </c>
-      <c r="I12" s="93"/>
-      <c r="J12" s="93" t="n">
-        <v>3</v>
-      </c>
-      <c r="K12" s="93"/>
-      <c r="L12" s="93" t="s">
-        <v>14</v>
-      </c>
-      <c r="M12" s="96"/>
-      <c r="N12" s="96"/>
-      <c r="O12" s="97"/>
-      <c r="P12" s="97" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q12" s="100" t="n">
-        <v>3</v>
-      </c>
-      <c r="R12" s="101" t="n">
-        <v>3</v>
-      </c>
-      <c r="S12" s="97"/>
-      <c r="T12" s="97"/>
-      <c r="U12" s="97"/>
-      <c r="V12" s="97" t="s">
-        <v>14</v>
-      </c>
-      <c r="W12" s="97" t="n">
-        <v>2</v>
-      </c>
-      <c r="X12" s="97" t="s">
-        <v>14</v>
-      </c>
-      <c r="Y12" s="100"/>
-      <c r="Z12" s="101" t="n">
-        <v>3</v>
-      </c>
-      <c r="AA12" s="97"/>
-      <c r="AB12" s="97"/>
-      <c r="AC12" s="97" t="n">
-        <v>2</v>
-      </c>
-      <c r="AD12" s="97" t="s">
-        <v>14</v>
-      </c>
-      <c r="AE12" s="97"/>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="93" t="s">
-        <v>165</v>
-      </c>
-      <c r="B13" s="94"/>
-      <c r="C13" s="95"/>
-      <c r="D13" s="93" t="s">
-        <v>166</v>
-      </c>
-      <c r="E13" s="93" t="n">
+      <c r="M13" s="95"/>
+      <c r="N13" s="95"/>
+      <c r="O13" s="96"/>
+      <c r="P13" s="96" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q13" s="99" t="s">
+        <v>184</v>
+      </c>
+      <c r="R13" s="100" t="s">
+        <v>184</v>
+      </c>
+      <c r="S13" s="96"/>
+      <c r="T13" s="96"/>
+      <c r="U13" s="96"/>
+      <c r="V13" s="96" t="s">
+        <v>185</v>
+      </c>
+      <c r="W13" s="96" t="n">
         <v>25</v>
       </c>
-      <c r="F13" s="93" t="s">
-        <v>167</v>
-      </c>
-      <c r="G13" s="96" t="s">
-        <v>166</v>
-      </c>
-      <c r="H13" s="93" t="n">
-        <v>25</v>
-      </c>
-      <c r="I13" s="93"/>
-      <c r="J13" s="93" t="s">
-        <v>167</v>
-      </c>
-      <c r="K13" s="93"/>
-      <c r="L13" s="93" t="n">
-        <v>100</v>
-      </c>
-      <c r="M13" s="96"/>
-      <c r="N13" s="96"/>
-      <c r="O13" s="97"/>
-      <c r="P13" s="97" t="s">
-        <v>167</v>
-      </c>
-      <c r="Q13" s="100" t="s">
-        <v>167</v>
-      </c>
-      <c r="R13" s="101" t="s">
-        <v>167</v>
-      </c>
-      <c r="S13" s="97"/>
-      <c r="T13" s="97"/>
-      <c r="U13" s="97"/>
-      <c r="V13" s="97" t="s">
-        <v>168</v>
-      </c>
-      <c r="W13" s="97" t="n">
-        <v>25</v>
-      </c>
-      <c r="X13" s="97" t="s">
-        <v>167</v>
-      </c>
-      <c r="Y13" s="100"/>
-      <c r="Z13" s="101" t="s">
-        <v>167</v>
-      </c>
-      <c r="AA13" s="97"/>
-      <c r="AB13" s="97"/>
-      <c r="AC13" s="97" t="s">
-        <v>167</v>
-      </c>
-      <c r="AD13" s="97" t="s">
-        <v>167</v>
-      </c>
-      <c r="AE13" s="97"/>
+      <c r="X13" s="96" t="s">
+        <v>184</v>
+      </c>
+      <c r="Y13" s="99"/>
+      <c r="Z13" s="100" t="s">
+        <v>184</v>
+      </c>
+      <c r="AA13" s="96"/>
+      <c r="AB13" s="96"/>
+      <c r="AC13" s="96" t="s">
+        <v>184</v>
+      </c>
+      <c r="AD13" s="96" t="s">
+        <v>184</v>
+      </c>
+      <c r="AE13" s="96"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="102" t="s">
-        <v>169</v>
+      <c r="A14" s="101" t="s">
+        <v>186</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>171</v>
+        <v>188</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>171</v>
+        <v>188</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>171</v>
+        <v>188</v>
       </c>
       <c r="I14" s="0" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
       <c r="J14" s="0" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="L14" s="0" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
       <c r="P14" s="0" t="s">
-        <v>172</v>
+        <v>189</v>
       </c>
       <c r="Q14" s="0" t="s">
-        <v>172</v>
+        <v>189</v>
       </c>
       <c r="T14" s="0" t="s">
-        <v>171</v>
+        <v>188</v>
       </c>
       <c r="U14" s="0" t="s">
-        <v>171</v>
+        <v>188</v>
       </c>
       <c r="X14" s="0" t="s">
-        <v>173</v>
+        <v>190</v>
       </c>
       <c r="Z14" s="0" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
       <c r="AA14" s="0" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
       <c r="AC14" s="0" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="AD14" s="0" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
       <c r="AE14" s="0" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D15" s="0" t="s">
-        <v>174</v>
+        <v>191</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>174</v>
+        <v>191</v>
       </c>
       <c r="Z15" s="0" t="s">
-        <v>174</v>
+        <v>191</v>
       </c>
       <c r="AD15" s="0" t="s">
-        <v>175</v>
+        <v>192</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>193</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>194</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>195</v>
+      </c>
+      <c r="D16" s="102" t="s">
+        <v>196</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>197</v>
+      </c>
+      <c r="F16" s="0" t="s">
+        <v>198</v>
+      </c>
+      <c r="G16" s="102" t="s">
+        <v>199</v>
+      </c>
+      <c r="H16" s="0" t="s">
+        <v>200</v>
+      </c>
+      <c r="I16" s="102" t="s">
+        <v>201</v>
+      </c>
+      <c r="J16" s="102" t="s">
+        <v>202</v>
+      </c>
+      <c r="K16" s="102" t="s">
+        <v>203</v>
+      </c>
+      <c r="L16" s="102" t="s">
+        <v>204</v>
+      </c>
+      <c r="M16" s="102" t="s">
+        <v>205</v>
+      </c>
+      <c r="N16" s="102" t="s">
+        <v>206</v>
+      </c>
+      <c r="O16" s="102" t="s">
+        <v>207</v>
+      </c>
+      <c r="P16" s="102" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q16" s="102" t="s">
+        <v>209</v>
+      </c>
+      <c r="Z16" s="102" t="s">
+        <v>210</v>
+      </c>
+      <c r="AA16" s="102" t="s">
+        <v>211</v>
+      </c>
+      <c r="AB16" s="102" t="s">
+        <v>212</v>
+      </c>
+      <c r="AC16" s="0" t="s">
+        <v>213</v>
+      </c>
+      <c r="AD16" s="102" t="s">
+        <v>214</v>
+      </c>
+      <c r="AE16" s="0" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>216</v>
+      </c>
+      <c r="D17" s="102" t="s">
+        <v>217</v>
+      </c>
+      <c r="G17" s="102" t="s">
+        <v>217</v>
+      </c>
+      <c r="M17" s="102" t="s">
+        <v>217</v>
+      </c>
+      <c r="N17" s="103" t="s">
+        <v>218</v>
+      </c>
+      <c r="O17" s="102" t="s">
+        <v>219</v>
+      </c>
+      <c r="P17" s="103" t="s">
+        <v>220</v>
+      </c>
+      <c r="Q17" s="103" t="s">
+        <v>221</v>
+      </c>
+      <c r="AB17" s="103" t="s">
+        <v>222</v>
+      </c>
+      <c r="AE17" s="103" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>224</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>225</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>226</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>225</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>227</v>
+      </c>
+      <c r="F18" s="0" t="s">
+        <v>226</v>
+      </c>
+      <c r="G18" s="0" t="s">
+        <v>225</v>
+      </c>
+      <c r="H18" s="0" t="s">
+        <v>227</v>
+      </c>
+      <c r="I18" s="0" t="s">
+        <v>226</v>
+      </c>
+      <c r="J18" s="0" t="s">
+        <v>226</v>
+      </c>
+      <c r="K18" s="0" t="s">
+        <v>225</v>
+      </c>
+      <c r="L18" s="0" t="s">
+        <v>226</v>
+      </c>
+      <c r="M18" s="0" t="s">
+        <v>225</v>
+      </c>
+      <c r="N18" s="104" t="s">
+        <v>225</v>
+      </c>
+      <c r="O18" s="104" t="s">
+        <v>225</v>
+      </c>
+      <c r="P18" s="0" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q18" s="0" t="s">
+        <v>226</v>
+      </c>
+      <c r="R18" s="0" t="s">
+        <v>226</v>
+      </c>
+      <c r="S18" s="0" t="s">
+        <v>225</v>
+      </c>
+      <c r="T18" s="0" t="s">
+        <v>225</v>
+      </c>
+      <c r="U18" s="0" t="s">
+        <v>226</v>
+      </c>
+      <c r="V18" s="0" t="s">
+        <v>226</v>
+      </c>
+      <c r="W18" s="0" t="s">
+        <v>227</v>
+      </c>
+      <c r="X18" s="0" t="s">
+        <v>226</v>
+      </c>
+      <c r="Y18" s="0" t="s">
+        <v>225</v>
+      </c>
+      <c r="Z18" s="0" t="s">
+        <v>226</v>
+      </c>
+      <c r="AA18" s="0" t="s">
+        <v>225</v>
+      </c>
+      <c r="AB18" s="0" t="s">
+        <v>226</v>
+      </c>
+      <c r="AC18" s="0" t="s">
+        <v>227</v>
+      </c>
+      <c r="AD18" s="0" t="s">
+        <v>226</v>
+      </c>
+      <c r="AE18" s="104" t="s">
+        <v>225</v>
       </c>
     </row>
   </sheetData>
@@ -5758,4 +6419,45 @@
     <oddFooter/>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="7.97"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>228</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>193</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/months/sep23/sep23.xlsx
+++ b/months/sep23/sep23.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="vedomost" sheetId="1" state="visible" r:id="rId2"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="839" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="910" uniqueCount="233">
   <si>
     <t xml:space="preserve">DATE</t>
   </si>
@@ -109,9 +109,6 @@
     <t xml:space="preserve">0.5</t>
   </si>
   <si>
-    <t xml:space="preserve">+C</t>
-  </si>
-  <si>
     <t xml:space="preserve">22:00</t>
   </si>
   <si>
@@ -181,9 +178,6 @@
     <t xml:space="preserve">E4,L1</t>
   </si>
   <si>
-    <t xml:space="preserve">-C</t>
-  </si>
-  <si>
     <t xml:space="preserve">23:02</t>
   </si>
   <si>
@@ -211,9 +205,6 @@
     <t xml:space="preserve">23:30</t>
   </si>
   <si>
-    <t xml:space="preserve">!</t>
-  </si>
-  <si>
     <t xml:space="preserve">21:55</t>
   </si>
   <si>
@@ -227,6 +218,21 @@
   </si>
   <si>
     <t xml:space="preserve">22:50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21:50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L1,E4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23:59</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20:37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L3,E4</t>
   </si>
   <si>
     <t xml:space="preserve">Lh</t>
@@ -545,9 +551,6 @@
     <t xml:space="preserve">{"9": 25, "+": -25, "-": -100}</t>
   </si>
   <si>
-    <t xml:space="preserve">{"&gt;.0": 15*", "0": -50}</t>
-  </si>
-  <si>
     <t xml:space="preserve">{"&gt;=.3": "15*", "&gt;=.2": "10*", "&lt;.2": 0}</t>
   </si>
   <si>
@@ -641,6 +644,9 @@
     <t xml:space="preserve">ИЗМЕНЕНА ЛОГИКА</t>
   </si>
   <si>
+    <t xml:space="preserve">!</t>
+  </si>
+  <si>
     <t xml:space="preserve">УВЕЛИЧЕН БОНУС</t>
   </si>
   <si>
@@ -683,7 +689,7 @@
     <t xml:space="preserve">Злата: чистка зубов утром и вечером?</t>
   </si>
   <si>
-    <t xml:space="preserve">Злата: число занятий (рукоделие, логопедия, азбука, счет) с родителем</t>
+    <t xml:space="preserve">Злата: сколько занятий с родителем?</t>
   </si>
   <si>
     <t xml:space="preserve">Злата: существовала без телевизора и интернета?</t>
@@ -741,9 +747,13 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">зимой от 30 мин, летом от 1ч</t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Условия: какие-то поделки, логопедия, азбука, счет</t>
   </si>
   <si>
     <t xml:space="preserve">Разрешается дробить коридор по 0.5. Туалет, ванная по 0.5</t>
@@ -786,14 +796,15 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="[$-F800]dddd&quot;, &quot;mmmm\ dd&quot;, &quot;yyyy"/>
     <numFmt numFmtId="166" formatCode="d/m;@"/>
     <numFmt numFmtId="167" formatCode="@"/>
     <numFmt numFmtId="168" formatCode="m/d/yyyy"/>
+    <numFmt numFmtId="169" formatCode="General"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -845,12 +856,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="10">
@@ -1052,10 +1057,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1072,7 +1073,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="169" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1097,6 +1098,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="168" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1412,11 +1417,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1634,15 +1639,15 @@
   </sheetPr>
   <dimension ref="A1:AN32"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="8" ySplit="1" topLeftCell="X2" activePane="bottomRight" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="8" ySplit="1" topLeftCell="AG2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="X1" activeCellId="0" sqref="X1"/>
+      <selection pane="topRight" activeCell="AG1" activeCellId="0" sqref="AG1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="X1" activeCellId="0" sqref="X1"/>
+      <selection pane="bottomRight" activeCell="AI3" activeCellId="0" sqref="AI3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.57421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="24"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="4.43"/>
@@ -1677,7 +1682,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="3" width="7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="34" style="4" width="7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="36" style="0" width="11.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="37" style="0" width="5.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="37" style="0" width="5.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="38" min="38" style="0" width="7.43"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="39" min="39" style="5" width="8.57"/>
   </cols>
@@ -1937,10 +1942,10 @@
         <v>27</v>
       </c>
       <c r="AI2" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="AJ2" s="9" t="s">
         <v>28</v>
-      </c>
-      <c r="AJ2" s="9" t="s">
-        <v>29</v>
       </c>
       <c r="AK2" s="9" t="s">
         <v>19</v>
@@ -1985,7 +1990,7 @@
         <v>15</v>
       </c>
       <c r="L3" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M3" s="9" t="s">
         <v>11</v>
@@ -1994,7 +1999,7 @@
         <v>15</v>
       </c>
       <c r="O3" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P3" s="9" t="s">
         <v>21</v>
@@ -2012,10 +2017,10 @@
         <v>21</v>
       </c>
       <c r="U3" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="V3" s="9" t="s">
         <v>32</v>
-      </c>
-      <c r="V3" s="9" t="s">
-        <v>33</v>
       </c>
       <c r="W3" s="9" t="s">
         <v>19</v>
@@ -2030,7 +2035,7 @@
         <v>14</v>
       </c>
       <c r="AA3" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AB3" s="9" t="s">
         <v>18</v>
@@ -2039,7 +2044,7 @@
         <v>11</v>
       </c>
       <c r="AD3" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AE3" s="9" t="s">
         <v>19</v>
@@ -2057,7 +2062,7 @@
         <v>18</v>
       </c>
       <c r="AJ3" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AK3" s="9" t="s">
         <v>19</v>
@@ -2078,13 +2083,13 @@
         <v>8</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E4" s="9" t="s">
         <v>10</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G4" s="9" t="s">
         <v>11</v>
@@ -2099,10 +2104,10 @@
         <v>11</v>
       </c>
       <c r="K4" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="L4" s="9" t="s">
         <v>39</v>
-      </c>
-      <c r="L4" s="9" t="s">
-        <v>40</v>
       </c>
       <c r="M4" s="9" t="s">
         <v>11</v>
@@ -2111,7 +2116,7 @@
         <v>20</v>
       </c>
       <c r="O4" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P4" s="9" t="s">
         <v>20</v>
@@ -2132,7 +2137,7 @@
         <v>20</v>
       </c>
       <c r="V4" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="W4" s="9" t="s">
         <v>19</v>
@@ -2162,7 +2167,7 @@
         <v>19</v>
       </c>
       <c r="AF4" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AG4" s="10" t="s">
         <v>23</v>
@@ -2174,13 +2179,13 @@
         <v>18</v>
       </c>
       <c r="AJ4" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AK4" s="9" t="s">
         <v>19</v>
       </c>
       <c r="AL4" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2216,10 +2221,10 @@
         <v>11</v>
       </c>
       <c r="K5" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L5" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M5" s="9" t="s">
         <v>19</v>
@@ -2228,7 +2233,7 @@
         <v>20</v>
       </c>
       <c r="O5" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P5" s="9" t="s">
         <v>18</v>
@@ -2249,7 +2254,7 @@
         <v>20</v>
       </c>
       <c r="V5" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W5" s="9" t="s">
         <v>19</v>
@@ -2261,19 +2266,19 @@
         <v>23</v>
       </c>
       <c r="Z5" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AA5" s="9" t="s">
         <v>20</v>
       </c>
       <c r="AB5" s="9" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="AC5" s="9" t="s">
         <v>19</v>
       </c>
       <c r="AD5" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AE5" s="9" t="s">
         <v>19</v>
@@ -2291,7 +2296,7 @@
         <v>18</v>
       </c>
       <c r="AJ5" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AK5" s="9" t="s">
         <v>19</v>
@@ -2333,10 +2338,10 @@
         <v>11</v>
       </c>
       <c r="K6" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L6" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M6" s="9" t="s">
         <v>11</v>
@@ -2345,7 +2350,7 @@
         <v>20</v>
       </c>
       <c r="O6" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P6" s="9" t="s">
         <v>18</v>
@@ -2363,10 +2368,10 @@
         <v>20</v>
       </c>
       <c r="U6" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="V6" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="W6" s="9" t="s">
         <v>19</v>
@@ -2378,19 +2383,19 @@
         <v>23</v>
       </c>
       <c r="Z6" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AA6" s="9" t="s">
         <v>20</v>
       </c>
       <c r="AB6" s="9" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="AC6" s="9" t="s">
         <v>19</v>
       </c>
       <c r="AD6" s="9" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="AE6" s="9" t="s">
         <v>19</v>
@@ -2402,19 +2407,19 @@
         <v>23</v>
       </c>
       <c r="AH6" s="9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="AI6" s="9" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="AJ6" s="9" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="AK6" s="9" t="s">
         <v>19</v>
       </c>
       <c r="AL6" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2453,7 +2458,7 @@
         <v>15</v>
       </c>
       <c r="L7" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M7" s="9" t="s">
         <v>11</v>
@@ -2462,7 +2467,7 @@
         <v>15</v>
       </c>
       <c r="O7" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="P7" s="9" t="s">
         <v>18</v>
@@ -2483,7 +2488,7 @@
         <v>21</v>
       </c>
       <c r="V7" s="9" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="W7" s="9" t="s">
         <v>19</v>
@@ -2495,7 +2500,7 @@
         <v>19</v>
       </c>
       <c r="Z7" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AA7" s="9" t="s">
         <v>20</v>
@@ -2507,25 +2512,25 @@
         <v>19</v>
       </c>
       <c r="AD7" s="9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="AE7" s="9" t="s">
         <v>19</v>
       </c>
       <c r="AF7" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AG7" s="10" t="s">
         <v>23</v>
       </c>
       <c r="AH7" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AI7" s="9" t="s">
         <v>18</v>
       </c>
       <c r="AJ7" s="9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="AK7" s="9" t="s">
         <v>19</v>
@@ -2570,7 +2575,7 @@
         <v>15</v>
       </c>
       <c r="L8" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="M8" s="9" t="s">
         <v>19</v>
@@ -2579,7 +2584,7 @@
         <v>15</v>
       </c>
       <c r="O8" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="P8" s="9" t="s">
         <v>18</v>
@@ -2600,7 +2605,7 @@
         <v>21</v>
       </c>
       <c r="V8" s="9" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="W8" s="9" t="s">
         <v>19</v>
@@ -2624,7 +2629,7 @@
         <v>19</v>
       </c>
       <c r="AD8" s="9" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AE8" s="9" t="s">
         <v>11</v>
@@ -2642,7 +2647,7 @@
         <v>18</v>
       </c>
       <c r="AJ8" s="9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AK8" s="9" t="s">
         <v>11</v>
@@ -2678,16 +2683,16 @@
         <v>11</v>
       </c>
       <c r="I9" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J9" s="9" t="s">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="K9" s="9" t="s">
         <v>15</v>
       </c>
       <c r="L9" s="9" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="M9" s="9" t="s">
         <v>19</v>
@@ -2696,7 +2701,7 @@
         <v>15</v>
       </c>
       <c r="O9" s="9" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="P9" s="9" t="s">
         <v>18</v>
@@ -2714,10 +2719,10 @@
         <v>21</v>
       </c>
       <c r="U9" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="V9" s="9" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="W9" s="9" t="s">
         <v>19</v>
@@ -2729,10 +2734,10 @@
         <v>11</v>
       </c>
       <c r="Z9" s="9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="AA9" s="9" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="AB9" s="9" t="s">
         <v>18</v>
@@ -2741,7 +2746,7 @@
         <v>19</v>
       </c>
       <c r="AD9" s="9" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="AE9" s="9" t="s">
         <v>19</v>
@@ -2759,7 +2764,7 @@
         <v>18</v>
       </c>
       <c r="AJ9" s="9" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="AK9" s="9" t="s">
         <v>19</v>
@@ -2776,46 +2781,114 @@
         <f aca="false">IFERROR(WEEKDAY(A10,2),"")</f>
         <v>6</v>
       </c>
-      <c r="C10" s="9"/>
+      <c r="C10" s="9" t="s">
+        <v>8</v>
+      </c>
       <c r="D10" s="9" t="s">
         <v>9</v>
       </c>
       <c r="E10" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9"/>
-      <c r="M10" s="9"/>
-      <c r="N10" s="10"/>
-      <c r="O10" s="9"/>
-      <c r="P10" s="9"/>
-      <c r="Q10" s="9"/>
-      <c r="R10" s="9"/>
-      <c r="S10" s="9"/>
-      <c r="T10" s="10"/>
-      <c r="U10" s="10"/>
-      <c r="V10" s="9"/>
-      <c r="W10" s="9"/>
-      <c r="X10" s="9"/>
-      <c r="Y10" s="10"/>
-      <c r="Z10" s="9"/>
-      <c r="AA10" s="9"/>
-      <c r="AB10" s="9"/>
-      <c r="AC10" s="9"/>
-      <c r="AD10" s="9"/>
-      <c r="AE10" s="9"/>
-      <c r="AF10" s="9"/>
-      <c r="AG10" s="10"/>
-      <c r="AH10" s="9"/>
-      <c r="AI10" s="9"/>
-      <c r="AJ10" s="9"/>
-      <c r="AK10" s="9"/>
-      <c r="AL10" s="9"/>
+      <c r="F10" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="I10" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="J10" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="K10" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="L10" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="M10" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="N10" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="O10" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="P10" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q10" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="R10" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="S10" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="T10" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="U10" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="V10" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="W10" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="X10" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y10" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z10" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA10" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB10" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC10" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="AD10" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE10" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="AF10" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="AG10" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="AH10" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="AI10" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="AJ10" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="AK10" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="AL10" s="9" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="8" t="n">
@@ -2825,46 +2898,114 @@
         <f aca="false">IFERROR(WEEKDAY(A11,2),"")</f>
         <v>7</v>
       </c>
-      <c r="C11" s="9"/>
+      <c r="C11" s="9" t="s">
+        <v>8</v>
+      </c>
       <c r="D11" s="9" t="s">
         <v>9</v>
       </c>
       <c r="E11" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="9"/>
-      <c r="M11" s="9"/>
-      <c r="N11" s="10"/>
-      <c r="O11" s="9"/>
-      <c r="P11" s="9"/>
-      <c r="Q11" s="9"/>
-      <c r="R11" s="9"/>
-      <c r="S11" s="9"/>
-      <c r="T11" s="10"/>
-      <c r="U11" s="10"/>
-      <c r="V11" s="9"/>
-      <c r="W11" s="9"/>
-      <c r="X11" s="9"/>
-      <c r="Y11" s="10"/>
-      <c r="Z11" s="9"/>
-      <c r="AA11" s="9"/>
-      <c r="AB11" s="9"/>
-      <c r="AC11" s="9"/>
-      <c r="AD11" s="9"/>
-      <c r="AE11" s="9"/>
-      <c r="AF11" s="9"/>
-      <c r="AG11" s="10"/>
-      <c r="AH11" s="9"/>
-      <c r="AI11" s="9"/>
-      <c r="AJ11" s="9"/>
-      <c r="AK11" s="9"/>
-      <c r="AL11" s="9"/>
+      <c r="F11" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="I11" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="J11" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="K11" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="L11" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="M11" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="N11" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="O11" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="P11" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q11" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="R11" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="S11" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="T11" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="U11" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="V11" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="W11" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="X11" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y11" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z11" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA11" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB11" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC11" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="AD11" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="AE11" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="AF11" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="AG11" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="AH11" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="AI11" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="AJ11" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="AK11" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="AL11" s="9" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="8" t="n">
@@ -2881,11 +3022,15 @@
       <c r="E12" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F12" s="9"/>
+      <c r="F12" s="9" t="s">
+        <v>11</v>
+      </c>
       <c r="G12" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H12" s="9"/>
+        <v>11</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>11</v>
+      </c>
       <c r="I12" s="10"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
@@ -3162,8 +3307,8 @@
       <c r="AD17" s="9"/>
       <c r="AE17" s="9"/>
       <c r="AF17" s="9"/>
-      <c r="AH17" s="13"/>
-      <c r="AI17" s="13"/>
+      <c r="AH17" s="11"/>
+      <c r="AI17" s="11"/>
       <c r="AJ17" s="9"/>
       <c r="AK17" s="9"/>
     </row>
@@ -3264,7 +3409,7 @@
       <c r="AI19" s="9"/>
       <c r="AJ19" s="9"/>
       <c r="AK19" s="9"/>
-      <c r="AL19" s="13"/>
+      <c r="AL19" s="11"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="8" t="n">
@@ -3505,9 +3650,9 @@
       <c r="W24" s="9"/>
       <c r="X24" s="9"/>
       <c r="Y24" s="10"/>
-      <c r="Z24" s="13"/>
-      <c r="AA24" s="13"/>
-      <c r="AB24" s="13"/>
+      <c r="Z24" s="11"/>
+      <c r="AA24" s="11"/>
+      <c r="AB24" s="11"/>
       <c r="AC24" s="9"/>
       <c r="AD24" s="9"/>
       <c r="AE24" s="9"/>
@@ -3522,60 +3667,60 @@
       <c r="A25" s="8" t="n">
         <v>45193</v>
       </c>
-      <c r="B25" s="14" t="n">
+      <c r="B25" s="13" t="n">
         <f aca="false">IFERROR(WEEKDAY(A25,2),"")</f>
         <v>7</v>
       </c>
-      <c r="C25" s="14"/>
+      <c r="C25" s="13"/>
       <c r="D25" s="9" t="s">
         <v>9</v>
       </c>
       <c r="E25" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F25" s="14"/>
+      <c r="F25" s="13"/>
       <c r="G25" s="9"/>
-      <c r="H25" s="14"/>
+      <c r="H25" s="13"/>
       <c r="I25" s="7"/>
-      <c r="J25" s="14"/>
-      <c r="K25" s="14"/>
-      <c r="L25" s="14"/>
-      <c r="M25" s="14"/>
+      <c r="J25" s="13"/>
+      <c r="K25" s="13"/>
+      <c r="L25" s="13"/>
+      <c r="M25" s="13"/>
       <c r="N25" s="7"/>
-      <c r="O25" s="14"/>
-      <c r="P25" s="14"/>
-      <c r="Q25" s="14"/>
-      <c r="R25" s="14"/>
-      <c r="S25" s="14"/>
+      <c r="O25" s="13"/>
+      <c r="P25" s="13"/>
+      <c r="Q25" s="13"/>
+      <c r="R25" s="13"/>
+      <c r="S25" s="13"/>
       <c r="T25" s="7"/>
       <c r="U25" s="7"/>
-      <c r="V25" s="14"/>
-      <c r="W25" s="14"/>
-      <c r="X25" s="14"/>
+      <c r="V25" s="13"/>
+      <c r="W25" s="13"/>
+      <c r="X25" s="13"/>
       <c r="Y25" s="7"/>
-      <c r="Z25" s="14"/>
-      <c r="AA25" s="14"/>
-      <c r="AB25" s="14"/>
-      <c r="AC25" s="14"/>
-      <c r="AD25" s="14"/>
-      <c r="AE25" s="14"/>
-      <c r="AF25" s="14"/>
+      <c r="Z25" s="13"/>
+      <c r="AA25" s="13"/>
+      <c r="AB25" s="13"/>
+      <c r="AC25" s="13"/>
+      <c r="AD25" s="13"/>
+      <c r="AE25" s="13"/>
+      <c r="AF25" s="13"/>
       <c r="AG25" s="7"/>
-      <c r="AH25" s="14"/>
-      <c r="AI25" s="14"/>
+      <c r="AH25" s="13"/>
+      <c r="AI25" s="13"/>
       <c r="AJ25" s="9"/>
-      <c r="AK25" s="14"/>
-      <c r="AL25" s="14"/>
+      <c r="AK25" s="13"/>
+      <c r="AL25" s="13"/>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="8" t="n">
         <v>45194</v>
       </c>
-      <c r="B26" s="14" t="n">
+      <c r="B26" s="13" t="n">
         <f aca="false">IFERROR(WEEKDAY(A26,2),"")</f>
         <v>1</v>
       </c>
-      <c r="C26" s="14"/>
+      <c r="C26" s="13"/>
       <c r="D26" s="9" t="s">
         <v>9</v>
       </c>
@@ -3583,336 +3728,336 @@
         <v>10</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G26" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="H26" s="14"/>
+      <c r="H26" s="13"/>
       <c r="I26" s="7"/>
-      <c r="J26" s="14"/>
-      <c r="K26" s="14"/>
-      <c r="L26" s="14"/>
-      <c r="M26" s="14"/>
+      <c r="J26" s="13"/>
+      <c r="K26" s="13"/>
+      <c r="L26" s="13"/>
+      <c r="M26" s="13"/>
       <c r="N26" s="7"/>
-      <c r="O26" s="14"/>
-      <c r="P26" s="14"/>
-      <c r="Q26" s="14"/>
-      <c r="R26" s="14"/>
-      <c r="S26" s="14"/>
+      <c r="O26" s="13"/>
+      <c r="P26" s="13"/>
+      <c r="Q26" s="13"/>
+      <c r="R26" s="13"/>
+      <c r="S26" s="13"/>
       <c r="T26" s="7"/>
       <c r="U26" s="7"/>
-      <c r="V26" s="14"/>
-      <c r="W26" s="14"/>
-      <c r="X26" s="14"/>
+      <c r="V26" s="13"/>
+      <c r="W26" s="13"/>
+      <c r="X26" s="13"/>
       <c r="Y26" s="7"/>
-      <c r="Z26" s="14"/>
-      <c r="AA26" s="14"/>
-      <c r="AB26" s="14"/>
-      <c r="AC26" s="14"/>
-      <c r="AD26" s="14"/>
-      <c r="AE26" s="14"/>
-      <c r="AF26" s="14"/>
+      <c r="Z26" s="13"/>
+      <c r="AA26" s="13"/>
+      <c r="AB26" s="13"/>
+      <c r="AC26" s="13"/>
+      <c r="AD26" s="13"/>
+      <c r="AE26" s="13"/>
+      <c r="AF26" s="13"/>
       <c r="AG26" s="7"/>
-      <c r="AH26" s="14"/>
-      <c r="AI26" s="14"/>
-      <c r="AJ26" s="14"/>
-      <c r="AK26" s="14"/>
-      <c r="AL26" s="14"/>
+      <c r="AH26" s="13"/>
+      <c r="AI26" s="13"/>
+      <c r="AJ26" s="13"/>
+      <c r="AK26" s="13"/>
+      <c r="AL26" s="13"/>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="8" t="n">
         <v>45195</v>
       </c>
-      <c r="B27" s="14" t="n">
+      <c r="B27" s="13" t="n">
         <f aca="false">IFERROR(WEEKDAY(A27,2),"")</f>
         <v>2</v>
       </c>
-      <c r="C27" s="14"/>
+      <c r="C27" s="13"/>
       <c r="D27" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F27" s="9" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G27" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="H27" s="14"/>
+      <c r="H27" s="13"/>
       <c r="I27" s="7"/>
-      <c r="J27" s="14"/>
-      <c r="K27" s="14"/>
-      <c r="L27" s="14"/>
-      <c r="M27" s="14"/>
+      <c r="J27" s="13"/>
+      <c r="K27" s="13"/>
+      <c r="L27" s="13"/>
+      <c r="M27" s="13"/>
       <c r="N27" s="7"/>
-      <c r="O27" s="14"/>
-      <c r="P27" s="14"/>
-      <c r="Q27" s="14"/>
-      <c r="R27" s="14"/>
-      <c r="S27" s="14"/>
+      <c r="O27" s="13"/>
+      <c r="P27" s="13"/>
+      <c r="Q27" s="13"/>
+      <c r="R27" s="13"/>
+      <c r="S27" s="13"/>
       <c r="T27" s="7"/>
       <c r="U27" s="7"/>
-      <c r="V27" s="14"/>
-      <c r="W27" s="14"/>
-      <c r="X27" s="14"/>
-      <c r="Z27" s="14"/>
-      <c r="AA27" s="14"/>
-      <c r="AB27" s="14"/>
-      <c r="AC27" s="14"/>
-      <c r="AD27" s="14"/>
-      <c r="AE27" s="14"/>
-      <c r="AF27" s="14"/>
+      <c r="V27" s="13"/>
+      <c r="W27" s="13"/>
+      <c r="X27" s="13"/>
+      <c r="Z27" s="13"/>
+      <c r="AA27" s="13"/>
+      <c r="AB27" s="13"/>
+      <c r="AC27" s="13"/>
+      <c r="AD27" s="13"/>
+      <c r="AE27" s="13"/>
+      <c r="AF27" s="13"/>
       <c r="AG27" s="7"/>
-      <c r="AH27" s="14"/>
-      <c r="AI27" s="14"/>
-      <c r="AJ27" s="14"/>
-      <c r="AK27" s="14"/>
-      <c r="AL27" s="14"/>
+      <c r="AH27" s="13"/>
+      <c r="AI27" s="13"/>
+      <c r="AJ27" s="13"/>
+      <c r="AK27" s="13"/>
+      <c r="AL27" s="13"/>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="8" t="n">
         <v>45196</v>
       </c>
-      <c r="B28" s="14" t="n">
+      <c r="B28" s="13" t="n">
         <f aca="false">IFERROR(WEEKDAY(A28,2),"")</f>
         <v>3</v>
       </c>
-      <c r="C28" s="14"/>
+      <c r="C28" s="13"/>
       <c r="D28" s="9" t="s">
         <v>9</v>
       </c>
       <c r="E28" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F28" s="14"/>
+      <c r="F28" s="13"/>
       <c r="G28" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="H28" s="14"/>
+      <c r="H28" s="13"/>
       <c r="I28" s="7"/>
-      <c r="J28" s="14"/>
-      <c r="K28" s="14"/>
-      <c r="L28" s="14"/>
-      <c r="M28" s="14"/>
+      <c r="J28" s="13"/>
+      <c r="K28" s="13"/>
+      <c r="L28" s="13"/>
+      <c r="M28" s="13"/>
       <c r="N28" s="7"/>
-      <c r="O28" s="14"/>
-      <c r="P28" s="14"/>
-      <c r="Q28" s="14"/>
-      <c r="R28" s="14"/>
-      <c r="S28" s="14"/>
+      <c r="O28" s="13"/>
+      <c r="P28" s="13"/>
+      <c r="Q28" s="13"/>
+      <c r="R28" s="13"/>
+      <c r="S28" s="13"/>
       <c r="T28" s="7"/>
       <c r="U28" s="7"/>
-      <c r="V28" s="14"/>
-      <c r="W28" s="14"/>
-      <c r="X28" s="14"/>
+      <c r="V28" s="13"/>
+      <c r="W28" s="13"/>
+      <c r="X28" s="13"/>
       <c r="Y28" s="7"/>
-      <c r="Z28" s="14"/>
-      <c r="AA28" s="14"/>
-      <c r="AB28" s="14"/>
-      <c r="AC28" s="14"/>
-      <c r="AD28" s="14"/>
-      <c r="AE28" s="14"/>
-      <c r="AF28" s="14"/>
+      <c r="Z28" s="13"/>
+      <c r="AA28" s="13"/>
+      <c r="AB28" s="13"/>
+      <c r="AC28" s="13"/>
+      <c r="AD28" s="13"/>
+      <c r="AE28" s="13"/>
+      <c r="AF28" s="13"/>
       <c r="AG28" s="7"/>
-      <c r="AH28" s="14"/>
-      <c r="AI28" s="14"/>
-      <c r="AJ28" s="14"/>
-      <c r="AK28" s="14"/>
+      <c r="AH28" s="13"/>
+      <c r="AI28" s="13"/>
+      <c r="AJ28" s="13"/>
+      <c r="AK28" s="13"/>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="8" t="n">
         <v>45197</v>
       </c>
-      <c r="B29" s="14" t="n">
+      <c r="B29" s="13" t="n">
         <f aca="false">IFERROR(WEEKDAY(A29,2),"")</f>
         <v>4</v>
       </c>
-      <c r="C29" s="14"/>
+      <c r="C29" s="13"/>
       <c r="D29" s="9" t="s">
         <v>9</v>
       </c>
       <c r="E29" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F29" s="14"/>
+      <c r="F29" s="13"/>
       <c r="G29" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="H29" s="14"/>
+      <c r="H29" s="13"/>
       <c r="I29" s="7"/>
-      <c r="J29" s="14"/>
-      <c r="K29" s="14"/>
-      <c r="L29" s="14"/>
-      <c r="M29" s="14"/>
+      <c r="J29" s="13"/>
+      <c r="K29" s="13"/>
+      <c r="L29" s="13"/>
+      <c r="M29" s="13"/>
       <c r="N29" s="7"/>
-      <c r="O29" s="14"/>
-      <c r="P29" s="14"/>
-      <c r="Q29" s="14"/>
-      <c r="R29" s="14"/>
-      <c r="S29" s="14"/>
+      <c r="O29" s="13"/>
+      <c r="P29" s="13"/>
+      <c r="Q29" s="13"/>
+      <c r="R29" s="13"/>
+      <c r="S29" s="13"/>
       <c r="T29" s="7"/>
       <c r="U29" s="7"/>
-      <c r="V29" s="14"/>
-      <c r="W29" s="14"/>
-      <c r="X29" s="14"/>
+      <c r="V29" s="13"/>
+      <c r="W29" s="13"/>
+      <c r="X29" s="13"/>
       <c r="Y29" s="7"/>
-      <c r="Z29" s="14"/>
-      <c r="AA29" s="14"/>
-      <c r="AB29" s="14"/>
-      <c r="AC29" s="14"/>
-      <c r="AD29" s="14"/>
-      <c r="AE29" s="14"/>
-      <c r="AF29" s="14"/>
+      <c r="Z29" s="13"/>
+      <c r="AA29" s="13"/>
+      <c r="AB29" s="13"/>
+      <c r="AC29" s="13"/>
+      <c r="AD29" s="13"/>
+      <c r="AE29" s="13"/>
+      <c r="AF29" s="13"/>
       <c r="AG29" s="7"/>
-      <c r="AH29" s="14"/>
-      <c r="AI29" s="14"/>
-      <c r="AJ29" s="14"/>
-      <c r="AK29" s="14"/>
-      <c r="AL29" s="14"/>
+      <c r="AH29" s="13"/>
+      <c r="AI29" s="13"/>
+      <c r="AJ29" s="13"/>
+      <c r="AK29" s="13"/>
+      <c r="AL29" s="13"/>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="8" t="n">
         <v>45198</v>
       </c>
-      <c r="B30" s="14" t="n">
+      <c r="B30" s="13" t="n">
         <f aca="false">IFERROR(WEEKDAY(A30,2),"")</f>
         <v>5</v>
       </c>
-      <c r="C30" s="14"/>
+      <c r="C30" s="13"/>
       <c r="D30" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F30" s="9" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G30" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="H30" s="14"/>
+      <c r="H30" s="13"/>
       <c r="I30" s="7"/>
-      <c r="J30" s="14"/>
-      <c r="K30" s="14"/>
-      <c r="L30" s="14"/>
-      <c r="M30" s="14"/>
+      <c r="J30" s="13"/>
+      <c r="K30" s="13"/>
+      <c r="L30" s="13"/>
+      <c r="M30" s="13"/>
       <c r="N30" s="7"/>
-      <c r="O30" s="14"/>
-      <c r="P30" s="14"/>
-      <c r="Q30" s="14"/>
-      <c r="R30" s="14"/>
-      <c r="S30" s="14"/>
+      <c r="O30" s="13"/>
+      <c r="P30" s="13"/>
+      <c r="Q30" s="13"/>
+      <c r="R30" s="13"/>
+      <c r="S30" s="13"/>
       <c r="T30" s="7"/>
       <c r="U30" s="7"/>
-      <c r="V30" s="14"/>
-      <c r="W30" s="14"/>
-      <c r="X30" s="14"/>
+      <c r="V30" s="13"/>
+      <c r="W30" s="13"/>
+      <c r="X30" s="13"/>
       <c r="Y30" s="7"/>
-      <c r="Z30" s="14"/>
-      <c r="AA30" s="14"/>
-      <c r="AB30" s="14"/>
-      <c r="AC30" s="14"/>
-      <c r="AD30" s="14"/>
-      <c r="AE30" s="14"/>
-      <c r="AF30" s="14"/>
+      <c r="Z30" s="13"/>
+      <c r="AA30" s="13"/>
+      <c r="AB30" s="13"/>
+      <c r="AC30" s="13"/>
+      <c r="AD30" s="13"/>
+      <c r="AE30" s="13"/>
+      <c r="AF30" s="13"/>
       <c r="AG30" s="7"/>
-      <c r="AH30" s="14"/>
-      <c r="AI30" s="14"/>
-      <c r="AJ30" s="14"/>
-      <c r="AK30" s="14"/>
-      <c r="AL30" s="14"/>
+      <c r="AH30" s="13"/>
+      <c r="AI30" s="13"/>
+      <c r="AJ30" s="13"/>
+      <c r="AK30" s="13"/>
+      <c r="AL30" s="13"/>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="8" t="n">
         <v>45199</v>
       </c>
-      <c r="B31" s="14" t="n">
+      <c r="B31" s="13" t="n">
         <f aca="false">IFERROR(WEEKDAY(A31,2),"")</f>
         <v>6</v>
       </c>
-      <c r="C31" s="14"/>
+      <c r="C31" s="13"/>
       <c r="D31" s="9" t="s">
         <v>9</v>
       </c>
       <c r="E31" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F31" s="14"/>
+      <c r="F31" s="13"/>
       <c r="G31" s="9"/>
-      <c r="H31" s="14"/>
+      <c r="H31" s="13"/>
       <c r="I31" s="7"/>
-      <c r="J31" s="14"/>
-      <c r="K31" s="14"/>
-      <c r="L31" s="14"/>
-      <c r="M31" s="14"/>
+      <c r="J31" s="13"/>
+      <c r="K31" s="13"/>
+      <c r="L31" s="13"/>
+      <c r="M31" s="13"/>
       <c r="N31" s="7"/>
-      <c r="O31" s="14"/>
-      <c r="P31" s="14"/>
-      <c r="Q31" s="14"/>
-      <c r="R31" s="14"/>
-      <c r="S31" s="14"/>
+      <c r="O31" s="13"/>
+      <c r="P31" s="13"/>
+      <c r="Q31" s="13"/>
+      <c r="R31" s="13"/>
+      <c r="S31" s="13"/>
       <c r="T31" s="7"/>
       <c r="U31" s="7"/>
-      <c r="V31" s="14"/>
-      <c r="W31" s="14"/>
-      <c r="X31" s="14"/>
+      <c r="V31" s="13"/>
+      <c r="W31" s="13"/>
+      <c r="X31" s="13"/>
       <c r="Y31" s="7"/>
-      <c r="Z31" s="14"/>
-      <c r="AA31" s="14"/>
-      <c r="AB31" s="14"/>
-      <c r="AC31" s="14"/>
-      <c r="AD31" s="14"/>
-      <c r="AE31" s="14"/>
-      <c r="AF31" s="14"/>
+      <c r="Z31" s="13"/>
+      <c r="AA31" s="13"/>
+      <c r="AB31" s="13"/>
+      <c r="AC31" s="13"/>
+      <c r="AD31" s="13"/>
+      <c r="AE31" s="13"/>
+      <c r="AF31" s="13"/>
       <c r="AG31" s="7"/>
-      <c r="AH31" s="14"/>
-      <c r="AI31" s="14"/>
-      <c r="AJ31" s="14"/>
-      <c r="AK31" s="14"/>
-      <c r="AL31" s="14"/>
+      <c r="AH31" s="13"/>
+      <c r="AI31" s="13"/>
+      <c r="AJ31" s="13"/>
+      <c r="AK31" s="13"/>
+      <c r="AL31" s="13"/>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="8"/>
-      <c r="B32" s="14"/>
-      <c r="C32" s="14"/>
+      <c r="B32" s="13"/>
+      <c r="C32" s="13"/>
       <c r="D32" s="9"/>
       <c r="E32" s="9"/>
-      <c r="F32" s="14"/>
+      <c r="F32" s="13"/>
       <c r="G32" s="9"/>
-      <c r="H32" s="14"/>
+      <c r="H32" s="13"/>
       <c r="I32" s="7"/>
-      <c r="J32" s="14"/>
-      <c r="K32" s="14"/>
-      <c r="L32" s="14"/>
-      <c r="M32" s="14"/>
+      <c r="J32" s="13"/>
+      <c r="K32" s="13"/>
+      <c r="L32" s="13"/>
+      <c r="M32" s="13"/>
       <c r="N32" s="7"/>
-      <c r="O32" s="14"/>
-      <c r="P32" s="14"/>
-      <c r="Q32" s="14"/>
-      <c r="R32" s="14"/>
-      <c r="S32" s="14"/>
+      <c r="O32" s="13"/>
+      <c r="P32" s="13"/>
+      <c r="Q32" s="13"/>
+      <c r="R32" s="13"/>
+      <c r="S32" s="13"/>
       <c r="T32" s="7"/>
       <c r="U32" s="7"/>
-      <c r="V32" s="14"/>
-      <c r="W32" s="14"/>
-      <c r="X32" s="14"/>
+      <c r="V32" s="13"/>
+      <c r="W32" s="13"/>
+      <c r="X32" s="13"/>
       <c r="Y32" s="7"/>
-      <c r="Z32" s="14"/>
-      <c r="AA32" s="14"/>
-      <c r="AB32" s="14"/>
-      <c r="AC32" s="14"/>
-      <c r="AD32" s="14"/>
-      <c r="AE32" s="14"/>
-      <c r="AF32" s="14"/>
+      <c r="Z32" s="13"/>
+      <c r="AA32" s="13"/>
+      <c r="AB32" s="13"/>
+      <c r="AC32" s="13"/>
+      <c r="AD32" s="13"/>
+      <c r="AE32" s="13"/>
+      <c r="AF32" s="13"/>
       <c r="AG32" s="7"/>
-      <c r="AH32" s="14"/>
-      <c r="AI32" s="14"/>
-      <c r="AJ32" s="14"/>
-      <c r="AK32" s="14"/>
+      <c r="AH32" s="13"/>
+      <c r="AI32" s="13"/>
+      <c r="AJ32" s="13"/>
+      <c r="AK32" s="13"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="AH17:AK17 O17:AF17 A2:N2 O2:AL16 O18:AL24 AJ25 O25:X32 A1:AL1 A3:A32 F2:F4 F6:F7 B32:F32 F9:F31 G3:N32 B3:E31">
@@ -4030,418 +4175,418 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="15" width="11.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="16" width="4.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="16" width="8.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="16" width="14.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="16" width="7.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="16" width="12.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="16" width="7.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="16" width="9.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="16" width="9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="16" width="27.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="16" width="13.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="16" width="14"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="13" style="16" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="14" width="11.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="15" width="4.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="15" width="8.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="15" width="14.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="15" width="7.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="15" width="12.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="15" width="7.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="15" width="9.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="15" width="9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="15" width="27.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="15" width="13.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="15" width="14"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="13" style="15" width="9.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="17" t="str">
+      <c r="A1" s="16" t="str">
         <f aca="false">vedomost!A1</f>
         <v>DATE</v>
       </c>
-      <c r="B1" s="18" t="str">
+      <c r="B1" s="17" t="str">
         <f aca="false">vedomost!B1</f>
         <v>DAY</v>
       </c>
-      <c r="C1" s="19" t="str">
+      <c r="C1" s="18" t="str">
         <f aca="false">vedomost!F1</f>
         <v>DUTY</v>
       </c>
-      <c r="D1" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="E1" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="F1" s="18" t="s">
+      <c r="D1" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="E1" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="H1" s="20" t="s">
+      <c r="F1" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="I1" s="18" t="s">
+      <c r="G1" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="J1" s="21" t="s">
+      <c r="H1" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="K1" s="22" t="s">
+      <c r="I1" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="L1" s="23" t="s">
+      <c r="J1" s="20" t="s">
         <v>78</v>
       </c>
+      <c r="K1" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="L1" s="22" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="24" t="n">
+      <c r="A2" s="23" t="n">
         <f aca="false">vedomost!A2</f>
         <v>45170</v>
       </c>
-      <c r="B2" s="25" t="n">
+      <c r="B2" s="24" t="n">
         <f aca="false">vedomost!B2</f>
         <v>5</v>
       </c>
-      <c r="C2" s="18" t="str">
+      <c r="C2" s="17" t="str">
         <f aca="false">IF(vedomost!F2=0,"",vedomost!F2)</f>
         <v>-</v>
       </c>
       <c r="D2" s="25"/>
       <c r="E2" s="25" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F2" s="25" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G2" s="25" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="I2" s="25" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="J2" s="26" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K2" s="27"/>
       <c r="L2" s="28"/>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="24" t="n">
+      <c r="A3" s="23" t="n">
         <f aca="false">vedomost!A3</f>
         <v>45171</v>
       </c>
-      <c r="B3" s="25" t="n">
+      <c r="B3" s="24" t="n">
         <f aca="false">vedomost!B3</f>
         <v>6</v>
       </c>
-      <c r="C3" s="18" t="str">
+      <c r="C3" s="17" t="str">
         <f aca="false">IF(vedomost!F3=0,"",vedomost!F3)</f>
         <v>-</v>
       </c>
       <c r="F3" s="25" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G3" s="25"/>
       <c r="H3" s="29"/>
       <c r="I3" s="25"/>
       <c r="J3" s="26" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="K3" s="27"/>
       <c r="L3" s="28"/>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="24" t="n">
+      <c r="A4" s="23" t="n">
         <f aca="false">vedomost!A4</f>
         <v>45172</v>
       </c>
-      <c r="B4" s="25" t="n">
+      <c r="B4" s="24" t="n">
         <f aca="false">vedomost!B4</f>
         <v>7</v>
       </c>
-      <c r="C4" s="18" t="str">
+      <c r="C4" s="17" t="str">
         <f aca="false">IF(vedomost!F4=0,"",vedomost!F4)</f>
         <v>Ed8(0)</v>
       </c>
       <c r="D4" s="25"/>
       <c r="E4" s="25"/>
       <c r="F4" s="25" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G4" s="25"/>
       <c r="H4" s="29"/>
       <c r="I4" s="25"/>
       <c r="J4" s="26" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K4" s="27"/>
       <c r="L4" s="28"/>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="24" t="n">
+      <c r="A5" s="23" t="n">
         <f aca="false">vedomost!A5</f>
         <v>45173</v>
       </c>
-      <c r="B5" s="25" t="n">
+      <c r="B5" s="24" t="n">
         <f aca="false">vedomost!B5</f>
         <v>1</v>
       </c>
-      <c r="C5" s="18" t="str">
+      <c r="C5" s="17" t="str">
         <f aca="false">IF(vedomost!F5=0,"",vedomost!F5)</f>
         <v>-</v>
       </c>
       <c r="D5" s="25" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E5" s="25" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F5" s="25" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G5" s="25"/>
       <c r="H5" s="29" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I5" s="25"/>
       <c r="J5" s="26" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K5" s="27"/>
       <c r="L5" s="28"/>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="24" t="n">
+      <c r="A6" s="23" t="n">
         <f aca="false">vedomost!A6</f>
         <v>45174</v>
       </c>
-      <c r="B6" s="25" t="n">
+      <c r="B6" s="24" t="n">
         <f aca="false">vedomost!B6</f>
         <v>2</v>
       </c>
-      <c r="C6" s="18" t="str">
+      <c r="C6" s="17" t="str">
         <f aca="false">IF(vedomost!F6=0,"",vedomost!F6)</f>
         <v>-</v>
       </c>
       <c r="D6" s="25"/>
       <c r="E6" s="25"/>
       <c r="F6" s="25" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G6" s="25"/>
       <c r="H6" s="29"/>
       <c r="I6" s="25"/>
       <c r="J6" s="26" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K6" s="27"/>
       <c r="L6" s="28"/>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="24" t="n">
+      <c r="A7" s="23" t="n">
         <f aca="false">vedomost!A7</f>
         <v>45175</v>
       </c>
-      <c r="B7" s="25" t="n">
+      <c r="B7" s="24" t="n">
         <f aca="false">vedomost!B7</f>
         <v>3</v>
       </c>
-      <c r="C7" s="18" t="str">
+      <c r="C7" s="17" t="str">
         <f aca="false">IF(vedomost!F7=0,"",vedomost!F7)</f>
         <v>-</v>
       </c>
       <c r="D7" s="25"/>
       <c r="E7" s="25"/>
       <c r="F7" s="25" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G7" s="25"/>
       <c r="H7" s="29"/>
       <c r="I7" s="25"/>
       <c r="J7" s="26" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K7" s="27"/>
       <c r="L7" s="28"/>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="24" t="n">
+      <c r="A8" s="23" t="n">
         <f aca="false">vedomost!A8</f>
         <v>45176</v>
       </c>
-      <c r="B8" s="25" t="n">
+      <c r="B8" s="24" t="n">
         <f aca="false">vedomost!B8</f>
         <v>4</v>
       </c>
-      <c r="C8" s="18" t="str">
+      <c r="C8" s="17" t="str">
         <f aca="false">IF(vedomost!F8=0,"",vedomost!F8)</f>
         <v>-</v>
       </c>
       <c r="E8" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="F8" s="25" t="s">
         <v>82</v>
-      </c>
-      <c r="F8" s="25" t="s">
-        <v>80</v>
       </c>
       <c r="G8" s="25"/>
       <c r="H8" s="29"/>
       <c r="I8" s="28"/>
       <c r="J8" s="30" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K8" s="27"/>
       <c r="L8" s="28"/>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="24" t="n">
+      <c r="A9" s="23" t="n">
         <f aca="false">vedomost!A9</f>
         <v>45177</v>
       </c>
-      <c r="B9" s="25" t="n">
+      <c r="B9" s="24" t="n">
         <f aca="false">vedomost!B9</f>
         <v>5</v>
       </c>
-      <c r="C9" s="18" t="str">
+      <c r="C9" s="17" t="str">
         <f aca="false">IF(vedomost!F9=0,"",vedomost!F9)</f>
         <v>-</v>
       </c>
       <c r="D9" s="25"/>
       <c r="E9" s="25"/>
       <c r="F9" s="25" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G9" s="25" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="H9" s="29"/>
       <c r="I9" s="28"/>
       <c r="J9" s="30" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="K9" s="27"/>
       <c r="L9" s="28"/>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="24" t="n">
+      <c r="A10" s="23" t="n">
         <f aca="false">vedomost!A10</f>
         <v>45178</v>
       </c>
-      <c r="B10" s="25" t="n">
+      <c r="B10" s="24" t="n">
         <f aca="false">vedomost!B10</f>
         <v>6</v>
       </c>
-      <c r="C10" s="18" t="str">
+      <c r="C10" s="17" t="str">
         <f aca="false">IF(vedomost!F10=0,"",vedomost!F10)</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="D10" s="25"/>
       <c r="E10" s="25"/>
       <c r="F10" s="25" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G10" s="25"/>
       <c r="H10" s="29"/>
       <c r="I10" s="28"/>
       <c r="J10" s="30" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K10" s="27"/>
       <c r="L10" s="28"/>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="24" t="n">
+      <c r="A11" s="23" t="n">
         <f aca="false">vedomost!A11</f>
         <v>45179</v>
       </c>
-      <c r="B11" s="25" t="n">
+      <c r="B11" s="24" t="n">
         <f aca="false">vedomost!B11</f>
         <v>7</v>
       </c>
-      <c r="C11" s="18" t="str">
+      <c r="C11" s="17" t="str">
         <f aca="false">IF(vedomost!F11=0,"",vedomost!F11)</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="D11" s="25"/>
       <c r="E11" s="25"/>
       <c r="F11" s="25" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G11" s="25"/>
       <c r="H11" s="29"/>
       <c r="I11" s="28"/>
-      <c r="J11" s="16" t="s">
-        <v>94</v>
+      <c r="J11" s="15" t="s">
+        <v>96</v>
       </c>
       <c r="K11" s="27"/>
       <c r="L11" s="28"/>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="24" t="n">
+      <c r="A12" s="23" t="n">
         <f aca="false">vedomost!A12</f>
         <v>45180</v>
       </c>
-      <c r="B12" s="25" t="n">
+      <c r="B12" s="24" t="n">
         <f aca="false">vedomost!B12</f>
         <v>1</v>
       </c>
-      <c r="C12" s="18" t="str">
+      <c r="C12" s="17" t="str">
         <f aca="false">IF(vedomost!F12=0,"",vedomost!F12)</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="D12" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="E12" s="16" t="s">
-        <v>79</v>
+        <v>72</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>81</v>
       </c>
       <c r="F12" s="25" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G12" s="25"/>
       <c r="H12" s="29"/>
       <c r="I12" s="28"/>
       <c r="J12" s="30" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="K12" s="27"/>
       <c r="L12" s="28"/>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="24" t="n">
+      <c r="A13" s="23" t="n">
         <f aca="false">vedomost!A13</f>
         <v>45181</v>
       </c>
-      <c r="B13" s="25" t="n">
+      <c r="B13" s="24" t="n">
         <f aca="false">vedomost!B13</f>
         <v>2</v>
       </c>
-      <c r="C13" s="18" t="str">
+      <c r="C13" s="17" t="str">
         <f aca="false">IF(vedomost!F13=0,"",vedomost!F13)</f>
         <v/>
       </c>
       <c r="D13" s="25"/>
       <c r="E13" s="25"/>
       <c r="F13" s="25" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G13" s="25"/>
       <c r="H13" s="29"/>
       <c r="I13" s="28"/>
       <c r="J13" s="30" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K13" s="27"/>
       <c r="L13" s="28"/>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="24" t="n">
+      <c r="A14" s="23" t="n">
         <f aca="false">vedomost!A14</f>
         <v>45182</v>
       </c>
-      <c r="B14" s="25" t="n">
+      <c r="B14" s="24" t="n">
         <f aca="false">vedomost!B14</f>
         <v>3</v>
       </c>
-      <c r="C14" s="18" t="str">
+      <c r="C14" s="17" t="str">
         <f aca="false">IF(vedomost!F14=0,"",vedomost!F14)</f>
         <v/>
       </c>
       <c r="D14" s="25"/>
       <c r="F14" s="25" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G14" s="25"/>
       <c r="H14" s="29"/>
@@ -4450,331 +4595,331 @@
       <c r="L14" s="28"/>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="24" t="n">
+      <c r="A15" s="23" t="n">
         <f aca="false">vedomost!A15</f>
         <v>45183</v>
       </c>
-      <c r="B15" s="25" t="n">
+      <c r="B15" s="24" t="n">
         <f aca="false">vedomost!B15</f>
         <v>4</v>
       </c>
-      <c r="C15" s="18" t="str">
+      <c r="C15" s="17" t="str">
         <f aca="false">IF(vedomost!F15=0,"",vedomost!F15)</f>
         <v/>
       </c>
       <c r="D15" s="25"/>
       <c r="E15" s="25" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F15" s="25" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="29"/>
       <c r="I15" s="28"/>
       <c r="J15" s="30" t="s">
-        <v>97</v>
-      </c>
-      <c r="K15" s="22"/>
-      <c r="L15" s="23"/>
+        <v>99</v>
+      </c>
+      <c r="K15" s="21"/>
+      <c r="L15" s="22"/>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="24" t="n">
+      <c r="A16" s="23" t="n">
         <f aca="false">vedomost!A16</f>
         <v>45184</v>
       </c>
-      <c r="B16" s="25" t="n">
+      <c r="B16" s="24" t="n">
         <f aca="false">vedomost!B16</f>
         <v>5</v>
       </c>
-      <c r="C16" s="18" t="str">
+      <c r="C16" s="17" t="str">
         <f aca="false">IF(vedomost!F16=0,"",vedomost!F16)</f>
         <v/>
       </c>
       <c r="D16" s="25"/>
       <c r="E16" s="25"/>
       <c r="F16" s="25" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="29"/>
       <c r="I16" s="28"/>
       <c r="J16" s="30" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K16" s="27"/>
       <c r="L16" s="28"/>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="24" t="n">
+      <c r="A17" s="23" t="n">
         <f aca="false">vedomost!A17</f>
         <v>45185</v>
       </c>
-      <c r="B17" s="25" t="n">
+      <c r="B17" s="24" t="n">
         <f aca="false">vedomost!B17</f>
         <v>6</v>
       </c>
-      <c r="C17" s="18" t="str">
+      <c r="C17" s="17" t="str">
         <f aca="false">IF(vedomost!F17=0,"",vedomost!F17)</f>
         <v/>
       </c>
       <c r="D17" s="25"/>
       <c r="E17" s="25"/>
       <c r="F17" s="25" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G17" s="25" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="H17" s="29" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I17" s="28" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K17" s="27"/>
       <c r="L17" s="28"/>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="24" t="n">
+      <c r="A18" s="23" t="n">
         <f aca="false">vedomost!A18</f>
         <v>45186</v>
       </c>
-      <c r="B18" s="25" t="n">
+      <c r="B18" s="24" t="n">
         <f aca="false">vedomost!B18</f>
         <v>7</v>
       </c>
-      <c r="C18" s="18" t="str">
+      <c r="C18" s="17" t="str">
         <f aca="false">IF(vedomost!F18=0,"",vedomost!F18)</f>
         <v/>
       </c>
       <c r="D18" s="25"/>
       <c r="F18" s="25" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G18" s="25"/>
       <c r="H18" s="29"/>
       <c r="I18" s="28"/>
-      <c r="J18" s="18" t="s">
-        <v>99</v>
+      <c r="J18" s="17" t="s">
+        <v>101</v>
       </c>
       <c r="K18" s="27"/>
       <c r="L18" s="28"/>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="24" t="n">
+      <c r="A19" s="23" t="n">
         <f aca="false">vedomost!A19</f>
         <v>45187</v>
       </c>
-      <c r="B19" s="25" t="n">
+      <c r="B19" s="24" t="n">
         <f aca="false">vedomost!B19</f>
         <v>1</v>
       </c>
-      <c r="C19" s="18" t="str">
+      <c r="C19" s="17" t="str">
         <f aca="false">IF(vedomost!F19=0,"",vedomost!F19)</f>
         <v/>
       </c>
       <c r="D19" s="25" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E19" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="F19" s="25" t="s">
         <v>82</v>
-      </c>
-      <c r="F19" s="25" t="s">
-        <v>80</v>
       </c>
       <c r="G19" s="25"/>
       <c r="H19" s="29"/>
       <c r="I19" s="28"/>
       <c r="J19" s="30" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="K19" s="27"/>
       <c r="L19" s="28"/>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="24" t="n">
+      <c r="A20" s="23" t="n">
         <f aca="false">vedomost!A20</f>
         <v>45188</v>
       </c>
-      <c r="B20" s="25" t="n">
+      <c r="B20" s="24" t="n">
         <f aca="false">vedomost!B20</f>
         <v>2</v>
       </c>
-      <c r="C20" s="18" t="str">
+      <c r="C20" s="17" t="str">
         <f aca="false">IF(vedomost!F20=0,"",vedomost!F20)</f>
         <v/>
       </c>
       <c r="D20" s="25"/>
       <c r="F20" s="25" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G20" s="25"/>
       <c r="H20" s="29"/>
       <c r="I20" s="28"/>
       <c r="J20" s="26" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="K20" s="27"/>
       <c r="L20" s="28"/>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="24" t="n">
+      <c r="A21" s="23" t="n">
         <f aca="false">vedomost!A21</f>
         <v>45189</v>
       </c>
-      <c r="B21" s="25" t="n">
+      <c r="B21" s="24" t="n">
         <f aca="false">vedomost!B21</f>
         <v>3</v>
       </c>
-      <c r="C21" s="18" t="str">
+      <c r="C21" s="17" t="str">
         <f aca="false">IF(vedomost!F21=0,"",vedomost!F21)</f>
         <v/>
       </c>
       <c r="E21" s="25"/>
       <c r="F21" s="25" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G21" s="25"/>
       <c r="H21" s="29"/>
       <c r="I21" s="25"/>
       <c r="J21" s="26" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="K21" s="27"/>
       <c r="L21" s="28"/>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="24" t="n">
+      <c r="A22" s="23" t="n">
         <f aca="false">vedomost!A22</f>
         <v>45190</v>
       </c>
-      <c r="B22" s="25" t="n">
+      <c r="B22" s="24" t="n">
         <f aca="false">vedomost!B22</f>
         <v>4</v>
       </c>
-      <c r="C22" s="18" t="str">
+      <c r="C22" s="17" t="str">
         <f aca="false">IF(vedomost!F22=0,"",vedomost!F22)</f>
         <v/>
       </c>
       <c r="D22" s="25"/>
       <c r="F22" s="25" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G22" s="25"/>
       <c r="H22" s="29"/>
       <c r="I22" s="25"/>
       <c r="J22" s="26" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K22" s="27"/>
       <c r="L22" s="28"/>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="24" t="n">
+      <c r="A23" s="23" t="n">
         <f aca="false">vedomost!A23</f>
         <v>45191</v>
       </c>
-      <c r="B23" s="25" t="n">
+      <c r="B23" s="24" t="n">
         <f aca="false">vedomost!B23</f>
         <v>5</v>
       </c>
-      <c r="C23" s="18" t="str">
+      <c r="C23" s="17" t="str">
         <f aca="false">IF(vedomost!F23=0,"",vedomost!F23)</f>
         <v/>
       </c>
       <c r="E23" s="25" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F23" s="25" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G23" s="25"/>
       <c r="H23" s="29"/>
       <c r="I23" s="25"/>
       <c r="J23" s="26" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="K23" s="27"/>
       <c r="L23" s="28"/>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="24" t="n">
+      <c r="A24" s="23" t="n">
         <f aca="false">vedomost!A24</f>
         <v>45192</v>
       </c>
-      <c r="B24" s="25" t="n">
+      <c r="B24" s="24" t="n">
         <f aca="false">vedomost!B24</f>
         <v>6</v>
       </c>
-      <c r="C24" s="18" t="str">
+      <c r="C24" s="17" t="str">
         <f aca="false">IF(vedomost!F24=0,"",vedomost!F24)</f>
         <v/>
       </c>
       <c r="D24" s="25"/>
       <c r="E24" s="25"/>
       <c r="F24" s="25" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G24" s="25" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="H24" s="29"/>
       <c r="I24" s="25"/>
       <c r="J24" s="26" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="K24" s="27"/>
       <c r="L24" s="28"/>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="24" t="n">
+      <c r="A25" s="23" t="n">
         <f aca="false">vedomost!A25</f>
         <v>45193</v>
       </c>
-      <c r="B25" s="25" t="n">
+      <c r="B25" s="24" t="n">
         <f aca="false">vedomost!B25</f>
         <v>7</v>
       </c>
-      <c r="C25" s="18" t="str">
+      <c r="C25" s="17" t="str">
         <f aca="false">IF(vedomost!F25=0,"",vedomost!F25)</f>
         <v/>
       </c>
       <c r="D25" s="25"/>
       <c r="E25" s="25"/>
       <c r="F25" s="25" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G25" s="25"/>
       <c r="H25" s="29"/>
       <c r="I25" s="25"/>
       <c r="J25" s="26" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="K25" s="27"/>
       <c r="L25" s="28"/>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="24" t="n">
+      <c r="A26" s="23" t="n">
         <f aca="false">vedomost!A26</f>
         <v>45194</v>
       </c>
-      <c r="B26" s="25" t="n">
+      <c r="B26" s="24" t="n">
         <f aca="false">vedomost!B26</f>
         <v>1</v>
       </c>
-      <c r="C26" s="18" t="str">
+      <c r="C26" s="17" t="str">
         <f aca="false">IF(vedomost!F26=0,"",vedomost!F26)</f>
         <v>Ed8(0)</v>
       </c>
       <c r="D26" s="25" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E26" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="F26" s="25" t="s">
         <v>82</v>
-      </c>
-      <c r="F26" s="25" t="s">
-        <v>80</v>
       </c>
       <c r="G26" s="25"/>
       <c r="H26" s="29"/>
@@ -4784,22 +4929,22 @@
       <c r="L26" s="28"/>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="24" t="n">
+      <c r="A27" s="23" t="n">
         <f aca="false">vedomost!A27</f>
         <v>45195</v>
       </c>
-      <c r="B27" s="25" t="n">
+      <c r="B27" s="24" t="n">
         <f aca="false">vedomost!B27</f>
         <v>2</v>
       </c>
-      <c r="C27" s="18" t="str">
+      <c r="C27" s="17" t="str">
         <f aca="false">IF(vedomost!F27=0,"",vedomost!F27)</f>
         <v>Ed24(0)</v>
       </c>
       <c r="D27" s="25"/>
       <c r="E27" s="25"/>
       <c r="F27" s="25" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G27" s="25"/>
       <c r="H27" s="29"/>
@@ -4809,22 +4954,22 @@
       <c r="L27" s="28"/>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="24" t="n">
+      <c r="A28" s="23" t="n">
         <f aca="false">vedomost!A28</f>
         <v>45196</v>
       </c>
-      <c r="B28" s="25" t="n">
+      <c r="B28" s="24" t="n">
         <f aca="false">vedomost!B28</f>
         <v>3</v>
       </c>
-      <c r="C28" s="18" t="str">
+      <c r="C28" s="17" t="str">
         <f aca="false">IF(vedomost!F28=0,"",vedomost!F28)</f>
         <v/>
       </c>
       <c r="D28" s="25"/>
       <c r="E28" s="25"/>
       <c r="F28" s="25" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G28" s="25"/>
       <c r="H28" s="29"/>
@@ -4834,24 +4979,24 @@
       <c r="L28" s="28"/>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="24" t="n">
+      <c r="A29" s="23" t="n">
         <f aca="false">vedomost!A29</f>
         <v>45197</v>
       </c>
-      <c r="B29" s="25" t="n">
+      <c r="B29" s="24" t="n">
         <f aca="false">vedomost!B29</f>
         <v>4</v>
       </c>
-      <c r="C29" s="18" t="str">
+      <c r="C29" s="17" t="str">
         <f aca="false">IF(vedomost!F29=0,"",vedomost!F29)</f>
         <v/>
       </c>
       <c r="D29" s="25"/>
-      <c r="E29" s="16" t="s">
-        <v>79</v>
+      <c r="E29" s="15" t="s">
+        <v>81</v>
       </c>
       <c r="F29" s="25" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G29" s="25"/>
       <c r="H29" s="29"/>
@@ -4861,22 +5006,22 @@
       <c r="L29" s="28"/>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="24" t="n">
+      <c r="A30" s="23" t="n">
         <f aca="false">vedomost!A30</f>
         <v>45198</v>
       </c>
-      <c r="B30" s="25" t="n">
+      <c r="B30" s="24" t="n">
         <f aca="false">vedomost!B30</f>
         <v>5</v>
       </c>
-      <c r="C30" s="18" t="str">
+      <c r="C30" s="17" t="str">
         <f aca="false">IF(vedomost!F30=0,"",vedomost!F30)</f>
         <v>Ed24(0)</v>
       </c>
       <c r="D30" s="25"/>
       <c r="E30" s="25"/>
       <c r="F30" s="25" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G30" s="25"/>
       <c r="H30" s="29"/>
@@ -4886,22 +5031,22 @@
       <c r="L30" s="28"/>
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="24" t="n">
+      <c r="A31" s="23" t="n">
         <f aca="false">vedomost!A31</f>
         <v>45199</v>
       </c>
-      <c r="B31" s="25" t="n">
+      <c r="B31" s="24" t="n">
         <f aca="false">vedomost!B31</f>
         <v>6</v>
       </c>
-      <c r="C31" s="18" t="str">
+      <c r="C31" s="17" t="str">
         <f aca="false">IF(vedomost!F31=0,"",vedomost!F31)</f>
         <v/>
       </c>
       <c r="D31" s="25"/>
       <c r="E31" s="25"/>
       <c r="F31" s="25" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G31" s="25"/>
       <c r="H31" s="29"/>
@@ -4911,9 +5056,9 @@
       <c r="L31" s="28"/>
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="24"/>
-      <c r="B32" s="25"/>
-      <c r="C32" s="18"/>
+      <c r="A32" s="23"/>
+      <c r="B32" s="24"/>
+      <c r="C32" s="17"/>
       <c r="D32" s="25"/>
       <c r="E32" s="25"/>
       <c r="F32" s="25"/>
@@ -4961,18 +5106,18 @@
   </sheetPr>
   <dimension ref="A1:AE18"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="Y2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topRight" activeCell="Y1" activeCellId="0" sqref="Y1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O22" activeCellId="0" sqref="O22"/>
+      <selection pane="bottomRight" activeCell="AA3" activeCellId="0" sqref="AA3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="35.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="35.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="32"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="0" width="42.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="31"/>
@@ -4986,7 +5131,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="16" style="0" width="21.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="29.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="19" style="0" width="23.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="18.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="18.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="21.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="45.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="21.57"/>
@@ -5001,382 +5146,382 @@
   <sheetData>
     <row r="1" s="37" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="31" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B1" s="32" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C1" s="33" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D1" s="31" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E1" s="31" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F1" s="31" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="G1" s="34" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="H1" s="31" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="I1" s="31" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="J1" s="31" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="K1" s="31" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="L1" s="31" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="M1" s="34" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="N1" s="34" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="O1" s="35" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="P1" s="35" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="Q1" s="36" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="R1" s="34" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="S1" s="35" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="T1" s="35" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="U1" s="35" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="V1" s="35" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="W1" s="35" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="X1" s="35" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Y1" s="36" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Z1" s="34" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="AA1" s="35" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="AB1" s="35" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="AC1" s="35" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="AD1" s="35" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="AE1" s="35" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="38" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B2" s="39" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C2" s="40" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D2" s="38" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E2" s="38" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F2" s="41" t="s">
+        <v>145</v>
+      </c>
+      <c r="G2" s="38" t="s">
         <v>143</v>
       </c>
-      <c r="G2" s="38" t="s">
-        <v>141</v>
-      </c>
       <c r="H2" s="38" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="I2" s="38" t="s">
+        <v>147</v>
+      </c>
+      <c r="J2" s="38" t="s">
+        <v>148</v>
+      </c>
+      <c r="K2" s="38" t="s">
+        <v>149</v>
+      </c>
+      <c r="L2" s="38" t="s">
+        <v>150</v>
+      </c>
+      <c r="M2" s="42" t="s">
+        <v>151</v>
+      </c>
+      <c r="N2" s="42" t="s">
+        <v>149</v>
+      </c>
+      <c r="O2" s="41" t="s">
+        <v>152</v>
+      </c>
+      <c r="P2" s="41" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q2" s="43" t="s">
+        <v>148</v>
+      </c>
+      <c r="R2" s="42" t="s">
+        <v>153</v>
+      </c>
+      <c r="S2" s="41" t="s">
+        <v>154</v>
+      </c>
+      <c r="T2" s="41" t="s">
+        <v>155</v>
+      </c>
+      <c r="U2" s="41" t="s">
         <v>145</v>
       </c>
-      <c r="J2" s="38" t="s">
-        <v>146</v>
-      </c>
-      <c r="K2" s="38" t="s">
-        <v>147</v>
-      </c>
-      <c r="L2" s="38" t="s">
+      <c r="V2" s="41" t="s">
         <v>148</v>
       </c>
-      <c r="M2" s="42" t="s">
-        <v>149</v>
-      </c>
-      <c r="N2" s="42" t="s">
-        <v>147</v>
-      </c>
-      <c r="O2" s="41" t="s">
-        <v>150</v>
-      </c>
-      <c r="P2" s="41" t="s">
-        <v>146</v>
-      </c>
-      <c r="Q2" s="43" t="s">
-        <v>146</v>
-      </c>
-      <c r="R2" s="42" t="s">
-        <v>151</v>
-      </c>
-      <c r="S2" s="41" t="s">
-        <v>152</v>
-      </c>
-      <c r="T2" s="41" t="s">
-        <v>153</v>
-      </c>
-      <c r="U2" s="41" t="s">
-        <v>143</v>
-      </c>
-      <c r="V2" s="41" t="s">
-        <v>146</v>
-      </c>
       <c r="W2" s="41" t="s">
+        <v>156</v>
+      </c>
+      <c r="X2" s="41" t="s">
+        <v>148</v>
+      </c>
+      <c r="Y2" s="43" t="s">
+        <v>157</v>
+      </c>
+      <c r="Z2" s="42" t="s">
+        <v>158</v>
+      </c>
+      <c r="AA2" s="41" t="s">
         <v>154</v>
       </c>
-      <c r="X2" s="41" t="s">
-        <v>146</v>
-      </c>
-      <c r="Y2" s="43" t="s">
-        <v>155</v>
-      </c>
-      <c r="Z2" s="42" t="s">
+      <c r="AB2" s="41" t="s">
+        <v>145</v>
+      </c>
+      <c r="AC2" s="44" t="s">
         <v>156</v>
       </c>
-      <c r="AA2" s="41" t="s">
-        <v>157</v>
-      </c>
-      <c r="AB2" s="41" t="s">
-        <v>143</v>
-      </c>
-      <c r="AC2" s="44" t="s">
-        <v>154</v>
-      </c>
       <c r="AD2" s="41" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="AE2" s="41" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="38" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B3" s="45" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C3" s="46" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D3" s="47" t="s">
+        <v>162</v>
+      </c>
+      <c r="E3" s="47" t="s">
+        <v>162</v>
+      </c>
+      <c r="F3" s="44" t="s">
         <v>161</v>
       </c>
-      <c r="E3" s="47" t="s">
+      <c r="G3" s="48" t="s">
+        <v>162</v>
+      </c>
+      <c r="H3" s="47" t="s">
+        <v>162</v>
+      </c>
+      <c r="I3" s="47" t="s">
+        <v>162</v>
+      </c>
+      <c r="J3" s="47" t="s">
+        <v>162</v>
+      </c>
+      <c r="K3" s="47" t="s">
         <v>161</v>
       </c>
-      <c r="F3" s="44" t="s">
-        <v>160</v>
-      </c>
-      <c r="G3" s="48" t="s">
+      <c r="L3" s="47" t="s">
+        <v>162</v>
+      </c>
+      <c r="M3" s="48" t="s">
         <v>161</v>
       </c>
-      <c r="H3" s="47" t="s">
+      <c r="N3" s="48" t="s">
         <v>161</v>
       </c>
-      <c r="I3" s="47" t="s">
+      <c r="O3" s="44" t="s">
         <v>161</v>
       </c>
-      <c r="J3" s="47" t="s">
+      <c r="P3" s="47" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q3" s="47" t="s">
+        <v>162</v>
+      </c>
+      <c r="R3" s="48" t="s">
+        <v>162</v>
+      </c>
+      <c r="S3" s="47" t="s">
         <v>161</v>
       </c>
-      <c r="K3" s="47" t="s">
-        <v>160</v>
-      </c>
-      <c r="L3" s="47" t="s">
+      <c r="T3" s="47" t="s">
         <v>161</v>
       </c>
-      <c r="M3" s="48" t="s">
-        <v>160</v>
-      </c>
-      <c r="N3" s="48" t="s">
-        <v>160</v>
-      </c>
-      <c r="O3" s="44" t="s">
-        <v>160</v>
-      </c>
-      <c r="P3" s="47" t="s">
+      <c r="U3" s="47" t="s">
         <v>161</v>
       </c>
-      <c r="Q3" s="47" t="s">
+      <c r="V3" s="47" t="s">
+        <v>162</v>
+      </c>
+      <c r="W3" s="47" t="s">
+        <v>162</v>
+      </c>
+      <c r="X3" s="47" t="s">
+        <v>162</v>
+      </c>
+      <c r="Y3" s="47" t="s">
         <v>161</v>
       </c>
-      <c r="R3" s="48" t="s">
+      <c r="Z3" s="47" t="s">
+        <v>163</v>
+      </c>
+      <c r="AA3" s="47" t="s">
         <v>161</v>
       </c>
-      <c r="S3" s="47" t="s">
-        <v>160</v>
-      </c>
-      <c r="T3" s="47" t="s">
-        <v>160</v>
-      </c>
-      <c r="U3" s="47" t="s">
-        <v>160</v>
-      </c>
-      <c r="V3" s="47" t="s">
+      <c r="AB3" s="47" t="s">
         <v>161</v>
       </c>
-      <c r="W3" s="47" t="s">
+      <c r="AC3" s="47" t="s">
+        <v>162</v>
+      </c>
+      <c r="AD3" s="47" t="s">
+        <v>162</v>
+      </c>
+      <c r="AE3" s="47" t="s">
         <v>161</v>
-      </c>
-      <c r="X3" s="47" t="s">
-        <v>161</v>
-      </c>
-      <c r="Y3" s="47" t="s">
-        <v>160</v>
-      </c>
-      <c r="Z3" s="47" t="s">
-        <v>162</v>
-      </c>
-      <c r="AA3" s="47" t="s">
-        <v>160</v>
-      </c>
-      <c r="AB3" s="47" t="s">
-        <v>160</v>
-      </c>
-      <c r="AC3" s="47" t="s">
-        <v>161</v>
-      </c>
-      <c r="AD3" s="47" t="s">
-        <v>161</v>
-      </c>
-      <c r="AE3" s="47" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="49" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B4" s="50" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C4" s="51" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D4" s="52" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E4" s="52" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F4" s="52" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G4" s="53" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="H4" s="52" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="I4" s="52" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="J4" s="52" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="K4" s="52" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L4" s="52" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="M4" s="53" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="N4" s="53" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="O4" s="54" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="P4" s="54" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q4" s="55" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="R4" s="53" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="S4" s="54" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="T4" s="54" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="U4" s="54" t="s">
+        <v>166</v>
+      </c>
+      <c r="V4" s="54" t="s">
         <v>165</v>
       </c>
-      <c r="V4" s="54" t="s">
-        <v>164</v>
-      </c>
       <c r="W4" s="54" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="X4" s="54" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Y4" s="55" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Z4" s="53" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AA4" s="54" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AB4" s="54" t="s">
+        <v>166</v>
+      </c>
+      <c r="AC4" s="54" t="s">
         <v>165</v>
       </c>
-      <c r="AC4" s="54" t="s">
-        <v>164</v>
-      </c>
       <c r="AD4" s="54" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AE4" s="54" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5384,125 +5529,125 @@
         <v>6</v>
       </c>
       <c r="B5" s="56" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C5" s="57" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D5" s="49" t="s">
+        <v>168</v>
+      </c>
+      <c r="E5" s="49" t="s">
         <v>167</v>
-      </c>
-      <c r="E5" s="49" t="s">
-        <v>166</v>
       </c>
       <c r="F5" s="58"/>
       <c r="G5" s="49" t="s">
+        <v>168</v>
+      </c>
+      <c r="H5" s="49" t="s">
         <v>167</v>
-      </c>
-      <c r="H5" s="49" t="s">
-        <v>166</v>
       </c>
       <c r="I5" s="59"/>
       <c r="J5" s="58"/>
       <c r="K5" s="49" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L5" s="49" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M5" s="60" t="s">
+        <v>168</v>
+      </c>
+      <c r="N5" s="60" t="s">
         <v>167</v>
       </c>
-      <c r="N5" s="60" t="s">
-        <v>166</v>
-      </c>
       <c r="O5" s="61" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="P5" s="61" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q5" s="62" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="R5" s="60" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="S5" s="61" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="T5" s="61" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="U5" s="61" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="V5" s="61" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="W5" s="61" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="X5" s="61" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Y5" s="62" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Z5" s="60" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AA5" s="61" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AB5" s="61" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AC5" s="61" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AD5" s="61" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AE5" s="61" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="59" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B6" s="63" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C6" s="64"/>
       <c r="D6" s="59" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E6" s="59"/>
       <c r="F6" s="59" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="G6" s="65" t="s">
+        <v>171</v>
+      </c>
+      <c r="H6" s="59" t="s">
         <v>170</v>
       </c>
-      <c r="H6" s="59" t="s">
-        <v>169</v>
-      </c>
       <c r="I6" s="59" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="J6" s="59" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K6" s="59" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L6" s="59" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M6" s="65" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="N6" s="65"/>
       <c r="O6" s="66"/>
@@ -5510,36 +5655,36 @@
       <c r="Q6" s="67"/>
       <c r="R6" s="65"/>
       <c r="S6" s="68" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="T6" s="68"/>
       <c r="U6" s="66"/>
       <c r="V6" s="68" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="W6" s="68"/>
       <c r="X6" s="68"/>
       <c r="Y6" s="69"/>
       <c r="Z6" s="70" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AA6" s="68" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AB6" s="66"/>
       <c r="AC6" s="68" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AD6" s="68" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AE6" s="68" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="58" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B7" s="71"/>
       <c r="C7" s="72"/>
@@ -5558,398 +5703,398 @@
       <c r="P7" s="74"/>
       <c r="Q7" s="75"/>
       <c r="R7" s="76" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="S7" s="77" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="T7" s="77" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="U7" s="77" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="V7" s="77" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="W7" s="77" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="X7" s="77" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Y7" s="78" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Z7" s="76" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AA7" s="77" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AB7" s="77" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AC7" s="77" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AD7" s="77" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AE7" s="77" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="58" t="s">
+        <v>176</v>
+      </c>
+      <c r="B8" s="71" t="s">
         <v>175</v>
       </c>
-      <c r="B8" s="71" t="s">
-        <v>174</v>
-      </c>
       <c r="C8" s="72" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D8" s="58" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E8" s="58" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F8" s="58" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G8" s="73" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="H8" s="58" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="I8" s="58"/>
       <c r="J8" s="58" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="K8" s="58" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="L8" s="58" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M8" s="73" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="N8" s="73" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="O8" s="74" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="P8" s="74" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q8" s="75" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="R8" s="73" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="S8" s="74" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="T8" s="74" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="U8" s="74" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="V8" s="74" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="W8" s="74"/>
       <c r="X8" s="74" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Y8" s="75" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Z8" s="73" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AA8" s="74" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AB8" s="74" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AC8" s="74"/>
       <c r="AD8" s="74" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AE8" s="74" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="79" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B9" s="80" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C9" s="81" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D9" s="82" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E9" s="82" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F9" s="82" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G9" s="83" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H9" s="82" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="I9" s="82" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="J9" s="82" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="K9" s="82" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L9" s="82" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="M9" s="83" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="N9" s="83" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="O9" s="84" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="P9" s="84" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q9" s="85" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="R9" s="83" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="S9" s="84" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="T9" s="84" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="U9" s="84" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="V9" s="84" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="W9" s="84" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="X9" s="84" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Y9" s="85" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Z9" s="83" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AA9" s="84" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AB9" s="84" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AC9" s="84" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AD9" s="84" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AE9" s="84" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="86" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B10" s="87" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C10" s="88" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D10" s="86" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E10" s="86" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F10" s="86" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="G10" s="89" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H10" s="86" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="I10" s="86" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="J10" s="86" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K10" s="86" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L10" s="86" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M10" s="89" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="N10" s="89" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="O10" s="90" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="P10" s="90" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q10" s="91" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="R10" s="89" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="S10" s="90" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="T10" s="90" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="U10" s="90"/>
       <c r="V10" s="90" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="W10" s="90" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="X10" s="90" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Y10" s="91" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Z10" s="89" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AA10" s="90" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AB10" s="90"/>
       <c r="AC10" s="90" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AD10" s="90" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AE10" s="90" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="92" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B11" s="93"/>
       <c r="C11" s="94"/>
       <c r="D11" s="92" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E11" s="92" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F11" s="92" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G11" s="95" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H11" s="92" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="I11" s="92"/>
       <c r="J11" s="92" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K11" s="92"/>
       <c r="L11" s="92" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M11" s="95"/>
       <c r="N11" s="95"/>
       <c r="O11" s="96"/>
       <c r="P11" s="97" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q11" s="98" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="R11" s="95" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="S11" s="96"/>
       <c r="T11" s="96"/>
       <c r="U11" s="96"/>
       <c r="V11" s="97" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="W11" s="97" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="X11" s="97" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Y11" s="99"/>
       <c r="Z11" s="95" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AA11" s="96"/>
       <c r="AB11" s="96"/>
       <c r="AC11" s="97" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AD11" s="97" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AE11" s="96"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="92" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B12" s="93"/>
       <c r="C12" s="94"/>
       <c r="D12" s="92" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E12" s="92" t="n">
         <v>3</v>
@@ -5958,7 +6103,7 @@
         <v>3</v>
       </c>
       <c r="G12" s="95" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H12" s="92" t="n">
         <v>3</v>
@@ -6011,28 +6156,28 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="92" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B13" s="93"/>
       <c r="C13" s="94"/>
       <c r="D13" s="92" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E13" s="92" t="n">
         <v>25</v>
       </c>
       <c r="F13" s="92" t="s">
+        <v>185</v>
+      </c>
+      <c r="G13" s="95" t="s">
         <v>184</v>
-      </c>
-      <c r="G13" s="95" t="s">
-        <v>183</v>
       </c>
       <c r="H13" s="92" t="n">
         <v>25</v>
       </c>
       <c r="I13" s="92"/>
       <c r="J13" s="92" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="K13" s="92"/>
       <c r="L13" s="92" t="n">
@@ -6042,312 +6187,315 @@
       <c r="N13" s="95"/>
       <c r="O13" s="96"/>
       <c r="P13" s="96" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q13" s="99" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="R13" s="100" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="S13" s="96"/>
       <c r="T13" s="96"/>
       <c r="U13" s="96"/>
       <c r="V13" s="96" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="W13" s="96" t="n">
         <v>25</v>
       </c>
       <c r="X13" s="96" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Y13" s="99"/>
       <c r="Z13" s="100" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AA13" s="96"/>
       <c r="AB13" s="96"/>
       <c r="AC13" s="96" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AD13" s="96" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AE13" s="96"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="101" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D14" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>190</v>
+      </c>
+      <c r="F14" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="G14" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="I14" s="0" t="s">
         <v>188</v>
       </c>
-      <c r="E14" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="F14" s="0" t="s">
+      <c r="J14" s="0" t="s">
+        <v>190</v>
+      </c>
+      <c r="L14" s="0" t="s">
         <v>188</v>
       </c>
-      <c r="G14" s="0" t="s">
+      <c r="P14" s="0" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q14" s="0" t="s">
+        <v>191</v>
+      </c>
+      <c r="T14" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="U14" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="X14" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="Z14" s="0" t="s">
         <v>188</v>
       </c>
-      <c r="I14" s="0" t="s">
-        <v>187</v>
-      </c>
-      <c r="J14" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="L14" s="0" t="s">
-        <v>187</v>
-      </c>
-      <c r="P14" s="0" t="s">
-        <v>189</v>
-      </c>
-      <c r="Q14" s="0" t="s">
-        <v>189</v>
-      </c>
-      <c r="T14" s="0" t="s">
+      <c r="AA14" s="0" t="s">
         <v>188</v>
       </c>
-      <c r="U14" s="0" t="s">
+      <c r="AC14" s="0" t="s">
+        <v>190</v>
+      </c>
+      <c r="AD14" s="0" t="s">
         <v>188</v>
       </c>
-      <c r="X14" s="0" t="s">
-        <v>190</v>
-      </c>
-      <c r="Z14" s="0" t="s">
-        <v>187</v>
-      </c>
-      <c r="AA14" s="0" t="s">
-        <v>187</v>
-      </c>
-      <c r="AC14" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="AD14" s="0" t="s">
-        <v>187</v>
-      </c>
       <c r="AE14" s="0" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D15" s="0" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Z15" s="0" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="AD15" s="0" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D16" s="102" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="G16" s="102" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="I16" s="102" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="J16" s="102" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="K16" s="102" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="L16" s="102" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="M16" s="102" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="N16" s="102" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="O16" s="102" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="P16" s="102" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q16" s="102" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Z16" s="102" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="AA16" s="102" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="AB16" s="102" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="AC16" s="0" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="AD16" s="102" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="AE16" s="0" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D17" s="102" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="G17" s="102" t="s">
-        <v>217</v>
+        <v>219</v>
+      </c>
+      <c r="K17" s="102" t="s">
+        <v>220</v>
       </c>
       <c r="M17" s="102" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="N17" s="103" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="O17" s="102" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="P17" s="103" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Q17" s="103" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="AB17" s="103" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="AE17" s="103" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="I18" s="0" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="J18" s="0" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="K18" s="0" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="L18" s="0" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="M18" s="0" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="N18" s="104" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="O18" s="104" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="P18" s="0" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="Q18" s="0" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="R18" s="0" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="S18" s="0" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="T18" s="0" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="U18" s="0" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="V18" s="0" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="W18" s="0" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="X18" s="0" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="Y18" s="0" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="Z18" s="0" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="AA18" s="0" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="AB18" s="0" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="AC18" s="0" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="AD18" s="0" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="AE18" s="104" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
     </row>
   </sheetData>
@@ -6426,31 +6574,30 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.98"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="7.97"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="8"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+        <v>232</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/months/sep23/sep23.xlsx
+++ b/months/sep23/sep23.xlsx
@@ -11,7 +11,6 @@
     <sheet name="vedomost" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="работа по дому" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="price" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="description" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -23,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="910" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1434" uniqueCount="266">
   <si>
     <t xml:space="preserve">DATE</t>
   </si>
@@ -235,9 +234,111 @@
     <t xml:space="preserve">L3,E4</t>
   </si>
   <si>
+    <t xml:space="preserve">21:25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L1,E2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23:08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ld8(0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22:08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23:16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23:35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L1,E1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21:48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21:05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aKG(0.5)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23:10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zKG(0.5), aKG(1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21:15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zKG(1), aKG(1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23:50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E5,L1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21:20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E3, L2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23:52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ed8(1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E1,L2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23:40</t>
+  </si>
+  <si>
     <t xml:space="preserve">Lh</t>
   </si>
   <si>
+    <t xml:space="preserve">Ed24(1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-4</t>
+  </si>
+  <si>
     <t xml:space="preserve">Ed24(0)</t>
   </si>
   <si>
@@ -448,7 +549,7 @@
     <t xml:space="preserve">PRICE</t>
   </si>
   <si>
-    <t xml:space="preserve">{"&lt;=.2": 30, "&gt;.2": 0, "&gt;=.4": -50 }</t>
+    <t xml:space="preserve">{"&lt;.2": 30, "&gt;=.2": 0, "&gt;=.4": -50 }</t>
   </si>
   <si>
     <t xml:space="preserve">{"+": 25 , "-": -25}</t>
@@ -460,7 +561,7 @@
     <t xml:space="preserve">{"&lt;.22": "20+1*", "&gt;=.22": "-0.5*", "&gt;.23": " -2*"}</t>
   </si>
   <si>
-    <t xml:space="preserve">{"+": 50 , "-": 0}</t>
+    <t xml:space="preserve">{"+": 30 , "-": 0}</t>
   </si>
   <si>
     <t xml:space="preserve">{"&lt;.22": "30+1*", "&gt;=.22": "-0.5*", "&gt;.23": " -2*"}</t>
@@ -542,6 +643,9 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">{"+": 50 , "-": 0}</t>
+  </si>
+  <si>
     <t xml:space="preserve">{"&lt;.23": "30+1*", "&gt;.23": "-1*", "&gt;.0": "-1.5*"}</t>
   </si>
   <si>
@@ -784,12 +888,6 @@
   </si>
   <si>
     <t xml:space="preserve">time</t>
-  </si>
-  <si>
-    <t xml:space="preserve">name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">variants</t>
   </si>
 </sst>
 </file>
@@ -1640,22 +1738,22 @@
   <dimension ref="A1:AN32"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="8" ySplit="1" topLeftCell="AG2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="1" topLeftCell="AC5" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="AG1" activeCellId="0" sqref="AG1"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AI3" activeCellId="0" sqref="AI3"/>
+      <selection pane="topRight" activeCell="AC1" activeCellId="0" sqref="AC1"/>
+      <selection pane="bottomLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+      <selection pane="bottomRight" activeCell="C28" activeCellId="0" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="29.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="4.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="6.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="7.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="8.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="9.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="15.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="16.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="6.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="3" width="5.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="4" width="6"/>
@@ -3015,7 +3113,9 @@
         <f aca="false">IFERROR(WEEKDAY(A12,2),"")</f>
         <v>1</v>
       </c>
-      <c r="C12" s="9"/>
+      <c r="C12" s="9" t="s">
+        <v>8</v>
+      </c>
       <c r="D12" s="9" t="s">
         <v>9</v>
       </c>
@@ -3031,36 +3131,96 @@
       <c r="H12" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="I12" s="10"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="9"/>
-      <c r="M12" s="9"/>
-      <c r="N12" s="10"/>
-      <c r="O12" s="9"/>
-      <c r="P12" s="9"/>
-      <c r="Q12" s="9"/>
-      <c r="R12" s="9"/>
-      <c r="S12" s="9"/>
-      <c r="T12" s="10"/>
-      <c r="U12" s="10"/>
-      <c r="V12" s="9"/>
-      <c r="W12" s="9"/>
-      <c r="X12" s="9"/>
-      <c r="Y12" s="10"/>
-      <c r="Z12" s="9"/>
-      <c r="AA12" s="9"/>
-      <c r="AB12" s="9"/>
-      <c r="AC12" s="9"/>
-      <c r="AD12" s="9"/>
-      <c r="AE12" s="9"/>
-      <c r="AF12" s="9"/>
-      <c r="AG12" s="10"/>
-      <c r="AH12" s="9"/>
-      <c r="AI12" s="9"/>
-      <c r="AJ12" s="9"/>
-      <c r="AK12" s="9"/>
-      <c r="AL12" s="9"/>
+      <c r="I12" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="J12" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K12" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="L12" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="M12" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="N12" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="O12" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="P12" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q12" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="R12" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="S12" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="T12" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="U12" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="V12" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="W12" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="X12" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y12" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z12" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA12" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB12" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC12" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="AD12" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE12" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="AF12" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="AG12" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="AH12" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="AI12" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="AJ12" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="AK12" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="AL12" s="9" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="8" t="n">
@@ -3070,48 +3230,114 @@
         <f aca="false">IFERROR(WEEKDAY(A13,2),"")</f>
         <v>2</v>
       </c>
-      <c r="C13" s="9"/>
+      <c r="C13" s="9" t="s">
+        <v>8</v>
+      </c>
       <c r="D13" s="9" t="s">
         <v>9</v>
       </c>
       <c r="E13" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F13" s="9"/>
+      <c r="F13" s="9" t="s">
+        <v>74</v>
+      </c>
       <c r="G13" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="H13" s="9"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="9"/>
-      <c r="M13" s="9"/>
-      <c r="N13" s="10"/>
-      <c r="O13" s="9"/>
-      <c r="P13" s="9"/>
-      <c r="Q13" s="9"/>
-      <c r="R13" s="9"/>
-      <c r="S13" s="9"/>
-      <c r="T13" s="10"/>
-      <c r="U13" s="10"/>
-      <c r="V13" s="9"/>
-      <c r="W13" s="9"/>
-      <c r="X13" s="9"/>
-      <c r="Y13" s="10"/>
-      <c r="Z13" s="9"/>
-      <c r="AA13" s="9"/>
-      <c r="AB13" s="9"/>
-      <c r="AC13" s="9"/>
-      <c r="AD13" s="9"/>
-      <c r="AE13" s="9"/>
-      <c r="AF13" s="9"/>
-      <c r="AG13" s="10"/>
-      <c r="AH13" s="9"/>
-      <c r="AI13" s="9"/>
-      <c r="AJ13" s="9"/>
-      <c r="AK13" s="9"/>
-      <c r="AL13" s="9"/>
+      <c r="H13" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="I13" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="J13" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K13" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="L13" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="M13" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="N13" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="O13" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="P13" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q13" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="R13" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="S13" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="T13" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="U13" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="V13" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="W13" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="X13" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y13" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z13" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA13" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB13" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC13" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="AD13" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="AE13" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="AF13" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="AG13" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="AH13" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="AI13" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="AJ13" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="AK13" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="AL13" s="9" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="8" t="n">
@@ -3121,48 +3347,114 @@
         <f aca="false">IFERROR(WEEKDAY(A14,2),"")</f>
         <v>3</v>
       </c>
-      <c r="C14" s="9"/>
+      <c r="C14" s="9" t="s">
+        <v>8</v>
+      </c>
       <c r="D14" s="9" t="s">
         <v>9</v>
       </c>
       <c r="E14" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="9"/>
+      <c r="F14" s="9" t="s">
+        <v>11</v>
+      </c>
       <c r="G14" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="H14" s="9"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9"/>
-      <c r="M14" s="9"/>
-      <c r="N14" s="10"/>
-      <c r="O14" s="9"/>
-      <c r="P14" s="9"/>
-      <c r="Q14" s="9"/>
-      <c r="R14" s="9"/>
-      <c r="S14" s="9"/>
-      <c r="T14" s="10"/>
-      <c r="U14" s="10"/>
-      <c r="V14" s="9"/>
-      <c r="W14" s="9"/>
-      <c r="X14" s="9"/>
-      <c r="Y14" s="10"/>
-      <c r="Z14" s="9"/>
-      <c r="AA14" s="9"/>
-      <c r="AB14" s="9"/>
-      <c r="AC14" s="9"/>
-      <c r="AD14" s="9"/>
-      <c r="AE14" s="9"/>
-      <c r="AF14" s="9"/>
-      <c r="AG14" s="10"/>
-      <c r="AH14" s="9"/>
-      <c r="AI14" s="9"/>
-      <c r="AJ14" s="9"/>
-      <c r="AK14" s="9"/>
-      <c r="AL14" s="9"/>
+      <c r="H14" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="I14" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="J14" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="K14" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="L14" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="M14" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="N14" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="O14" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="P14" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q14" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="R14" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="S14" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="T14" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="U14" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="V14" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="W14" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="X14" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y14" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z14" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA14" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB14" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC14" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="AD14" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AE14" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="AF14" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG14" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="AH14" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="AI14" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="AJ14" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK14" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="AL14" s="9" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="8" t="n">
@@ -3172,48 +3464,114 @@
         <f aca="false">IFERROR(WEEKDAY(A15,2),"")</f>
         <v>4</v>
       </c>
-      <c r="C15" s="9"/>
+      <c r="C15" s="9" t="s">
+        <v>8</v>
+      </c>
       <c r="D15" s="9" t="s">
         <v>9</v>
       </c>
       <c r="E15" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F15" s="12"/>
+      <c r="F15" s="12" t="s">
+        <v>11</v>
+      </c>
       <c r="G15" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="H15" s="9"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="9"/>
-      <c r="M15" s="9"/>
-      <c r="N15" s="10"/>
-      <c r="O15" s="9"/>
-      <c r="P15" s="9"/>
-      <c r="Q15" s="9"/>
-      <c r="R15" s="9"/>
-      <c r="S15" s="9"/>
-      <c r="T15" s="10"/>
-      <c r="U15" s="10"/>
-      <c r="V15" s="9"/>
-      <c r="W15" s="9"/>
-      <c r="X15" s="9"/>
-      <c r="Y15" s="10"/>
-      <c r="Z15" s="9"/>
-      <c r="AA15" s="9"/>
-      <c r="AB15" s="9"/>
-      <c r="AC15" s="9"/>
-      <c r="AD15" s="9"/>
-      <c r="AE15" s="9"/>
-      <c r="AF15" s="9"/>
-      <c r="AG15" s="10"/>
-      <c r="AH15" s="9"/>
-      <c r="AI15" s="9"/>
-      <c r="AJ15" s="9"/>
-      <c r="AK15" s="9"/>
-      <c r="AL15" s="9"/>
+      <c r="H15" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="I15" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="J15" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="K15" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="L15" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="M15" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="N15" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="O15" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="P15" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q15" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="R15" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="S15" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="T15" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="U15" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="V15" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="W15" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="X15" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y15" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z15" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA15" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB15" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC15" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="AD15" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="AE15" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="AF15" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="AG15" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="AH15" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="AI15" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="AJ15" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="AK15" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="AL15" s="9" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="8" t="n">
@@ -3223,47 +3581,114 @@
         <f aca="false">IFERROR(WEEKDAY(A16,2),"")</f>
         <v>5</v>
       </c>
-      <c r="C16" s="9"/>
+      <c r="C16" s="9" t="s">
+        <v>8</v>
+      </c>
       <c r="D16" s="9" t="s">
         <v>9</v>
       </c>
       <c r="E16" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F16" s="9"/>
+      <c r="F16" s="9" t="s">
+        <v>11</v>
+      </c>
       <c r="G16" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="H16" s="9"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="9"/>
-      <c r="M16" s="9"/>
-      <c r="N16" s="10"/>
-      <c r="O16" s="9"/>
-      <c r="P16" s="9"/>
-      <c r="Q16" s="9"/>
-      <c r="R16" s="9"/>
-      <c r="S16" s="9"/>
-      <c r="T16" s="10"/>
-      <c r="U16" s="10"/>
-      <c r="V16" s="9"/>
-      <c r="W16" s="9"/>
-      <c r="X16" s="9"/>
-      <c r="Y16" s="10"/>
-      <c r="Z16" s="9"/>
-      <c r="AA16" s="9"/>
-      <c r="AB16" s="9"/>
-      <c r="AC16" s="9"/>
-      <c r="AD16" s="9"/>
-      <c r="AE16" s="9"/>
-      <c r="AF16" s="9"/>
-      <c r="AG16" s="10"/>
-      <c r="AH16" s="9"/>
-      <c r="AI16" s="9"/>
-      <c r="AJ16" s="9"/>
-      <c r="AK16" s="9"/>
+      <c r="H16" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="I16" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="J16" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="K16" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="L16" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="M16" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="N16" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="O16" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="P16" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q16" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="R16" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="S16" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="T16" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="U16" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="V16" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="W16" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="X16" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y16" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z16" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA16" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB16" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC16" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="AD16" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="AE16" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="AF16" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG16" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="AH16" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="AI16" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="AJ16" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="AK16" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="AL16" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="8" t="n">
@@ -3273,44 +3698,114 @@
         <f aca="false">IFERROR(WEEKDAY(A17,2),"")</f>
         <v>6</v>
       </c>
-      <c r="C17" s="9"/>
+      <c r="C17" s="9" t="s">
+        <v>8</v>
+      </c>
       <c r="D17" s="9" t="s">
         <v>9</v>
       </c>
       <c r="E17" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="9"/>
-      <c r="L17" s="9"/>
-      <c r="M17" s="9"/>
-      <c r="N17" s="10"/>
-      <c r="O17" s="9"/>
-      <c r="P17" s="9"/>
-      <c r="Q17" s="9"/>
-      <c r="R17" s="9"/>
-      <c r="S17" s="9"/>
-      <c r="T17" s="10"/>
-      <c r="U17" s="10"/>
-      <c r="V17" s="9"/>
-      <c r="W17" s="9"/>
-      <c r="X17" s="9"/>
-      <c r="Y17" s="10"/>
-      <c r="Z17" s="9"/>
-      <c r="AA17" s="9"/>
-      <c r="AB17" s="9"/>
-      <c r="AC17" s="9"/>
-      <c r="AD17" s="9"/>
-      <c r="AE17" s="9"/>
-      <c r="AF17" s="9"/>
-      <c r="AH17" s="11"/>
-      <c r="AI17" s="11"/>
-      <c r="AJ17" s="9"/>
-      <c r="AK17" s="9"/>
+      <c r="F17" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H17" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="I17" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="J17" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="K17" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="L17" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="M17" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="N17" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="O17" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="P17" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q17" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="R17" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="S17" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="T17" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="U17" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="V17" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="W17" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="X17" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y17" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z17" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA17" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB17" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC17" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="AD17" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="AE17" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="AF17" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="AG17" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH17" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="AI17" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="AJ17" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="AK17" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="AL17" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="8" t="n">
@@ -3320,45 +3815,114 @@
         <f aca="false">IFERROR(WEEKDAY(A18,2),"")</f>
         <v>7</v>
       </c>
-      <c r="C18" s="9"/>
+      <c r="C18" s="9" t="s">
+        <v>8</v>
+      </c>
       <c r="D18" s="9" t="s">
         <v>9</v>
       </c>
       <c r="E18" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="9"/>
-      <c r="L18" s="9"/>
-      <c r="M18" s="9"/>
-      <c r="N18" s="10"/>
-      <c r="O18" s="9"/>
-      <c r="P18" s="9"/>
-      <c r="Q18" s="9"/>
-      <c r="R18" s="9"/>
-      <c r="S18" s="9"/>
-      <c r="T18" s="10"/>
-      <c r="U18" s="10"/>
-      <c r="V18" s="9"/>
-      <c r="W18" s="9"/>
-      <c r="X18" s="9"/>
-      <c r="Y18" s="10"/>
-      <c r="Z18" s="9"/>
-      <c r="AA18" s="9"/>
-      <c r="AB18" s="9"/>
-      <c r="AC18" s="9"/>
-      <c r="AD18" s="9"/>
-      <c r="AE18" s="9"/>
-      <c r="AF18" s="9"/>
-      <c r="AG18" s="10"/>
-      <c r="AH18" s="9"/>
-      <c r="AI18" s="9"/>
-      <c r="AJ18" s="9"/>
-      <c r="AK18" s="9"/>
+      <c r="F18" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H18" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="I18" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="J18" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="K18" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="L18" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="M18" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="N18" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="O18" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="P18" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q18" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="R18" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="S18" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="T18" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="U18" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="V18" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="W18" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="X18" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y18" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z18" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="AA18" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB18" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC18" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="AD18" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="AE18" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="AF18" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG18" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="AH18" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="AI18" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="AJ18" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="AK18" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="AL18" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="8" t="n">
@@ -3368,50 +3932,116 @@
         <f aca="false">IFERROR(WEEKDAY(A19,2),"")</f>
         <v>1</v>
       </c>
-      <c r="C19" s="9"/>
+      <c r="C19" s="9" t="s">
+        <v>8</v>
+      </c>
       <c r="D19" s="9" t="s">
         <v>9</v>
       </c>
       <c r="E19" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F19" s="9"/>
+      <c r="F19" s="9" t="s">
+        <v>11</v>
+      </c>
       <c r="G19" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H19" s="9"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="9"/>
-      <c r="K19" s="9"/>
-      <c r="L19" s="9"/>
-      <c r="M19" s="9"/>
-      <c r="N19" s="10"/>
-      <c r="O19" s="9"/>
-      <c r="P19" s="9"/>
-      <c r="Q19" s="9"/>
-      <c r="R19" s="9"/>
-      <c r="S19" s="9"/>
-      <c r="T19" s="10"/>
-      <c r="U19" s="10"/>
-      <c r="V19" s="9"/>
-      <c r="W19" s="9"/>
-      <c r="X19" s="9"/>
-      <c r="Y19" s="10"/>
-      <c r="Z19" s="9"/>
-      <c r="AA19" s="9"/>
-      <c r="AB19" s="9"/>
-      <c r="AC19" s="9"/>
-      <c r="AD19" s="9"/>
-      <c r="AE19" s="9"/>
-      <c r="AF19" s="9"/>
-      <c r="AG19" s="10"/>
-      <c r="AH19" s="9"/>
-      <c r="AI19" s="9"/>
-      <c r="AJ19" s="9"/>
-      <c r="AK19" s="9"/>
-      <c r="AL19" s="11"/>
-    </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>87</v>
+      </c>
+      <c r="H19" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="I19" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="J19" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="K19" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="L19" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="M19" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="N19" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="O19" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="P19" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q19" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="R19" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="S19" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="T19" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="U19" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="V19" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="W19" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="X19" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y19" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z19" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="AA19" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB19" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC19" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="AD19" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="AE19" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="AF19" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG19" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="AH19" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="AI19" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="AJ19" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="AK19" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="AL19" s="11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="8" t="n">
         <v>45188</v>
       </c>
@@ -3419,50 +4049,116 @@
         <f aca="false">IFERROR(WEEKDAY(A20,2),"")</f>
         <v>2</v>
       </c>
-      <c r="C20" s="9"/>
+      <c r="C20" s="9" t="s">
+        <v>8</v>
+      </c>
       <c r="D20" s="9" t="s">
         <v>9</v>
       </c>
       <c r="E20" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F20" s="9"/>
+      <c r="F20" s="9" t="s">
+        <v>11</v>
+      </c>
       <c r="G20" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H20" s="9"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="9"/>
-      <c r="L20" s="9"/>
-      <c r="M20" s="9"/>
-      <c r="N20" s="10"/>
-      <c r="O20" s="9"/>
-      <c r="P20" s="9"/>
-      <c r="Q20" s="9"/>
-      <c r="R20" s="9"/>
-      <c r="S20" s="9"/>
-      <c r="T20" s="10"/>
-      <c r="U20" s="10"/>
-      <c r="V20" s="9"/>
-      <c r="W20" s="9"/>
-      <c r="X20" s="9"/>
-      <c r="Y20" s="10"/>
-      <c r="Z20" s="9"/>
-      <c r="AA20" s="9"/>
-      <c r="AB20" s="9"/>
-      <c r="AC20" s="9"/>
-      <c r="AD20" s="9"/>
-      <c r="AE20" s="9"/>
-      <c r="AF20" s="9"/>
-      <c r="AG20" s="10"/>
-      <c r="AH20" s="9"/>
-      <c r="AI20" s="9"/>
-      <c r="AJ20" s="9"/>
-      <c r="AK20" s="9"/>
-      <c r="AL20" s="9"/>
-    </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>89</v>
+      </c>
+      <c r="H20" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="I20" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="J20" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="K20" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="L20" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="M20" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="N20" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="O20" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="P20" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q20" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="R20" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="S20" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="T20" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="U20" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="V20" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="W20" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="X20" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y20" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z20" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA20" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB20" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC20" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="AD20" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="AE20" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="AF20" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="AG20" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="AH20" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="AI20" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="AJ20" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="AK20" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="AL20" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="8" t="n">
         <v>45189</v>
       </c>
@@ -3470,50 +4166,116 @@
         <f aca="false">IFERROR(WEEKDAY(A21,2),"")</f>
         <v>3</v>
       </c>
-      <c r="C21" s="9"/>
+      <c r="C21" s="9" t="s">
+        <v>8</v>
+      </c>
       <c r="D21" s="9" t="s">
         <v>9</v>
       </c>
       <c r="E21" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F21" s="9"/>
+      <c r="F21" s="9" t="s">
+        <v>11</v>
+      </c>
       <c r="G21" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H21" s="9"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="9"/>
-      <c r="K21" s="9"/>
-      <c r="L21" s="9"/>
-      <c r="M21" s="9"/>
-      <c r="N21" s="10"/>
-      <c r="O21" s="9"/>
-      <c r="P21" s="9"/>
-      <c r="Q21" s="9"/>
-      <c r="R21" s="9"/>
-      <c r="S21" s="9"/>
-      <c r="T21" s="10"/>
-      <c r="U21" s="10"/>
-      <c r="V21" s="9"/>
-      <c r="W21" s="9"/>
-      <c r="X21" s="9"/>
-      <c r="Y21" s="10"/>
-      <c r="Z21" s="9"/>
-      <c r="AA21" s="9"/>
-      <c r="AB21" s="9"/>
-      <c r="AC21" s="9"/>
-      <c r="AD21" s="9"/>
-      <c r="AE21" s="9"/>
-      <c r="AF21" s="9"/>
-      <c r="AG21" s="10"/>
-      <c r="AH21" s="9"/>
-      <c r="AI21" s="9"/>
-      <c r="AJ21" s="9"/>
-      <c r="AK21" s="9"/>
-      <c r="AL21" s="9"/>
-    </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>89</v>
+      </c>
+      <c r="H21" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="I21" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="J21" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="K21" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="L21" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="M21" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="N21" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="O21" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="P21" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q21" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="R21" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="S21" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="T21" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="U21" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="V21" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="W21" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="X21" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y21" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z21" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA21" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB21" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC21" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="AD21" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="AE21" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="AF21" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="AG21" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="AH21" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="AI21" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="AJ21" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="AK21" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="AL21" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="8" t="n">
         <v>45190</v>
       </c>
@@ -3521,50 +4283,116 @@
         <f aca="false">IFERROR(WEEKDAY(A22,2),"")</f>
         <v>4</v>
       </c>
-      <c r="C22" s="9"/>
+      <c r="C22" s="9" t="s">
+        <v>8</v>
+      </c>
       <c r="D22" s="9" t="s">
         <v>9</v>
       </c>
       <c r="E22" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F22" s="12"/>
+      <c r="F22" s="12" t="s">
+        <v>11</v>
+      </c>
       <c r="G22" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H22" s="9"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="9"/>
-      <c r="K22" s="9"/>
-      <c r="L22" s="9"/>
-      <c r="M22" s="9"/>
-      <c r="N22" s="10"/>
-      <c r="O22" s="9"/>
-      <c r="P22" s="9"/>
-      <c r="Q22" s="9"/>
-      <c r="R22" s="9"/>
-      <c r="S22" s="9"/>
-      <c r="T22" s="10"/>
-      <c r="U22" s="10"/>
-      <c r="V22" s="9"/>
-      <c r="W22" s="9"/>
-      <c r="X22" s="9"/>
-      <c r="Y22" s="10"/>
-      <c r="Z22" s="9"/>
-      <c r="AA22" s="9"/>
-      <c r="AB22" s="9"/>
-      <c r="AC22" s="9"/>
-      <c r="AD22" s="9"/>
-      <c r="AE22" s="9"/>
-      <c r="AF22" s="9"/>
-      <c r="AG22" s="10"/>
-      <c r="AH22" s="9"/>
-      <c r="AI22" s="9"/>
-      <c r="AJ22" s="9"/>
-      <c r="AK22" s="9"/>
-      <c r="AL22" s="9"/>
-    </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>91</v>
+      </c>
+      <c r="H22" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="I22" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="J22" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="K22" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="L22" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="M22" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="N22" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="O22" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="P22" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q22" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="R22" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="S22" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="T22" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="U22" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="V22" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="W22" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="X22" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y22" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z22" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA22" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB22" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC22" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="AD22" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="AE22" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="AF22" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="AG22" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="AH22" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI22" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="AJ22" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="AK22" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="AL22" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="8" t="n">
         <v>45191</v>
       </c>
@@ -3572,50 +4400,116 @@
         <f aca="false">IFERROR(WEEKDAY(A23,2),"")</f>
         <v>5</v>
       </c>
-      <c r="C23" s="9"/>
+      <c r="C23" s="9" t="s">
+        <v>8</v>
+      </c>
       <c r="D23" s="9" t="s">
         <v>9</v>
       </c>
       <c r="E23" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F23" s="9"/>
+      <c r="F23" s="9" t="s">
+        <v>11</v>
+      </c>
       <c r="G23" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="H23" s="9"/>
-      <c r="I23" s="10"/>
-      <c r="J23" s="9"/>
-      <c r="K23" s="9"/>
-      <c r="L23" s="9"/>
-      <c r="M23" s="9"/>
-      <c r="N23" s="10"/>
-      <c r="O23" s="9"/>
-      <c r="P23" s="9"/>
-      <c r="Q23" s="9"/>
-      <c r="R23" s="9"/>
-      <c r="S23" s="9"/>
-      <c r="T23" s="10"/>
-      <c r="U23" s="10"/>
-      <c r="V23" s="9"/>
-      <c r="W23" s="9"/>
-      <c r="X23" s="9"/>
-      <c r="Y23" s="10"/>
-      <c r="Z23" s="9"/>
-      <c r="AA23" s="9"/>
-      <c r="AB23" s="9"/>
-      <c r="AC23" s="9"/>
-      <c r="AD23" s="9"/>
-      <c r="AE23" s="9"/>
-      <c r="AF23" s="9"/>
-      <c r="AG23" s="10"/>
-      <c r="AH23" s="9"/>
-      <c r="AI23" s="9"/>
-      <c r="AJ23" s="9"/>
-      <c r="AK23" s="9"/>
-      <c r="AL23" s="9"/>
-    </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H23" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="I23" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="J23" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="K23" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="L23" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="M23" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="N23" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="O23" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="P23" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q23" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="R23" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="S23" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="T23" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="U23" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="V23" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="W23" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="X23" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y23" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z23" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA23" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB23" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC23" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="AD23" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="AE23" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="AF23" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="AG23" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="AH23" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="AI23" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="AJ23" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="AK23" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="AL23" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="8" t="n">
         <v>45192</v>
       </c>
@@ -3623,47 +4517,116 @@
         <f aca="false">IFERROR(WEEKDAY(A24,2),"")</f>
         <v>6</v>
       </c>
-      <c r="C24" s="9"/>
+      <c r="C24" s="9" t="s">
+        <v>8</v>
+      </c>
       <c r="D24" s="9" t="s">
         <v>9</v>
       </c>
       <c r="E24" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="10"/>
-      <c r="J24" s="9"/>
-      <c r="K24" s="9"/>
-      <c r="L24" s="9"/>
-      <c r="M24" s="9"/>
-      <c r="N24" s="10"/>
-      <c r="O24" s="9"/>
-      <c r="P24" s="9"/>
-      <c r="Q24" s="9"/>
-      <c r="R24" s="9"/>
-      <c r="S24" s="9"/>
-      <c r="T24" s="10"/>
-      <c r="U24" s="10"/>
-      <c r="V24" s="9"/>
-      <c r="W24" s="9"/>
-      <c r="X24" s="9"/>
-      <c r="Y24" s="10"/>
-      <c r="Z24" s="11"/>
-      <c r="AA24" s="11"/>
-      <c r="AB24" s="11"/>
-      <c r="AC24" s="9"/>
-      <c r="AD24" s="9"/>
-      <c r="AE24" s="9"/>
-      <c r="AF24" s="9"/>
-      <c r="AG24" s="10"/>
-      <c r="AH24" s="9"/>
-      <c r="AI24" s="9"/>
-      <c r="AJ24" s="9"/>
-      <c r="AK24" s="9"/>
-    </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F24" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G24" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H24" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="I24" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="J24" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="K24" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="L24" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="M24" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="N24" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="O24" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="P24" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q24" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="R24" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="S24" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="T24" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="U24" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="V24" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="W24" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="X24" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y24" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z24" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA24" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB24" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC24" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="AD24" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE24" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="AF24" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="AG24" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="AH24" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="AI24" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="AJ24" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="AK24" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="AL24" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="8" t="n">
         <v>45193</v>
       </c>
@@ -3671,48 +4634,116 @@
         <f aca="false">IFERROR(WEEKDAY(A25,2),"")</f>
         <v>7</v>
       </c>
-      <c r="C25" s="13"/>
+      <c r="C25" s="13" t="s">
+        <v>8</v>
+      </c>
       <c r="D25" s="9" t="s">
         <v>9</v>
       </c>
       <c r="E25" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F25" s="13"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="13"/>
-      <c r="I25" s="7"/>
-      <c r="J25" s="13"/>
-      <c r="K25" s="13"/>
-      <c r="L25" s="13"/>
-      <c r="M25" s="13"/>
-      <c r="N25" s="7"/>
-      <c r="O25" s="13"/>
-      <c r="P25" s="13"/>
-      <c r="Q25" s="13"/>
-      <c r="R25" s="13"/>
-      <c r="S25" s="13"/>
-      <c r="T25" s="7"/>
-      <c r="U25" s="7"/>
-      <c r="V25" s="13"/>
-      <c r="W25" s="13"/>
-      <c r="X25" s="13"/>
-      <c r="Y25" s="7"/>
-      <c r="Z25" s="13"/>
-      <c r="AA25" s="13"/>
-      <c r="AB25" s="13"/>
-      <c r="AC25" s="13"/>
-      <c r="AD25" s="13"/>
-      <c r="AE25" s="13"/>
-      <c r="AF25" s="13"/>
-      <c r="AG25" s="7"/>
-      <c r="AH25" s="13"/>
-      <c r="AI25" s="13"/>
-      <c r="AJ25" s="9"/>
-      <c r="AK25" s="13"/>
-      <c r="AL25" s="13"/>
-    </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F25" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G25" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H25" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="I25" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="J25" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="K25" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="L25" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="M25" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="N25" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="O25" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="P25" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q25" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="R25" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="S25" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="T25" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="U25" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="V25" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="W25" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="X25" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y25" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z25" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA25" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB25" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC25" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="AD25" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="AE25" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="AF25" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="AG25" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="AH25" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="AI25" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="AJ25" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="AK25" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="AL25" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="8" t="n">
         <v>45194</v>
       </c>
@@ -3720,7 +4751,9 @@
         <f aca="false">IFERROR(WEEKDAY(A26,2),"")</f>
         <v>1</v>
       </c>
-      <c r="C26" s="13"/>
+      <c r="C26" s="13" t="s">
+        <v>8</v>
+      </c>
       <c r="D26" s="9" t="s">
         <v>9</v>
       </c>
@@ -3728,44 +4761,106 @@
         <v>10</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>37</v>
+        <v>97</v>
       </c>
       <c r="G26" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="H26" s="13"/>
-      <c r="I26" s="7"/>
-      <c r="J26" s="13"/>
-      <c r="K26" s="13"/>
-      <c r="L26" s="13"/>
-      <c r="M26" s="13"/>
-      <c r="N26" s="7"/>
-      <c r="O26" s="13"/>
-      <c r="P26" s="13"/>
-      <c r="Q26" s="13"/>
-      <c r="R26" s="13"/>
-      <c r="S26" s="13"/>
-      <c r="T26" s="7"/>
-      <c r="U26" s="7"/>
-      <c r="V26" s="13"/>
-      <c r="W26" s="13"/>
-      <c r="X26" s="13"/>
-      <c r="Y26" s="7"/>
-      <c r="Z26" s="13"/>
-      <c r="AA26" s="13"/>
-      <c r="AB26" s="13"/>
-      <c r="AC26" s="13"/>
-      <c r="AD26" s="13"/>
-      <c r="AE26" s="13"/>
-      <c r="AF26" s="13"/>
-      <c r="AG26" s="7"/>
-      <c r="AH26" s="13"/>
-      <c r="AI26" s="13"/>
-      <c r="AJ26" s="13"/>
-      <c r="AK26" s="13"/>
-      <c r="AL26" s="13"/>
-    </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H26" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="I26" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="J26" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="K26" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="L26" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="M26" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="N26" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="O26" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="P26" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q26" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="R26" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="S26" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="T26" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="U26" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="V26" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="W26" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="X26" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y26" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z26" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA26" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="AB26" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC26" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="AD26" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="AE26" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="AF26" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="AG26" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="AH26" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="AI26" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="AJ26" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="AK26" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="AL26" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="8" t="n">
         <v>45195</v>
       </c>
@@ -3773,49 +4868,114 @@
         <f aca="false">IFERROR(WEEKDAY(A27,2),"")</f>
         <v>2</v>
       </c>
-      <c r="C27" s="13"/>
+      <c r="C27" s="13" t="s">
+        <v>8</v>
+      </c>
       <c r="D27" s="9" t="s">
         <v>36</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>70</v>
+        <v>101</v>
       </c>
       <c r="F27" s="9" t="s">
-        <v>71</v>
+        <v>102</v>
       </c>
       <c r="G27" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="H27" s="13"/>
-      <c r="I27" s="7"/>
-      <c r="J27" s="13"/>
-      <c r="K27" s="13"/>
-      <c r="L27" s="13"/>
-      <c r="M27" s="13"/>
-      <c r="N27" s="7"/>
-      <c r="O27" s="13"/>
-      <c r="P27" s="13"/>
-      <c r="Q27" s="13"/>
-      <c r="R27" s="13"/>
-      <c r="S27" s="13"/>
-      <c r="T27" s="7"/>
-      <c r="U27" s="7"/>
-      <c r="V27" s="13"/>
-      <c r="W27" s="13"/>
-      <c r="X27" s="13"/>
-      <c r="Z27" s="13"/>
-      <c r="AA27" s="13"/>
-      <c r="AB27" s="13"/>
-      <c r="AC27" s="13"/>
-      <c r="AD27" s="13"/>
-      <c r="AE27" s="13"/>
-      <c r="AF27" s="13"/>
-      <c r="AG27" s="7"/>
-      <c r="AH27" s="13"/>
-      <c r="AI27" s="13"/>
-      <c r="AJ27" s="13"/>
-      <c r="AK27" s="13"/>
-      <c r="AL27" s="13"/>
+      <c r="H27" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="I27" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="J27" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="K27" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="L27" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="M27" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="N27" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="O27" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="P27" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q27" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="R27" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="S27" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="T27" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="U27" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="V27" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="W27" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="X27" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y27" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z27" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA27" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB27" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC27" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="AD27" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="AE27" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="AF27" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="AG27" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="AH27" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="AI27" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="AJ27" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="AK27" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="AL27" s="9" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="8" t="n">
@@ -3832,40 +4992,50 @@
       <c r="E28" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F28" s="13"/>
+      <c r="F28" s="13" t="s">
+        <v>11</v>
+      </c>
       <c r="G28" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="H28" s="13"/>
-      <c r="I28" s="7"/>
-      <c r="J28" s="13"/>
-      <c r="K28" s="13"/>
-      <c r="L28" s="13"/>
-      <c r="M28" s="13"/>
-      <c r="N28" s="7"/>
-      <c r="O28" s="13"/>
-      <c r="P28" s="13"/>
-      <c r="Q28" s="13"/>
-      <c r="R28" s="13"/>
-      <c r="S28" s="13"/>
-      <c r="T28" s="7"/>
-      <c r="U28" s="7"/>
-      <c r="V28" s="13"/>
-      <c r="W28" s="13"/>
-      <c r="X28" s="13"/>
-      <c r="Y28" s="7"/>
-      <c r="Z28" s="13"/>
-      <c r="AA28" s="13"/>
-      <c r="AB28" s="13"/>
-      <c r="AC28" s="13"/>
-      <c r="AD28" s="13"/>
-      <c r="AE28" s="13"/>
-      <c r="AF28" s="13"/>
-      <c r="AG28" s="7"/>
-      <c r="AH28" s="13"/>
-      <c r="AI28" s="13"/>
+      <c r="H28" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="I28" s="10"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c r="L28" s="9"/>
+      <c r="M28" s="9"/>
+      <c r="N28" s="10"/>
+      <c r="O28" s="9"/>
+      <c r="P28" s="9"/>
+      <c r="Q28" s="9"/>
+      <c r="R28" s="9"/>
+      <c r="S28" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="T28" s="10"/>
+      <c r="U28" s="10"/>
+      <c r="V28" s="9"/>
+      <c r="W28" s="9"/>
+      <c r="X28" s="9"/>
+      <c r="Y28" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z28" s="9"/>
+      <c r="AA28" s="9"/>
+      <c r="AB28" s="9"/>
+      <c r="AC28" s="9"/>
+      <c r="AD28" s="9"/>
+      <c r="AE28" s="9"/>
+      <c r="AF28" s="9"/>
+      <c r="AG28" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="AH28" s="9"/>
+      <c r="AI28" s="9"/>
       <c r="AJ28" s="13"/>
-      <c r="AK28" s="13"/>
+      <c r="AK28" s="9"/>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="8" t="n">
@@ -3887,36 +5057,36 @@
         <v>12</v>
       </c>
       <c r="H29" s="13"/>
-      <c r="I29" s="7"/>
-      <c r="J29" s="13"/>
-      <c r="K29" s="13"/>
-      <c r="L29" s="13"/>
-      <c r="M29" s="13"/>
-      <c r="N29" s="7"/>
-      <c r="O29" s="13"/>
-      <c r="P29" s="13"/>
-      <c r="Q29" s="13"/>
-      <c r="R29" s="13"/>
-      <c r="S29" s="13"/>
-      <c r="T29" s="7"/>
-      <c r="U29" s="7"/>
-      <c r="V29" s="13"/>
-      <c r="W29" s="13"/>
-      <c r="X29" s="13"/>
-      <c r="Y29" s="7"/>
-      <c r="Z29" s="13"/>
-      <c r="AA29" s="13"/>
-      <c r="AB29" s="13"/>
-      <c r="AC29" s="13"/>
-      <c r="AD29" s="13"/>
-      <c r="AE29" s="13"/>
-      <c r="AF29" s="13"/>
-      <c r="AG29" s="7"/>
-      <c r="AH29" s="13"/>
-      <c r="AI29" s="13"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+      <c r="L29" s="9"/>
+      <c r="M29" s="9"/>
+      <c r="N29" s="10"/>
+      <c r="O29" s="9"/>
+      <c r="P29" s="9"/>
+      <c r="Q29" s="9"/>
+      <c r="R29" s="9"/>
+      <c r="S29" s="9"/>
+      <c r="T29" s="10"/>
+      <c r="U29" s="10"/>
+      <c r="V29" s="9"/>
+      <c r="W29" s="9"/>
+      <c r="X29" s="9"/>
+      <c r="Y29" s="10"/>
+      <c r="Z29" s="9"/>
+      <c r="AA29" s="9"/>
+      <c r="AB29" s="9"/>
+      <c r="AC29" s="9"/>
+      <c r="AD29" s="9"/>
+      <c r="AE29" s="9"/>
+      <c r="AF29" s="9"/>
+      <c r="AG29" s="10"/>
+      <c r="AH29" s="9"/>
+      <c r="AI29" s="9"/>
       <c r="AJ29" s="13"/>
-      <c r="AK29" s="13"/>
-      <c r="AL29" s="13"/>
+      <c r="AK29" s="9"/>
+      <c r="AL29" s="9"/>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="8" t="n">
@@ -3931,45 +5101,45 @@
         <v>36</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>70</v>
+        <v>101</v>
       </c>
       <c r="F30" s="9" t="s">
-        <v>71</v>
+        <v>105</v>
       </c>
       <c r="G30" s="9" t="s">
         <v>12</v>
       </c>
       <c r="H30" s="13"/>
-      <c r="I30" s="7"/>
-      <c r="J30" s="13"/>
-      <c r="K30" s="13"/>
-      <c r="L30" s="13"/>
-      <c r="M30" s="13"/>
-      <c r="N30" s="7"/>
-      <c r="O30" s="13"/>
-      <c r="P30" s="13"/>
-      <c r="Q30" s="13"/>
-      <c r="R30" s="13"/>
-      <c r="S30" s="13"/>
-      <c r="T30" s="7"/>
-      <c r="U30" s="7"/>
-      <c r="V30" s="13"/>
-      <c r="W30" s="13"/>
-      <c r="X30" s="13"/>
-      <c r="Y30" s="7"/>
-      <c r="Z30" s="13"/>
-      <c r="AA30" s="13"/>
-      <c r="AB30" s="13"/>
-      <c r="AC30" s="13"/>
-      <c r="AD30" s="13"/>
-      <c r="AE30" s="13"/>
-      <c r="AF30" s="13"/>
-      <c r="AG30" s="7"/>
-      <c r="AH30" s="13"/>
-      <c r="AI30" s="13"/>
+      <c r="I30" s="10"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+      <c r="L30" s="9"/>
+      <c r="M30" s="9"/>
+      <c r="N30" s="10"/>
+      <c r="O30" s="9"/>
+      <c r="P30" s="9"/>
+      <c r="Q30" s="9"/>
+      <c r="R30" s="9"/>
+      <c r="S30" s="9"/>
+      <c r="T30" s="10"/>
+      <c r="U30" s="10"/>
+      <c r="V30" s="9"/>
+      <c r="W30" s="9"/>
+      <c r="X30" s="9"/>
+      <c r="Y30" s="10"/>
+      <c r="Z30" s="9"/>
+      <c r="AA30" s="9"/>
+      <c r="AB30" s="9"/>
+      <c r="AC30" s="9"/>
+      <c r="AD30" s="9"/>
+      <c r="AE30" s="9"/>
+      <c r="AF30" s="9"/>
+      <c r="AG30" s="10"/>
+      <c r="AH30" s="9"/>
+      <c r="AI30" s="9"/>
       <c r="AJ30" s="13"/>
-      <c r="AK30" s="13"/>
-      <c r="AL30" s="13"/>
+      <c r="AK30" s="9"/>
+      <c r="AL30" s="9"/>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="8" t="n">
@@ -3989,36 +5159,36 @@
       <c r="F31" s="13"/>
       <c r="G31" s="9"/>
       <c r="H31" s="13"/>
-      <c r="I31" s="7"/>
-      <c r="J31" s="13"/>
-      <c r="K31" s="13"/>
-      <c r="L31" s="13"/>
-      <c r="M31" s="13"/>
-      <c r="N31" s="7"/>
-      <c r="O31" s="13"/>
-      <c r="P31" s="13"/>
-      <c r="Q31" s="13"/>
-      <c r="R31" s="13"/>
-      <c r="S31" s="13"/>
-      <c r="T31" s="7"/>
-      <c r="U31" s="7"/>
-      <c r="V31" s="13"/>
-      <c r="W31" s="13"/>
-      <c r="X31" s="13"/>
-      <c r="Y31" s="7"/>
-      <c r="Z31" s="13"/>
-      <c r="AA31" s="13"/>
-      <c r="AB31" s="13"/>
-      <c r="AC31" s="13"/>
-      <c r="AD31" s="13"/>
-      <c r="AE31" s="13"/>
-      <c r="AF31" s="13"/>
-      <c r="AG31" s="7"/>
-      <c r="AH31" s="13"/>
-      <c r="AI31" s="13"/>
+      <c r="I31" s="10"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+      <c r="L31" s="9"/>
+      <c r="M31" s="9"/>
+      <c r="N31" s="10"/>
+      <c r="O31" s="9"/>
+      <c r="P31" s="9"/>
+      <c r="Q31" s="9"/>
+      <c r="R31" s="9"/>
+      <c r="S31" s="9"/>
+      <c r="T31" s="10"/>
+      <c r="U31" s="10"/>
+      <c r="V31" s="9"/>
+      <c r="W31" s="9"/>
+      <c r="X31" s="9"/>
+      <c r="Y31" s="10"/>
+      <c r="Z31" s="9"/>
+      <c r="AA31" s="9"/>
+      <c r="AB31" s="9"/>
+      <c r="AC31" s="9"/>
+      <c r="AD31" s="9"/>
+      <c r="AE31" s="9"/>
+      <c r="AF31" s="9"/>
+      <c r="AG31" s="10"/>
+      <c r="AH31" s="9"/>
+      <c r="AI31" s="9"/>
       <c r="AJ31" s="13"/>
-      <c r="AK31" s="13"/>
-      <c r="AL31" s="13"/>
+      <c r="AK31" s="9"/>
+      <c r="AL31" s="9"/>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="8"/>
@@ -4029,38 +5199,38 @@
       <c r="F32" s="13"/>
       <c r="G32" s="9"/>
       <c r="H32" s="13"/>
-      <c r="I32" s="7"/>
-      <c r="J32" s="13"/>
-      <c r="K32" s="13"/>
-      <c r="L32" s="13"/>
-      <c r="M32" s="13"/>
-      <c r="N32" s="7"/>
-      <c r="O32" s="13"/>
-      <c r="P32" s="13"/>
-      <c r="Q32" s="13"/>
-      <c r="R32" s="13"/>
-      <c r="S32" s="13"/>
-      <c r="T32" s="7"/>
-      <c r="U32" s="7"/>
-      <c r="V32" s="13"/>
-      <c r="W32" s="13"/>
-      <c r="X32" s="13"/>
-      <c r="Y32" s="7"/>
-      <c r="Z32" s="13"/>
-      <c r="AA32" s="13"/>
-      <c r="AB32" s="13"/>
-      <c r="AC32" s="13"/>
-      <c r="AD32" s="13"/>
-      <c r="AE32" s="13"/>
-      <c r="AF32" s="13"/>
-      <c r="AG32" s="7"/>
-      <c r="AH32" s="13"/>
-      <c r="AI32" s="13"/>
+      <c r="I32" s="10"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+      <c r="L32" s="9"/>
+      <c r="M32" s="9"/>
+      <c r="N32" s="10"/>
+      <c r="O32" s="9"/>
+      <c r="P32" s="9"/>
+      <c r="Q32" s="9"/>
+      <c r="R32" s="9"/>
+      <c r="S32" s="9"/>
+      <c r="T32" s="10"/>
+      <c r="U32" s="10"/>
+      <c r="V32" s="9"/>
+      <c r="W32" s="9"/>
+      <c r="X32" s="9"/>
+      <c r="Y32" s="10"/>
+      <c r="Z32" s="9"/>
+      <c r="AA32" s="9"/>
+      <c r="AB32" s="9"/>
+      <c r="AC32" s="9"/>
+      <c r="AD32" s="9"/>
+      <c r="AE32" s="9"/>
+      <c r="AF32" s="9"/>
+      <c r="AG32" s="10"/>
+      <c r="AH32" s="9"/>
+      <c r="AI32" s="9"/>
       <c r="AJ32" s="13"/>
-      <c r="AK32" s="13"/>
+      <c r="AK32" s="9"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="AH17:AK17 O17:AF17 A2:N2 O2:AL16 O18:AL24 AJ25 O25:X32 A1:AL1 A3:A32 F2:F4 F6:F7 B32:F32 F9:F31 G3:N32 B3:E31">
+  <conditionalFormatting sqref="AH17:AK17 O17:AF17 A2:N2 AJ25 O25:X32 A1:AL1 A3:A32 F2:F4 F6:F7 B32:F32 B3:E31 F9:F31 G3:N32 O18:AL24 O2:AL16">
     <cfRule type="beginsWith" priority="2" operator="beginsWith" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="!" dxfId="0">
       <formula>LEFT(A1,LEN("!"))="!"</formula>
     </cfRule>
@@ -4131,7 +5301,7 @@
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="Время сна Леры" promptTitle="синтаксис: число:число" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="AJ2:AJ16 AJ18:AJ25 AJ28:AJ32" type="none">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="Время сна Леры" promptTitle="синтаксис: число:число" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="AJ2:AJ12 AJ14:AJ16 AJ18:AJ22 AJ24:AJ25 AJ28:AJ32" type="none">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -4204,31 +5374,31 @@
         <v>DUTY</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>72</v>
+        <v>106</v>
       </c>
       <c r="E1" s="17" t="s">
-        <v>73</v>
+        <v>107</v>
       </c>
       <c r="F1" s="17" t="s">
-        <v>74</v>
+        <v>108</v>
       </c>
       <c r="G1" s="17" t="s">
-        <v>75</v>
+        <v>109</v>
       </c>
       <c r="H1" s="19" t="s">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="I1" s="17" t="s">
-        <v>77</v>
+        <v>111</v>
       </c>
       <c r="J1" s="20" t="s">
-        <v>78</v>
+        <v>112</v>
       </c>
       <c r="K1" s="21" t="s">
-        <v>79</v>
+        <v>113</v>
       </c>
       <c r="L1" s="22" t="s">
-        <v>80</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4246,19 +5416,19 @@
       </c>
       <c r="D2" s="25"/>
       <c r="E2" s="25" t="s">
-        <v>81</v>
+        <v>115</v>
       </c>
       <c r="F2" s="25" t="s">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="G2" s="25" t="s">
-        <v>83</v>
+        <v>117</v>
       </c>
       <c r="I2" s="25" t="s">
-        <v>84</v>
+        <v>118</v>
       </c>
       <c r="J2" s="26" t="s">
-        <v>85</v>
+        <v>119</v>
       </c>
       <c r="K2" s="27"/>
       <c r="L2" s="28"/>
@@ -4277,13 +5447,13 @@
         <v>-</v>
       </c>
       <c r="F3" s="25" t="s">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="G3" s="25"/>
       <c r="H3" s="29"/>
       <c r="I3" s="25"/>
       <c r="J3" s="26" t="s">
-        <v>86</v>
+        <v>120</v>
       </c>
       <c r="K3" s="27"/>
       <c r="L3" s="28"/>
@@ -4304,13 +5474,13 @@
       <c r="D4" s="25"/>
       <c r="E4" s="25"/>
       <c r="F4" s="25" t="s">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="G4" s="25"/>
       <c r="H4" s="29"/>
       <c r="I4" s="25"/>
       <c r="J4" s="26" t="s">
-        <v>87</v>
+        <v>121</v>
       </c>
       <c r="K4" s="27"/>
       <c r="L4" s="28"/>
@@ -4329,21 +5499,21 @@
         <v>-</v>
       </c>
       <c r="D5" s="25" t="s">
-        <v>72</v>
+        <v>106</v>
       </c>
       <c r="E5" s="25" t="s">
-        <v>81</v>
+        <v>115</v>
       </c>
       <c r="F5" s="25" t="s">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="G5" s="25"/>
       <c r="H5" s="29" t="s">
-        <v>88</v>
+        <v>122</v>
       </c>
       <c r="I5" s="25"/>
       <c r="J5" s="26" t="s">
-        <v>89</v>
+        <v>123</v>
       </c>
       <c r="K5" s="27"/>
       <c r="L5" s="28"/>
@@ -4364,13 +5534,13 @@
       <c r="D6" s="25"/>
       <c r="E6" s="25"/>
       <c r="F6" s="25" t="s">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="G6" s="25"/>
       <c r="H6" s="29"/>
       <c r="I6" s="25"/>
       <c r="J6" s="26" t="s">
-        <v>90</v>
+        <v>124</v>
       </c>
       <c r="K6" s="27"/>
       <c r="L6" s="28"/>
@@ -4391,13 +5561,13 @@
       <c r="D7" s="25"/>
       <c r="E7" s="25"/>
       <c r="F7" s="25" t="s">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="G7" s="25"/>
       <c r="H7" s="29"/>
       <c r="I7" s="25"/>
       <c r="J7" s="26" t="s">
-        <v>91</v>
+        <v>125</v>
       </c>
       <c r="K7" s="27"/>
       <c r="L7" s="28"/>
@@ -4416,16 +5586,16 @@
         <v>-</v>
       </c>
       <c r="E8" s="25" t="s">
-        <v>84</v>
+        <v>118</v>
       </c>
       <c r="F8" s="25" t="s">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="G8" s="25"/>
       <c r="H8" s="29"/>
       <c r="I8" s="28"/>
       <c r="J8" s="30" t="s">
-        <v>92</v>
+        <v>126</v>
       </c>
       <c r="K8" s="27"/>
       <c r="L8" s="28"/>
@@ -4446,15 +5616,15 @@
       <c r="D9" s="25"/>
       <c r="E9" s="25"/>
       <c r="F9" s="25" t="s">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="G9" s="25" t="s">
-        <v>93</v>
+        <v>127</v>
       </c>
       <c r="H9" s="29"/>
       <c r="I9" s="28"/>
       <c r="J9" s="30" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="K9" s="27"/>
       <c r="L9" s="28"/>
@@ -4475,13 +5645,13 @@
       <c r="D10" s="25"/>
       <c r="E10" s="25"/>
       <c r="F10" s="25" t="s">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="G10" s="25"/>
       <c r="H10" s="29"/>
       <c r="I10" s="28"/>
       <c r="J10" s="30" t="s">
-        <v>95</v>
+        <v>129</v>
       </c>
       <c r="K10" s="27"/>
       <c r="L10" s="28"/>
@@ -4502,13 +5672,13 @@
       <c r="D11" s="25"/>
       <c r="E11" s="25"/>
       <c r="F11" s="25" t="s">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="G11" s="25"/>
       <c r="H11" s="29"/>
       <c r="I11" s="28"/>
       <c r="J11" s="15" t="s">
-        <v>96</v>
+        <v>130</v>
       </c>
       <c r="K11" s="27"/>
       <c r="L11" s="28"/>
@@ -4527,19 +5697,19 @@
         <v>-</v>
       </c>
       <c r="D12" s="25" t="s">
-        <v>72</v>
+        <v>106</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>81</v>
+        <v>115</v>
       </c>
       <c r="F12" s="25" t="s">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="G12" s="25"/>
       <c r="H12" s="29"/>
       <c r="I12" s="28"/>
       <c r="J12" s="30" t="s">
-        <v>97</v>
+        <v>131</v>
       </c>
       <c r="K12" s="27"/>
       <c r="L12" s="28"/>
@@ -4555,18 +5725,18 @@
       </c>
       <c r="C13" s="17" t="str">
         <f aca="false">IF(vedomost!F13=0,"",vedomost!F13)</f>
-        <v/>
+        <v>Ld8(0)</v>
       </c>
       <c r="D13" s="25"/>
       <c r="E13" s="25"/>
       <c r="F13" s="25" t="s">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="G13" s="25"/>
       <c r="H13" s="29"/>
       <c r="I13" s="28"/>
       <c r="J13" s="30" t="s">
-        <v>98</v>
+        <v>132</v>
       </c>
       <c r="K13" s="27"/>
       <c r="L13" s="28"/>
@@ -4582,11 +5752,11 @@
       </c>
       <c r="C14" s="17" t="str">
         <f aca="false">IF(vedomost!F14=0,"",vedomost!F14)</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="D14" s="25"/>
       <c r="F14" s="25" t="s">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="G14" s="25"/>
       <c r="H14" s="29"/>
@@ -4605,20 +5775,20 @@
       </c>
       <c r="C15" s="17" t="str">
         <f aca="false">IF(vedomost!F15=0,"",vedomost!F15)</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="D15" s="25"/>
       <c r="E15" s="25" t="s">
-        <v>81</v>
+        <v>115</v>
       </c>
       <c r="F15" s="25" t="s">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="29"/>
       <c r="I15" s="28"/>
       <c r="J15" s="30" t="s">
-        <v>99</v>
+        <v>133</v>
       </c>
       <c r="K15" s="21"/>
       <c r="L15" s="22"/>
@@ -4634,18 +5804,18 @@
       </c>
       <c r="C16" s="17" t="str">
         <f aca="false">IF(vedomost!F16=0,"",vedomost!F16)</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="D16" s="25"/>
       <c r="E16" s="25"/>
       <c r="F16" s="25" t="s">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="29"/>
       <c r="I16" s="28"/>
       <c r="J16" s="30" t="s">
-        <v>100</v>
+        <v>134</v>
       </c>
       <c r="K16" s="27"/>
       <c r="L16" s="28"/>
@@ -4661,21 +5831,21 @@
       </c>
       <c r="C17" s="17" t="str">
         <f aca="false">IF(vedomost!F17=0,"",vedomost!F17)</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="D17" s="25"/>
       <c r="E17" s="25"/>
       <c r="F17" s="25" t="s">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="G17" s="25" t="s">
-        <v>83</v>
+        <v>117</v>
       </c>
       <c r="H17" s="29" t="s">
-        <v>88</v>
+        <v>122</v>
       </c>
       <c r="I17" s="28" t="s">
-        <v>84</v>
+        <v>118</v>
       </c>
       <c r="K17" s="27"/>
       <c r="L17" s="28"/>
@@ -4691,17 +5861,17 @@
       </c>
       <c r="C18" s="17" t="str">
         <f aca="false">IF(vedomost!F18=0,"",vedomost!F18)</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="D18" s="25"/>
       <c r="F18" s="25" t="s">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="G18" s="25"/>
       <c r="H18" s="29"/>
       <c r="I18" s="28"/>
       <c r="J18" s="17" t="s">
-        <v>101</v>
+        <v>135</v>
       </c>
       <c r="K18" s="27"/>
       <c r="L18" s="28"/>
@@ -4717,22 +5887,22 @@
       </c>
       <c r="C19" s="17" t="str">
         <f aca="false">IF(vedomost!F19=0,"",vedomost!F19)</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="D19" s="25" t="s">
-        <v>72</v>
+        <v>106</v>
       </c>
       <c r="E19" s="25" t="s">
-        <v>84</v>
+        <v>118</v>
       </c>
       <c r="F19" s="25" t="s">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="G19" s="25"/>
       <c r="H19" s="29"/>
       <c r="I19" s="28"/>
       <c r="J19" s="30" t="s">
-        <v>102</v>
+        <v>136</v>
       </c>
       <c r="K19" s="27"/>
       <c r="L19" s="28"/>
@@ -4748,17 +5918,17 @@
       </c>
       <c r="C20" s="17" t="str">
         <f aca="false">IF(vedomost!F20=0,"",vedomost!F20)</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="D20" s="25"/>
       <c r="F20" s="25" t="s">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="G20" s="25"/>
       <c r="H20" s="29"/>
       <c r="I20" s="28"/>
       <c r="J20" s="26" t="s">
-        <v>103</v>
+        <v>137</v>
       </c>
       <c r="K20" s="27"/>
       <c r="L20" s="28"/>
@@ -4774,17 +5944,17 @@
       </c>
       <c r="C21" s="17" t="str">
         <f aca="false">IF(vedomost!F21=0,"",vedomost!F21)</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="E21" s="25"/>
       <c r="F21" s="25" t="s">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="G21" s="25"/>
       <c r="H21" s="29"/>
       <c r="I21" s="25"/>
       <c r="J21" s="26" t="s">
-        <v>104</v>
+        <v>138</v>
       </c>
       <c r="K21" s="27"/>
       <c r="L21" s="28"/>
@@ -4800,17 +5970,17 @@
       </c>
       <c r="C22" s="17" t="str">
         <f aca="false">IF(vedomost!F22=0,"",vedomost!F22)</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="D22" s="25"/>
       <c r="F22" s="25" t="s">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="G22" s="25"/>
       <c r="H22" s="29"/>
       <c r="I22" s="25"/>
       <c r="J22" s="26" t="s">
-        <v>105</v>
+        <v>139</v>
       </c>
       <c r="K22" s="27"/>
       <c r="L22" s="28"/>
@@ -4826,19 +5996,19 @@
       </c>
       <c r="C23" s="17" t="str">
         <f aca="false">IF(vedomost!F23=0,"",vedomost!F23)</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="E23" s="25" t="s">
-        <v>81</v>
+        <v>115</v>
       </c>
       <c r="F23" s="25" t="s">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="G23" s="25"/>
       <c r="H23" s="29"/>
       <c r="I23" s="25"/>
       <c r="J23" s="26" t="s">
-        <v>106</v>
+        <v>140</v>
       </c>
       <c r="K23" s="27"/>
       <c r="L23" s="28"/>
@@ -4854,20 +6024,20 @@
       </c>
       <c r="C24" s="17" t="str">
         <f aca="false">IF(vedomost!F24=0,"",vedomost!F24)</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="D24" s="25"/>
       <c r="E24" s="25"/>
       <c r="F24" s="25" t="s">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="G24" s="25" t="s">
-        <v>93</v>
+        <v>127</v>
       </c>
       <c r="H24" s="29"/>
       <c r="I24" s="25"/>
       <c r="J24" s="26" t="s">
-        <v>107</v>
+        <v>141</v>
       </c>
       <c r="K24" s="27"/>
       <c r="L24" s="28"/>
@@ -4883,18 +6053,18 @@
       </c>
       <c r="C25" s="17" t="str">
         <f aca="false">IF(vedomost!F25=0,"",vedomost!F25)</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="D25" s="25"/>
       <c r="E25" s="25"/>
       <c r="F25" s="25" t="s">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="G25" s="25"/>
       <c r="H25" s="29"/>
       <c r="I25" s="25"/>
       <c r="J25" s="26" t="s">
-        <v>108</v>
+        <v>142</v>
       </c>
       <c r="K25" s="27"/>
       <c r="L25" s="28"/>
@@ -4910,16 +6080,16 @@
       </c>
       <c r="C26" s="17" t="str">
         <f aca="false">IF(vedomost!F26=0,"",vedomost!F26)</f>
-        <v>Ed8(0)</v>
+        <v>Ed8(1)</v>
       </c>
       <c r="D26" s="25" t="s">
-        <v>72</v>
+        <v>106</v>
       </c>
       <c r="E26" s="25" t="s">
-        <v>84</v>
+        <v>118</v>
       </c>
       <c r="F26" s="25" t="s">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="G26" s="25"/>
       <c r="H26" s="29"/>
@@ -4939,12 +6109,12 @@
       </c>
       <c r="C27" s="17" t="str">
         <f aca="false">IF(vedomost!F27=0,"",vedomost!F27)</f>
-        <v>Ed24(0)</v>
+        <v>Ed24(1)</v>
       </c>
       <c r="D27" s="25"/>
       <c r="E27" s="25"/>
       <c r="F27" s="25" t="s">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="G27" s="25"/>
       <c r="H27" s="29"/>
@@ -4964,12 +6134,12 @@
       </c>
       <c r="C28" s="17" t="str">
         <f aca="false">IF(vedomost!F28=0,"",vedomost!F28)</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="D28" s="25"/>
       <c r="E28" s="25"/>
       <c r="F28" s="25" t="s">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="G28" s="25"/>
       <c r="H28" s="29"/>
@@ -4993,10 +6163,10 @@
       </c>
       <c r="D29" s="25"/>
       <c r="E29" s="15" t="s">
-        <v>81</v>
+        <v>115</v>
       </c>
       <c r="F29" s="25" t="s">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="G29" s="25"/>
       <c r="H29" s="29"/>
@@ -5021,7 +6191,7 @@
       <c r="D30" s="25"/>
       <c r="E30" s="25"/>
       <c r="F30" s="25" t="s">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="G30" s="25"/>
       <c r="H30" s="29"/>
@@ -5046,7 +6216,7 @@
       <c r="D31" s="25"/>
       <c r="E31" s="25"/>
       <c r="F31" s="25" t="s">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="G31" s="25"/>
       <c r="H31" s="29"/>
@@ -5107,11 +6277,11 @@
   <dimension ref="A1:AE18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="Y2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="Y1" activeCellId="0" sqref="Y1"/>
+      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AA3" activeCellId="0" sqref="AA3"/>
+      <selection pane="bottomRight" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5146,382 +6316,382 @@
   <sheetData>
     <row r="1" s="37" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="31" t="s">
-        <v>109</v>
+        <v>143</v>
       </c>
       <c r="B1" s="32" t="s">
-        <v>110</v>
+        <v>144</v>
       </c>
       <c r="C1" s="33" t="s">
-        <v>111</v>
+        <v>145</v>
       </c>
       <c r="D1" s="31" t="s">
-        <v>112</v>
+        <v>146</v>
       </c>
       <c r="E1" s="31" t="s">
-        <v>113</v>
+        <v>147</v>
       </c>
       <c r="F1" s="31" t="s">
-        <v>114</v>
+        <v>148</v>
       </c>
       <c r="G1" s="34" t="s">
-        <v>115</v>
+        <v>149</v>
       </c>
       <c r="H1" s="31" t="s">
-        <v>116</v>
+        <v>150</v>
       </c>
       <c r="I1" s="31" t="s">
-        <v>117</v>
+        <v>151</v>
       </c>
       <c r="J1" s="31" t="s">
-        <v>118</v>
+        <v>152</v>
       </c>
       <c r="K1" s="31" t="s">
-        <v>119</v>
+        <v>153</v>
       </c>
       <c r="L1" s="31" t="s">
-        <v>120</v>
+        <v>154</v>
       </c>
       <c r="M1" s="34" t="s">
-        <v>121</v>
+        <v>155</v>
       </c>
       <c r="N1" s="34" t="s">
-        <v>122</v>
+        <v>156</v>
       </c>
       <c r="O1" s="35" t="s">
-        <v>123</v>
+        <v>157</v>
       </c>
       <c r="P1" s="35" t="s">
-        <v>124</v>
+        <v>158</v>
       </c>
       <c r="Q1" s="36" t="s">
-        <v>125</v>
+        <v>159</v>
       </c>
       <c r="R1" s="34" t="s">
-        <v>126</v>
+        <v>160</v>
       </c>
       <c r="S1" s="35" t="s">
-        <v>127</v>
+        <v>161</v>
       </c>
       <c r="T1" s="35" t="s">
-        <v>128</v>
+        <v>162</v>
       </c>
       <c r="U1" s="35" t="s">
-        <v>129</v>
+        <v>163</v>
       </c>
       <c r="V1" s="35" t="s">
-        <v>130</v>
+        <v>164</v>
       </c>
       <c r="W1" s="35" t="s">
-        <v>131</v>
+        <v>165</v>
       </c>
       <c r="X1" s="35" t="s">
-        <v>132</v>
+        <v>166</v>
       </c>
       <c r="Y1" s="36" t="s">
-        <v>133</v>
+        <v>167</v>
       </c>
       <c r="Z1" s="34" t="s">
-        <v>134</v>
+        <v>168</v>
       </c>
       <c r="AA1" s="35" t="s">
-        <v>135</v>
+        <v>169</v>
       </c>
       <c r="AB1" s="35" t="s">
-        <v>136</v>
+        <v>170</v>
       </c>
       <c r="AC1" s="35" t="s">
-        <v>137</v>
+        <v>171</v>
       </c>
       <c r="AD1" s="35" t="s">
-        <v>138</v>
+        <v>172</v>
       </c>
       <c r="AE1" s="35" t="s">
-        <v>139</v>
+        <v>173</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="38" t="s">
-        <v>140</v>
+        <v>174</v>
       </c>
       <c r="B2" s="39" t="s">
-        <v>141</v>
+        <v>175</v>
       </c>
       <c r="C2" s="40" t="s">
-        <v>142</v>
+        <v>176</v>
       </c>
       <c r="D2" s="38" t="s">
-        <v>143</v>
+        <v>177</v>
       </c>
       <c r="E2" s="38" t="s">
-        <v>144</v>
+        <v>178</v>
       </c>
       <c r="F2" s="41" t="s">
-        <v>145</v>
+        <v>179</v>
       </c>
       <c r="G2" s="38" t="s">
-        <v>143</v>
+        <v>177</v>
       </c>
       <c r="H2" s="38" t="s">
-        <v>146</v>
+        <v>180</v>
       </c>
       <c r="I2" s="38" t="s">
-        <v>147</v>
+        <v>181</v>
       </c>
       <c r="J2" s="38" t="s">
-        <v>148</v>
+        <v>182</v>
       </c>
       <c r="K2" s="38" t="s">
-        <v>149</v>
+        <v>183</v>
       </c>
       <c r="L2" s="38" t="s">
-        <v>150</v>
+        <v>184</v>
       </c>
       <c r="M2" s="42" t="s">
-        <v>151</v>
+        <v>185</v>
       </c>
       <c r="N2" s="42" t="s">
-        <v>149</v>
+        <v>183</v>
       </c>
       <c r="O2" s="41" t="s">
-        <v>152</v>
+        <v>186</v>
       </c>
       <c r="P2" s="41" t="s">
-        <v>148</v>
+        <v>182</v>
       </c>
       <c r="Q2" s="43" t="s">
-        <v>148</v>
+        <v>182</v>
       </c>
       <c r="R2" s="42" t="s">
-        <v>153</v>
+        <v>187</v>
       </c>
       <c r="S2" s="41" t="s">
-        <v>154</v>
+        <v>188</v>
       </c>
       <c r="T2" s="41" t="s">
-        <v>155</v>
+        <v>189</v>
       </c>
       <c r="U2" s="41" t="s">
-        <v>145</v>
+        <v>190</v>
       </c>
       <c r="V2" s="41" t="s">
-        <v>148</v>
+        <v>182</v>
       </c>
       <c r="W2" s="41" t="s">
-        <v>156</v>
+        <v>191</v>
       </c>
       <c r="X2" s="41" t="s">
-        <v>148</v>
+        <v>182</v>
       </c>
       <c r="Y2" s="43" t="s">
-        <v>157</v>
+        <v>192</v>
       </c>
       <c r="Z2" s="42" t="s">
-        <v>158</v>
+        <v>193</v>
       </c>
       <c r="AA2" s="41" t="s">
-        <v>154</v>
+        <v>188</v>
       </c>
       <c r="AB2" s="41" t="s">
-        <v>145</v>
+        <v>190</v>
       </c>
       <c r="AC2" s="44" t="s">
-        <v>156</v>
+        <v>191</v>
       </c>
       <c r="AD2" s="41" t="s">
-        <v>148</v>
+        <v>182</v>
       </c>
       <c r="AE2" s="41" t="s">
-        <v>159</v>
+        <v>194</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="38" t="s">
-        <v>160</v>
+        <v>195</v>
       </c>
       <c r="B3" s="45" t="s">
-        <v>161</v>
+        <v>196</v>
       </c>
       <c r="C3" s="46" t="s">
-        <v>161</v>
+        <v>196</v>
       </c>
       <c r="D3" s="47" t="s">
-        <v>162</v>
+        <v>197</v>
       </c>
       <c r="E3" s="47" t="s">
-        <v>162</v>
+        <v>197</v>
       </c>
       <c r="F3" s="44" t="s">
-        <v>161</v>
+        <v>196</v>
       </c>
       <c r="G3" s="48" t="s">
-        <v>162</v>
+        <v>197</v>
       </c>
       <c r="H3" s="47" t="s">
-        <v>162</v>
+        <v>197</v>
       </c>
       <c r="I3" s="47" t="s">
-        <v>162</v>
+        <v>197</v>
       </c>
       <c r="J3" s="47" t="s">
-        <v>162</v>
+        <v>197</v>
       </c>
       <c r="K3" s="47" t="s">
-        <v>161</v>
+        <v>196</v>
       </c>
       <c r="L3" s="47" t="s">
-        <v>162</v>
+        <v>197</v>
       </c>
       <c r="M3" s="48" t="s">
-        <v>161</v>
+        <v>196</v>
       </c>
       <c r="N3" s="48" t="s">
-        <v>161</v>
+        <v>196</v>
       </c>
       <c r="O3" s="44" t="s">
-        <v>161</v>
+        <v>196</v>
       </c>
       <c r="P3" s="47" t="s">
-        <v>162</v>
+        <v>197</v>
       </c>
       <c r="Q3" s="47" t="s">
-        <v>162</v>
+        <v>197</v>
       </c>
       <c r="R3" s="48" t="s">
-        <v>162</v>
+        <v>197</v>
       </c>
       <c r="S3" s="47" t="s">
-        <v>161</v>
+        <v>196</v>
       </c>
       <c r="T3" s="47" t="s">
-        <v>161</v>
+        <v>196</v>
       </c>
       <c r="U3" s="47" t="s">
-        <v>161</v>
+        <v>196</v>
       </c>
       <c r="V3" s="47" t="s">
-        <v>162</v>
+        <v>197</v>
       </c>
       <c r="W3" s="47" t="s">
-        <v>162</v>
+        <v>197</v>
       </c>
       <c r="X3" s="47" t="s">
-        <v>162</v>
+        <v>197</v>
       </c>
       <c r="Y3" s="47" t="s">
-        <v>161</v>
+        <v>196</v>
       </c>
       <c r="Z3" s="47" t="s">
-        <v>163</v>
+        <v>198</v>
       </c>
       <c r="AA3" s="47" t="s">
-        <v>161</v>
+        <v>196</v>
       </c>
       <c r="AB3" s="47" t="s">
-        <v>161</v>
+        <v>196</v>
       </c>
       <c r="AC3" s="47" t="s">
-        <v>162</v>
+        <v>197</v>
       </c>
       <c r="AD3" s="47" t="s">
-        <v>162</v>
+        <v>197</v>
       </c>
       <c r="AE3" s="47" t="s">
-        <v>161</v>
+        <v>196</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="49" t="s">
-        <v>164</v>
+        <v>199</v>
       </c>
       <c r="B4" s="50" t="s">
-        <v>165</v>
+        <v>200</v>
       </c>
       <c r="C4" s="51" t="s">
-        <v>165</v>
+        <v>200</v>
       </c>
       <c r="D4" s="52" t="s">
-        <v>165</v>
+        <v>200</v>
       </c>
       <c r="E4" s="52" t="s">
-        <v>165</v>
+        <v>200</v>
       </c>
       <c r="F4" s="52" t="s">
-        <v>165</v>
+        <v>200</v>
       </c>
       <c r="G4" s="53" t="s">
-        <v>165</v>
+        <v>200</v>
       </c>
       <c r="H4" s="52" t="s">
-        <v>165</v>
+        <v>200</v>
       </c>
       <c r="I4" s="52" t="s">
-        <v>165</v>
+        <v>200</v>
       </c>
       <c r="J4" s="52" t="s">
-        <v>165</v>
+        <v>200</v>
       </c>
       <c r="K4" s="52" t="s">
-        <v>165</v>
+        <v>200</v>
       </c>
       <c r="L4" s="52" t="s">
-        <v>165</v>
+        <v>200</v>
       </c>
       <c r="M4" s="53" t="s">
-        <v>165</v>
+        <v>200</v>
       </c>
       <c r="N4" s="53" t="s">
-        <v>165</v>
+        <v>200</v>
       </c>
       <c r="O4" s="54" t="s">
-        <v>165</v>
+        <v>200</v>
       </c>
       <c r="P4" s="54" t="s">
-        <v>165</v>
+        <v>200</v>
       </c>
       <c r="Q4" s="55" t="s">
-        <v>165</v>
+        <v>200</v>
       </c>
       <c r="R4" s="53" t="s">
-        <v>165</v>
+        <v>200</v>
       </c>
       <c r="S4" s="54" t="s">
-        <v>165</v>
+        <v>200</v>
       </c>
       <c r="T4" s="54" t="s">
-        <v>165</v>
+        <v>200</v>
       </c>
       <c r="U4" s="54" t="s">
-        <v>166</v>
+        <v>201</v>
       </c>
       <c r="V4" s="54" t="s">
-        <v>165</v>
+        <v>200</v>
       </c>
       <c r="W4" s="54" t="s">
-        <v>165</v>
+        <v>200</v>
       </c>
       <c r="X4" s="54" t="s">
-        <v>165</v>
+        <v>200</v>
       </c>
       <c r="Y4" s="55" t="s">
-        <v>165</v>
+        <v>200</v>
       </c>
       <c r="Z4" s="53" t="s">
-        <v>165</v>
+        <v>200</v>
       </c>
       <c r="AA4" s="54" t="s">
-        <v>165</v>
+        <v>200</v>
       </c>
       <c r="AB4" s="54" t="s">
-        <v>166</v>
+        <v>201</v>
       </c>
       <c r="AC4" s="54" t="s">
-        <v>165</v>
+        <v>200</v>
       </c>
       <c r="AD4" s="54" t="s">
-        <v>165</v>
+        <v>200</v>
       </c>
       <c r="AE4" s="54" t="s">
-        <v>165</v>
+        <v>200</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5529,125 +6699,125 @@
         <v>6</v>
       </c>
       <c r="B5" s="56" t="s">
-        <v>167</v>
+        <v>202</v>
       </c>
       <c r="C5" s="57" t="s">
-        <v>167</v>
+        <v>202</v>
       </c>
       <c r="D5" s="49" t="s">
-        <v>168</v>
+        <v>203</v>
       </c>
       <c r="E5" s="49" t="s">
-        <v>167</v>
+        <v>202</v>
       </c>
       <c r="F5" s="58"/>
       <c r="G5" s="49" t="s">
-        <v>168</v>
+        <v>203</v>
       </c>
       <c r="H5" s="49" t="s">
-        <v>167</v>
+        <v>202</v>
       </c>
       <c r="I5" s="59"/>
       <c r="J5" s="58"/>
       <c r="K5" s="49" t="s">
-        <v>167</v>
+        <v>202</v>
       </c>
       <c r="L5" s="49" t="s">
-        <v>167</v>
+        <v>202</v>
       </c>
       <c r="M5" s="60" t="s">
-        <v>168</v>
+        <v>203</v>
       </c>
       <c r="N5" s="60" t="s">
-        <v>167</v>
+        <v>202</v>
       </c>
       <c r="O5" s="61" t="s">
-        <v>167</v>
+        <v>202</v>
       </c>
       <c r="P5" s="61" t="s">
-        <v>167</v>
+        <v>202</v>
       </c>
       <c r="Q5" s="62" t="s">
-        <v>167</v>
+        <v>202</v>
       </c>
       <c r="R5" s="60" t="s">
-        <v>167</v>
+        <v>202</v>
       </c>
       <c r="S5" s="61" t="s">
-        <v>167</v>
+        <v>202</v>
       </c>
       <c r="T5" s="61" t="s">
-        <v>167</v>
+        <v>202</v>
       </c>
       <c r="U5" s="61" t="s">
-        <v>167</v>
+        <v>202</v>
       </c>
       <c r="V5" s="61" t="s">
-        <v>167</v>
+        <v>202</v>
       </c>
       <c r="W5" s="61" t="s">
-        <v>167</v>
+        <v>202</v>
       </c>
       <c r="X5" s="61" t="s">
-        <v>167</v>
+        <v>202</v>
       </c>
       <c r="Y5" s="62" t="s">
-        <v>167</v>
+        <v>202</v>
       </c>
       <c r="Z5" s="60" t="s">
-        <v>167</v>
+        <v>202</v>
       </c>
       <c r="AA5" s="61" t="s">
-        <v>167</v>
+        <v>202</v>
       </c>
       <c r="AB5" s="61" t="s">
-        <v>167</v>
+        <v>202</v>
       </c>
       <c r="AC5" s="61" t="s">
-        <v>167</v>
+        <v>202</v>
       </c>
       <c r="AD5" s="61" t="s">
-        <v>167</v>
+        <v>202</v>
       </c>
       <c r="AE5" s="61" t="s">
-        <v>167</v>
+        <v>202</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="59" t="s">
-        <v>169</v>
+        <v>204</v>
       </c>
       <c r="B6" s="63" t="s">
-        <v>170</v>
+        <v>205</v>
       </c>
       <c r="C6" s="64"/>
       <c r="D6" s="59" t="s">
-        <v>171</v>
+        <v>206</v>
       </c>
       <c r="E6" s="59"/>
       <c r="F6" s="59" t="s">
-        <v>170</v>
+        <v>205</v>
       </c>
       <c r="G6" s="65" t="s">
-        <v>171</v>
+        <v>206</v>
       </c>
       <c r="H6" s="59" t="s">
-        <v>170</v>
+        <v>205</v>
       </c>
       <c r="I6" s="59" t="s">
-        <v>170</v>
+        <v>205</v>
       </c>
       <c r="J6" s="59" t="s">
-        <v>170</v>
+        <v>205</v>
       </c>
       <c r="K6" s="59" t="s">
-        <v>170</v>
+        <v>205</v>
       </c>
       <c r="L6" s="59" t="s">
-        <v>172</v>
+        <v>207</v>
       </c>
       <c r="M6" s="65" t="s">
-        <v>173</v>
+        <v>208</v>
       </c>
       <c r="N6" s="65"/>
       <c r="O6" s="66"/>
@@ -5655,36 +6825,36 @@
       <c r="Q6" s="67"/>
       <c r="R6" s="65"/>
       <c r="S6" s="68" t="s">
-        <v>170</v>
+        <v>205</v>
       </c>
       <c r="T6" s="68"/>
       <c r="U6" s="66"/>
       <c r="V6" s="68" t="s">
-        <v>170</v>
+        <v>205</v>
       </c>
       <c r="W6" s="68"/>
       <c r="X6" s="68"/>
       <c r="Y6" s="69"/>
       <c r="Z6" s="70" t="s">
-        <v>170</v>
+        <v>205</v>
       </c>
       <c r="AA6" s="68" t="s">
-        <v>170</v>
+        <v>205</v>
       </c>
       <c r="AB6" s="66"/>
       <c r="AC6" s="68" t="s">
-        <v>170</v>
+        <v>205</v>
       </c>
       <c r="AD6" s="68" t="s">
-        <v>170</v>
+        <v>205</v>
       </c>
       <c r="AE6" s="68" t="s">
-        <v>170</v>
+        <v>205</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="58" t="s">
-        <v>174</v>
+        <v>209</v>
       </c>
       <c r="B7" s="71"/>
       <c r="C7" s="72"/>
@@ -5703,393 +6873,393 @@
       <c r="P7" s="74"/>
       <c r="Q7" s="75"/>
       <c r="R7" s="76" t="s">
-        <v>165</v>
+        <v>200</v>
       </c>
       <c r="S7" s="77" t="s">
-        <v>165</v>
+        <v>200</v>
       </c>
       <c r="T7" s="77" t="s">
-        <v>165</v>
+        <v>200</v>
       </c>
       <c r="U7" s="77" t="s">
-        <v>165</v>
+        <v>200</v>
       </c>
       <c r="V7" s="77" t="s">
-        <v>165</v>
+        <v>200</v>
       </c>
       <c r="W7" s="77" t="s">
-        <v>175</v>
+        <v>210</v>
       </c>
       <c r="X7" s="77" t="s">
-        <v>165</v>
+        <v>200</v>
       </c>
       <c r="Y7" s="78" t="s">
-        <v>165</v>
+        <v>200</v>
       </c>
       <c r="Z7" s="76" t="s">
-        <v>165</v>
+        <v>200</v>
       </c>
       <c r="AA7" s="77" t="s">
-        <v>165</v>
+        <v>200</v>
       </c>
       <c r="AB7" s="77" t="s">
-        <v>165</v>
+        <v>200</v>
       </c>
       <c r="AC7" s="77" t="s">
-        <v>165</v>
+        <v>200</v>
       </c>
       <c r="AD7" s="77" t="s">
-        <v>165</v>
+        <v>200</v>
       </c>
       <c r="AE7" s="77" t="s">
-        <v>165</v>
+        <v>200</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="58" t="s">
-        <v>176</v>
+        <v>211</v>
       </c>
       <c r="B8" s="71" t="s">
-        <v>175</v>
+        <v>210</v>
       </c>
       <c r="C8" s="72" t="s">
-        <v>175</v>
+        <v>210</v>
       </c>
       <c r="D8" s="58" t="s">
-        <v>175</v>
+        <v>210</v>
       </c>
       <c r="E8" s="58" t="s">
-        <v>175</v>
+        <v>210</v>
       </c>
       <c r="F8" s="58" t="s">
-        <v>175</v>
+        <v>210</v>
       </c>
       <c r="G8" s="73" t="s">
-        <v>175</v>
+        <v>210</v>
       </c>
       <c r="H8" s="58" t="s">
-        <v>175</v>
+        <v>210</v>
       </c>
       <c r="I8" s="58"/>
       <c r="J8" s="58" t="s">
-        <v>175</v>
+        <v>210</v>
       </c>
       <c r="K8" s="58" t="s">
-        <v>175</v>
+        <v>210</v>
       </c>
       <c r="L8" s="58" t="s">
-        <v>175</v>
+        <v>210</v>
       </c>
       <c r="M8" s="73" t="s">
-        <v>175</v>
+        <v>210</v>
       </c>
       <c r="N8" s="73" t="s">
-        <v>175</v>
+        <v>210</v>
       </c>
       <c r="O8" s="74" t="s">
-        <v>175</v>
+        <v>210</v>
       </c>
       <c r="P8" s="74" t="s">
-        <v>175</v>
+        <v>210</v>
       </c>
       <c r="Q8" s="75" t="s">
-        <v>175</v>
+        <v>210</v>
       </c>
       <c r="R8" s="73" t="s">
-        <v>175</v>
+        <v>210</v>
       </c>
       <c r="S8" s="74" t="s">
-        <v>175</v>
+        <v>210</v>
       </c>
       <c r="T8" s="74" t="s">
-        <v>175</v>
+        <v>210</v>
       </c>
       <c r="U8" s="74" t="s">
-        <v>175</v>
+        <v>210</v>
       </c>
       <c r="V8" s="74" t="s">
-        <v>175</v>
+        <v>210</v>
       </c>
       <c r="W8" s="74"/>
       <c r="X8" s="74" t="s">
-        <v>175</v>
+        <v>210</v>
       </c>
       <c r="Y8" s="75" t="s">
-        <v>175</v>
+        <v>210</v>
       </c>
       <c r="Z8" s="73" t="s">
-        <v>175</v>
+        <v>210</v>
       </c>
       <c r="AA8" s="74" t="s">
-        <v>175</v>
+        <v>210</v>
       </c>
       <c r="AB8" s="74" t="s">
-        <v>175</v>
+        <v>210</v>
       </c>
       <c r="AC8" s="74"/>
       <c r="AD8" s="74" t="s">
-        <v>175</v>
+        <v>210</v>
       </c>
       <c r="AE8" s="74" t="s">
-        <v>175</v>
+        <v>210</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="79" t="s">
-        <v>177</v>
+        <v>212</v>
       </c>
       <c r="B9" s="80" t="s">
-        <v>166</v>
+        <v>201</v>
       </c>
       <c r="C9" s="81" t="s">
-        <v>166</v>
+        <v>201</v>
       </c>
       <c r="D9" s="82" t="s">
-        <v>166</v>
+        <v>201</v>
       </c>
       <c r="E9" s="82" t="s">
-        <v>178</v>
+        <v>213</v>
       </c>
       <c r="F9" s="82" t="s">
-        <v>166</v>
+        <v>201</v>
       </c>
       <c r="G9" s="83" t="s">
-        <v>166</v>
+        <v>201</v>
       </c>
       <c r="H9" s="82" t="s">
-        <v>178</v>
+        <v>213</v>
       </c>
       <c r="I9" s="82" t="s">
-        <v>166</v>
+        <v>201</v>
       </c>
       <c r="J9" s="82" t="s">
-        <v>166</v>
+        <v>201</v>
       </c>
       <c r="K9" s="82" t="s">
-        <v>166</v>
+        <v>201</v>
       </c>
       <c r="L9" s="82" t="s">
-        <v>166</v>
+        <v>201</v>
       </c>
       <c r="M9" s="83" t="s">
-        <v>178</v>
+        <v>213</v>
       </c>
       <c r="N9" s="83" t="s">
-        <v>166</v>
+        <v>201</v>
       </c>
       <c r="O9" s="84" t="s">
-        <v>166</v>
+        <v>201</v>
       </c>
       <c r="P9" s="84" t="s">
-        <v>166</v>
+        <v>201</v>
       </c>
       <c r="Q9" s="85" t="s">
-        <v>166</v>
+        <v>201</v>
       </c>
       <c r="R9" s="83" t="s">
-        <v>166</v>
+        <v>201</v>
       </c>
       <c r="S9" s="84" t="s">
-        <v>166</v>
+        <v>201</v>
       </c>
       <c r="T9" s="84" t="s">
-        <v>166</v>
+        <v>201</v>
       </c>
       <c r="U9" s="84" t="s">
-        <v>166</v>
+        <v>201</v>
       </c>
       <c r="V9" s="84" t="s">
-        <v>166</v>
+        <v>201</v>
       </c>
       <c r="W9" s="84" t="s">
-        <v>166</v>
+        <v>201</v>
       </c>
       <c r="X9" s="84" t="s">
-        <v>166</v>
+        <v>201</v>
       </c>
       <c r="Y9" s="85" t="s">
-        <v>166</v>
+        <v>201</v>
       </c>
       <c r="Z9" s="83" t="s">
-        <v>166</v>
+        <v>201</v>
       </c>
       <c r="AA9" s="84" t="s">
-        <v>166</v>
+        <v>201</v>
       </c>
       <c r="AB9" s="84" t="s">
-        <v>166</v>
+        <v>201</v>
       </c>
       <c r="AC9" s="84" t="s">
-        <v>166</v>
+        <v>201</v>
       </c>
       <c r="AD9" s="84" t="s">
-        <v>166</v>
+        <v>201</v>
       </c>
       <c r="AE9" s="84" t="s">
-        <v>166</v>
+        <v>201</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="86" t="s">
-        <v>179</v>
+        <v>214</v>
       </c>
       <c r="B10" s="87" t="s">
-        <v>170</v>
+        <v>205</v>
       </c>
       <c r="C10" s="88" t="s">
-        <v>170</v>
+        <v>205</v>
       </c>
       <c r="D10" s="86" t="s">
-        <v>170</v>
+        <v>205</v>
       </c>
       <c r="E10" s="86" t="s">
-        <v>170</v>
+        <v>205</v>
       </c>
       <c r="F10" s="86" t="s">
-        <v>170</v>
+        <v>205</v>
       </c>
       <c r="G10" s="89" t="s">
-        <v>170</v>
+        <v>205</v>
       </c>
       <c r="H10" s="86" t="s">
-        <v>170</v>
+        <v>205</v>
       </c>
       <c r="I10" s="86" t="s">
-        <v>170</v>
+        <v>205</v>
       </c>
       <c r="J10" s="86" t="s">
-        <v>170</v>
+        <v>205</v>
       </c>
       <c r="K10" s="86" t="s">
-        <v>170</v>
+        <v>205</v>
       </c>
       <c r="L10" s="86" t="s">
-        <v>170</v>
+        <v>205</v>
       </c>
       <c r="M10" s="89" t="s">
-        <v>170</v>
+        <v>205</v>
       </c>
       <c r="N10" s="89" t="s">
-        <v>170</v>
+        <v>205</v>
       </c>
       <c r="O10" s="90" t="s">
-        <v>170</v>
+        <v>205</v>
       </c>
       <c r="P10" s="90" t="s">
-        <v>170</v>
+        <v>205</v>
       </c>
       <c r="Q10" s="91" t="s">
-        <v>170</v>
+        <v>205</v>
       </c>
       <c r="R10" s="89" t="s">
-        <v>170</v>
+        <v>205</v>
       </c>
       <c r="S10" s="90" t="s">
-        <v>170</v>
+        <v>205</v>
       </c>
       <c r="T10" s="90" t="s">
-        <v>170</v>
+        <v>205</v>
       </c>
       <c r="U10" s="90"/>
       <c r="V10" s="90" t="s">
-        <v>170</v>
+        <v>205</v>
       </c>
       <c r="W10" s="90" t="s">
-        <v>170</v>
+        <v>205</v>
       </c>
       <c r="X10" s="90" t="s">
-        <v>170</v>
+        <v>205</v>
       </c>
       <c r="Y10" s="91" t="s">
-        <v>170</v>
+        <v>205</v>
       </c>
       <c r="Z10" s="89" t="s">
-        <v>170</v>
+        <v>205</v>
       </c>
       <c r="AA10" s="90" t="s">
-        <v>170</v>
+        <v>205</v>
       </c>
       <c r="AB10" s="90"/>
       <c r="AC10" s="90" t="s">
-        <v>170</v>
+        <v>205</v>
       </c>
       <c r="AD10" s="90" t="s">
-        <v>170</v>
+        <v>205</v>
       </c>
       <c r="AE10" s="90" t="s">
-        <v>170</v>
+        <v>205</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="92" t="s">
-        <v>180</v>
+        <v>215</v>
       </c>
       <c r="B11" s="93"/>
       <c r="C11" s="94"/>
       <c r="D11" s="92" t="s">
-        <v>181</v>
+        <v>216</v>
       </c>
       <c r="E11" s="92" t="s">
-        <v>181</v>
+        <v>216</v>
       </c>
       <c r="F11" s="92" t="s">
-        <v>181</v>
+        <v>216</v>
       </c>
       <c r="G11" s="95" t="s">
-        <v>181</v>
+        <v>216</v>
       </c>
       <c r="H11" s="92" t="s">
-        <v>181</v>
+        <v>216</v>
       </c>
       <c r="I11" s="92"/>
       <c r="J11" s="92" t="s">
-        <v>181</v>
+        <v>216</v>
       </c>
       <c r="K11" s="92"/>
       <c r="L11" s="92" t="s">
-        <v>181</v>
+        <v>216</v>
       </c>
       <c r="M11" s="95"/>
       <c r="N11" s="95"/>
       <c r="O11" s="96"/>
       <c r="P11" s="97" t="s">
-        <v>181</v>
+        <v>216</v>
       </c>
       <c r="Q11" s="98" t="s">
-        <v>181</v>
+        <v>216</v>
       </c>
       <c r="R11" s="95" t="s">
-        <v>181</v>
+        <v>216</v>
       </c>
       <c r="S11" s="96"/>
       <c r="T11" s="96"/>
       <c r="U11" s="96"/>
       <c r="V11" s="97" t="s">
-        <v>181</v>
+        <v>216</v>
       </c>
       <c r="W11" s="97" t="s">
-        <v>181</v>
+        <v>216</v>
       </c>
       <c r="X11" s="97" t="s">
-        <v>181</v>
+        <v>216</v>
       </c>
       <c r="Y11" s="99"/>
       <c r="Z11" s="95" t="s">
-        <v>181</v>
+        <v>216</v>
       </c>
       <c r="AA11" s="96"/>
       <c r="AB11" s="96"/>
       <c r="AC11" s="97" t="s">
-        <v>181</v>
+        <v>216</v>
       </c>
       <c r="AD11" s="97" t="s">
-        <v>181</v>
+        <v>216</v>
       </c>
       <c r="AE11" s="96"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="92" t="s">
-        <v>182</v>
+        <v>217</v>
       </c>
       <c r="B12" s="93"/>
       <c r="C12" s="94"/>
@@ -6156,28 +7326,28 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="92" t="s">
-        <v>183</v>
+        <v>218</v>
       </c>
       <c r="B13" s="93"/>
       <c r="C13" s="94"/>
       <c r="D13" s="92" t="s">
-        <v>184</v>
+        <v>219</v>
       </c>
       <c r="E13" s="92" t="n">
         <v>25</v>
       </c>
       <c r="F13" s="92" t="s">
-        <v>185</v>
+        <v>220</v>
       </c>
       <c r="G13" s="95" t="s">
-        <v>184</v>
+        <v>219</v>
       </c>
       <c r="H13" s="92" t="n">
         <v>25</v>
       </c>
       <c r="I13" s="92"/>
       <c r="J13" s="92" t="s">
-        <v>185</v>
+        <v>220</v>
       </c>
       <c r="K13" s="92"/>
       <c r="L13" s="92" t="n">
@@ -6187,315 +7357,315 @@
       <c r="N13" s="95"/>
       <c r="O13" s="96"/>
       <c r="P13" s="96" t="s">
-        <v>185</v>
+        <v>220</v>
       </c>
       <c r="Q13" s="99" t="s">
-        <v>185</v>
+        <v>220</v>
       </c>
       <c r="R13" s="100" t="s">
-        <v>185</v>
+        <v>220</v>
       </c>
       <c r="S13" s="96"/>
       <c r="T13" s="96"/>
       <c r="U13" s="96"/>
       <c r="V13" s="96" t="s">
-        <v>186</v>
+        <v>221</v>
       </c>
       <c r="W13" s="96" t="n">
         <v>25</v>
       </c>
       <c r="X13" s="96" t="s">
-        <v>185</v>
+        <v>220</v>
       </c>
       <c r="Y13" s="99"/>
       <c r="Z13" s="100" t="s">
-        <v>185</v>
+        <v>220</v>
       </c>
       <c r="AA13" s="96"/>
       <c r="AB13" s="96"/>
       <c r="AC13" s="96" t="s">
-        <v>185</v>
+        <v>220</v>
       </c>
       <c r="AD13" s="96" t="s">
-        <v>185</v>
+        <v>220</v>
       </c>
       <c r="AE13" s="96"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="101" t="s">
-        <v>187</v>
+        <v>222</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>188</v>
+        <v>223</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>188</v>
+        <v>223</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>189</v>
+        <v>224</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>190</v>
+        <v>225</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>189</v>
+        <v>224</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>189</v>
+        <v>224</v>
       </c>
       <c r="I14" s="0" t="s">
-        <v>188</v>
+        <v>223</v>
       </c>
       <c r="J14" s="0" t="s">
-        <v>190</v>
+        <v>225</v>
       </c>
       <c r="L14" s="0" t="s">
-        <v>188</v>
+        <v>223</v>
       </c>
       <c r="P14" s="0" t="s">
-        <v>191</v>
+        <v>226</v>
       </c>
       <c r="Q14" s="0" t="s">
-        <v>191</v>
+        <v>226</v>
       </c>
       <c r="T14" s="0" t="s">
-        <v>189</v>
+        <v>224</v>
       </c>
       <c r="U14" s="0" t="s">
-        <v>189</v>
+        <v>224</v>
       </c>
       <c r="X14" s="0" t="s">
-        <v>192</v>
+        <v>227</v>
       </c>
       <c r="Z14" s="0" t="s">
-        <v>188</v>
+        <v>223</v>
       </c>
       <c r="AA14" s="0" t="s">
-        <v>188</v>
+        <v>223</v>
       </c>
       <c r="AC14" s="0" t="s">
-        <v>190</v>
+        <v>225</v>
       </c>
       <c r="AD14" s="0" t="s">
-        <v>188</v>
+        <v>223</v>
       </c>
       <c r="AE14" s="0" t="s">
-        <v>188</v>
+        <v>223</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D15" s="0" t="s">
-        <v>193</v>
+        <v>228</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>193</v>
+        <v>228</v>
       </c>
       <c r="Z15" s="0" t="s">
-        <v>193</v>
+        <v>228</v>
       </c>
       <c r="AD15" s="0" t="s">
-        <v>194</v>
+        <v>229</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>195</v>
+        <v>230</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>196</v>
+        <v>231</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>197</v>
+        <v>232</v>
       </c>
       <c r="D16" s="102" t="s">
-        <v>198</v>
+        <v>233</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>199</v>
+        <v>234</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>200</v>
+        <v>235</v>
       </c>
       <c r="G16" s="102" t="s">
-        <v>201</v>
+        <v>236</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>202</v>
+        <v>237</v>
       </c>
       <c r="I16" s="102" t="s">
-        <v>203</v>
+        <v>238</v>
       </c>
       <c r="J16" s="102" t="s">
-        <v>204</v>
+        <v>239</v>
       </c>
       <c r="K16" s="102" t="s">
-        <v>205</v>
+        <v>240</v>
       </c>
       <c r="L16" s="102" t="s">
-        <v>206</v>
+        <v>241</v>
       </c>
       <c r="M16" s="102" t="s">
-        <v>207</v>
+        <v>242</v>
       </c>
       <c r="N16" s="102" t="s">
-        <v>208</v>
+        <v>243</v>
       </c>
       <c r="O16" s="102" t="s">
-        <v>209</v>
+        <v>244</v>
       </c>
       <c r="P16" s="102" t="s">
-        <v>210</v>
+        <v>245</v>
       </c>
       <c r="Q16" s="102" t="s">
-        <v>211</v>
+        <v>246</v>
       </c>
       <c r="Z16" s="102" t="s">
-        <v>212</v>
+        <v>247</v>
       </c>
       <c r="AA16" s="102" t="s">
-        <v>213</v>
+        <v>248</v>
       </c>
       <c r="AB16" s="102" t="s">
-        <v>214</v>
+        <v>249</v>
       </c>
       <c r="AC16" s="0" t="s">
-        <v>215</v>
+        <v>250</v>
       </c>
       <c r="AD16" s="102" t="s">
-        <v>216</v>
+        <v>251</v>
       </c>
       <c r="AE16" s="0" t="s">
-        <v>217</v>
+        <v>252</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>218</v>
+        <v>253</v>
       </c>
       <c r="D17" s="102" t="s">
-        <v>219</v>
+        <v>254</v>
       </c>
       <c r="G17" s="102" t="s">
-        <v>219</v>
+        <v>254</v>
       </c>
       <c r="K17" s="102" t="s">
-        <v>220</v>
+        <v>255</v>
       </c>
       <c r="M17" s="102" t="s">
-        <v>219</v>
+        <v>254</v>
       </c>
       <c r="N17" s="103" t="s">
-        <v>221</v>
+        <v>256</v>
       </c>
       <c r="O17" s="102" t="s">
-        <v>222</v>
+        <v>257</v>
       </c>
       <c r="P17" s="103" t="s">
-        <v>223</v>
+        <v>258</v>
       </c>
       <c r="Q17" s="103" t="s">
-        <v>224</v>
+        <v>259</v>
       </c>
       <c r="AB17" s="103" t="s">
-        <v>225</v>
+        <v>260</v>
       </c>
       <c r="AE17" s="103" t="s">
-        <v>226</v>
+        <v>261</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>227</v>
+        <v>262</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>228</v>
+        <v>263</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>229</v>
+        <v>264</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>228</v>
+        <v>263</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>230</v>
+        <v>265</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>229</v>
+        <v>264</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>228</v>
+        <v>263</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>230</v>
+        <v>265</v>
       </c>
       <c r="I18" s="0" t="s">
-        <v>229</v>
+        <v>264</v>
       </c>
       <c r="J18" s="0" t="s">
-        <v>229</v>
+        <v>264</v>
       </c>
       <c r="K18" s="0" t="s">
-        <v>228</v>
+        <v>263</v>
       </c>
       <c r="L18" s="0" t="s">
-        <v>229</v>
+        <v>264</v>
       </c>
       <c r="M18" s="0" t="s">
-        <v>228</v>
+        <v>263</v>
       </c>
       <c r="N18" s="104" t="s">
-        <v>228</v>
+        <v>263</v>
       </c>
       <c r="O18" s="104" t="s">
-        <v>228</v>
+        <v>263</v>
       </c>
       <c r="P18" s="0" t="s">
-        <v>229</v>
+        <v>264</v>
       </c>
       <c r="Q18" s="0" t="s">
-        <v>229</v>
+        <v>264</v>
       </c>
       <c r="R18" s="0" t="s">
-        <v>229</v>
+        <v>264</v>
       </c>
       <c r="S18" s="0" t="s">
-        <v>228</v>
+        <v>263</v>
       </c>
       <c r="T18" s="0" t="s">
-        <v>228</v>
+        <v>263</v>
       </c>
       <c r="U18" s="0" t="s">
-        <v>229</v>
+        <v>264</v>
       </c>
       <c r="V18" s="0" t="s">
-        <v>229</v>
+        <v>264</v>
       </c>
       <c r="W18" s="0" t="s">
-        <v>230</v>
+        <v>265</v>
       </c>
       <c r="X18" s="0" t="s">
-        <v>229</v>
+        <v>264</v>
       </c>
       <c r="Y18" s="0" t="s">
-        <v>228</v>
+        <v>263</v>
       </c>
       <c r="Z18" s="0" t="s">
-        <v>229</v>
+        <v>264</v>
       </c>
       <c r="AA18" s="0" t="s">
-        <v>228</v>
+        <v>263</v>
       </c>
       <c r="AB18" s="0" t="s">
-        <v>229</v>
+        <v>264</v>
       </c>
       <c r="AC18" s="0" t="s">
-        <v>230</v>
+        <v>265</v>
       </c>
       <c r="AD18" s="0" t="s">
-        <v>229</v>
+        <v>264</v>
       </c>
       <c r="AE18" s="104" t="s">
-        <v>228</v>
+        <v>263</v>
       </c>
     </row>
   </sheetData>
@@ -6567,44 +7737,4 @@
     <oddFooter/>
   </headerFooter>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:C1"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="8"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
-        <v>231</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>195</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>232</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
 </file>
--- a/months/sep23/sep23.xlsx
+++ b/months/sep23/sep23.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="vedomost" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1434" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1560" uniqueCount="272">
   <si>
     <t xml:space="preserve">DATE</t>
   </si>
@@ -309,7 +309,7 @@
     <t xml:space="preserve">21:20</t>
   </si>
   <si>
-    <t xml:space="preserve">E3, L2</t>
+    <t xml:space="preserve">E3,L2</t>
   </si>
   <si>
     <t xml:space="preserve">23:52</t>
@@ -339,7 +339,22 @@
     <t xml:space="preserve">-4</t>
   </si>
   <si>
-    <t xml:space="preserve">Ed24(0)</t>
+    <t xml:space="preserve">L3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23:37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23:57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ed24(2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21:57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L2, E1</t>
   </si>
   <si>
     <t xml:space="preserve">увлажнители</t>
@@ -549,7 +564,7 @@
     <t xml:space="preserve">PRICE</t>
   </si>
   <si>
-    <t xml:space="preserve">{"&lt;.2": 30, "&gt;=.2": 0, "&gt;=.4": -50 }</t>
+    <t xml:space="preserve">{"&lt;=.1": 30, "&gt;.1": 0, "&gt;=.4": -50 }</t>
   </si>
   <si>
     <t xml:space="preserve">{"+": 25 , "-": -25}</t>
@@ -580,6 +595,9 @@
   </si>
   <si>
     <t xml:space="preserve">{"&gt;.0": "30*", "0": 0}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"&gt;.0": "15*", "0": 0}</t>
   </si>
   <si>
     <t xml:space="preserve">{"&gt;=.4": "15*", "&gt;=.2": "5*", "&lt;.2": 0}</t>
@@ -1737,17 +1755,17 @@
   </sheetPr>
   <dimension ref="A1:AN32"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="8" ySplit="1" topLeftCell="AC5" activePane="bottomRight" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="8" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="AC1" activeCellId="0" sqref="AC1"/>
-      <selection pane="bottomLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="C28" activeCellId="0" sqref="C28"/>
+      <selection pane="topRight" activeCell="I1" activeCellId="0" sqref="I1"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="A13" activeCellId="0" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="29.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="24"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="4.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="6.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="7.57"/>
@@ -4041,7 +4059,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="8" t="n">
         <v>45188</v>
       </c>
@@ -4158,7 +4176,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="8" t="n">
         <v>45189</v>
       </c>
@@ -4275,7 +4293,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="8" t="n">
         <v>45190</v>
       </c>
@@ -4392,7 +4410,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="8" t="n">
         <v>45191</v>
       </c>
@@ -4509,7 +4527,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="8" t="n">
         <v>45192</v>
       </c>
@@ -4626,7 +4644,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="8" t="n">
         <v>45193</v>
       </c>
@@ -4743,7 +4761,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="8" t="n">
         <v>45194</v>
       </c>
@@ -4860,7 +4878,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="8" t="n">
         <v>45195</v>
       </c>
@@ -4985,7 +5003,9 @@
         <f aca="false">IFERROR(WEEKDAY(A28,2),"")</f>
         <v>3</v>
       </c>
-      <c r="C28" s="13"/>
+      <c r="C28" s="13" t="s">
+        <v>8</v>
+      </c>
       <c r="D28" s="9" t="s">
         <v>9</v>
       </c>
@@ -5001,41 +5021,96 @@
       <c r="H28" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="I28" s="10"/>
-      <c r="J28" s="9"/>
-      <c r="K28" s="9"/>
-      <c r="L28" s="9"/>
-      <c r="M28" s="9"/>
-      <c r="N28" s="10"/>
-      <c r="O28" s="9"/>
-      <c r="P28" s="9"/>
-      <c r="Q28" s="9"/>
-      <c r="R28" s="9"/>
+      <c r="I28" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J28" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K28" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="L28" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="M28" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="N28" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="O28" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="P28" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q28" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="R28" s="9" t="s">
+        <v>20</v>
+      </c>
       <c r="S28" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="T28" s="10"/>
-      <c r="U28" s="10"/>
-      <c r="V28" s="9"/>
-      <c r="W28" s="9"/>
-      <c r="X28" s="9"/>
+      <c r="T28" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="U28" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="V28" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="W28" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="X28" s="9" t="s">
+        <v>19</v>
+      </c>
       <c r="Y28" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="Z28" s="9"/>
-      <c r="AA28" s="9"/>
-      <c r="AB28" s="9"/>
-      <c r="AC28" s="9"/>
-      <c r="AD28" s="9"/>
-      <c r="AE28" s="9"/>
-      <c r="AF28" s="9"/>
+      <c r="Z28" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA28" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB28" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC28" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="AD28" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="AE28" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="AF28" s="9" t="s">
+        <v>21</v>
+      </c>
       <c r="AG28" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="AH28" s="9"/>
-      <c r="AI28" s="9"/>
-      <c r="AJ28" s="13"/>
-      <c r="AK28" s="9"/>
+      <c r="AH28" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="AI28" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="AJ28" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="AK28" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="AL28" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="8" t="n">
@@ -5045,48 +5120,114 @@
         <f aca="false">IFERROR(WEEKDAY(A29,2),"")</f>
         <v>4</v>
       </c>
-      <c r="C29" s="13"/>
+      <c r="C29" s="13" t="s">
+        <v>8</v>
+      </c>
       <c r="D29" s="9" t="s">
         <v>9</v>
       </c>
       <c r="E29" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F29" s="13"/>
+      <c r="F29" s="13" t="s">
+        <v>11</v>
+      </c>
       <c r="G29" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="H29" s="13"/>
-      <c r="I29" s="10"/>
-      <c r="J29" s="9"/>
-      <c r="K29" s="9"/>
-      <c r="L29" s="9"/>
-      <c r="M29" s="9"/>
-      <c r="N29" s="10"/>
-      <c r="O29" s="9"/>
-      <c r="P29" s="9"/>
-      <c r="Q29" s="9"/>
-      <c r="R29" s="9"/>
-      <c r="S29" s="9"/>
-      <c r="T29" s="10"/>
-      <c r="U29" s="10"/>
-      <c r="V29" s="9"/>
-      <c r="W29" s="9"/>
-      <c r="X29" s="9"/>
-      <c r="Y29" s="10"/>
-      <c r="Z29" s="9"/>
-      <c r="AA29" s="9"/>
-      <c r="AB29" s="9"/>
-      <c r="AC29" s="9"/>
-      <c r="AD29" s="9"/>
-      <c r="AE29" s="9"/>
-      <c r="AF29" s="9"/>
-      <c r="AG29" s="10"/>
-      <c r="AH29" s="9"/>
-      <c r="AI29" s="9"/>
-      <c r="AJ29" s="13"/>
-      <c r="AK29" s="9"/>
-      <c r="AL29" s="9"/>
+      <c r="H29" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="I29" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="J29" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="K29" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L29" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="M29" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="N29" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="O29" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="P29" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q29" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="R29" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="S29" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="T29" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="U29" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="V29" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="W29" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="X29" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y29" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z29" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA29" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB29" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC29" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="AD29" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="AE29" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="AF29" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="AG29" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="AH29" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="AI29" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="AJ29" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="AK29" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="AL29" s="9" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="8" t="n">
@@ -5096,7 +5237,9 @@
         <f aca="false">IFERROR(WEEKDAY(A30,2),"")</f>
         <v>5</v>
       </c>
-      <c r="C30" s="13"/>
+      <c r="C30" s="13" t="s">
+        <v>8</v>
+      </c>
       <c r="D30" s="9" t="s">
         <v>36</v>
       </c>
@@ -5104,42 +5247,104 @@
         <v>101</v>
       </c>
       <c r="F30" s="9" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="G30" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="H30" s="13"/>
-      <c r="I30" s="10"/>
-      <c r="J30" s="9"/>
-      <c r="K30" s="9"/>
-      <c r="L30" s="9"/>
-      <c r="M30" s="9"/>
-      <c r="N30" s="10"/>
-      <c r="O30" s="9"/>
-      <c r="P30" s="9"/>
-      <c r="Q30" s="9"/>
-      <c r="R30" s="9"/>
-      <c r="S30" s="9"/>
-      <c r="T30" s="10"/>
-      <c r="U30" s="10"/>
-      <c r="V30" s="9"/>
-      <c r="W30" s="9"/>
-      <c r="X30" s="9"/>
-      <c r="Y30" s="10"/>
-      <c r="Z30" s="9"/>
-      <c r="AA30" s="9"/>
-      <c r="AB30" s="9"/>
-      <c r="AC30" s="9"/>
-      <c r="AD30" s="9"/>
-      <c r="AE30" s="9"/>
-      <c r="AF30" s="9"/>
-      <c r="AG30" s="10"/>
-      <c r="AH30" s="9"/>
-      <c r="AI30" s="9"/>
-      <c r="AJ30" s="13"/>
-      <c r="AK30" s="9"/>
-      <c r="AL30" s="9"/>
+      <c r="H30" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="I30" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="J30" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="K30" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="L30" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="M30" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="N30" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="O30" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="P30" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q30" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="R30" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="S30" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="T30" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="U30" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="V30" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="W30" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="X30" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y30" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z30" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA30" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="AB30" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC30" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="AD30" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="AE30" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="AF30" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG30" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="AH30" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="AI30" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="AJ30" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="AK30" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="AL30" s="9" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="8" t="n">
@@ -5149,46 +5354,114 @@
         <f aca="false">IFERROR(WEEKDAY(A31,2),"")</f>
         <v>6</v>
       </c>
-      <c r="C31" s="13"/>
+      <c r="C31" s="13" t="s">
+        <v>8</v>
+      </c>
       <c r="D31" s="9" t="s">
         <v>9</v>
       </c>
       <c r="E31" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F31" s="13"/>
-      <c r="G31" s="9"/>
-      <c r="H31" s="13"/>
-      <c r="I31" s="10"/>
-      <c r="J31" s="9"/>
-      <c r="K31" s="9"/>
-      <c r="L31" s="9"/>
-      <c r="M31" s="9"/>
-      <c r="N31" s="10"/>
-      <c r="O31" s="9"/>
-      <c r="P31" s="9"/>
-      <c r="Q31" s="9"/>
-      <c r="R31" s="9"/>
-      <c r="S31" s="9"/>
-      <c r="T31" s="10"/>
-      <c r="U31" s="10"/>
-      <c r="V31" s="9"/>
-      <c r="W31" s="9"/>
-      <c r="X31" s="9"/>
-      <c r="Y31" s="10"/>
-      <c r="Z31" s="9"/>
-      <c r="AA31" s="9"/>
-      <c r="AB31" s="9"/>
-      <c r="AC31" s="9"/>
-      <c r="AD31" s="9"/>
-      <c r="AE31" s="9"/>
-      <c r="AF31" s="9"/>
-      <c r="AG31" s="10"/>
-      <c r="AH31" s="9"/>
-      <c r="AI31" s="9"/>
-      <c r="AJ31" s="13"/>
-      <c r="AK31" s="9"/>
-      <c r="AL31" s="9"/>
+      <c r="F31" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G31" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H31" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="I31" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="J31" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="K31" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="L31" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="M31" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="N31" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="O31" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="P31" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q31" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="R31" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="S31" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="T31" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="U31" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="V31" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="W31" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="X31" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y31" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z31" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA31" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB31" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC31" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="AD31" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="AE31" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="AF31" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG31" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="AH31" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="AI31" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="AJ31" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="AK31" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="AL31" s="9" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="8"/>
@@ -5226,11 +5499,11 @@
       <c r="AG32" s="10"/>
       <c r="AH32" s="9"/>
       <c r="AI32" s="9"/>
-      <c r="AJ32" s="13"/>
+      <c r="AJ32" s="9"/>
       <c r="AK32" s="9"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="AH17:AK17 O17:AF17 A2:N2 AJ25 O25:X32 A1:AL1 A3:A32 F2:F4 F6:F7 B32:F32 B3:E31 F9:F31 G3:N32 O18:AL24 O2:AL16">
+  <conditionalFormatting sqref="AH17:AK17 O17:AF17 A2:N2 O2:AL16 AJ25 O25:X32 A1:AL1 A3:A32 F2:F4 F6:F7 B32:F32 F9:F31 O18:AL24 B3:E31 G3:N32">
     <cfRule type="beginsWith" priority="2" operator="beginsWith" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="!" dxfId="0">
       <formula>LEFT(A1,LEN("!"))="!"</formula>
     </cfRule>
@@ -5241,7 +5514,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="20">
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="Прогулки кодируем так:&#10;Имя родителя, число прогулок в день (или 2 если прогулка с 2мя детьми). Напирмер:&#10;L2,E1" promptTitle="синтаксис: ЗАГЛАВНАЯ БУКВАчисло" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="N2:N32" type="none">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="Прогулки кодируем так:&#10;Имя родителя, число прогулок в день (или 2 если прогулка с 2мя детьми). Напирмер:&#10;L2,E1" promptTitle="синтаксис: ЗАГЛАВНАЯ БУКВАчисло" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="N2:N28 N30:N32" type="none">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -5273,7 +5546,7 @@
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="+ если спит всю ночь у себя&#10;- если с мамой&#10;" promptTitle="синтаксис: + или -" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="J2:K32" type="none">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="+ если спит всю ночь у себя&#10;- если с мамой&#10;" promptTitle="синтаксис: + или -" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="J2:K32 N29" type="none">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -5301,7 +5574,7 @@
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="Время сна Леры" promptTitle="синтаксис: число:число" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="AJ2:AJ12 AJ14:AJ16 AJ18:AJ22 AJ24:AJ25 AJ28:AJ32" type="none">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="Время сна Леры" promptTitle="синтаксис: число:число" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="AJ2:AJ16 AJ18:AJ22 AJ24:AJ25 AJ28:AJ32" type="none">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -5374,31 +5647,31 @@
         <v>DUTY</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="E1" s="17" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="F1" s="17" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="G1" s="17" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="H1" s="19" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="I1" s="17" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="J1" s="20" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="K1" s="21" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="L1" s="22" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5416,19 +5689,19 @@
       </c>
       <c r="D2" s="25"/>
       <c r="E2" s="25" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="F2" s="25" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="G2" s="25" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="I2" s="25" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="J2" s="26" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="K2" s="27"/>
       <c r="L2" s="28"/>
@@ -5447,13 +5720,13 @@
         <v>-</v>
       </c>
       <c r="F3" s="25" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="G3" s="25"/>
       <c r="H3" s="29"/>
       <c r="I3" s="25"/>
       <c r="J3" s="26" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="K3" s="27"/>
       <c r="L3" s="28"/>
@@ -5474,13 +5747,13 @@
       <c r="D4" s="25"/>
       <c r="E4" s="25"/>
       <c r="F4" s="25" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="G4" s="25"/>
       <c r="H4" s="29"/>
       <c r="I4" s="25"/>
       <c r="J4" s="26" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="K4" s="27"/>
       <c r="L4" s="28"/>
@@ -5499,21 +5772,21 @@
         <v>-</v>
       </c>
       <c r="D5" s="25" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="E5" s="25" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="F5" s="25" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="G5" s="25"/>
       <c r="H5" s="29" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="I5" s="25"/>
       <c r="J5" s="26" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="K5" s="27"/>
       <c r="L5" s="28"/>
@@ -5534,13 +5807,13 @@
       <c r="D6" s="25"/>
       <c r="E6" s="25"/>
       <c r="F6" s="25" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="G6" s="25"/>
       <c r="H6" s="29"/>
       <c r="I6" s="25"/>
       <c r="J6" s="26" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="K6" s="27"/>
       <c r="L6" s="28"/>
@@ -5561,13 +5834,13 @@
       <c r="D7" s="25"/>
       <c r="E7" s="25"/>
       <c r="F7" s="25" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="G7" s="25"/>
       <c r="H7" s="29"/>
       <c r="I7" s="25"/>
       <c r="J7" s="26" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="K7" s="27"/>
       <c r="L7" s="28"/>
@@ -5586,16 +5859,16 @@
         <v>-</v>
       </c>
       <c r="E8" s="25" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="F8" s="25" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="G8" s="25"/>
       <c r="H8" s="29"/>
       <c r="I8" s="28"/>
       <c r="J8" s="30" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="K8" s="27"/>
       <c r="L8" s="28"/>
@@ -5616,15 +5889,15 @@
       <c r="D9" s="25"/>
       <c r="E9" s="25"/>
       <c r="F9" s="25" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="G9" s="25" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="H9" s="29"/>
       <c r="I9" s="28"/>
       <c r="J9" s="30" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="K9" s="27"/>
       <c r="L9" s="28"/>
@@ -5645,13 +5918,13 @@
       <c r="D10" s="25"/>
       <c r="E10" s="25"/>
       <c r="F10" s="25" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="G10" s="25"/>
       <c r="H10" s="29"/>
       <c r="I10" s="28"/>
       <c r="J10" s="30" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="K10" s="27"/>
       <c r="L10" s="28"/>
@@ -5672,13 +5945,13 @@
       <c r="D11" s="25"/>
       <c r="E11" s="25"/>
       <c r="F11" s="25" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="G11" s="25"/>
       <c r="H11" s="29"/>
       <c r="I11" s="28"/>
       <c r="J11" s="15" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="K11" s="27"/>
       <c r="L11" s="28"/>
@@ -5697,19 +5970,19 @@
         <v>-</v>
       </c>
       <c r="D12" s="25" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="F12" s="25" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="G12" s="25"/>
       <c r="H12" s="29"/>
       <c r="I12" s="28"/>
       <c r="J12" s="30" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="K12" s="27"/>
       <c r="L12" s="28"/>
@@ -5730,13 +6003,13 @@
       <c r="D13" s="25"/>
       <c r="E13" s="25"/>
       <c r="F13" s="25" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="G13" s="25"/>
       <c r="H13" s="29"/>
       <c r="I13" s="28"/>
       <c r="J13" s="30" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="K13" s="27"/>
       <c r="L13" s="28"/>
@@ -5756,7 +6029,7 @@
       </c>
       <c r="D14" s="25"/>
       <c r="F14" s="25" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="G14" s="25"/>
       <c r="H14" s="29"/>
@@ -5779,16 +6052,16 @@
       </c>
       <c r="D15" s="25"/>
       <c r="E15" s="25" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="F15" s="25" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="29"/>
       <c r="I15" s="28"/>
       <c r="J15" s="30" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="K15" s="21"/>
       <c r="L15" s="22"/>
@@ -5809,13 +6082,13 @@
       <c r="D16" s="25"/>
       <c r="E16" s="25"/>
       <c r="F16" s="25" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="29"/>
       <c r="I16" s="28"/>
       <c r="J16" s="30" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="K16" s="27"/>
       <c r="L16" s="28"/>
@@ -5836,16 +6109,16 @@
       <c r="D17" s="25"/>
       <c r="E17" s="25"/>
       <c r="F17" s="25" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="G17" s="25" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="H17" s="29" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="I17" s="28" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="K17" s="27"/>
       <c r="L17" s="28"/>
@@ -5865,13 +6138,13 @@
       </c>
       <c r="D18" s="25"/>
       <c r="F18" s="25" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="G18" s="25"/>
       <c r="H18" s="29"/>
       <c r="I18" s="28"/>
       <c r="J18" s="17" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="K18" s="27"/>
       <c r="L18" s="28"/>
@@ -5890,19 +6163,19 @@
         <v>-</v>
       </c>
       <c r="D19" s="25" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="E19" s="25" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="F19" s="25" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="G19" s="25"/>
       <c r="H19" s="29"/>
       <c r="I19" s="28"/>
       <c r="J19" s="30" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="K19" s="27"/>
       <c r="L19" s="28"/>
@@ -5922,13 +6195,13 @@
       </c>
       <c r="D20" s="25"/>
       <c r="F20" s="25" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="G20" s="25"/>
       <c r="H20" s="29"/>
       <c r="I20" s="28"/>
       <c r="J20" s="26" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="K20" s="27"/>
       <c r="L20" s="28"/>
@@ -5948,13 +6221,13 @@
       </c>
       <c r="E21" s="25"/>
       <c r="F21" s="25" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="G21" s="25"/>
       <c r="H21" s="29"/>
       <c r="I21" s="25"/>
       <c r="J21" s="26" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="K21" s="27"/>
       <c r="L21" s="28"/>
@@ -5974,13 +6247,13 @@
       </c>
       <c r="D22" s="25"/>
       <c r="F22" s="25" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="G22" s="25"/>
       <c r="H22" s="29"/>
       <c r="I22" s="25"/>
       <c r="J22" s="26" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="K22" s="27"/>
       <c r="L22" s="28"/>
@@ -5999,16 +6272,16 @@
         <v>-</v>
       </c>
       <c r="E23" s="25" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="F23" s="25" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="G23" s="25"/>
       <c r="H23" s="29"/>
       <c r="I23" s="25"/>
       <c r="J23" s="26" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="K23" s="27"/>
       <c r="L23" s="28"/>
@@ -6029,15 +6302,15 @@
       <c r="D24" s="25"/>
       <c r="E24" s="25"/>
       <c r="F24" s="25" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="G24" s="25" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="H24" s="29"/>
       <c r="I24" s="25"/>
       <c r="J24" s="26" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="K24" s="27"/>
       <c r="L24" s="28"/>
@@ -6058,13 +6331,13 @@
       <c r="D25" s="25"/>
       <c r="E25" s="25"/>
       <c r="F25" s="25" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="G25" s="25"/>
       <c r="H25" s="29"/>
       <c r="I25" s="25"/>
       <c r="J25" s="26" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="K25" s="27"/>
       <c r="L25" s="28"/>
@@ -6083,13 +6356,13 @@
         <v>Ed8(1)</v>
       </c>
       <c r="D26" s="25" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="E26" s="25" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="F26" s="25" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="G26" s="25"/>
       <c r="H26" s="29"/>
@@ -6114,7 +6387,7 @@
       <c r="D27" s="25"/>
       <c r="E27" s="25"/>
       <c r="F27" s="25" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="G27" s="25"/>
       <c r="H27" s="29"/>
@@ -6139,7 +6412,7 @@
       <c r="D28" s="25"/>
       <c r="E28" s="25"/>
       <c r="F28" s="25" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="G28" s="25"/>
       <c r="H28" s="29"/>
@@ -6159,14 +6432,14 @@
       </c>
       <c r="C29" s="17" t="str">
         <f aca="false">IF(vedomost!F29=0,"",vedomost!F29)</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="D29" s="25"/>
       <c r="E29" s="15" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="F29" s="25" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="G29" s="25"/>
       <c r="H29" s="29"/>
@@ -6186,12 +6459,12 @@
       </c>
       <c r="C30" s="17" t="str">
         <f aca="false">IF(vedomost!F30=0,"",vedomost!F30)</f>
-        <v>Ed24(0)</v>
+        <v>Ed24(2)</v>
       </c>
       <c r="D30" s="25"/>
       <c r="E30" s="25"/>
       <c r="F30" s="25" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="G30" s="25"/>
       <c r="H30" s="29"/>
@@ -6211,12 +6484,12 @@
       </c>
       <c r="C31" s="17" t="str">
         <f aca="false">IF(vedomost!F31=0,"",vedomost!F31)</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="D31" s="25"/>
       <c r="E31" s="25"/>
       <c r="F31" s="25" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="G31" s="25"/>
       <c r="H31" s="29"/>
@@ -6276,15 +6549,15 @@
   </sheetPr>
   <dimension ref="A1:AE18"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="K2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topRight" activeCell="K1" activeCellId="0" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="N6" activeCellId="0" sqref="N6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="35.14"/>
@@ -6316,382 +6589,382 @@
   <sheetData>
     <row r="1" s="37" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="31" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="B1" s="32" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="C1" s="33" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="D1" s="31" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="E1" s="31" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="F1" s="31" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="G1" s="34" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="H1" s="31" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="I1" s="31" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="J1" s="31" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="K1" s="31" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="L1" s="31" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="M1" s="34" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="N1" s="34" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="O1" s="35" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="P1" s="35" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="Q1" s="36" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="R1" s="34" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="S1" s="35" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="T1" s="35" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="U1" s="35" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="V1" s="35" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="W1" s="35" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="X1" s="35" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="Y1" s="36" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="Z1" s="34" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="AA1" s="35" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="AB1" s="35" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="AC1" s="35" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="AD1" s="35" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="AE1" s="35" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="38" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="B2" s="39" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="C2" s="40" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="D2" s="38" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="E2" s="38" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="F2" s="41" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="G2" s="38" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="H2" s="38" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="I2" s="38" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="J2" s="38" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="K2" s="38" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="L2" s="38" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="M2" s="42" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="N2" s="42" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="O2" s="41" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="P2" s="41" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="Q2" s="43" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="R2" s="42" t="s">
+        <v>193</v>
+      </c>
+      <c r="S2" s="41" t="s">
+        <v>194</v>
+      </c>
+      <c r="T2" s="41" t="s">
+        <v>195</v>
+      </c>
+      <c r="U2" s="41" t="s">
+        <v>196</v>
+      </c>
+      <c r="V2" s="41" t="s">
         <v>187</v>
       </c>
-      <c r="S2" s="41" t="s">
-        <v>188</v>
-      </c>
-      <c r="T2" s="41" t="s">
-        <v>189</v>
-      </c>
-      <c r="U2" s="41" t="s">
-        <v>190</v>
-      </c>
-      <c r="V2" s="41" t="s">
-        <v>182</v>
-      </c>
       <c r="W2" s="41" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="X2" s="41" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="Y2" s="43" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="Z2" s="42" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="AA2" s="41" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="AB2" s="41" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="AC2" s="44" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="AD2" s="41" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="AE2" s="41" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="38" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="B3" s="45" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="C3" s="46" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="D3" s="47" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="E3" s="47" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="F3" s="44" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="G3" s="48" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="H3" s="47" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="I3" s="47" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="J3" s="47" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="K3" s="47" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="L3" s="47" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="M3" s="48" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="N3" s="48" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="O3" s="44" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="P3" s="47" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="Q3" s="47" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="R3" s="48" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="S3" s="47" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="T3" s="47" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="U3" s="47" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="V3" s="47" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="W3" s="47" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="X3" s="47" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="Y3" s="47" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="Z3" s="47" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="AA3" s="47" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="AB3" s="47" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="AC3" s="47" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="AD3" s="47" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="AE3" s="47" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="49" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="B4" s="50" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="C4" s="51" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="D4" s="52" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="E4" s="52" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="F4" s="52" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="G4" s="53" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="H4" s="52" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="I4" s="52" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="J4" s="52" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="K4" s="52" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="L4" s="52" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="M4" s="53" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="N4" s="53" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="O4" s="54" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="P4" s="54" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="Q4" s="55" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="R4" s="53" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="S4" s="54" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="T4" s="54" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="U4" s="54" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="V4" s="54" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="W4" s="54" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="X4" s="54" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="Y4" s="55" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="Z4" s="53" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="AA4" s="54" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="AB4" s="54" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="AC4" s="54" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="AD4" s="54" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="AE4" s="54" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6699,125 +6972,125 @@
         <v>6</v>
       </c>
       <c r="B5" s="56" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="C5" s="57" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="D5" s="49" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="E5" s="49" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="F5" s="58"/>
       <c r="G5" s="49" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="H5" s="49" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="I5" s="59"/>
       <c r="J5" s="58"/>
       <c r="K5" s="49" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="L5" s="49" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="M5" s="60" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="N5" s="60" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="O5" s="61" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="P5" s="61" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="Q5" s="62" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="R5" s="60" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="S5" s="61" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="T5" s="61" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="U5" s="61" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="V5" s="61" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="W5" s="61" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="X5" s="61" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="Y5" s="62" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="Z5" s="60" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="AA5" s="61" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="AB5" s="61" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="AC5" s="61" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="AD5" s="61" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="AE5" s="61" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="59" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="B6" s="63" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="C6" s="64"/>
       <c r="D6" s="59" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="E6" s="59"/>
       <c r="F6" s="59" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="G6" s="65" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="H6" s="59" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="I6" s="59" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="J6" s="59" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="K6" s="59" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="L6" s="59" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="M6" s="65" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="N6" s="65"/>
       <c r="O6" s="66"/>
@@ -6825,36 +7098,36 @@
       <c r="Q6" s="67"/>
       <c r="R6" s="65"/>
       <c r="S6" s="68" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="T6" s="68"/>
       <c r="U6" s="66"/>
       <c r="V6" s="68" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="W6" s="68"/>
       <c r="X6" s="68"/>
       <c r="Y6" s="69"/>
       <c r="Z6" s="70" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="AA6" s="68" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="AB6" s="66"/>
       <c r="AC6" s="68" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="AD6" s="68" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="AE6" s="68" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="58" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="B7" s="71"/>
       <c r="C7" s="72"/>
@@ -6873,393 +7146,393 @@
       <c r="P7" s="74"/>
       <c r="Q7" s="75"/>
       <c r="R7" s="76" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="S7" s="77" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="T7" s="77" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="U7" s="77" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="V7" s="77" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="W7" s="77" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="X7" s="77" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="Y7" s="78" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="Z7" s="76" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="AA7" s="77" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="AB7" s="77" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="AC7" s="77" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="AD7" s="77" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="AE7" s="77" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="58" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="B8" s="71" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="C8" s="72" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="D8" s="58" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="E8" s="58" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="F8" s="58" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="G8" s="73" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="H8" s="58" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="I8" s="58"/>
       <c r="J8" s="58" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="K8" s="58" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="L8" s="58" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="M8" s="73" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="N8" s="73" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="O8" s="74" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="P8" s="74" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="Q8" s="75" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="R8" s="73" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="S8" s="74" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="T8" s="74" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="U8" s="74" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="V8" s="74" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="W8" s="74"/>
       <c r="X8" s="74" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="Y8" s="75" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="Z8" s="73" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="AA8" s="74" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="AB8" s="74" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="AC8" s="74"/>
       <c r="AD8" s="74" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="AE8" s="74" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="79" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="B9" s="80" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="C9" s="81" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="D9" s="82" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="E9" s="82" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="F9" s="82" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="G9" s="83" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="H9" s="82" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="I9" s="82" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="J9" s="82" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="K9" s="82" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="L9" s="82" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="M9" s="83" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="N9" s="83" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="O9" s="84" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="P9" s="84" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="Q9" s="85" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="R9" s="83" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="S9" s="84" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="T9" s="84" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="U9" s="84" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="V9" s="84" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="W9" s="84" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="X9" s="84" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="Y9" s="85" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="Z9" s="83" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="AA9" s="84" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="AB9" s="84" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="AC9" s="84" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="AD9" s="84" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="AE9" s="84" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="86" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="B10" s="87" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="C10" s="88" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="D10" s="86" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="E10" s="86" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="F10" s="86" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="G10" s="89" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="H10" s="86" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="I10" s="86" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="J10" s="86" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="K10" s="86" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="L10" s="86" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="M10" s="89" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="N10" s="89" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="O10" s="90" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="P10" s="90" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="Q10" s="91" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="R10" s="89" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="S10" s="90" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="T10" s="90" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="U10" s="90"/>
       <c r="V10" s="90" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="W10" s="90" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="X10" s="90" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="Y10" s="91" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="Z10" s="89" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="AA10" s="90" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="AB10" s="90"/>
       <c r="AC10" s="90" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="AD10" s="90" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="AE10" s="90" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="92" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="B11" s="93"/>
       <c r="C11" s="94"/>
       <c r="D11" s="92" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="E11" s="92" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="F11" s="92" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="G11" s="95" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="H11" s="92" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="I11" s="92"/>
       <c r="J11" s="92" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="K11" s="92"/>
       <c r="L11" s="92" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="M11" s="95"/>
       <c r="N11" s="95"/>
       <c r="O11" s="96"/>
       <c r="P11" s="97" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="Q11" s="98" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="R11" s="95" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="S11" s="96"/>
       <c r="T11" s="96"/>
       <c r="U11" s="96"/>
       <c r="V11" s="97" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="W11" s="97" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="X11" s="97" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="Y11" s="99"/>
       <c r="Z11" s="95" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="AA11" s="96"/>
       <c r="AB11" s="96"/>
       <c r="AC11" s="97" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="AD11" s="97" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="AE11" s="96"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="92" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="B12" s="93"/>
       <c r="C12" s="94"/>
@@ -7326,28 +7599,28 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="92" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="B13" s="93"/>
       <c r="C13" s="94"/>
       <c r="D13" s="92" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="E13" s="92" t="n">
         <v>25</v>
       </c>
       <c r="F13" s="92" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="G13" s="95" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="H13" s="92" t="n">
         <v>25</v>
       </c>
       <c r="I13" s="92"/>
       <c r="J13" s="92" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="K13" s="92"/>
       <c r="L13" s="92" t="n">
@@ -7357,315 +7630,315 @@
       <c r="N13" s="95"/>
       <c r="O13" s="96"/>
       <c r="P13" s="96" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="Q13" s="99" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="R13" s="100" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="S13" s="96"/>
       <c r="T13" s="96"/>
       <c r="U13" s="96"/>
       <c r="V13" s="96" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="W13" s="96" t="n">
         <v>25</v>
       </c>
       <c r="X13" s="96" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="Y13" s="99"/>
       <c r="Z13" s="100" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="AA13" s="96"/>
       <c r="AB13" s="96"/>
       <c r="AC13" s="96" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="AD13" s="96" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="AE13" s="96"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="101" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="I14" s="0" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="J14" s="0" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="L14" s="0" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="P14" s="0" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="Q14" s="0" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="T14" s="0" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="U14" s="0" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="X14" s="0" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="Z14" s="0" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="AA14" s="0" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="AC14" s="0" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="AD14" s="0" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="AE14" s="0" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D15" s="0" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="Z15" s="0" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="AD15" s="0" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="D16" s="102" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="G16" s="102" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="I16" s="102" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="J16" s="102" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="K16" s="102" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="L16" s="102" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="M16" s="102" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="N16" s="102" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="O16" s="102" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="P16" s="102" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="Q16" s="102" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="Z16" s="102" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="AA16" s="102" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="AB16" s="102" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="AC16" s="0" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="AD16" s="102" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="AE16" s="0" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="D17" s="102" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="G17" s="102" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="K17" s="102" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="M17" s="102" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="N17" s="103" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="O17" s="102" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="P17" s="103" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="Q17" s="103" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="AB17" s="103" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="AE17" s="103" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="I18" s="0" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="J18" s="0" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="K18" s="0" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="L18" s="0" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="M18" s="0" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="N18" s="104" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="O18" s="104" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="P18" s="0" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="Q18" s="0" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="R18" s="0" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="S18" s="0" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="T18" s="0" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="U18" s="0" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="V18" s="0" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="W18" s="0" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="X18" s="0" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="Y18" s="0" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="Z18" s="0" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="AA18" s="0" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="AB18" s="0" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="AC18" s="0" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="AD18" s="0" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="AE18" s="104" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
     </row>
   </sheetData>
